--- a/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
+++ b/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EC-08-PC\Documents\SOSQTP\Documentos de Venta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EC16\Documents\SOSQTP\Documentos de Venta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA6D23B-B2D8-49ED-A8D6-443C5986A7CE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="195" windowWidth="14025" windowHeight="8400"/>
+    <workbookView xWindow="600" yWindow="195" windowWidth="14025" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FTO PEDIDO 2015" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'FTO PEDIDO 2015'!$A$1:$U$45</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -997,11 +998,32 @@
   <si>
     <t>Marisol Ornelas Casillas</t>
   </si>
+  <si>
+    <t>P3551</t>
+  </si>
+  <si>
+    <t>FACT ELECTRONICA ANUAL</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6D4D</t>
+  </si>
+  <si>
+    <t>42D6</t>
+  </si>
+  <si>
+    <t>B29D</t>
+  </si>
+  <si>
+    <t>9646</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
@@ -2918,234 +2940,117 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3186,11 +3091,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3207,7 +3115,7 @@
     <xf numFmtId="0" fontId="94" fillId="5" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3222,6 +3130,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3243,105 +3160,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3743,13 +3765,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
@@ -3781,32 +3803,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="138"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="175"/>
     </row>
     <row r="2" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="139"/>
+      <c r="A2" s="176"/>
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
@@ -3819,21 +3841,21 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
-      <c r="L2" s="99" t="s">
+      <c r="L2" s="207" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="207"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="208"/>
+      <c r="Q2" s="208"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="208"/>
+      <c r="T2" s="209"/>
+      <c r="U2" s="111"/>
     </row>
     <row r="3" spans="1:21" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
+      <c r="A3" s="176"/>
       <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
@@ -3846,297 +3868,297 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
-      <c r="L3" s="102" t="s">
+      <c r="L3" s="210" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="207"/>
+      <c r="M3" s="210"/>
+      <c r="N3" s="210"/>
+      <c r="O3" s="210"/>
+      <c r="P3" s="210"/>
+      <c r="Q3" s="210"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="211"/>
+      <c r="U3" s="111"/>
     </row>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="139"/>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="176"/>
+      <c r="B4" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="207"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="205"/>
+      <c r="O4" s="205"/>
+      <c r="P4" s="205"/>
+      <c r="Q4" s="205"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="205"/>
+      <c r="T4" s="206"/>
+      <c r="U4" s="111"/>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="139"/>
-      <c r="B5" s="217"/>
-      <c r="C5" s="218"/>
-      <c r="D5" s="218"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="218"/>
-      <c r="G5" s="218"/>
-      <c r="H5" s="218"/>
-      <c r="I5" s="218"/>
-      <c r="J5" s="218"/>
-      <c r="K5" s="218"/>
-      <c r="L5" s="218"/>
-      <c r="M5" s="218"/>
-      <c r="N5" s="218"/>
-      <c r="O5" s="218"/>
-      <c r="P5" s="218"/>
-      <c r="Q5" s="218"/>
-      <c r="R5" s="176" t="s">
+      <c r="A5" s="176"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="177"/>
+      <c r="S5" s="139"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="207"/>
+      <c r="U5" s="111"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="139"/>
-      <c r="B6" s="211" t="s">
+      <c r="A6" s="176"/>
+      <c r="B6" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="212"/>
-      <c r="D6" s="237" t="s">
+      <c r="C6" s="116"/>
+      <c r="D6" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="237"/>
-      <c r="F6" s="238"/>
-      <c r="G6" s="238"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="238"/>
-      <c r="J6" s="238"/>
-      <c r="K6" s="238"/>
-      <c r="L6" s="238"/>
-      <c r="M6" s="238"/>
-      <c r="N6" s="238"/>
-      <c r="O6" s="238"/>
-      <c r="P6" s="238"/>
-      <c r="Q6" s="238"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
       <c r="R6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="233" t="s">
+      <c r="S6" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="234"/>
-      <c r="U6" s="207"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="111"/>
     </row>
     <row r="7" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="139"/>
-      <c r="B7" s="211" t="s">
+      <c r="A7" s="176"/>
+      <c r="B7" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="212"/>
-      <c r="D7" s="188" t="s">
+      <c r="C7" s="116"/>
+      <c r="D7" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="189"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
       <c r="R7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="235" t="s">
+      <c r="S7" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="236"/>
-      <c r="U7" s="207"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="111"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="139"/>
-      <c r="B8" s="211" t="s">
+      <c r="A8" s="176"/>
+      <c r="B8" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="212"/>
-      <c r="D8" s="126" t="s">
+      <c r="C8" s="116"/>
+      <c r="D8" s="234" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="127"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="194" t="s">
+      <c r="K8" s="157" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="195"/>
-      <c r="R8" s="195"/>
-      <c r="S8" s="195"/>
-      <c r="T8" s="196"/>
-      <c r="U8" s="207"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="158"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="158"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="159"/>
+      <c r="U8" s="111"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="139"/>
-      <c r="B9" s="211" t="s">
+      <c r="A9" s="176"/>
+      <c r="B9" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="212"/>
-      <c r="D9" s="188" t="s">
+      <c r="C9" s="116"/>
+      <c r="D9" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="189"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="213"/>
-      <c r="L9" s="213"/>
-      <c r="M9" s="213"/>
-      <c r="N9" s="213"/>
-      <c r="O9" s="213"/>
-      <c r="P9" s="213"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
       <c r="Q9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="214" t="s">
+      <c r="R9" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="S9" s="215"/>
-      <c r="T9" s="216"/>
-      <c r="U9" s="207"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="111"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="139"/>
-      <c r="B10" s="211" t="s">
+      <c r="A10" s="176"/>
+      <c r="B10" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="212"/>
-      <c r="D10" s="129" t="s">
+      <c r="C10" s="116"/>
+      <c r="D10" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="129"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
+      <c r="E10" s="235"/>
+      <c r="F10" s="236"/>
+      <c r="G10" s="236"/>
+      <c r="H10" s="236"/>
+      <c r="I10" s="236"/>
       <c r="J10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="197" t="s">
+      <c r="K10" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="198"/>
-      <c r="M10" s="198"/>
-      <c r="N10" s="198"/>
-      <c r="O10" s="198"/>
-      <c r="P10" s="198"/>
-      <c r="Q10" s="198"/>
-      <c r="R10" s="198"/>
-      <c r="S10" s="198"/>
-      <c r="T10" s="199"/>
-      <c r="U10" s="207"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="161"/>
+      <c r="Q10" s="161"/>
+      <c r="R10" s="161"/>
+      <c r="S10" s="161"/>
+      <c r="T10" s="162"/>
+      <c r="U10" s="111"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="139"/>
-      <c r="B11" s="227" t="s">
+      <c r="A11" s="176"/>
+      <c r="B11" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="228"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="133" t="s">
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="239" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="134"/>
-      <c r="O11" s="135"/>
-      <c r="P11" s="239" t="s">
+      <c r="F11" s="240"/>
+      <c r="G11" s="240"/>
+      <c r="H11" s="240"/>
+      <c r="I11" s="240"/>
+      <c r="J11" s="240"/>
+      <c r="K11" s="240"/>
+      <c r="L11" s="240"/>
+      <c r="M11" s="240"/>
+      <c r="N11" s="240"/>
+      <c r="O11" s="241"/>
+      <c r="P11" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="240"/>
-      <c r="R11" s="241"/>
-      <c r="S11" s="223" t="s">
+      <c r="Q11" s="109"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="224"/>
-      <c r="U11" s="207"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="111"/>
     </row>
     <row r="12" spans="1:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="139"/>
-      <c r="B12" s="229" t="s">
+      <c r="A12" s="176"/>
+      <c r="B12" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="230"/>
-      <c r="D12" s="231"/>
-      <c r="E12" s="231"/>
-      <c r="F12" s="231"/>
-      <c r="G12" s="231"/>
-      <c r="H12" s="231"/>
-      <c r="I12" s="231"/>
-      <c r="J12" s="231"/>
-      <c r="K12" s="231"/>
-      <c r="L12" s="231"/>
-      <c r="M12" s="231"/>
-      <c r="N12" s="231"/>
-      <c r="O12" s="231"/>
-      <c r="P12" s="231"/>
-      <c r="Q12" s="231"/>
-      <c r="R12" s="231"/>
-      <c r="S12" s="231"/>
-      <c r="T12" s="232"/>
-      <c r="U12" s="207"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="100"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="111"/>
     </row>
     <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="139"/>
-      <c r="B13" s="114" t="s">
+      <c r="A13" s="176"/>
+      <c r="B13" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="223"/>
+      <c r="G13" s="223"/>
+      <c r="H13" s="223"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="223"/>
+      <c r="K13" s="223"/>
+      <c r="L13" s="223"/>
+      <c r="M13" s="223"/>
+      <c r="N13" s="223"/>
       <c r="O13" s="75" t="s">
         <v>0</v>
       </c>
@@ -4144,163 +4166,165 @@
         <v>0</v>
       </c>
       <c r="Q13" s="76"/>
-      <c r="R13" s="182" t="s">
+      <c r="R13" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="182"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="207"/>
+      <c r="S13" s="144"/>
+      <c r="T13" s="95" t="s">
+        <v>108</v>
+      </c>
+      <c r="U13" s="111"/>
     </row>
     <row r="14" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="139"/>
-      <c r="B14" s="185" t="s">
+      <c r="A14" s="176"/>
+      <c r="B14" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="186"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="219" t="s">
+      <c r="C14" s="148"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="219"/>
-      <c r="G14" s="219"/>
-      <c r="H14" s="219"/>
-      <c r="I14" s="219"/>
-      <c r="J14" s="220"/>
-      <c r="K14" s="220"/>
-      <c r="L14" s="220"/>
-      <c r="M14" s="220"/>
-      <c r="N14" s="220"/>
-      <c r="O14" s="220"/>
-      <c r="P14" s="220"/>
-      <c r="Q14" s="220"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="127"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="127"/>
       <c r="R14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="183">
+      <c r="S14" s="145">
         <f ca="1">TODAY()</f>
-        <v>43095</v>
-      </c>
-      <c r="T14" s="184"/>
-      <c r="U14" s="207"/>
+        <v>43467</v>
+      </c>
+      <c r="T14" s="146"/>
+      <c r="U14" s="111"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="139"/>
-      <c r="B15" s="178" t="s">
+      <c r="A15" s="176"/>
+      <c r="B15" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="179"/>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="180"/>
-      <c r="N15" s="180"/>
-      <c r="O15" s="180"/>
-      <c r="P15" s="180"/>
-      <c r="Q15" s="180"/>
-      <c r="R15" s="180"/>
-      <c r="S15" s="180"/>
-      <c r="T15" s="181"/>
-      <c r="U15" s="207"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="142"/>
+      <c r="P15" s="142"/>
+      <c r="Q15" s="142"/>
+      <c r="R15" s="142"/>
+      <c r="S15" s="142"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="111"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="139"/>
-      <c r="B16" s="143" t="s">
+      <c r="A16" s="176"/>
+      <c r="B16" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="144"/>
-      <c r="T16" s="145"/>
-      <c r="U16" s="207"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="180"/>
+      <c r="L16" s="180"/>
+      <c r="M16" s="180"/>
+      <c r="N16" s="180"/>
+      <c r="O16" s="180"/>
+      <c r="P16" s="180"/>
+      <c r="Q16" s="180"/>
+      <c r="R16" s="180"/>
+      <c r="S16" s="180"/>
+      <c r="T16" s="181"/>
+      <c r="U16" s="111"/>
     </row>
     <row r="17" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="139"/>
-      <c r="B17" s="146" t="s">
+      <c r="A17" s="176"/>
+      <c r="B17" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="147"/>
-      <c r="O17" s="147"/>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="147"/>
-      <c r="R17" s="147"/>
-      <c r="S17" s="147"/>
-      <c r="T17" s="148"/>
-      <c r="U17" s="207"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="183"/>
+      <c r="L17" s="183"/>
+      <c r="M17" s="183"/>
+      <c r="N17" s="183"/>
+      <c r="O17" s="183"/>
+      <c r="P17" s="183"/>
+      <c r="Q17" s="183"/>
+      <c r="R17" s="183"/>
+      <c r="S17" s="183"/>
+      <c r="T17" s="184"/>
+      <c r="U17" s="111"/>
     </row>
     <row r="18" spans="1:22" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="139"/>
-      <c r="B18" s="149" t="s">
+      <c r="A18" s="176"/>
+      <c r="B18" s="185" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="150"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="151"/>
-      <c r="R18" s="151"/>
-      <c r="S18" s="151"/>
-      <c r="T18" s="152"/>
-      <c r="U18" s="207"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="187"/>
+      <c r="K18" s="187"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="187"/>
+      <c r="N18" s="187"/>
+      <c r="O18" s="187"/>
+      <c r="P18" s="187"/>
+      <c r="Q18" s="187"/>
+      <c r="R18" s="187"/>
+      <c r="S18" s="187"/>
+      <c r="T18" s="188"/>
+      <c r="U18" s="111"/>
     </row>
     <row r="19" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="139"/>
-      <c r="B19" s="118" t="s">
+      <c r="A19" s="176"/>
+      <c r="B19" s="226" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="120"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="227"/>
+      <c r="F19" s="227"/>
+      <c r="G19" s="227"/>
+      <c r="H19" s="227"/>
+      <c r="I19" s="227"/>
+      <c r="J19" s="227"/>
+      <c r="K19" s="227"/>
+      <c r="L19" s="227"/>
+      <c r="M19" s="227"/>
+      <c r="N19" s="227"/>
+      <c r="O19" s="228"/>
       <c r="P19" s="10" t="s">
         <v>31</v>
       </c>
@@ -4308,30 +4332,30 @@
       <c r="R19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="221" t="s">
+      <c r="S19" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="222"/>
-      <c r="U19" s="207"/>
+      <c r="T19" s="129"/>
+      <c r="U19" s="111"/>
     </row>
     <row r="20" spans="1:22" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="139"/>
-      <c r="B20" s="121" t="s">
+      <c r="A20" s="176"/>
+      <c r="B20" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="122"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="125"/>
+      <c r="C20" s="230"/>
+      <c r="D20" s="231"/>
+      <c r="E20" s="230"/>
+      <c r="F20" s="230"/>
+      <c r="G20" s="230"/>
+      <c r="H20" s="230"/>
+      <c r="I20" s="230"/>
+      <c r="J20" s="230"/>
+      <c r="K20" s="230"/>
+      <c r="L20" s="230"/>
+      <c r="M20" s="232"/>
+      <c r="N20" s="232"/>
+      <c r="O20" s="233"/>
       <c r="P20" s="65"/>
       <c r="Q20" s="17" t="s">
         <v>35</v>
@@ -4341,10 +4365,10 @@
         <v>36</v>
       </c>
       <c r="T20" s="67"/>
-      <c r="U20" s="207"/>
+      <c r="U20" s="111"/>
     </row>
     <row r="21" spans="1:22" ht="81.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="139"/>
+      <c r="A21" s="176"/>
       <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
@@ -4369,38 +4393,38 @@
       <c r="I21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="110" t="s">
+      <c r="J21" s="218" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="112" t="s">
+      <c r="K21" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="225" t="s">
+      <c r="L21" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="226"/>
-      <c r="N21" s="226"/>
-      <c r="O21" s="226"/>
-      <c r="P21" s="104" t="s">
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="212" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="R21" s="106" t="s">
+      <c r="R21" s="214" t="s">
         <v>64</v>
       </c>
       <c r="S21" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="T21" s="108" t="s">
+      <c r="T21" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="U21" s="207"/>
+      <c r="U21" s="111"/>
       <c r="V21" s="16"/>
     </row>
     <row r="22" spans="1:22" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="139"/>
+      <c r="A22" s="176"/>
       <c r="B22" s="35" t="s">
         <v>72</v>
       </c>
@@ -4413,75 +4437,93 @@
       <c r="E22" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="131" t="s">
+      <c r="F22" s="237" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="132"/>
+      <c r="G22" s="238"/>
       <c r="H22" s="38" t="s">
         <v>75</v>
       </c>
       <c r="I22" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="111"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="116" t="s">
+      <c r="J22" s="219"/>
+      <c r="K22" s="221"/>
+      <c r="L22" s="224" t="s">
         <v>90</v>
       </c>
-      <c r="M22" s="117"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="105"/>
+      <c r="M22" s="225"/>
+      <c r="N22" s="225"/>
+      <c r="O22" s="225"/>
+      <c r="P22" s="213"/>
       <c r="Q22" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="R22" s="107"/>
+      <c r="R22" s="215"/>
       <c r="S22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T22" s="109"/>
-      <c r="U22" s="207"/>
+      <c r="T22" s="217"/>
+      <c r="U22" s="111"/>
       <c r="V22" s="16"/>
     </row>
-    <row r="23" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A23" s="139"/>
+    <row r="23" spans="1:22" ht="36" x14ac:dyDescent="0.2">
+      <c r="A23" s="176"/>
       <c r="B23" s="69">
-        <v>0</v>
-      </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="40"/>
+        <v>1</v>
+      </c>
+      <c r="C23" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>31</v>
+      </c>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
+      <c r="I23" s="40" t="s">
+        <v>110</v>
+      </c>
       <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="81"/>
+      <c r="K23" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="M23" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="N23" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="O23" s="81" t="s">
+        <v>114</v>
+      </c>
       <c r="P23" s="44">
-        <v>0</v>
+        <v>2640</v>
       </c>
       <c r="Q23" s="71">
         <v>0</v>
       </c>
       <c r="R23" s="42">
         <f t="shared" ref="R23:R32" si="0">(P23*B23)*(1-Q23)</f>
-        <v>0</v>
+        <v>2640</v>
       </c>
       <c r="S23" s="73">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T23" s="43">
         <f>R23*(1-S23)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="207"/>
+        <v>1847.9999999999998</v>
+      </c>
+      <c r="U23" s="111"/>
     </row>
     <row r="24" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A24" s="139"/>
+      <c r="A24" s="176"/>
       <c r="B24" s="69">
         <v>0</v>
       </c>
@@ -4517,10 +4559,10 @@
         <f t="shared" ref="T24:T32" si="1">R24*(1-S24)</f>
         <v>0</v>
       </c>
-      <c r="U24" s="207"/>
+      <c r="U24" s="111"/>
     </row>
     <row r="25" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A25" s="139"/>
+      <c r="A25" s="176"/>
       <c r="B25" s="69">
         <v>0</v>
       </c>
@@ -4556,10 +4598,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U25" s="207"/>
+      <c r="U25" s="111"/>
     </row>
     <row r="26" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A26" s="139"/>
+      <c r="A26" s="176"/>
       <c r="B26" s="69">
         <v>0</v>
       </c>
@@ -4595,10 +4637,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U26" s="207"/>
+      <c r="U26" s="111"/>
     </row>
     <row r="27" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A27" s="139"/>
+      <c r="A27" s="176"/>
       <c r="B27" s="69">
         <v>0</v>
       </c>
@@ -4634,10 +4676,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U27" s="207"/>
+      <c r="U27" s="111"/>
     </row>
     <row r="28" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A28" s="139"/>
+      <c r="A28" s="176"/>
       <c r="B28" s="69">
         <v>0</v>
       </c>
@@ -4673,10 +4715,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28" s="207"/>
+      <c r="U28" s="111"/>
     </row>
     <row r="29" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A29" s="139"/>
+      <c r="A29" s="176"/>
       <c r="B29" s="69">
         <v>0</v>
       </c>
@@ -4710,10 +4752,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U29" s="207"/>
+      <c r="U29" s="111"/>
     </row>
     <row r="30" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A30" s="139"/>
+      <c r="A30" s="176"/>
       <c r="B30" s="69">
         <v>0</v>
       </c>
@@ -4747,10 +4789,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U30" s="207"/>
+      <c r="U30" s="111"/>
     </row>
     <row r="31" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A31" s="139"/>
+      <c r="A31" s="176"/>
       <c r="B31" s="69">
         <v>0</v>
       </c>
@@ -4786,10 +4828,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U31" s="207"/>
+      <c r="U31" s="111"/>
     </row>
     <row r="32" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="139"/>
+      <c r="A32" s="176"/>
       <c r="B32" s="70">
         <v>0</v>
       </c>
@@ -4825,16 +4867,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="207"/>
+      <c r="U32" s="111"/>
     </row>
     <row r="33" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="139"/>
+      <c r="A33" s="176"/>
       <c r="B33" s="45">
         <v>0</v>
       </c>
       <c r="C33" s="46"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="142"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="178"/>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
@@ -4857,16 +4899,16 @@
         <f>(R33-(R33*S33))*B33</f>
         <v>0</v>
       </c>
-      <c r="U33" s="207"/>
+      <c r="U33" s="111"/>
     </row>
     <row r="34" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="139"/>
+      <c r="A34" s="176"/>
       <c r="B34" s="45">
         <v>0</v>
       </c>
       <c r="C34" s="46"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
@@ -4889,16 +4931,16 @@
         <f>(R34-(R34*S34))*B34</f>
         <v>0</v>
       </c>
-      <c r="U34" s="207"/>
+      <c r="U34" s="111"/>
     </row>
     <row r="35" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="139"/>
+      <c r="A35" s="176"/>
       <c r="B35" s="45">
         <v>0</v>
       </c>
       <c r="C35" s="46"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -4921,87 +4963,87 @@
         <f>(R35-(R35*S35))*B35</f>
         <v>0</v>
       </c>
-      <c r="U35" s="207"/>
+      <c r="U35" s="111"/>
     </row>
     <row r="36" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="139"/>
-      <c r="B36" s="158" t="s">
+      <c r="A36" s="176"/>
+      <c r="B36" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="159"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="159"/>
-      <c r="I36" s="159"/>
-      <c r="J36" s="159"/>
-      <c r="K36" s="159"/>
-      <c r="L36" s="163" t="s">
+      <c r="C36" s="190"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="190"/>
+      <c r="G36" s="190"/>
+      <c r="H36" s="190"/>
+      <c r="I36" s="190"/>
+      <c r="J36" s="190"/>
+      <c r="K36" s="190"/>
+      <c r="L36" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="163"/>
-      <c r="N36" s="163"/>
-      <c r="O36" s="163"/>
+      <c r="M36" s="194"/>
+      <c r="N36" s="194"/>
+      <c r="O36" s="194"/>
       <c r="P36" s="51">
         <f>SUM(P23:P32)</f>
-        <v>0</v>
+        <v>2640</v>
       </c>
       <c r="Q36" s="52"/>
-      <c r="R36" s="156" t="s">
+      <c r="R36" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="S36" s="157"/>
+      <c r="S36" s="152"/>
       <c r="T36" s="53">
         <f>SUM(T23:T35)</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="207"/>
+        <v>1847.9999999999998</v>
+      </c>
+      <c r="U36" s="111"/>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="139"/>
-      <c r="B37" s="202" t="s">
+      <c r="A37" s="176"/>
+      <c r="B37" s="168" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="171" t="s">
+      <c r="D37" s="202" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="164" t="s">
+      <c r="E37" s="203"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="203"/>
+      <c r="H37" s="203"/>
+      <c r="I37" s="203"/>
+      <c r="J37" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="165"/>
-      <c r="L37" s="165"/>
-      <c r="M37" s="165"/>
-      <c r="N37" s="165"/>
-      <c r="O37" s="165"/>
+      <c r="K37" s="196"/>
+      <c r="L37" s="196"/>
+      <c r="M37" s="196"/>
+      <c r="N37" s="196"/>
+      <c r="O37" s="196"/>
       <c r="P37" s="55">
         <f>SUM(R23:R32)</f>
-        <v>0</v>
+        <v>2640</v>
       </c>
       <c r="Q37" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="156" t="s">
+      <c r="R37" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="S37" s="157"/>
+      <c r="S37" s="152"/>
       <c r="T37" s="56">
         <f>T36*0.16</f>
-        <v>0</v>
-      </c>
-      <c r="U37" s="207"/>
+        <v>295.67999999999995</v>
+      </c>
+      <c r="U37" s="111"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="139"/>
-      <c r="B38" s="203"/>
+      <c r="A38" s="176"/>
+      <c r="B38" s="169"/>
       <c r="C38" s="57"/>
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
@@ -5017,74 +5059,74 @@
       <c r="O38" s="52"/>
       <c r="P38" s="52"/>
       <c r="Q38" s="52"/>
-      <c r="R38" s="190" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="191"/>
+      <c r="R38" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="154"/>
       <c r="T38" s="58">
         <v>0</v>
       </c>
-      <c r="U38" s="207"/>
+      <c r="U38" s="111"/>
     </row>
     <row r="39" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="139"/>
-      <c r="B39" s="203"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="169"/>
       <c r="C39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="200" t="s">
+      <c r="D39" s="166" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="201"/>
-      <c r="F39" s="201"/>
-      <c r="G39" s="201"/>
-      <c r="H39" s="201"/>
-      <c r="I39" s="201"/>
-      <c r="J39" s="201"/>
-      <c r="K39" s="204"/>
-      <c r="L39" s="205"/>
-      <c r="M39" s="205"/>
-      <c r="N39" s="205"/>
-      <c r="O39" s="205"/>
-      <c r="P39" s="205"/>
-      <c r="Q39" s="206"/>
-      <c r="R39" s="192" t="s">
+      <c r="E39" s="167"/>
+      <c r="F39" s="167"/>
+      <c r="G39" s="167"/>
+      <c r="H39" s="167"/>
+      <c r="I39" s="167"/>
+      <c r="J39" s="167"/>
+      <c r="K39" s="170"/>
+      <c r="L39" s="171"/>
+      <c r="M39" s="171"/>
+      <c r="N39" s="171"/>
+      <c r="O39" s="171"/>
+      <c r="P39" s="171"/>
+      <c r="Q39" s="172"/>
+      <c r="R39" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="S39" s="193"/>
+      <c r="S39" s="156"/>
       <c r="T39" s="59">
         <f>T36+T37+T38</f>
-        <v>0</v>
-      </c>
-      <c r="U39" s="207"/>
+        <v>2143.6799999999998</v>
+      </c>
+      <c r="U39" s="111"/>
     </row>
     <row r="40" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="139"/>
-      <c r="B40" s="166" t="s">
+      <c r="A40" s="176"/>
+      <c r="B40" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="167"/>
-      <c r="D40" s="168"/>
-      <c r="E40" s="169"/>
-      <c r="F40" s="169"/>
-      <c r="G40" s="169"/>
-      <c r="H40" s="169"/>
-      <c r="I40" s="169"/>
-      <c r="J40" s="169"/>
-      <c r="K40" s="169"/>
-      <c r="L40" s="169"/>
-      <c r="M40" s="169"/>
-      <c r="N40" s="169"/>
-      <c r="O40" s="169"/>
-      <c r="P40" s="169"/>
-      <c r="Q40" s="169"/>
-      <c r="R40" s="169"/>
-      <c r="S40" s="170"/>
+      <c r="C40" s="198"/>
+      <c r="D40" s="199"/>
+      <c r="E40" s="200"/>
+      <c r="F40" s="200"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="200"/>
+      <c r="K40" s="200"/>
+      <c r="L40" s="200"/>
+      <c r="M40" s="200"/>
+      <c r="N40" s="200"/>
+      <c r="O40" s="200"/>
+      <c r="P40" s="200"/>
+      <c r="Q40" s="200"/>
+      <c r="R40" s="200"/>
+      <c r="S40" s="201"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="207"/>
+      <c r="U40" s="111"/>
     </row>
     <row r="41" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="139"/>
+      <c r="A41" s="176"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
@@ -5104,114 +5146,156 @@
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
       <c r="T41" s="22"/>
-      <c r="U41" s="207"/>
+      <c r="U41" s="111"/>
     </row>
     <row r="42" spans="1:21" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="139"/>
-      <c r="B42" s="160" t="s">
+      <c r="A42" s="176"/>
+      <c r="B42" s="191" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="161"/>
-      <c r="D42" s="161"/>
-      <c r="E42" s="161"/>
-      <c r="F42" s="161"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="161"/>
-      <c r="K42" s="161"/>
-      <c r="L42" s="161"/>
-      <c r="M42" s="161"/>
-      <c r="N42" s="161"/>
-      <c r="O42" s="161"/>
-      <c r="P42" s="161"/>
-      <c r="Q42" s="161"/>
-      <c r="R42" s="161"/>
-      <c r="S42" s="161"/>
-      <c r="T42" s="162"/>
-      <c r="U42" s="207"/>
+      <c r="C42" s="192"/>
+      <c r="D42" s="192"/>
+      <c r="E42" s="192"/>
+      <c r="F42" s="192"/>
+      <c r="G42" s="192"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="192"/>
+      <c r="K42" s="192"/>
+      <c r="L42" s="192"/>
+      <c r="M42" s="192"/>
+      <c r="N42" s="192"/>
+      <c r="O42" s="192"/>
+      <c r="P42" s="192"/>
+      <c r="Q42" s="192"/>
+      <c r="R42" s="192"/>
+      <c r="S42" s="192"/>
+      <c r="T42" s="193"/>
+      <c r="U42" s="111"/>
     </row>
     <row r="43" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="140"/>
-      <c r="B43" s="208" t="s">
+      <c r="A43" s="177"/>
+      <c r="B43" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="209"/>
-      <c r="D43" s="210"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="154"/>
-      <c r="G43" s="154"/>
-      <c r="H43" s="154"/>
-      <c r="I43" s="154"/>
-      <c r="J43" s="154"/>
-      <c r="K43" s="154"/>
-      <c r="L43" s="154"/>
-      <c r="M43" s="154"/>
-      <c r="N43" s="154"/>
-      <c r="O43" s="154"/>
-      <c r="P43" s="154"/>
-      <c r="Q43" s="154"/>
-      <c r="R43" s="154"/>
-      <c r="S43" s="154"/>
-      <c r="T43" s="155"/>
-      <c r="U43" s="207"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="164"/>
+      <c r="G43" s="164"/>
+      <c r="H43" s="164"/>
+      <c r="I43" s="164"/>
+      <c r="J43" s="164"/>
+      <c r="K43" s="164"/>
+      <c r="L43" s="164"/>
+      <c r="M43" s="164"/>
+      <c r="N43" s="164"/>
+      <c r="O43" s="164"/>
+      <c r="P43" s="164"/>
+      <c r="Q43" s="164"/>
+      <c r="R43" s="164"/>
+      <c r="S43" s="164"/>
+      <c r="T43" s="165"/>
+      <c r="U43" s="111"/>
     </row>
     <row r="44" spans="1:21" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
-      <c r="B44" s="208" t="s">
+      <c r="B44" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="209"/>
-      <c r="D44" s="209"/>
-      <c r="E44" s="153"/>
-      <c r="F44" s="154"/>
-      <c r="G44" s="154"/>
-      <c r="H44" s="154"/>
-      <c r="I44" s="154"/>
-      <c r="J44" s="154"/>
-      <c r="K44" s="154"/>
-      <c r="L44" s="154"/>
-      <c r="M44" s="154"/>
-      <c r="N44" s="154"/>
-      <c r="O44" s="154"/>
-      <c r="P44" s="154"/>
-      <c r="Q44" s="154"/>
-      <c r="R44" s="154"/>
-      <c r="S44" s="154"/>
-      <c r="T44" s="155"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="163"/>
+      <c r="F44" s="164"/>
+      <c r="G44" s="164"/>
+      <c r="H44" s="164"/>
+      <c r="I44" s="164"/>
+      <c r="J44" s="164"/>
+      <c r="K44" s="164"/>
+      <c r="L44" s="164"/>
+      <c r="M44" s="164"/>
+      <c r="N44" s="164"/>
+      <c r="O44" s="164"/>
+      <c r="P44" s="164"/>
+      <c r="Q44" s="164"/>
+      <c r="R44" s="164"/>
+      <c r="S44" s="164"/>
+      <c r="T44" s="165"/>
       <c r="U44" s="33"/>
     </row>
     <row r="45" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="173"/>
-      <c r="B45" s="174"/>
-      <c r="C45" s="174"/>
-      <c r="D45" s="174"/>
-      <c r="E45" s="174"/>
-      <c r="F45" s="174"/>
-      <c r="G45" s="174"/>
-      <c r="H45" s="174"/>
-      <c r="I45" s="174"/>
-      <c r="J45" s="174"/>
-      <c r="K45" s="174"/>
-      <c r="L45" s="174"/>
-      <c r="M45" s="174"/>
-      <c r="N45" s="174"/>
-      <c r="O45" s="174"/>
-      <c r="P45" s="174"/>
-      <c r="Q45" s="174"/>
-      <c r="R45" s="174"/>
-      <c r="S45" s="174"/>
-      <c r="T45" s="174"/>
-      <c r="U45" s="175"/>
+      <c r="A45" s="135"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="136"/>
+      <c r="K45" s="136"/>
+      <c r="L45" s="136"/>
+      <c r="M45" s="136"/>
+      <c r="N45" s="136"/>
+      <c r="O45" s="136"/>
+      <c r="P45" s="136"/>
+      <c r="Q45" s="136"/>
+      <c r="R45" s="136"/>
+      <c r="S45" s="136"/>
+      <c r="T45" s="136"/>
+      <c r="U45" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B16:T16"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="B18:T18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B42:T42"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:S40"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B15:T15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="E44:T44"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="K39:Q39"/>
     <mergeCell ref="U2:U43"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
@@ -5228,58 +5312,16 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="L21:O21"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B15:T15"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="E44:T44"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B16:T16"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="B18:T18"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B42:T42"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:S40"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="P11:R11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K8" r:id="rId1"/>
+    <hyperlink ref="K8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5289,25 +5331,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'NO USAR NO BORRAR'!$D$1:$D$4</xm:f>
           </x14:formula1>
           <xm:sqref>E23:G32</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'NO USAR NO BORRAR'!$E$1</xm:f>
           </x14:formula1>
           <xm:sqref>J23:K32</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'NO USAR NO BORRAR'!$B$1:$B$13</xm:f>
           </x14:formula1>
           <xm:sqref>D23:D32</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>'NO USAR NO BORRAR'!$A$1:$A$5</xm:f>
           </x14:formula1>
@@ -5320,7 +5362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">

--- a/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
+++ b/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EC16\Documents\SOSQTP\Documentos de Venta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA6D23B-B2D8-49ED-A8D6-443C5986A7CE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347878A2-8186-4800-A245-5D56F17A78D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="195" windowWidth="14025" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -999,25 +999,25 @@
     <t>Marisol Ornelas Casillas</t>
   </si>
   <si>
-    <t>P3551</t>
-  </si>
-  <si>
-    <t>FACT ELECTRONICA ANUAL</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>6D4D</t>
-  </si>
-  <si>
-    <t>42D6</t>
-  </si>
-  <si>
-    <t>B29D</t>
-  </si>
-  <si>
-    <t>9646</t>
+    <t>P3552</t>
+  </si>
+  <si>
+    <t>NOMINA  ANUAL</t>
+  </si>
+  <si>
+    <t>9917</t>
+  </si>
+  <si>
+    <t>FFE3</t>
+  </si>
+  <si>
+    <t>AC63</t>
+  </si>
+  <si>
+    <t>EDEE</t>
   </si>
 </sst>
 </file>
@@ -2940,117 +2940,234 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3091,14 +3208,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3115,7 +3229,7 @@
     <xf numFmtId="0" fontId="94" fillId="5" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3130,15 +3244,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3160,210 +3265,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3771,8 +3771,8 @@
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3803,32 +3803,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="136" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="175"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="138"/>
     </row>
     <row r="2" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="176"/>
+      <c r="A2" s="139"/>
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
@@ -3841,21 +3841,21 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
-      <c r="L2" s="207" t="s">
+      <c r="L2" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="111"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="207"/>
     </row>
     <row r="3" spans="1:21" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="176"/>
+      <c r="A3" s="139"/>
       <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
@@ -3868,297 +3868,297 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
-      <c r="L3" s="210" t="s">
+      <c r="L3" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="210"/>
-      <c r="N3" s="210"/>
-      <c r="O3" s="210"/>
-      <c r="P3" s="210"/>
-      <c r="Q3" s="210"/>
-      <c r="R3" s="210"/>
-      <c r="S3" s="210"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="111"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="207"/>
     </row>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="176"/>
-      <c r="B4" s="204" t="s">
+      <c r="A4" s="139"/>
+      <c r="B4" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
-      <c r="L4" s="205"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="205"/>
-      <c r="O4" s="205"/>
-      <c r="P4" s="205"/>
-      <c r="Q4" s="205"/>
-      <c r="R4" s="205"/>
-      <c r="S4" s="205"/>
-      <c r="T4" s="206"/>
-      <c r="U4" s="111"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="207"/>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="176"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="138" t="s">
+      <c r="A5" s="139"/>
+      <c r="B5" s="217"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="218"/>
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="218"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="218"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="218"/>
+      <c r="R5" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="139"/>
+      <c r="S5" s="177"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="111"/>
+      <c r="U5" s="207"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="176"/>
-      <c r="B6" s="115" t="s">
+      <c r="A6" s="139"/>
+      <c r="B6" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="106" t="s">
+      <c r="C6" s="212"/>
+      <c r="D6" s="237" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="238"/>
+      <c r="L6" s="238"/>
+      <c r="M6" s="238"/>
+      <c r="N6" s="238"/>
+      <c r="O6" s="238"/>
+      <c r="P6" s="238"/>
+      <c r="Q6" s="238"/>
       <c r="R6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="102" t="s">
+      <c r="S6" s="233" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="103"/>
-      <c r="U6" s="111"/>
+      <c r="T6" s="234"/>
+      <c r="U6" s="207"/>
     </row>
     <row r="7" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="176"/>
-      <c r="B7" s="115" t="s">
+      <c r="A7" s="139"/>
+      <c r="B7" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="117" t="s">
+      <c r="C7" s="212"/>
+      <c r="D7" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127"/>
       <c r="R7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="104" t="s">
+      <c r="S7" s="235" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="105"/>
-      <c r="U7" s="111"/>
+      <c r="T7" s="236"/>
+      <c r="U7" s="207"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="176"/>
-      <c r="B8" s="115" t="s">
+      <c r="A8" s="139"/>
+      <c r="B8" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="234" t="s">
+      <c r="C8" s="212"/>
+      <c r="D8" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="150"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="157" t="s">
+      <c r="K8" s="194" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="158"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="158"/>
-      <c r="O8" s="158"/>
-      <c r="P8" s="158"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="159"/>
-      <c r="U8" s="111"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="128"/>
+      <c r="Q8" s="195"/>
+      <c r="R8" s="195"/>
+      <c r="S8" s="195"/>
+      <c r="T8" s="196"/>
+      <c r="U8" s="207"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="176"/>
-      <c r="B9" s="115" t="s">
+      <c r="A9" s="139"/>
+      <c r="B9" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117" t="s">
+      <c r="C9" s="212"/>
+      <c r="D9" s="188" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="195"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="213"/>
+      <c r="L9" s="213"/>
+      <c r="M9" s="213"/>
+      <c r="N9" s="213"/>
+      <c r="O9" s="213"/>
+      <c r="P9" s="213"/>
       <c r="Q9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="121" t="s">
+      <c r="R9" s="214" t="s">
         <v>105</v>
       </c>
-      <c r="S9" s="122"/>
-      <c r="T9" s="123"/>
-      <c r="U9" s="111"/>
+      <c r="S9" s="215"/>
+      <c r="T9" s="216"/>
+      <c r="U9" s="207"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="176"/>
-      <c r="B10" s="115" t="s">
+      <c r="A10" s="139"/>
+      <c r="B10" s="211" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="235" t="s">
+      <c r="C10" s="212"/>
+      <c r="D10" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="235"/>
-      <c r="F10" s="236"/>
-      <c r="G10" s="236"/>
-      <c r="H10" s="236"/>
-      <c r="I10" s="236"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
       <c r="J10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="160" t="s">
+      <c r="K10" s="197" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="161"/>
-      <c r="S10" s="161"/>
-      <c r="T10" s="162"/>
-      <c r="U10" s="111"/>
+      <c r="L10" s="198"/>
+      <c r="M10" s="198"/>
+      <c r="N10" s="198"/>
+      <c r="O10" s="198"/>
+      <c r="P10" s="198"/>
+      <c r="Q10" s="198"/>
+      <c r="R10" s="198"/>
+      <c r="S10" s="198"/>
+      <c r="T10" s="199"/>
+      <c r="U10" s="207"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="176"/>
-      <c r="B11" s="96" t="s">
+      <c r="A11" s="139"/>
+      <c r="B11" s="227" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="239" t="s">
+      <c r="C11" s="228"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="240"/>
-      <c r="G11" s="240"/>
-      <c r="H11" s="240"/>
-      <c r="I11" s="240"/>
-      <c r="J11" s="240"/>
-      <c r="K11" s="240"/>
-      <c r="L11" s="240"/>
-      <c r="M11" s="240"/>
-      <c r="N11" s="240"/>
-      <c r="O11" s="241"/>
-      <c r="P11" s="108" t="s">
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="239" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="130" t="s">
+      <c r="Q11" s="240"/>
+      <c r="R11" s="241"/>
+      <c r="S11" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="131"/>
-      <c r="U11" s="111"/>
+      <c r="T11" s="224"/>
+      <c r="U11" s="207"/>
     </row>
     <row r="12" spans="1:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="176"/>
-      <c r="B12" s="98" t="s">
+      <c r="A12" s="139"/>
+      <c r="B12" s="229" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="111"/>
+      <c r="C12" s="230"/>
+      <c r="D12" s="231"/>
+      <c r="E12" s="231"/>
+      <c r="F12" s="231"/>
+      <c r="G12" s="231"/>
+      <c r="H12" s="231"/>
+      <c r="I12" s="231"/>
+      <c r="J12" s="231"/>
+      <c r="K12" s="231"/>
+      <c r="L12" s="231"/>
+      <c r="M12" s="231"/>
+      <c r="N12" s="231"/>
+      <c r="O12" s="231"/>
+      <c r="P12" s="231"/>
+      <c r="Q12" s="231"/>
+      <c r="R12" s="231"/>
+      <c r="S12" s="231"/>
+      <c r="T12" s="232"/>
+      <c r="U12" s="207"/>
     </row>
     <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="176"/>
-      <c r="B13" s="222" t="s">
+      <c r="A13" s="139"/>
+      <c r="B13" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="223"/>
-      <c r="D13" s="223"/>
-      <c r="E13" s="223"/>
-      <c r="F13" s="223"/>
-      <c r="G13" s="223"/>
-      <c r="H13" s="223"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="223"/>
-      <c r="K13" s="223"/>
-      <c r="L13" s="223"/>
-      <c r="M13" s="223"/>
-      <c r="N13" s="223"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
       <c r="O13" s="75" t="s">
         <v>0</v>
       </c>
@@ -4166,165 +4166,165 @@
         <v>0</v>
       </c>
       <c r="Q13" s="76"/>
-      <c r="R13" s="144" t="s">
+      <c r="R13" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="144"/>
+      <c r="S13" s="182"/>
       <c r="T13" s="95" t="s">
-        <v>108</v>
-      </c>
-      <c r="U13" s="111"/>
+        <v>109</v>
+      </c>
+      <c r="U13" s="207"/>
     </row>
     <row r="14" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="176"/>
-      <c r="B14" s="147" t="s">
+      <c r="A14" s="139"/>
+      <c r="B14" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="148"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="126" t="s">
+      <c r="C14" s="186"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="127"/>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="127"/>
+      <c r="F14" s="219"/>
+      <c r="G14" s="219"/>
+      <c r="H14" s="219"/>
+      <c r="I14" s="219"/>
+      <c r="J14" s="220"/>
+      <c r="K14" s="220"/>
+      <c r="L14" s="220"/>
+      <c r="M14" s="220"/>
+      <c r="N14" s="220"/>
+      <c r="O14" s="220"/>
+      <c r="P14" s="220"/>
+      <c r="Q14" s="220"/>
       <c r="R14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="145">
+      <c r="S14" s="183">
         <f ca="1">TODAY()</f>
-        <v>43467</v>
-      </c>
-      <c r="T14" s="146"/>
-      <c r="U14" s="111"/>
+        <v>43468</v>
+      </c>
+      <c r="T14" s="184"/>
+      <c r="U14" s="207"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="176"/>
-      <c r="B15" s="140" t="s">
+      <c r="A15" s="139"/>
+      <c r="B15" s="178" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="141"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="142"/>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="142"/>
-      <c r="S15" s="142"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="111"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="180"/>
+      <c r="N15" s="180"/>
+      <c r="O15" s="180"/>
+      <c r="P15" s="180"/>
+      <c r="Q15" s="180"/>
+      <c r="R15" s="180"/>
+      <c r="S15" s="180"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="207"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="176"/>
-      <c r="B16" s="179" t="s">
+      <c r="A16" s="139"/>
+      <c r="B16" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="180"/>
-      <c r="D16" s="180"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="180"/>
-      <c r="N16" s="180"/>
-      <c r="O16" s="180"/>
-      <c r="P16" s="180"/>
-      <c r="Q16" s="180"/>
-      <c r="R16" s="180"/>
-      <c r="S16" s="180"/>
-      <c r="T16" s="181"/>
-      <c r="U16" s="111"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="144"/>
+      <c r="N16" s="144"/>
+      <c r="O16" s="144"/>
+      <c r="P16" s="144"/>
+      <c r="Q16" s="144"/>
+      <c r="R16" s="144"/>
+      <c r="S16" s="144"/>
+      <c r="T16" s="145"/>
+      <c r="U16" s="207"/>
     </row>
     <row r="17" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="176"/>
-      <c r="B17" s="182" t="s">
+      <c r="A17" s="139"/>
+      <c r="B17" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="183"/>
-      <c r="L17" s="183"/>
-      <c r="M17" s="183"/>
-      <c r="N17" s="183"/>
-      <c r="O17" s="183"/>
-      <c r="P17" s="183"/>
-      <c r="Q17" s="183"/>
-      <c r="R17" s="183"/>
-      <c r="S17" s="183"/>
-      <c r="T17" s="184"/>
-      <c r="U17" s="111"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="147"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="147"/>
+      <c r="S17" s="147"/>
+      <c r="T17" s="148"/>
+      <c r="U17" s="207"/>
     </row>
     <row r="18" spans="1:22" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="176"/>
-      <c r="B18" s="185" t="s">
+      <c r="A18" s="139"/>
+      <c r="B18" s="149" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="186"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="187"/>
-      <c r="L18" s="187"/>
-      <c r="M18" s="187"/>
-      <c r="N18" s="187"/>
-      <c r="O18" s="187"/>
-      <c r="P18" s="187"/>
-      <c r="Q18" s="187"/>
-      <c r="R18" s="187"/>
-      <c r="S18" s="187"/>
-      <c r="T18" s="188"/>
-      <c r="U18" s="111"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="151"/>
+      <c r="T18" s="152"/>
+      <c r="U18" s="207"/>
     </row>
     <row r="19" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="176"/>
-      <c r="B19" s="226" t="s">
+      <c r="A19" s="139"/>
+      <c r="B19" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="227"/>
-      <c r="D19" s="227"/>
-      <c r="E19" s="227"/>
-      <c r="F19" s="227"/>
-      <c r="G19" s="227"/>
-      <c r="H19" s="227"/>
-      <c r="I19" s="227"/>
-      <c r="J19" s="227"/>
-      <c r="K19" s="227"/>
-      <c r="L19" s="227"/>
-      <c r="M19" s="227"/>
-      <c r="N19" s="227"/>
-      <c r="O19" s="228"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="120"/>
       <c r="P19" s="10" t="s">
         <v>31</v>
       </c>
@@ -4332,30 +4332,30 @@
       <c r="R19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="128" t="s">
+      <c r="S19" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="129"/>
-      <c r="U19" s="111"/>
+      <c r="T19" s="222"/>
+      <c r="U19" s="207"/>
     </row>
     <row r="20" spans="1:22" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="176"/>
-      <c r="B20" s="229" t="s">
+      <c r="A20" s="139"/>
+      <c r="B20" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="230"/>
-      <c r="D20" s="231"/>
-      <c r="E20" s="230"/>
-      <c r="F20" s="230"/>
-      <c r="G20" s="230"/>
-      <c r="H20" s="230"/>
-      <c r="I20" s="230"/>
-      <c r="J20" s="230"/>
-      <c r="K20" s="230"/>
-      <c r="L20" s="230"/>
-      <c r="M20" s="232"/>
-      <c r="N20" s="232"/>
-      <c r="O20" s="233"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="125"/>
       <c r="P20" s="65"/>
       <c r="Q20" s="17" t="s">
         <v>35</v>
@@ -4365,10 +4365,10 @@
         <v>36</v>
       </c>
       <c r="T20" s="67"/>
-      <c r="U20" s="111"/>
+      <c r="U20" s="207"/>
     </row>
     <row r="21" spans="1:22" ht="81.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="176"/>
+      <c r="A21" s="139"/>
       <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
@@ -4393,38 +4393,38 @@
       <c r="I21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="218" t="s">
+      <c r="J21" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="220" t="s">
+      <c r="K21" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="132" t="s">
+      <c r="L21" s="225" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="133"/>
-      <c r="N21" s="133"/>
-      <c r="O21" s="133"/>
-      <c r="P21" s="212" t="s">
+      <c r="M21" s="226"/>
+      <c r="N21" s="226"/>
+      <c r="O21" s="226"/>
+      <c r="P21" s="104" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="R21" s="214" t="s">
+      <c r="R21" s="106" t="s">
         <v>64</v>
       </c>
       <c r="S21" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="T21" s="216" t="s">
+      <c r="T21" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="U21" s="111"/>
+      <c r="U21" s="207"/>
       <c r="V21" s="16"/>
     </row>
     <row r="22" spans="1:22" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="176"/>
+      <c r="A22" s="139"/>
       <c r="B22" s="35" t="s">
         <v>72</v>
       </c>
@@ -4437,38 +4437,38 @@
       <c r="E22" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="237" t="s">
+      <c r="F22" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="238"/>
+      <c r="G22" s="132"/>
       <c r="H22" s="38" t="s">
         <v>75</v>
       </c>
       <c r="I22" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="219"/>
-      <c r="K22" s="221"/>
-      <c r="L22" s="224" t="s">
+      <c r="J22" s="111"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="M22" s="225"/>
-      <c r="N22" s="225"/>
-      <c r="O22" s="225"/>
-      <c r="P22" s="213"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="105"/>
       <c r="Q22" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="R22" s="215"/>
+      <c r="R22" s="107"/>
       <c r="S22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T22" s="217"/>
-      <c r="U22" s="111"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="207"/>
       <c r="V22" s="16"/>
     </row>
-    <row r="23" spans="1:22" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="176"/>
+    <row r="23" spans="1:22" ht="21" x14ac:dyDescent="0.2">
+      <c r="A23" s="139"/>
       <c r="B23" s="69">
         <v>1</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>47</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E23" s="40" t="s">
         <v>31</v>
@@ -4485,7 +4485,7 @@
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
       <c r="I23" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J23" s="40"/>
       <c r="K23" s="41" t="s">
@@ -4504,26 +4504,26 @@
         <v>114</v>
       </c>
       <c r="P23" s="44">
-        <v>2640</v>
+        <v>3990</v>
       </c>
       <c r="Q23" s="71">
         <v>0</v>
       </c>
       <c r="R23" s="42">
         <f t="shared" ref="R23:R32" si="0">(P23*B23)*(1-Q23)</f>
-        <v>2640</v>
+        <v>3990</v>
       </c>
       <c r="S23" s="73">
         <v>0.3</v>
       </c>
       <c r="T23" s="43">
         <f>R23*(1-S23)</f>
-        <v>1847.9999999999998</v>
-      </c>
-      <c r="U23" s="111"/>
+        <v>2793</v>
+      </c>
+      <c r="U23" s="207"/>
     </row>
     <row r="24" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A24" s="176"/>
+      <c r="A24" s="139"/>
       <c r="B24" s="69">
         <v>0</v>
       </c>
@@ -4559,10 +4559,10 @@
         <f t="shared" ref="T24:T32" si="1">R24*(1-S24)</f>
         <v>0</v>
       </c>
-      <c r="U24" s="111"/>
+      <c r="U24" s="207"/>
     </row>
     <row r="25" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A25" s="176"/>
+      <c r="A25" s="139"/>
       <c r="B25" s="69">
         <v>0</v>
       </c>
@@ -4598,10 +4598,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U25" s="111"/>
+      <c r="U25" s="207"/>
     </row>
     <row r="26" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A26" s="176"/>
+      <c r="A26" s="139"/>
       <c r="B26" s="69">
         <v>0</v>
       </c>
@@ -4637,10 +4637,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U26" s="111"/>
+      <c r="U26" s="207"/>
     </row>
     <row r="27" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A27" s="176"/>
+      <c r="A27" s="139"/>
       <c r="B27" s="69">
         <v>0</v>
       </c>
@@ -4676,10 +4676,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U27" s="111"/>
+      <c r="U27" s="207"/>
     </row>
     <row r="28" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A28" s="176"/>
+      <c r="A28" s="139"/>
       <c r="B28" s="69">
         <v>0</v>
       </c>
@@ -4715,10 +4715,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28" s="111"/>
+      <c r="U28" s="207"/>
     </row>
     <row r="29" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A29" s="176"/>
+      <c r="A29" s="139"/>
       <c r="B29" s="69">
         <v>0</v>
       </c>
@@ -4752,10 +4752,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U29" s="111"/>
+      <c r="U29" s="207"/>
     </row>
     <row r="30" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A30" s="176"/>
+      <c r="A30" s="139"/>
       <c r="B30" s="69">
         <v>0</v>
       </c>
@@ -4789,10 +4789,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U30" s="111"/>
+      <c r="U30" s="207"/>
     </row>
     <row r="31" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A31" s="176"/>
+      <c r="A31" s="139"/>
       <c r="B31" s="69">
         <v>0</v>
       </c>
@@ -4828,10 +4828,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U31" s="111"/>
+      <c r="U31" s="207"/>
     </row>
     <row r="32" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="176"/>
+      <c r="A32" s="139"/>
       <c r="B32" s="70">
         <v>0</v>
       </c>
@@ -4867,16 +4867,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="111"/>
+      <c r="U32" s="207"/>
     </row>
     <row r="33" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="176"/>
+      <c r="A33" s="139"/>
       <c r="B33" s="45">
         <v>0</v>
       </c>
       <c r="C33" s="46"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="178"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="142"/>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
@@ -4899,16 +4899,16 @@
         <f>(R33-(R33*S33))*B33</f>
         <v>0</v>
       </c>
-      <c r="U33" s="111"/>
+      <c r="U33" s="207"/>
     </row>
     <row r="34" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="176"/>
+      <c r="A34" s="139"/>
       <c r="B34" s="45">
         <v>0</v>
       </c>
       <c r="C34" s="46"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
@@ -4931,16 +4931,16 @@
         <f>(R34-(R34*S34))*B34</f>
         <v>0</v>
       </c>
-      <c r="U34" s="111"/>
+      <c r="U34" s="207"/>
     </row>
     <row r="35" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="176"/>
+      <c r="A35" s="139"/>
       <c r="B35" s="45">
         <v>0</v>
       </c>
       <c r="C35" s="46"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -4963,87 +4963,87 @@
         <f>(R35-(R35*S35))*B35</f>
         <v>0</v>
       </c>
-      <c r="U35" s="111"/>
+      <c r="U35" s="207"/>
     </row>
     <row r="36" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="176"/>
-      <c r="B36" s="189" t="s">
+      <c r="A36" s="139"/>
+      <c r="B36" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="190"/>
-      <c r="G36" s="190"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="190"/>
-      <c r="J36" s="190"/>
-      <c r="K36" s="190"/>
-      <c r="L36" s="194" t="s">
+      <c r="C36" s="159"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="159"/>
+      <c r="K36" s="159"/>
+      <c r="L36" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="194"/>
-      <c r="N36" s="194"/>
-      <c r="O36" s="194"/>
+      <c r="M36" s="163"/>
+      <c r="N36" s="163"/>
+      <c r="O36" s="163"/>
       <c r="P36" s="51">
         <f>SUM(P23:P32)</f>
-        <v>2640</v>
+        <v>3990</v>
       </c>
       <c r="Q36" s="52"/>
-      <c r="R36" s="151" t="s">
+      <c r="R36" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="S36" s="152"/>
+      <c r="S36" s="157"/>
       <c r="T36" s="53">
         <f>SUM(T23:T35)</f>
-        <v>1847.9999999999998</v>
-      </c>
-      <c r="U36" s="111"/>
+        <v>2793</v>
+      </c>
+      <c r="U36" s="207"/>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="176"/>
-      <c r="B37" s="168" t="s">
+      <c r="A37" s="139"/>
+      <c r="B37" s="202" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="202" t="s">
+      <c r="D37" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="203"/>
-      <c r="F37" s="203"/>
-      <c r="G37" s="203"/>
-      <c r="H37" s="203"/>
-      <c r="I37" s="203"/>
-      <c r="J37" s="195" t="s">
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="172"/>
+      <c r="I37" s="172"/>
+      <c r="J37" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="196"/>
-      <c r="L37" s="196"/>
-      <c r="M37" s="196"/>
-      <c r="N37" s="196"/>
-      <c r="O37" s="196"/>
+      <c r="K37" s="165"/>
+      <c r="L37" s="165"/>
+      <c r="M37" s="165"/>
+      <c r="N37" s="165"/>
+      <c r="O37" s="165"/>
       <c r="P37" s="55">
         <f>SUM(R23:R32)</f>
-        <v>2640</v>
+        <v>3990</v>
       </c>
       <c r="Q37" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="151" t="s">
+      <c r="R37" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="S37" s="152"/>
+      <c r="S37" s="157"/>
       <c r="T37" s="56">
         <f>T36*0.16</f>
-        <v>295.67999999999995</v>
-      </c>
-      <c r="U37" s="111"/>
+        <v>446.88</v>
+      </c>
+      <c r="U37" s="207"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="176"/>
-      <c r="B38" s="169"/>
+      <c r="A38" s="139"/>
+      <c r="B38" s="203"/>
       <c r="C38" s="57"/>
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
@@ -5059,74 +5059,74 @@
       <c r="O38" s="52"/>
       <c r="P38" s="52"/>
       <c r="Q38" s="52"/>
-      <c r="R38" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="154"/>
+      <c r="R38" s="190" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="191"/>
       <c r="T38" s="58">
         <v>0</v>
       </c>
-      <c r="U38" s="111"/>
+      <c r="U38" s="207"/>
     </row>
     <row r="39" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="176"/>
-      <c r="B39" s="169"/>
+      <c r="A39" s="139"/>
+      <c r="B39" s="203"/>
       <c r="C39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="166" t="s">
+      <c r="D39" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="167"/>
-      <c r="F39" s="167"/>
-      <c r="G39" s="167"/>
-      <c r="H39" s="167"/>
-      <c r="I39" s="167"/>
-      <c r="J39" s="167"/>
-      <c r="K39" s="170"/>
-      <c r="L39" s="171"/>
-      <c r="M39" s="171"/>
-      <c r="N39" s="171"/>
-      <c r="O39" s="171"/>
-      <c r="P39" s="171"/>
-      <c r="Q39" s="172"/>
-      <c r="R39" s="155" t="s">
+      <c r="E39" s="201"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="201"/>
+      <c r="J39" s="201"/>
+      <c r="K39" s="204"/>
+      <c r="L39" s="205"/>
+      <c r="M39" s="205"/>
+      <c r="N39" s="205"/>
+      <c r="O39" s="205"/>
+      <c r="P39" s="205"/>
+      <c r="Q39" s="206"/>
+      <c r="R39" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="S39" s="156"/>
+      <c r="S39" s="193"/>
       <c r="T39" s="59">
         <f>T36+T37+T38</f>
-        <v>2143.6799999999998</v>
-      </c>
-      <c r="U39" s="111"/>
+        <v>3239.88</v>
+      </c>
+      <c r="U39" s="207"/>
     </row>
     <row r="40" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="176"/>
-      <c r="B40" s="197" t="s">
+      <c r="A40" s="139"/>
+      <c r="B40" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="198"/>
-      <c r="D40" s="199"/>
-      <c r="E40" s="200"/>
-      <c r="F40" s="200"/>
-      <c r="G40" s="200"/>
-      <c r="H40" s="200"/>
-      <c r="I40" s="200"/>
-      <c r="J40" s="200"/>
-      <c r="K40" s="200"/>
-      <c r="L40" s="200"/>
-      <c r="M40" s="200"/>
-      <c r="N40" s="200"/>
-      <c r="O40" s="200"/>
-      <c r="P40" s="200"/>
-      <c r="Q40" s="200"/>
-      <c r="R40" s="200"/>
-      <c r="S40" s="201"/>
+      <c r="C40" s="167"/>
+      <c r="D40" s="168"/>
+      <c r="E40" s="169"/>
+      <c r="F40" s="169"/>
+      <c r="G40" s="169"/>
+      <c r="H40" s="169"/>
+      <c r="I40" s="169"/>
+      <c r="J40" s="169"/>
+      <c r="K40" s="169"/>
+      <c r="L40" s="169"/>
+      <c r="M40" s="169"/>
+      <c r="N40" s="169"/>
+      <c r="O40" s="169"/>
+      <c r="P40" s="169"/>
+      <c r="Q40" s="169"/>
+      <c r="R40" s="169"/>
+      <c r="S40" s="170"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="111"/>
+      <c r="U40" s="207"/>
     </row>
     <row r="41" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="176"/>
+      <c r="A41" s="139"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
@@ -5146,108 +5146,162 @@
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
       <c r="T41" s="22"/>
-      <c r="U41" s="111"/>
+      <c r="U41" s="207"/>
     </row>
     <row r="42" spans="1:21" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="176"/>
-      <c r="B42" s="191" t="s">
+      <c r="A42" s="139"/>
+      <c r="B42" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="192"/>
-      <c r="D42" s="192"/>
-      <c r="E42" s="192"/>
-      <c r="F42" s="192"/>
-      <c r="G42" s="192"/>
-      <c r="H42" s="192"/>
-      <c r="I42" s="192"/>
-      <c r="J42" s="192"/>
-      <c r="K42" s="192"/>
-      <c r="L42" s="192"/>
-      <c r="M42" s="192"/>
-      <c r="N42" s="192"/>
-      <c r="O42" s="192"/>
-      <c r="P42" s="192"/>
-      <c r="Q42" s="192"/>
-      <c r="R42" s="192"/>
-      <c r="S42" s="192"/>
-      <c r="T42" s="193"/>
-      <c r="U42" s="111"/>
+      <c r="C42" s="161"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="161"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="161"/>
+      <c r="K42" s="161"/>
+      <c r="L42" s="161"/>
+      <c r="M42" s="161"/>
+      <c r="N42" s="161"/>
+      <c r="O42" s="161"/>
+      <c r="P42" s="161"/>
+      <c r="Q42" s="161"/>
+      <c r="R42" s="161"/>
+      <c r="S42" s="161"/>
+      <c r="T42" s="162"/>
+      <c r="U42" s="207"/>
     </row>
     <row r="43" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="177"/>
-      <c r="B43" s="112" t="s">
+      <c r="A43" s="140"/>
+      <c r="B43" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="113"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="164"/>
-      <c r="G43" s="164"/>
-      <c r="H43" s="164"/>
-      <c r="I43" s="164"/>
-      <c r="J43" s="164"/>
-      <c r="K43" s="164"/>
-      <c r="L43" s="164"/>
-      <c r="M43" s="164"/>
-      <c r="N43" s="164"/>
-      <c r="O43" s="164"/>
-      <c r="P43" s="164"/>
-      <c r="Q43" s="164"/>
-      <c r="R43" s="164"/>
-      <c r="S43" s="164"/>
-      <c r="T43" s="165"/>
-      <c r="U43" s="111"/>
+      <c r="C43" s="209"/>
+      <c r="D43" s="210"/>
+      <c r="E43" s="153"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
+      <c r="J43" s="154"/>
+      <c r="K43" s="154"/>
+      <c r="L43" s="154"/>
+      <c r="M43" s="154"/>
+      <c r="N43" s="154"/>
+      <c r="O43" s="154"/>
+      <c r="P43" s="154"/>
+      <c r="Q43" s="154"/>
+      <c r="R43" s="154"/>
+      <c r="S43" s="154"/>
+      <c r="T43" s="155"/>
+      <c r="U43" s="207"/>
     </row>
     <row r="44" spans="1:21" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
-      <c r="B44" s="112" t="s">
+      <c r="B44" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="163"/>
-      <c r="F44" s="164"/>
-      <c r="G44" s="164"/>
-      <c r="H44" s="164"/>
-      <c r="I44" s="164"/>
-      <c r="J44" s="164"/>
-      <c r="K44" s="164"/>
-      <c r="L44" s="164"/>
-      <c r="M44" s="164"/>
-      <c r="N44" s="164"/>
-      <c r="O44" s="164"/>
-      <c r="P44" s="164"/>
-      <c r="Q44" s="164"/>
-      <c r="R44" s="164"/>
-      <c r="S44" s="164"/>
-      <c r="T44" s="165"/>
+      <c r="C44" s="209"/>
+      <c r="D44" s="209"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="154"/>
+      <c r="G44" s="154"/>
+      <c r="H44" s="154"/>
+      <c r="I44" s="154"/>
+      <c r="J44" s="154"/>
+      <c r="K44" s="154"/>
+      <c r="L44" s="154"/>
+      <c r="M44" s="154"/>
+      <c r="N44" s="154"/>
+      <c r="O44" s="154"/>
+      <c r="P44" s="154"/>
+      <c r="Q44" s="154"/>
+      <c r="R44" s="154"/>
+      <c r="S44" s="154"/>
+      <c r="T44" s="155"/>
       <c r="U44" s="33"/>
     </row>
     <row r="45" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="135"/>
-      <c r="B45" s="136"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="136"/>
-      <c r="K45" s="136"/>
-      <c r="L45" s="136"/>
-      <c r="M45" s="136"/>
-      <c r="N45" s="136"/>
-      <c r="O45" s="136"/>
-      <c r="P45" s="136"/>
-      <c r="Q45" s="136"/>
-      <c r="R45" s="136"/>
-      <c r="S45" s="136"/>
-      <c r="T45" s="136"/>
-      <c r="U45" s="137"/>
+      <c r="A45" s="173"/>
+      <c r="B45" s="174"/>
+      <c r="C45" s="174"/>
+      <c r="D45" s="174"/>
+      <c r="E45" s="174"/>
+      <c r="F45" s="174"/>
+      <c r="G45" s="174"/>
+      <c r="H45" s="174"/>
+      <c r="I45" s="174"/>
+      <c r="J45" s="174"/>
+      <c r="K45" s="174"/>
+      <c r="L45" s="174"/>
+      <c r="M45" s="174"/>
+      <c r="N45" s="174"/>
+      <c r="O45" s="174"/>
+      <c r="P45" s="174"/>
+      <c r="Q45" s="174"/>
+      <c r="R45" s="174"/>
+      <c r="S45" s="174"/>
+      <c r="T45" s="174"/>
+      <c r="U45" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="U2:U43"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B15:T15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="E44:T44"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B16:T16"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="B18:T18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B42:T42"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:S40"/>
+    <mergeCell ref="D37:I37"/>
     <mergeCell ref="B4:T4"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="L3:T3"/>
@@ -5264,60 +5318,6 @@
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="E11:O11"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B16:T16"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="B18:T18"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B42:T42"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:S40"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B15:T15"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="E44:T44"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="U2:U43"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="P11:R11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
+++ b/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EC16\Documents\SOSQTP\Documentos de Venta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347878A2-8186-4800-A245-5D56F17A78D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86030B5F-46E3-448B-A781-2FC4B13B366B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="195" windowWidth="14025" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1002,22 +1002,22 @@
     <t>1</t>
   </si>
   <si>
-    <t>P3552</t>
-  </si>
-  <si>
-    <t>NOMINA  ANUAL</t>
-  </si>
-  <si>
-    <t>9917</t>
-  </si>
-  <si>
-    <t>FFE3</t>
-  </si>
-  <si>
-    <t>AC63</t>
-  </si>
-  <si>
-    <t>EDEE</t>
+    <t>P3551</t>
+  </si>
+  <si>
+    <t>FACT ELECTRONICA ANUAL</t>
+  </si>
+  <si>
+    <t>6D4D</t>
+  </si>
+  <si>
+    <t>42D6</t>
+  </si>
+  <si>
+    <t>B29D</t>
+  </si>
+  <si>
+    <t>9646</t>
   </si>
 </sst>
 </file>
@@ -2940,234 +2940,117 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3208,11 +3091,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3229,7 +3115,7 @@
     <xf numFmtId="0" fontId="94" fillId="5" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3244,6 +3130,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3265,105 +3160,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3771,7 +3771,7 @@
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -3803,32 +3803,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="138"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="175"/>
     </row>
     <row r="2" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="139"/>
+      <c r="A2" s="176"/>
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
@@ -3841,21 +3841,21 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
-      <c r="L2" s="99" t="s">
+      <c r="L2" s="207" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="207"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="208"/>
+      <c r="Q2" s="208"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="208"/>
+      <c r="T2" s="209"/>
+      <c r="U2" s="111"/>
     </row>
     <row r="3" spans="1:21" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
+      <c r="A3" s="176"/>
       <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
@@ -3868,297 +3868,297 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
-      <c r="L3" s="102" t="s">
+      <c r="L3" s="210" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="207"/>
+      <c r="M3" s="210"/>
+      <c r="N3" s="210"/>
+      <c r="O3" s="210"/>
+      <c r="P3" s="210"/>
+      <c r="Q3" s="210"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="211"/>
+      <c r="U3" s="111"/>
     </row>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="139"/>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="176"/>
+      <c r="B4" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="207"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="205"/>
+      <c r="O4" s="205"/>
+      <c r="P4" s="205"/>
+      <c r="Q4" s="205"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="205"/>
+      <c r="T4" s="206"/>
+      <c r="U4" s="111"/>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="139"/>
-      <c r="B5" s="217"/>
-      <c r="C5" s="218"/>
-      <c r="D5" s="218"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="218"/>
-      <c r="G5" s="218"/>
-      <c r="H5" s="218"/>
-      <c r="I5" s="218"/>
-      <c r="J5" s="218"/>
-      <c r="K5" s="218"/>
-      <c r="L5" s="218"/>
-      <c r="M5" s="218"/>
-      <c r="N5" s="218"/>
-      <c r="O5" s="218"/>
-      <c r="P5" s="218"/>
-      <c r="Q5" s="218"/>
-      <c r="R5" s="176" t="s">
+      <c r="A5" s="176"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="177"/>
+      <c r="S5" s="139"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="207"/>
+      <c r="U5" s="111"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="139"/>
-      <c r="B6" s="211" t="s">
+      <c r="A6" s="176"/>
+      <c r="B6" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="212"/>
-      <c r="D6" s="237" t="s">
+      <c r="C6" s="116"/>
+      <c r="D6" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="237"/>
-      <c r="F6" s="238"/>
-      <c r="G6" s="238"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="238"/>
-      <c r="J6" s="238"/>
-      <c r="K6" s="238"/>
-      <c r="L6" s="238"/>
-      <c r="M6" s="238"/>
-      <c r="N6" s="238"/>
-      <c r="O6" s="238"/>
-      <c r="P6" s="238"/>
-      <c r="Q6" s="238"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
       <c r="R6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="233" t="s">
+      <c r="S6" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="234"/>
-      <c r="U6" s="207"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="111"/>
     </row>
     <row r="7" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="139"/>
-      <c r="B7" s="211" t="s">
+      <c r="A7" s="176"/>
+      <c r="B7" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="212"/>
-      <c r="D7" s="188" t="s">
+      <c r="C7" s="116"/>
+      <c r="D7" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="189"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
       <c r="R7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="235" t="s">
+      <c r="S7" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="236"/>
-      <c r="U7" s="207"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="111"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="139"/>
-      <c r="B8" s="211" t="s">
+      <c r="A8" s="176"/>
+      <c r="B8" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="212"/>
-      <c r="D8" s="126" t="s">
+      <c r="C8" s="116"/>
+      <c r="D8" s="234" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="127"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="194" t="s">
+      <c r="K8" s="157" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="195"/>
-      <c r="R8" s="195"/>
-      <c r="S8" s="195"/>
-      <c r="T8" s="196"/>
-      <c r="U8" s="207"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="158"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="158"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="159"/>
+      <c r="U8" s="111"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="139"/>
-      <c r="B9" s="211" t="s">
+      <c r="A9" s="176"/>
+      <c r="B9" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="212"/>
-      <c r="D9" s="188" t="s">
+      <c r="C9" s="116"/>
+      <c r="D9" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="189"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="213"/>
-      <c r="L9" s="213"/>
-      <c r="M9" s="213"/>
-      <c r="N9" s="213"/>
-      <c r="O9" s="213"/>
-      <c r="P9" s="213"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
       <c r="Q9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="214" t="s">
+      <c r="R9" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="S9" s="215"/>
-      <c r="T9" s="216"/>
-      <c r="U9" s="207"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="111"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="139"/>
-      <c r="B10" s="211" t="s">
+      <c r="A10" s="176"/>
+      <c r="B10" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="212"/>
-      <c r="D10" s="129" t="s">
+      <c r="C10" s="116"/>
+      <c r="D10" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="129"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
+      <c r="E10" s="235"/>
+      <c r="F10" s="236"/>
+      <c r="G10" s="236"/>
+      <c r="H10" s="236"/>
+      <c r="I10" s="236"/>
       <c r="J10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="197" t="s">
+      <c r="K10" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="198"/>
-      <c r="M10" s="198"/>
-      <c r="N10" s="198"/>
-      <c r="O10" s="198"/>
-      <c r="P10" s="198"/>
-      <c r="Q10" s="198"/>
-      <c r="R10" s="198"/>
-      <c r="S10" s="198"/>
-      <c r="T10" s="199"/>
-      <c r="U10" s="207"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="161"/>
+      <c r="Q10" s="161"/>
+      <c r="R10" s="161"/>
+      <c r="S10" s="161"/>
+      <c r="T10" s="162"/>
+      <c r="U10" s="111"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="139"/>
-      <c r="B11" s="227" t="s">
+      <c r="A11" s="176"/>
+      <c r="B11" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="228"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="133" t="s">
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="239" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="134"/>
-      <c r="O11" s="135"/>
-      <c r="P11" s="239" t="s">
+      <c r="F11" s="240"/>
+      <c r="G11" s="240"/>
+      <c r="H11" s="240"/>
+      <c r="I11" s="240"/>
+      <c r="J11" s="240"/>
+      <c r="K11" s="240"/>
+      <c r="L11" s="240"/>
+      <c r="M11" s="240"/>
+      <c r="N11" s="240"/>
+      <c r="O11" s="241"/>
+      <c r="P11" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="240"/>
-      <c r="R11" s="241"/>
-      <c r="S11" s="223" t="s">
+      <c r="Q11" s="109"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="224"/>
-      <c r="U11" s="207"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="111"/>
     </row>
     <row r="12" spans="1:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="139"/>
-      <c r="B12" s="229" t="s">
+      <c r="A12" s="176"/>
+      <c r="B12" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="230"/>
-      <c r="D12" s="231"/>
-      <c r="E12" s="231"/>
-      <c r="F12" s="231"/>
-      <c r="G12" s="231"/>
-      <c r="H12" s="231"/>
-      <c r="I12" s="231"/>
-      <c r="J12" s="231"/>
-      <c r="K12" s="231"/>
-      <c r="L12" s="231"/>
-      <c r="M12" s="231"/>
-      <c r="N12" s="231"/>
-      <c r="O12" s="231"/>
-      <c r="P12" s="231"/>
-      <c r="Q12" s="231"/>
-      <c r="R12" s="231"/>
-      <c r="S12" s="231"/>
-      <c r="T12" s="232"/>
-      <c r="U12" s="207"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="100"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="111"/>
     </row>
     <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="139"/>
-      <c r="B13" s="114" t="s">
+      <c r="A13" s="176"/>
+      <c r="B13" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="223"/>
+      <c r="G13" s="223"/>
+      <c r="H13" s="223"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="223"/>
+      <c r="K13" s="223"/>
+      <c r="L13" s="223"/>
+      <c r="M13" s="223"/>
+      <c r="N13" s="223"/>
       <c r="O13" s="75" t="s">
         <v>0</v>
       </c>
@@ -4166,165 +4166,165 @@
         <v>0</v>
       </c>
       <c r="Q13" s="76"/>
-      <c r="R13" s="182" t="s">
+      <c r="R13" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="182"/>
+      <c r="S13" s="144"/>
       <c r="T13" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="U13" s="207"/>
+      <c r="U13" s="111"/>
     </row>
     <row r="14" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="139"/>
-      <c r="B14" s="185" t="s">
+      <c r="A14" s="176"/>
+      <c r="B14" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="186"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="219" t="s">
+      <c r="C14" s="148"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="219"/>
-      <c r="G14" s="219"/>
-      <c r="H14" s="219"/>
-      <c r="I14" s="219"/>
-      <c r="J14" s="220"/>
-      <c r="K14" s="220"/>
-      <c r="L14" s="220"/>
-      <c r="M14" s="220"/>
-      <c r="N14" s="220"/>
-      <c r="O14" s="220"/>
-      <c r="P14" s="220"/>
-      <c r="Q14" s="220"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="127"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="127"/>
       <c r="R14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="183">
+      <c r="S14" s="145">
         <f ca="1">TODAY()</f>
-        <v>43468</v>
-      </c>
-      <c r="T14" s="184"/>
-      <c r="U14" s="207"/>
+        <v>43469</v>
+      </c>
+      <c r="T14" s="146"/>
+      <c r="U14" s="111"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="139"/>
-      <c r="B15" s="178" t="s">
+      <c r="A15" s="176"/>
+      <c r="B15" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="179"/>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="180"/>
-      <c r="N15" s="180"/>
-      <c r="O15" s="180"/>
-      <c r="P15" s="180"/>
-      <c r="Q15" s="180"/>
-      <c r="R15" s="180"/>
-      <c r="S15" s="180"/>
-      <c r="T15" s="181"/>
-      <c r="U15" s="207"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="142"/>
+      <c r="P15" s="142"/>
+      <c r="Q15" s="142"/>
+      <c r="R15" s="142"/>
+      <c r="S15" s="142"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="111"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="139"/>
-      <c r="B16" s="143" t="s">
+      <c r="A16" s="176"/>
+      <c r="B16" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="144"/>
-      <c r="T16" s="145"/>
-      <c r="U16" s="207"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="180"/>
+      <c r="L16" s="180"/>
+      <c r="M16" s="180"/>
+      <c r="N16" s="180"/>
+      <c r="O16" s="180"/>
+      <c r="P16" s="180"/>
+      <c r="Q16" s="180"/>
+      <c r="R16" s="180"/>
+      <c r="S16" s="180"/>
+      <c r="T16" s="181"/>
+      <c r="U16" s="111"/>
     </row>
     <row r="17" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="139"/>
-      <c r="B17" s="146" t="s">
+      <c r="A17" s="176"/>
+      <c r="B17" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="147"/>
-      <c r="O17" s="147"/>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="147"/>
-      <c r="R17" s="147"/>
-      <c r="S17" s="147"/>
-      <c r="T17" s="148"/>
-      <c r="U17" s="207"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="183"/>
+      <c r="L17" s="183"/>
+      <c r="M17" s="183"/>
+      <c r="N17" s="183"/>
+      <c r="O17" s="183"/>
+      <c r="P17" s="183"/>
+      <c r="Q17" s="183"/>
+      <c r="R17" s="183"/>
+      <c r="S17" s="183"/>
+      <c r="T17" s="184"/>
+      <c r="U17" s="111"/>
     </row>
     <row r="18" spans="1:22" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="139"/>
-      <c r="B18" s="149" t="s">
+      <c r="A18" s="176"/>
+      <c r="B18" s="185" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="150"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="151"/>
-      <c r="R18" s="151"/>
-      <c r="S18" s="151"/>
-      <c r="T18" s="152"/>
-      <c r="U18" s="207"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="187"/>
+      <c r="K18" s="187"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="187"/>
+      <c r="N18" s="187"/>
+      <c r="O18" s="187"/>
+      <c r="P18" s="187"/>
+      <c r="Q18" s="187"/>
+      <c r="R18" s="187"/>
+      <c r="S18" s="187"/>
+      <c r="T18" s="188"/>
+      <c r="U18" s="111"/>
     </row>
     <row r="19" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="139"/>
-      <c r="B19" s="118" t="s">
+      <c r="A19" s="176"/>
+      <c r="B19" s="226" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="120"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="227"/>
+      <c r="F19" s="227"/>
+      <c r="G19" s="227"/>
+      <c r="H19" s="227"/>
+      <c r="I19" s="227"/>
+      <c r="J19" s="227"/>
+      <c r="K19" s="227"/>
+      <c r="L19" s="227"/>
+      <c r="M19" s="227"/>
+      <c r="N19" s="227"/>
+      <c r="O19" s="228"/>
       <c r="P19" s="10" t="s">
         <v>31</v>
       </c>
@@ -4332,30 +4332,30 @@
       <c r="R19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="221" t="s">
+      <c r="S19" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="222"/>
-      <c r="U19" s="207"/>
+      <c r="T19" s="129"/>
+      <c r="U19" s="111"/>
     </row>
     <row r="20" spans="1:22" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="139"/>
-      <c r="B20" s="121" t="s">
+      <c r="A20" s="176"/>
+      <c r="B20" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="122"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="125"/>
+      <c r="C20" s="230"/>
+      <c r="D20" s="231"/>
+      <c r="E20" s="230"/>
+      <c r="F20" s="230"/>
+      <c r="G20" s="230"/>
+      <c r="H20" s="230"/>
+      <c r="I20" s="230"/>
+      <c r="J20" s="230"/>
+      <c r="K20" s="230"/>
+      <c r="L20" s="230"/>
+      <c r="M20" s="232"/>
+      <c r="N20" s="232"/>
+      <c r="O20" s="233"/>
       <c r="P20" s="65"/>
       <c r="Q20" s="17" t="s">
         <v>35</v>
@@ -4365,10 +4365,10 @@
         <v>36</v>
       </c>
       <c r="T20" s="67"/>
-      <c r="U20" s="207"/>
+      <c r="U20" s="111"/>
     </row>
     <row r="21" spans="1:22" ht="81.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="139"/>
+      <c r="A21" s="176"/>
       <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
@@ -4393,38 +4393,38 @@
       <c r="I21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="110" t="s">
+      <c r="J21" s="218" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="112" t="s">
+      <c r="K21" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="225" t="s">
+      <c r="L21" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="226"/>
-      <c r="N21" s="226"/>
-      <c r="O21" s="226"/>
-      <c r="P21" s="104" t="s">
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="212" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="R21" s="106" t="s">
+      <c r="R21" s="214" t="s">
         <v>64</v>
       </c>
       <c r="S21" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="T21" s="108" t="s">
+      <c r="T21" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="U21" s="207"/>
+      <c r="U21" s="111"/>
       <c r="V21" s="16"/>
     </row>
     <row r="22" spans="1:22" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="139"/>
+      <c r="A22" s="176"/>
       <c r="B22" s="35" t="s">
         <v>72</v>
       </c>
@@ -4437,38 +4437,38 @@
       <c r="E22" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="131" t="s">
+      <c r="F22" s="237" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="132"/>
+      <c r="G22" s="238"/>
       <c r="H22" s="38" t="s">
         <v>75</v>
       </c>
       <c r="I22" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="111"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="116" t="s">
+      <c r="J22" s="219"/>
+      <c r="K22" s="221"/>
+      <c r="L22" s="224" t="s">
         <v>90</v>
       </c>
-      <c r="M22" s="117"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="105"/>
+      <c r="M22" s="225"/>
+      <c r="N22" s="225"/>
+      <c r="O22" s="225"/>
+      <c r="P22" s="213"/>
       <c r="Q22" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="R22" s="107"/>
+      <c r="R22" s="215"/>
       <c r="S22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T22" s="109"/>
-      <c r="U22" s="207"/>
+      <c r="T22" s="217"/>
+      <c r="U22" s="111"/>
       <c r="V22" s="16"/>
     </row>
-    <row r="23" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A23" s="139"/>
+    <row r="23" spans="1:22" ht="36" x14ac:dyDescent="0.2">
+      <c r="A23" s="176"/>
       <c r="B23" s="69">
         <v>1</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>110</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
@@ -4504,26 +4504,26 @@
         <v>114</v>
       </c>
       <c r="P23" s="44">
-        <v>3990</v>
+        <v>2640</v>
       </c>
       <c r="Q23" s="71">
         <v>0</v>
       </c>
       <c r="R23" s="42">
         <f t="shared" ref="R23:R32" si="0">(P23*B23)*(1-Q23)</f>
-        <v>3990</v>
+        <v>2640</v>
       </c>
       <c r="S23" s="73">
         <v>0.3</v>
       </c>
       <c r="T23" s="43">
         <f>R23*(1-S23)</f>
-        <v>2793</v>
-      </c>
-      <c r="U23" s="207"/>
+        <v>1847.9999999999998</v>
+      </c>
+      <c r="U23" s="111"/>
     </row>
     <row r="24" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A24" s="139"/>
+      <c r="A24" s="176"/>
       <c r="B24" s="69">
         <v>0</v>
       </c>
@@ -4559,10 +4559,10 @@
         <f t="shared" ref="T24:T32" si="1">R24*(1-S24)</f>
         <v>0</v>
       </c>
-      <c r="U24" s="207"/>
+      <c r="U24" s="111"/>
     </row>
     <row r="25" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A25" s="139"/>
+      <c r="A25" s="176"/>
       <c r="B25" s="69">
         <v>0</v>
       </c>
@@ -4598,10 +4598,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U25" s="207"/>
+      <c r="U25" s="111"/>
     </row>
     <row r="26" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A26" s="139"/>
+      <c r="A26" s="176"/>
       <c r="B26" s="69">
         <v>0</v>
       </c>
@@ -4637,10 +4637,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U26" s="207"/>
+      <c r="U26" s="111"/>
     </row>
     <row r="27" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A27" s="139"/>
+      <c r="A27" s="176"/>
       <c r="B27" s="69">
         <v>0</v>
       </c>
@@ -4676,10 +4676,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U27" s="207"/>
+      <c r="U27" s="111"/>
     </row>
     <row r="28" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A28" s="139"/>
+      <c r="A28" s="176"/>
       <c r="B28" s="69">
         <v>0</v>
       </c>
@@ -4715,10 +4715,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28" s="207"/>
+      <c r="U28" s="111"/>
     </row>
     <row r="29" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A29" s="139"/>
+      <c r="A29" s="176"/>
       <c r="B29" s="69">
         <v>0</v>
       </c>
@@ -4752,10 +4752,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U29" s="207"/>
+      <c r="U29" s="111"/>
     </row>
     <row r="30" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A30" s="139"/>
+      <c r="A30" s="176"/>
       <c r="B30" s="69">
         <v>0</v>
       </c>
@@ -4789,10 +4789,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U30" s="207"/>
+      <c r="U30" s="111"/>
     </row>
     <row r="31" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A31" s="139"/>
+      <c r="A31" s="176"/>
       <c r="B31" s="69">
         <v>0</v>
       </c>
@@ -4828,10 +4828,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U31" s="207"/>
+      <c r="U31" s="111"/>
     </row>
     <row r="32" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="139"/>
+      <c r="A32" s="176"/>
       <c r="B32" s="70">
         <v>0</v>
       </c>
@@ -4867,16 +4867,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="207"/>
+      <c r="U32" s="111"/>
     </row>
     <row r="33" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="139"/>
+      <c r="A33" s="176"/>
       <c r="B33" s="45">
         <v>0</v>
       </c>
       <c r="C33" s="46"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="142"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="178"/>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
@@ -4899,16 +4899,16 @@
         <f>(R33-(R33*S33))*B33</f>
         <v>0</v>
       </c>
-      <c r="U33" s="207"/>
+      <c r="U33" s="111"/>
     </row>
     <row r="34" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="139"/>
+      <c r="A34" s="176"/>
       <c r="B34" s="45">
         <v>0</v>
       </c>
       <c r="C34" s="46"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
@@ -4931,16 +4931,16 @@
         <f>(R34-(R34*S34))*B34</f>
         <v>0</v>
       </c>
-      <c r="U34" s="207"/>
+      <c r="U34" s="111"/>
     </row>
     <row r="35" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="139"/>
+      <c r="A35" s="176"/>
       <c r="B35" s="45">
         <v>0</v>
       </c>
       <c r="C35" s="46"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -4963,87 +4963,87 @@
         <f>(R35-(R35*S35))*B35</f>
         <v>0</v>
       </c>
-      <c r="U35" s="207"/>
+      <c r="U35" s="111"/>
     </row>
     <row r="36" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="139"/>
-      <c r="B36" s="158" t="s">
+      <c r="A36" s="176"/>
+      <c r="B36" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="159"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="159"/>
-      <c r="I36" s="159"/>
-      <c r="J36" s="159"/>
-      <c r="K36" s="159"/>
-      <c r="L36" s="163" t="s">
+      <c r="C36" s="190"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="190"/>
+      <c r="G36" s="190"/>
+      <c r="H36" s="190"/>
+      <c r="I36" s="190"/>
+      <c r="J36" s="190"/>
+      <c r="K36" s="190"/>
+      <c r="L36" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="163"/>
-      <c r="N36" s="163"/>
-      <c r="O36" s="163"/>
+      <c r="M36" s="194"/>
+      <c r="N36" s="194"/>
+      <c r="O36" s="194"/>
       <c r="P36" s="51">
         <f>SUM(P23:P32)</f>
-        <v>3990</v>
+        <v>2640</v>
       </c>
       <c r="Q36" s="52"/>
-      <c r="R36" s="156" t="s">
+      <c r="R36" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="S36" s="157"/>
+      <c r="S36" s="152"/>
       <c r="T36" s="53">
         <f>SUM(T23:T35)</f>
-        <v>2793</v>
-      </c>
-      <c r="U36" s="207"/>
+        <v>1847.9999999999998</v>
+      </c>
+      <c r="U36" s="111"/>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="139"/>
-      <c r="B37" s="202" t="s">
+      <c r="A37" s="176"/>
+      <c r="B37" s="168" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="171" t="s">
+      <c r="D37" s="202" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="164" t="s">
+      <c r="E37" s="203"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="203"/>
+      <c r="H37" s="203"/>
+      <c r="I37" s="203"/>
+      <c r="J37" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="165"/>
-      <c r="L37" s="165"/>
-      <c r="M37" s="165"/>
-      <c r="N37" s="165"/>
-      <c r="O37" s="165"/>
+      <c r="K37" s="196"/>
+      <c r="L37" s="196"/>
+      <c r="M37" s="196"/>
+      <c r="N37" s="196"/>
+      <c r="O37" s="196"/>
       <c r="P37" s="55">
         <f>SUM(R23:R32)</f>
-        <v>3990</v>
+        <v>2640</v>
       </c>
       <c r="Q37" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="156" t="s">
+      <c r="R37" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="S37" s="157"/>
+      <c r="S37" s="152"/>
       <c r="T37" s="56">
         <f>T36*0.16</f>
-        <v>446.88</v>
-      </c>
-      <c r="U37" s="207"/>
+        <v>295.67999999999995</v>
+      </c>
+      <c r="U37" s="111"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="139"/>
-      <c r="B38" s="203"/>
+      <c r="A38" s="176"/>
+      <c r="B38" s="169"/>
       <c r="C38" s="57"/>
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
@@ -5059,74 +5059,74 @@
       <c r="O38" s="52"/>
       <c r="P38" s="52"/>
       <c r="Q38" s="52"/>
-      <c r="R38" s="190" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="191"/>
+      <c r="R38" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="154"/>
       <c r="T38" s="58">
         <v>0</v>
       </c>
-      <c r="U38" s="207"/>
+      <c r="U38" s="111"/>
     </row>
     <row r="39" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="139"/>
-      <c r="B39" s="203"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="169"/>
       <c r="C39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="200" t="s">
+      <c r="D39" s="166" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="201"/>
-      <c r="F39" s="201"/>
-      <c r="G39" s="201"/>
-      <c r="H39" s="201"/>
-      <c r="I39" s="201"/>
-      <c r="J39" s="201"/>
-      <c r="K39" s="204"/>
-      <c r="L39" s="205"/>
-      <c r="M39" s="205"/>
-      <c r="N39" s="205"/>
-      <c r="O39" s="205"/>
-      <c r="P39" s="205"/>
-      <c r="Q39" s="206"/>
-      <c r="R39" s="192" t="s">
+      <c r="E39" s="167"/>
+      <c r="F39" s="167"/>
+      <c r="G39" s="167"/>
+      <c r="H39" s="167"/>
+      <c r="I39" s="167"/>
+      <c r="J39" s="167"/>
+      <c r="K39" s="170"/>
+      <c r="L39" s="171"/>
+      <c r="M39" s="171"/>
+      <c r="N39" s="171"/>
+      <c r="O39" s="171"/>
+      <c r="P39" s="171"/>
+      <c r="Q39" s="172"/>
+      <c r="R39" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="S39" s="193"/>
+      <c r="S39" s="156"/>
       <c r="T39" s="59">
         <f>T36+T37+T38</f>
-        <v>3239.88</v>
-      </c>
-      <c r="U39" s="207"/>
+        <v>2143.6799999999998</v>
+      </c>
+      <c r="U39" s="111"/>
     </row>
     <row r="40" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="139"/>
-      <c r="B40" s="166" t="s">
+      <c r="A40" s="176"/>
+      <c r="B40" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="167"/>
-      <c r="D40" s="168"/>
-      <c r="E40" s="169"/>
-      <c r="F40" s="169"/>
-      <c r="G40" s="169"/>
-      <c r="H40" s="169"/>
-      <c r="I40" s="169"/>
-      <c r="J40" s="169"/>
-      <c r="K40" s="169"/>
-      <c r="L40" s="169"/>
-      <c r="M40" s="169"/>
-      <c r="N40" s="169"/>
-      <c r="O40" s="169"/>
-      <c r="P40" s="169"/>
-      <c r="Q40" s="169"/>
-      <c r="R40" s="169"/>
-      <c r="S40" s="170"/>
+      <c r="C40" s="198"/>
+      <c r="D40" s="199"/>
+      <c r="E40" s="200"/>
+      <c r="F40" s="200"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="200"/>
+      <c r="K40" s="200"/>
+      <c r="L40" s="200"/>
+      <c r="M40" s="200"/>
+      <c r="N40" s="200"/>
+      <c r="O40" s="200"/>
+      <c r="P40" s="200"/>
+      <c r="Q40" s="200"/>
+      <c r="R40" s="200"/>
+      <c r="S40" s="201"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="207"/>
+      <c r="U40" s="111"/>
     </row>
     <row r="41" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="139"/>
+      <c r="A41" s="176"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
@@ -5146,114 +5146,156 @@
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
       <c r="T41" s="22"/>
-      <c r="U41" s="207"/>
+      <c r="U41" s="111"/>
     </row>
     <row r="42" spans="1:21" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="139"/>
-      <c r="B42" s="160" t="s">
+      <c r="A42" s="176"/>
+      <c r="B42" s="191" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="161"/>
-      <c r="D42" s="161"/>
-      <c r="E42" s="161"/>
-      <c r="F42" s="161"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="161"/>
-      <c r="K42" s="161"/>
-      <c r="L42" s="161"/>
-      <c r="M42" s="161"/>
-      <c r="N42" s="161"/>
-      <c r="O42" s="161"/>
-      <c r="P42" s="161"/>
-      <c r="Q42" s="161"/>
-      <c r="R42" s="161"/>
-      <c r="S42" s="161"/>
-      <c r="T42" s="162"/>
-      <c r="U42" s="207"/>
+      <c r="C42" s="192"/>
+      <c r="D42" s="192"/>
+      <c r="E42" s="192"/>
+      <c r="F42" s="192"/>
+      <c r="G42" s="192"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="192"/>
+      <c r="K42" s="192"/>
+      <c r="L42" s="192"/>
+      <c r="M42" s="192"/>
+      <c r="N42" s="192"/>
+      <c r="O42" s="192"/>
+      <c r="P42" s="192"/>
+      <c r="Q42" s="192"/>
+      <c r="R42" s="192"/>
+      <c r="S42" s="192"/>
+      <c r="T42" s="193"/>
+      <c r="U42" s="111"/>
     </row>
     <row r="43" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="140"/>
-      <c r="B43" s="208" t="s">
+      <c r="A43" s="177"/>
+      <c r="B43" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="209"/>
-      <c r="D43" s="210"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="154"/>
-      <c r="G43" s="154"/>
-      <c r="H43" s="154"/>
-      <c r="I43" s="154"/>
-      <c r="J43" s="154"/>
-      <c r="K43" s="154"/>
-      <c r="L43" s="154"/>
-      <c r="M43" s="154"/>
-      <c r="N43" s="154"/>
-      <c r="O43" s="154"/>
-      <c r="P43" s="154"/>
-      <c r="Q43" s="154"/>
-      <c r="R43" s="154"/>
-      <c r="S43" s="154"/>
-      <c r="T43" s="155"/>
-      <c r="U43" s="207"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="164"/>
+      <c r="G43" s="164"/>
+      <c r="H43" s="164"/>
+      <c r="I43" s="164"/>
+      <c r="J43" s="164"/>
+      <c r="K43" s="164"/>
+      <c r="L43" s="164"/>
+      <c r="M43" s="164"/>
+      <c r="N43" s="164"/>
+      <c r="O43" s="164"/>
+      <c r="P43" s="164"/>
+      <c r="Q43" s="164"/>
+      <c r="R43" s="164"/>
+      <c r="S43" s="164"/>
+      <c r="T43" s="165"/>
+      <c r="U43" s="111"/>
     </row>
     <row r="44" spans="1:21" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
-      <c r="B44" s="208" t="s">
+      <c r="B44" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="209"/>
-      <c r="D44" s="209"/>
-      <c r="E44" s="153"/>
-      <c r="F44" s="154"/>
-      <c r="G44" s="154"/>
-      <c r="H44" s="154"/>
-      <c r="I44" s="154"/>
-      <c r="J44" s="154"/>
-      <c r="K44" s="154"/>
-      <c r="L44" s="154"/>
-      <c r="M44" s="154"/>
-      <c r="N44" s="154"/>
-      <c r="O44" s="154"/>
-      <c r="P44" s="154"/>
-      <c r="Q44" s="154"/>
-      <c r="R44" s="154"/>
-      <c r="S44" s="154"/>
-      <c r="T44" s="155"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="163"/>
+      <c r="F44" s="164"/>
+      <c r="G44" s="164"/>
+      <c r="H44" s="164"/>
+      <c r="I44" s="164"/>
+      <c r="J44" s="164"/>
+      <c r="K44" s="164"/>
+      <c r="L44" s="164"/>
+      <c r="M44" s="164"/>
+      <c r="N44" s="164"/>
+      <c r="O44" s="164"/>
+      <c r="P44" s="164"/>
+      <c r="Q44" s="164"/>
+      <c r="R44" s="164"/>
+      <c r="S44" s="164"/>
+      <c r="T44" s="165"/>
       <c r="U44" s="33"/>
     </row>
     <row r="45" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="173"/>
-      <c r="B45" s="174"/>
-      <c r="C45" s="174"/>
-      <c r="D45" s="174"/>
-      <c r="E45" s="174"/>
-      <c r="F45" s="174"/>
-      <c r="G45" s="174"/>
-      <c r="H45" s="174"/>
-      <c r="I45" s="174"/>
-      <c r="J45" s="174"/>
-      <c r="K45" s="174"/>
-      <c r="L45" s="174"/>
-      <c r="M45" s="174"/>
-      <c r="N45" s="174"/>
-      <c r="O45" s="174"/>
-      <c r="P45" s="174"/>
-      <c r="Q45" s="174"/>
-      <c r="R45" s="174"/>
-      <c r="S45" s="174"/>
-      <c r="T45" s="174"/>
-      <c r="U45" s="175"/>
+      <c r="A45" s="135"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="136"/>
+      <c r="K45" s="136"/>
+      <c r="L45" s="136"/>
+      <c r="M45" s="136"/>
+      <c r="N45" s="136"/>
+      <c r="O45" s="136"/>
+      <c r="P45" s="136"/>
+      <c r="Q45" s="136"/>
+      <c r="R45" s="136"/>
+      <c r="S45" s="136"/>
+      <c r="T45" s="136"/>
+      <c r="U45" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B16:T16"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="B18:T18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B42:T42"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:S40"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B15:T15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="E44:T44"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="K39:Q39"/>
     <mergeCell ref="U2:U43"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
@@ -5270,54 +5312,12 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="L21:O21"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B15:T15"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="E44:T44"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B16:T16"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="B18:T18"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B42:T42"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:S40"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="P11:R11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
+++ b/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EC16\Documents\SOSQTP\Documentos de Venta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86030B5F-46E3-448B-A781-2FC4B13B366B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E39013-B5A9-4FCE-87D9-DDEAFF2E3915}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="195" windowWidth="14025" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1002,22 +1002,22 @@
     <t>1</t>
   </si>
   <si>
-    <t>P3551</t>
-  </si>
-  <si>
     <t>FACT ELECTRONICA ANUAL</t>
   </si>
   <si>
-    <t>6D4D</t>
-  </si>
-  <si>
-    <t>42D6</t>
-  </si>
-  <si>
-    <t>B29D</t>
-  </si>
-  <si>
-    <t>9646</t>
+    <t>P3592</t>
+  </si>
+  <si>
+    <t>AEDC</t>
+  </si>
+  <si>
+    <t>A873</t>
+  </si>
+  <si>
+    <t>4666</t>
+  </si>
+  <si>
+    <t>9EDE</t>
   </si>
 </sst>
 </file>
@@ -2940,117 +2940,234 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3091,14 +3208,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3115,7 +3229,7 @@
     <xf numFmtId="0" fontId="94" fillId="5" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3130,15 +3244,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3160,210 +3265,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3771,8 +3771,8 @@
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3803,32 +3803,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="136" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="175"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="138"/>
     </row>
     <row r="2" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="176"/>
+      <c r="A2" s="139"/>
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
@@ -3841,21 +3841,21 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
-      <c r="L2" s="207" t="s">
+      <c r="L2" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="111"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="207"/>
     </row>
     <row r="3" spans="1:21" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="176"/>
+      <c r="A3" s="139"/>
       <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
@@ -3868,297 +3868,297 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
-      <c r="L3" s="210" t="s">
+      <c r="L3" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="210"/>
-      <c r="N3" s="210"/>
-      <c r="O3" s="210"/>
-      <c r="P3" s="210"/>
-      <c r="Q3" s="210"/>
-      <c r="R3" s="210"/>
-      <c r="S3" s="210"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="111"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="207"/>
     </row>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="176"/>
-      <c r="B4" s="204" t="s">
+      <c r="A4" s="139"/>
+      <c r="B4" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
-      <c r="L4" s="205"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="205"/>
-      <c r="O4" s="205"/>
-      <c r="P4" s="205"/>
-      <c r="Q4" s="205"/>
-      <c r="R4" s="205"/>
-      <c r="S4" s="205"/>
-      <c r="T4" s="206"/>
-      <c r="U4" s="111"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="207"/>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="176"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="138" t="s">
+      <c r="A5" s="139"/>
+      <c r="B5" s="217"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="218"/>
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="218"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="218"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="218"/>
+      <c r="R5" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="139"/>
+      <c r="S5" s="177"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="111"/>
+      <c r="U5" s="207"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="176"/>
-      <c r="B6" s="115" t="s">
+      <c r="A6" s="139"/>
+      <c r="B6" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="106" t="s">
+      <c r="C6" s="212"/>
+      <c r="D6" s="237" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="238"/>
+      <c r="L6" s="238"/>
+      <c r="M6" s="238"/>
+      <c r="N6" s="238"/>
+      <c r="O6" s="238"/>
+      <c r="P6" s="238"/>
+      <c r="Q6" s="238"/>
       <c r="R6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="102" t="s">
+      <c r="S6" s="233" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="103"/>
-      <c r="U6" s="111"/>
+      <c r="T6" s="234"/>
+      <c r="U6" s="207"/>
     </row>
     <row r="7" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="176"/>
-      <c r="B7" s="115" t="s">
+      <c r="A7" s="139"/>
+      <c r="B7" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="117" t="s">
+      <c r="C7" s="212"/>
+      <c r="D7" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127"/>
       <c r="R7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="104" t="s">
+      <c r="S7" s="235" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="105"/>
-      <c r="U7" s="111"/>
+      <c r="T7" s="236"/>
+      <c r="U7" s="207"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="176"/>
-      <c r="B8" s="115" t="s">
+      <c r="A8" s="139"/>
+      <c r="B8" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="234" t="s">
+      <c r="C8" s="212"/>
+      <c r="D8" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="150"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="157" t="s">
+      <c r="K8" s="194" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="158"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="158"/>
-      <c r="O8" s="158"/>
-      <c r="P8" s="158"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="159"/>
-      <c r="U8" s="111"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="128"/>
+      <c r="Q8" s="195"/>
+      <c r="R8" s="195"/>
+      <c r="S8" s="195"/>
+      <c r="T8" s="196"/>
+      <c r="U8" s="207"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="176"/>
-      <c r="B9" s="115" t="s">
+      <c r="A9" s="139"/>
+      <c r="B9" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117" t="s">
+      <c r="C9" s="212"/>
+      <c r="D9" s="188" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="195"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="213"/>
+      <c r="L9" s="213"/>
+      <c r="M9" s="213"/>
+      <c r="N9" s="213"/>
+      <c r="O9" s="213"/>
+      <c r="P9" s="213"/>
       <c r="Q9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="121" t="s">
+      <c r="R9" s="214" t="s">
         <v>105</v>
       </c>
-      <c r="S9" s="122"/>
-      <c r="T9" s="123"/>
-      <c r="U9" s="111"/>
+      <c r="S9" s="215"/>
+      <c r="T9" s="216"/>
+      <c r="U9" s="207"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="176"/>
-      <c r="B10" s="115" t="s">
+      <c r="A10" s="139"/>
+      <c r="B10" s="211" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="235" t="s">
+      <c r="C10" s="212"/>
+      <c r="D10" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="235"/>
-      <c r="F10" s="236"/>
-      <c r="G10" s="236"/>
-      <c r="H10" s="236"/>
-      <c r="I10" s="236"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
       <c r="J10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="160" t="s">
+      <c r="K10" s="197" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="161"/>
-      <c r="S10" s="161"/>
-      <c r="T10" s="162"/>
-      <c r="U10" s="111"/>
+      <c r="L10" s="198"/>
+      <c r="M10" s="198"/>
+      <c r="N10" s="198"/>
+      <c r="O10" s="198"/>
+      <c r="P10" s="198"/>
+      <c r="Q10" s="198"/>
+      <c r="R10" s="198"/>
+      <c r="S10" s="198"/>
+      <c r="T10" s="199"/>
+      <c r="U10" s="207"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="176"/>
-      <c r="B11" s="96" t="s">
+      <c r="A11" s="139"/>
+      <c r="B11" s="227" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="239" t="s">
+      <c r="C11" s="228"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="240"/>
-      <c r="G11" s="240"/>
-      <c r="H11" s="240"/>
-      <c r="I11" s="240"/>
-      <c r="J11" s="240"/>
-      <c r="K11" s="240"/>
-      <c r="L11" s="240"/>
-      <c r="M11" s="240"/>
-      <c r="N11" s="240"/>
-      <c r="O11" s="241"/>
-      <c r="P11" s="108" t="s">
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="239" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="130" t="s">
+      <c r="Q11" s="240"/>
+      <c r="R11" s="241"/>
+      <c r="S11" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="131"/>
-      <c r="U11" s="111"/>
+      <c r="T11" s="224"/>
+      <c r="U11" s="207"/>
     </row>
     <row r="12" spans="1:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="176"/>
-      <c r="B12" s="98" t="s">
+      <c r="A12" s="139"/>
+      <c r="B12" s="229" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="111"/>
+      <c r="C12" s="230"/>
+      <c r="D12" s="231"/>
+      <c r="E12" s="231"/>
+      <c r="F12" s="231"/>
+      <c r="G12" s="231"/>
+      <c r="H12" s="231"/>
+      <c r="I12" s="231"/>
+      <c r="J12" s="231"/>
+      <c r="K12" s="231"/>
+      <c r="L12" s="231"/>
+      <c r="M12" s="231"/>
+      <c r="N12" s="231"/>
+      <c r="O12" s="231"/>
+      <c r="P12" s="231"/>
+      <c r="Q12" s="231"/>
+      <c r="R12" s="231"/>
+      <c r="S12" s="231"/>
+      <c r="T12" s="232"/>
+      <c r="U12" s="207"/>
     </row>
     <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="176"/>
-      <c r="B13" s="222" t="s">
+      <c r="A13" s="139"/>
+      <c r="B13" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="223"/>
-      <c r="D13" s="223"/>
-      <c r="E13" s="223"/>
-      <c r="F13" s="223"/>
-      <c r="G13" s="223"/>
-      <c r="H13" s="223"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="223"/>
-      <c r="K13" s="223"/>
-      <c r="L13" s="223"/>
-      <c r="M13" s="223"/>
-      <c r="N13" s="223"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
       <c r="O13" s="75" t="s">
         <v>0</v>
       </c>
@@ -4166,165 +4166,165 @@
         <v>0</v>
       </c>
       <c r="Q13" s="76"/>
-      <c r="R13" s="144" t="s">
+      <c r="R13" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="144"/>
+      <c r="S13" s="182"/>
       <c r="T13" s="95" t="s">
-        <v>109</v>
-      </c>
-      <c r="U13" s="111"/>
+        <v>110</v>
+      </c>
+      <c r="U13" s="207"/>
     </row>
     <row r="14" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="176"/>
-      <c r="B14" s="147" t="s">
+      <c r="A14" s="139"/>
+      <c r="B14" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="148"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="126" t="s">
+      <c r="C14" s="186"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="127"/>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="127"/>
+      <c r="F14" s="219"/>
+      <c r="G14" s="219"/>
+      <c r="H14" s="219"/>
+      <c r="I14" s="219"/>
+      <c r="J14" s="220"/>
+      <c r="K14" s="220"/>
+      <c r="L14" s="220"/>
+      <c r="M14" s="220"/>
+      <c r="N14" s="220"/>
+      <c r="O14" s="220"/>
+      <c r="P14" s="220"/>
+      <c r="Q14" s="220"/>
       <c r="R14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="145">
+      <c r="S14" s="183">
         <f ca="1">TODAY()</f>
-        <v>43469</v>
-      </c>
-      <c r="T14" s="146"/>
-      <c r="U14" s="111"/>
+        <v>43486</v>
+      </c>
+      <c r="T14" s="184"/>
+      <c r="U14" s="207"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="176"/>
-      <c r="B15" s="140" t="s">
+      <c r="A15" s="139"/>
+      <c r="B15" s="178" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="141"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="142"/>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="142"/>
-      <c r="S15" s="142"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="111"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="180"/>
+      <c r="N15" s="180"/>
+      <c r="O15" s="180"/>
+      <c r="P15" s="180"/>
+      <c r="Q15" s="180"/>
+      <c r="R15" s="180"/>
+      <c r="S15" s="180"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="207"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="176"/>
-      <c r="B16" s="179" t="s">
+      <c r="A16" s="139"/>
+      <c r="B16" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="180"/>
-      <c r="D16" s="180"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="180"/>
-      <c r="N16" s="180"/>
-      <c r="O16" s="180"/>
-      <c r="P16" s="180"/>
-      <c r="Q16" s="180"/>
-      <c r="R16" s="180"/>
-      <c r="S16" s="180"/>
-      <c r="T16" s="181"/>
-      <c r="U16" s="111"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="144"/>
+      <c r="N16" s="144"/>
+      <c r="O16" s="144"/>
+      <c r="P16" s="144"/>
+      <c r="Q16" s="144"/>
+      <c r="R16" s="144"/>
+      <c r="S16" s="144"/>
+      <c r="T16" s="145"/>
+      <c r="U16" s="207"/>
     </row>
     <row r="17" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="176"/>
-      <c r="B17" s="182" t="s">
+      <c r="A17" s="139"/>
+      <c r="B17" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="183"/>
-      <c r="L17" s="183"/>
-      <c r="M17" s="183"/>
-      <c r="N17" s="183"/>
-      <c r="O17" s="183"/>
-      <c r="P17" s="183"/>
-      <c r="Q17" s="183"/>
-      <c r="R17" s="183"/>
-      <c r="S17" s="183"/>
-      <c r="T17" s="184"/>
-      <c r="U17" s="111"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="147"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="147"/>
+      <c r="S17" s="147"/>
+      <c r="T17" s="148"/>
+      <c r="U17" s="207"/>
     </row>
     <row r="18" spans="1:22" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="176"/>
-      <c r="B18" s="185" t="s">
+      <c r="A18" s="139"/>
+      <c r="B18" s="149" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="186"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="187"/>
-      <c r="L18" s="187"/>
-      <c r="M18" s="187"/>
-      <c r="N18" s="187"/>
-      <c r="O18" s="187"/>
-      <c r="P18" s="187"/>
-      <c r="Q18" s="187"/>
-      <c r="R18" s="187"/>
-      <c r="S18" s="187"/>
-      <c r="T18" s="188"/>
-      <c r="U18" s="111"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="151"/>
+      <c r="T18" s="152"/>
+      <c r="U18" s="207"/>
     </row>
     <row r="19" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="176"/>
-      <c r="B19" s="226" t="s">
+      <c r="A19" s="139"/>
+      <c r="B19" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="227"/>
-      <c r="D19" s="227"/>
-      <c r="E19" s="227"/>
-      <c r="F19" s="227"/>
-      <c r="G19" s="227"/>
-      <c r="H19" s="227"/>
-      <c r="I19" s="227"/>
-      <c r="J19" s="227"/>
-      <c r="K19" s="227"/>
-      <c r="L19" s="227"/>
-      <c r="M19" s="227"/>
-      <c r="N19" s="227"/>
-      <c r="O19" s="228"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="120"/>
       <c r="P19" s="10" t="s">
         <v>31</v>
       </c>
@@ -4332,30 +4332,30 @@
       <c r="R19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="128" t="s">
+      <c r="S19" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="129"/>
-      <c r="U19" s="111"/>
+      <c r="T19" s="222"/>
+      <c r="U19" s="207"/>
     </row>
     <row r="20" spans="1:22" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="176"/>
-      <c r="B20" s="229" t="s">
+      <c r="A20" s="139"/>
+      <c r="B20" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="230"/>
-      <c r="D20" s="231"/>
-      <c r="E20" s="230"/>
-      <c r="F20" s="230"/>
-      <c r="G20" s="230"/>
-      <c r="H20" s="230"/>
-      <c r="I20" s="230"/>
-      <c r="J20" s="230"/>
-      <c r="K20" s="230"/>
-      <c r="L20" s="230"/>
-      <c r="M20" s="232"/>
-      <c r="N20" s="232"/>
-      <c r="O20" s="233"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="125"/>
       <c r="P20" s="65"/>
       <c r="Q20" s="17" t="s">
         <v>35</v>
@@ -4365,10 +4365,10 @@
         <v>36</v>
       </c>
       <c r="T20" s="67"/>
-      <c r="U20" s="111"/>
+      <c r="U20" s="207"/>
     </row>
     <row r="21" spans="1:22" ht="81.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="176"/>
+      <c r="A21" s="139"/>
       <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
@@ -4393,38 +4393,38 @@
       <c r="I21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="218" t="s">
+      <c r="J21" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="220" t="s">
+      <c r="K21" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="132" t="s">
+      <c r="L21" s="225" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="133"/>
-      <c r="N21" s="133"/>
-      <c r="O21" s="133"/>
-      <c r="P21" s="212" t="s">
+      <c r="M21" s="226"/>
+      <c r="N21" s="226"/>
+      <c r="O21" s="226"/>
+      <c r="P21" s="104" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="R21" s="214" t="s">
+      <c r="R21" s="106" t="s">
         <v>64</v>
       </c>
       <c r="S21" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="T21" s="216" t="s">
+      <c r="T21" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="U21" s="111"/>
+      <c r="U21" s="207"/>
       <c r="V21" s="16"/>
     </row>
     <row r="22" spans="1:22" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="176"/>
+      <c r="A22" s="139"/>
       <c r="B22" s="35" t="s">
         <v>72</v>
       </c>
@@ -4437,38 +4437,38 @@
       <c r="E22" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="237" t="s">
+      <c r="F22" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="238"/>
+      <c r="G22" s="132"/>
       <c r="H22" s="38" t="s">
         <v>75</v>
       </c>
       <c r="I22" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="219"/>
-      <c r="K22" s="221"/>
-      <c r="L22" s="224" t="s">
+      <c r="J22" s="111"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="M22" s="225"/>
-      <c r="N22" s="225"/>
-      <c r="O22" s="225"/>
-      <c r="P22" s="213"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="105"/>
       <c r="Q22" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="R22" s="215"/>
+      <c r="R22" s="107"/>
       <c r="S22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T22" s="217"/>
-      <c r="U22" s="111"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="207"/>
       <c r="V22" s="16"/>
     </row>
     <row r="23" spans="1:22" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="176"/>
+      <c r="A23" s="139"/>
       <c r="B23" s="69">
         <v>1</v>
       </c>
@@ -4476,14 +4476,20 @@
         <v>47</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
+      <c r="F23" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>108</v>
+      </c>
       <c r="I23" s="40" t="s">
         <v>108</v>
       </c>
@@ -4520,10 +4526,10 @@
         <f>R23*(1-S23)</f>
         <v>1847.9999999999998</v>
       </c>
-      <c r="U23" s="111"/>
+      <c r="U23" s="207"/>
     </row>
     <row r="24" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A24" s="176"/>
+      <c r="A24" s="139"/>
       <c r="B24" s="69">
         <v>0</v>
       </c>
@@ -4559,10 +4565,10 @@
         <f t="shared" ref="T24:T32" si="1">R24*(1-S24)</f>
         <v>0</v>
       </c>
-      <c r="U24" s="111"/>
+      <c r="U24" s="207"/>
     </row>
     <row r="25" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A25" s="176"/>
+      <c r="A25" s="139"/>
       <c r="B25" s="69">
         <v>0</v>
       </c>
@@ -4598,10 +4604,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U25" s="111"/>
+      <c r="U25" s="207"/>
     </row>
     <row r="26" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A26" s="176"/>
+      <c r="A26" s="139"/>
       <c r="B26" s="69">
         <v>0</v>
       </c>
@@ -4637,10 +4643,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U26" s="111"/>
+      <c r="U26" s="207"/>
     </row>
     <row r="27" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A27" s="176"/>
+      <c r="A27" s="139"/>
       <c r="B27" s="69">
         <v>0</v>
       </c>
@@ -4676,10 +4682,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U27" s="111"/>
+      <c r="U27" s="207"/>
     </row>
     <row r="28" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A28" s="176"/>
+      <c r="A28" s="139"/>
       <c r="B28" s="69">
         <v>0</v>
       </c>
@@ -4715,10 +4721,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28" s="111"/>
+      <c r="U28" s="207"/>
     </row>
     <row r="29" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A29" s="176"/>
+      <c r="A29" s="139"/>
       <c r="B29" s="69">
         <v>0</v>
       </c>
@@ -4752,10 +4758,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U29" s="111"/>
+      <c r="U29" s="207"/>
     </row>
     <row r="30" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A30" s="176"/>
+      <c r="A30" s="139"/>
       <c r="B30" s="69">
         <v>0</v>
       </c>
@@ -4789,10 +4795,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U30" s="111"/>
+      <c r="U30" s="207"/>
     </row>
     <row r="31" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A31" s="176"/>
+      <c r="A31" s="139"/>
       <c r="B31" s="69">
         <v>0</v>
       </c>
@@ -4828,10 +4834,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U31" s="111"/>
+      <c r="U31" s="207"/>
     </row>
     <row r="32" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="176"/>
+      <c r="A32" s="139"/>
       <c r="B32" s="70">
         <v>0</v>
       </c>
@@ -4867,16 +4873,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="111"/>
+      <c r="U32" s="207"/>
     </row>
     <row r="33" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="176"/>
+      <c r="A33" s="139"/>
       <c r="B33" s="45">
         <v>0</v>
       </c>
       <c r="C33" s="46"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="178"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="142"/>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
@@ -4899,16 +4905,16 @@
         <f>(R33-(R33*S33))*B33</f>
         <v>0</v>
       </c>
-      <c r="U33" s="111"/>
+      <c r="U33" s="207"/>
     </row>
     <row r="34" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="176"/>
+      <c r="A34" s="139"/>
       <c r="B34" s="45">
         <v>0</v>
       </c>
       <c r="C34" s="46"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
@@ -4931,16 +4937,16 @@
         <f>(R34-(R34*S34))*B34</f>
         <v>0</v>
       </c>
-      <c r="U34" s="111"/>
+      <c r="U34" s="207"/>
     </row>
     <row r="35" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="176"/>
+      <c r="A35" s="139"/>
       <c r="B35" s="45">
         <v>0</v>
       </c>
       <c r="C35" s="46"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -4963,67 +4969,67 @@
         <f>(R35-(R35*S35))*B35</f>
         <v>0</v>
       </c>
-      <c r="U35" s="111"/>
+      <c r="U35" s="207"/>
     </row>
     <row r="36" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="176"/>
-      <c r="B36" s="189" t="s">
+      <c r="A36" s="139"/>
+      <c r="B36" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="190"/>
-      <c r="G36" s="190"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="190"/>
-      <c r="J36" s="190"/>
-      <c r="K36" s="190"/>
-      <c r="L36" s="194" t="s">
+      <c r="C36" s="159"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="159"/>
+      <c r="K36" s="159"/>
+      <c r="L36" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="194"/>
-      <c r="N36" s="194"/>
-      <c r="O36" s="194"/>
+      <c r="M36" s="163"/>
+      <c r="N36" s="163"/>
+      <c r="O36" s="163"/>
       <c r="P36" s="51">
         <f>SUM(P23:P32)</f>
         <v>2640</v>
       </c>
       <c r="Q36" s="52"/>
-      <c r="R36" s="151" t="s">
+      <c r="R36" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="S36" s="152"/>
+      <c r="S36" s="157"/>
       <c r="T36" s="53">
         <f>SUM(T23:T35)</f>
         <v>1847.9999999999998</v>
       </c>
-      <c r="U36" s="111"/>
+      <c r="U36" s="207"/>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="176"/>
-      <c r="B37" s="168" t="s">
+      <c r="A37" s="139"/>
+      <c r="B37" s="202" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="202" t="s">
+      <c r="D37" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="203"/>
-      <c r="F37" s="203"/>
-      <c r="G37" s="203"/>
-      <c r="H37" s="203"/>
-      <c r="I37" s="203"/>
-      <c r="J37" s="195" t="s">
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="172"/>
+      <c r="I37" s="172"/>
+      <c r="J37" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="196"/>
-      <c r="L37" s="196"/>
-      <c r="M37" s="196"/>
-      <c r="N37" s="196"/>
-      <c r="O37" s="196"/>
+      <c r="K37" s="165"/>
+      <c r="L37" s="165"/>
+      <c r="M37" s="165"/>
+      <c r="N37" s="165"/>
+      <c r="O37" s="165"/>
       <c r="P37" s="55">
         <f>SUM(R23:R32)</f>
         <v>2640</v>
@@ -5031,19 +5037,19 @@
       <c r="Q37" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="151" t="s">
+      <c r="R37" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="S37" s="152"/>
+      <c r="S37" s="157"/>
       <c r="T37" s="56">
         <f>T36*0.16</f>
         <v>295.67999999999995</v>
       </c>
-      <c r="U37" s="111"/>
+      <c r="U37" s="207"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="176"/>
-      <c r="B38" s="169"/>
+      <c r="A38" s="139"/>
+      <c r="B38" s="203"/>
       <c r="C38" s="57"/>
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
@@ -5059,74 +5065,74 @@
       <c r="O38" s="52"/>
       <c r="P38" s="52"/>
       <c r="Q38" s="52"/>
-      <c r="R38" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="154"/>
+      <c r="R38" s="190" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="191"/>
       <c r="T38" s="58">
         <v>0</v>
       </c>
-      <c r="U38" s="111"/>
+      <c r="U38" s="207"/>
     </row>
     <row r="39" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="176"/>
-      <c r="B39" s="169"/>
+      <c r="A39" s="139"/>
+      <c r="B39" s="203"/>
       <c r="C39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="166" t="s">
+      <c r="D39" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="167"/>
-      <c r="F39" s="167"/>
-      <c r="G39" s="167"/>
-      <c r="H39" s="167"/>
-      <c r="I39" s="167"/>
-      <c r="J39" s="167"/>
-      <c r="K39" s="170"/>
-      <c r="L39" s="171"/>
-      <c r="M39" s="171"/>
-      <c r="N39" s="171"/>
-      <c r="O39" s="171"/>
-      <c r="P39" s="171"/>
-      <c r="Q39" s="172"/>
-      <c r="R39" s="155" t="s">
+      <c r="E39" s="201"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="201"/>
+      <c r="J39" s="201"/>
+      <c r="K39" s="204"/>
+      <c r="L39" s="205"/>
+      <c r="M39" s="205"/>
+      <c r="N39" s="205"/>
+      <c r="O39" s="205"/>
+      <c r="P39" s="205"/>
+      <c r="Q39" s="206"/>
+      <c r="R39" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="S39" s="156"/>
+      <c r="S39" s="193"/>
       <c r="T39" s="59">
         <f>T36+T37+T38</f>
         <v>2143.6799999999998</v>
       </c>
-      <c r="U39" s="111"/>
+      <c r="U39" s="207"/>
     </row>
     <row r="40" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="176"/>
-      <c r="B40" s="197" t="s">
+      <c r="A40" s="139"/>
+      <c r="B40" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="198"/>
-      <c r="D40" s="199"/>
-      <c r="E40" s="200"/>
-      <c r="F40" s="200"/>
-      <c r="G40" s="200"/>
-      <c r="H40" s="200"/>
-      <c r="I40" s="200"/>
-      <c r="J40" s="200"/>
-      <c r="K40" s="200"/>
-      <c r="L40" s="200"/>
-      <c r="M40" s="200"/>
-      <c r="N40" s="200"/>
-      <c r="O40" s="200"/>
-      <c r="P40" s="200"/>
-      <c r="Q40" s="200"/>
-      <c r="R40" s="200"/>
-      <c r="S40" s="201"/>
+      <c r="C40" s="167"/>
+      <c r="D40" s="168"/>
+      <c r="E40" s="169"/>
+      <c r="F40" s="169"/>
+      <c r="G40" s="169"/>
+      <c r="H40" s="169"/>
+      <c r="I40" s="169"/>
+      <c r="J40" s="169"/>
+      <c r="K40" s="169"/>
+      <c r="L40" s="169"/>
+      <c r="M40" s="169"/>
+      <c r="N40" s="169"/>
+      <c r="O40" s="169"/>
+      <c r="P40" s="169"/>
+      <c r="Q40" s="169"/>
+      <c r="R40" s="169"/>
+      <c r="S40" s="170"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="111"/>
+      <c r="U40" s="207"/>
     </row>
     <row r="41" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="176"/>
+      <c r="A41" s="139"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
@@ -5146,108 +5152,162 @@
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
       <c r="T41" s="22"/>
-      <c r="U41" s="111"/>
+      <c r="U41" s="207"/>
     </row>
     <row r="42" spans="1:21" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="176"/>
-      <c r="B42" s="191" t="s">
+      <c r="A42" s="139"/>
+      <c r="B42" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="192"/>
-      <c r="D42" s="192"/>
-      <c r="E42" s="192"/>
-      <c r="F42" s="192"/>
-      <c r="G42" s="192"/>
-      <c r="H42" s="192"/>
-      <c r="I42" s="192"/>
-      <c r="J42" s="192"/>
-      <c r="K42" s="192"/>
-      <c r="L42" s="192"/>
-      <c r="M42" s="192"/>
-      <c r="N42" s="192"/>
-      <c r="O42" s="192"/>
-      <c r="P42" s="192"/>
-      <c r="Q42" s="192"/>
-      <c r="R42" s="192"/>
-      <c r="S42" s="192"/>
-      <c r="T42" s="193"/>
-      <c r="U42" s="111"/>
+      <c r="C42" s="161"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="161"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="161"/>
+      <c r="K42" s="161"/>
+      <c r="L42" s="161"/>
+      <c r="M42" s="161"/>
+      <c r="N42" s="161"/>
+      <c r="O42" s="161"/>
+      <c r="P42" s="161"/>
+      <c r="Q42" s="161"/>
+      <c r="R42" s="161"/>
+      <c r="S42" s="161"/>
+      <c r="T42" s="162"/>
+      <c r="U42" s="207"/>
     </row>
     <row r="43" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="177"/>
-      <c r="B43" s="112" t="s">
+      <c r="A43" s="140"/>
+      <c r="B43" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="113"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="164"/>
-      <c r="G43" s="164"/>
-      <c r="H43" s="164"/>
-      <c r="I43" s="164"/>
-      <c r="J43" s="164"/>
-      <c r="K43" s="164"/>
-      <c r="L43" s="164"/>
-      <c r="M43" s="164"/>
-      <c r="N43" s="164"/>
-      <c r="O43" s="164"/>
-      <c r="P43" s="164"/>
-      <c r="Q43" s="164"/>
-      <c r="R43" s="164"/>
-      <c r="S43" s="164"/>
-      <c r="T43" s="165"/>
-      <c r="U43" s="111"/>
+      <c r="C43" s="209"/>
+      <c r="D43" s="210"/>
+      <c r="E43" s="153"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
+      <c r="J43" s="154"/>
+      <c r="K43" s="154"/>
+      <c r="L43" s="154"/>
+      <c r="M43" s="154"/>
+      <c r="N43" s="154"/>
+      <c r="O43" s="154"/>
+      <c r="P43" s="154"/>
+      <c r="Q43" s="154"/>
+      <c r="R43" s="154"/>
+      <c r="S43" s="154"/>
+      <c r="T43" s="155"/>
+      <c r="U43" s="207"/>
     </row>
     <row r="44" spans="1:21" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
-      <c r="B44" s="112" t="s">
+      <c r="B44" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="163"/>
-      <c r="F44" s="164"/>
-      <c r="G44" s="164"/>
-      <c r="H44" s="164"/>
-      <c r="I44" s="164"/>
-      <c r="J44" s="164"/>
-      <c r="K44" s="164"/>
-      <c r="L44" s="164"/>
-      <c r="M44" s="164"/>
-      <c r="N44" s="164"/>
-      <c r="O44" s="164"/>
-      <c r="P44" s="164"/>
-      <c r="Q44" s="164"/>
-      <c r="R44" s="164"/>
-      <c r="S44" s="164"/>
-      <c r="T44" s="165"/>
+      <c r="C44" s="209"/>
+      <c r="D44" s="209"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="154"/>
+      <c r="G44" s="154"/>
+      <c r="H44" s="154"/>
+      <c r="I44" s="154"/>
+      <c r="J44" s="154"/>
+      <c r="K44" s="154"/>
+      <c r="L44" s="154"/>
+      <c r="M44" s="154"/>
+      <c r="N44" s="154"/>
+      <c r="O44" s="154"/>
+      <c r="P44" s="154"/>
+      <c r="Q44" s="154"/>
+      <c r="R44" s="154"/>
+      <c r="S44" s="154"/>
+      <c r="T44" s="155"/>
       <c r="U44" s="33"/>
     </row>
     <row r="45" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="135"/>
-      <c r="B45" s="136"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="136"/>
-      <c r="K45" s="136"/>
-      <c r="L45" s="136"/>
-      <c r="M45" s="136"/>
-      <c r="N45" s="136"/>
-      <c r="O45" s="136"/>
-      <c r="P45" s="136"/>
-      <c r="Q45" s="136"/>
-      <c r="R45" s="136"/>
-      <c r="S45" s="136"/>
-      <c r="T45" s="136"/>
-      <c r="U45" s="137"/>
+      <c r="A45" s="173"/>
+      <c r="B45" s="174"/>
+      <c r="C45" s="174"/>
+      <c r="D45" s="174"/>
+      <c r="E45" s="174"/>
+      <c r="F45" s="174"/>
+      <c r="G45" s="174"/>
+      <c r="H45" s="174"/>
+      <c r="I45" s="174"/>
+      <c r="J45" s="174"/>
+      <c r="K45" s="174"/>
+      <c r="L45" s="174"/>
+      <c r="M45" s="174"/>
+      <c r="N45" s="174"/>
+      <c r="O45" s="174"/>
+      <c r="P45" s="174"/>
+      <c r="Q45" s="174"/>
+      <c r="R45" s="174"/>
+      <c r="S45" s="174"/>
+      <c r="T45" s="174"/>
+      <c r="U45" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="U2:U43"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B15:T15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="E44:T44"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B16:T16"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="B18:T18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B42:T42"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:S40"/>
+    <mergeCell ref="D37:I37"/>
     <mergeCell ref="B4:T4"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="L3:T3"/>
@@ -5264,60 +5324,6 @@
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="E11:O11"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B16:T16"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="B18:T18"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B42:T42"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:S40"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B15:T15"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="E44:T44"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="U2:U43"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="P11:R11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
+++ b/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EC16\Documents\SOSQTP\Documentos de Venta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E39013-B5A9-4FCE-87D9-DDEAFF2E3915}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77461212-2682-4594-9AA7-6CD9ED935BB6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="195" windowWidth="14025" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1008,16 +1008,16 @@
     <t>P3592</t>
   </si>
   <si>
-    <t>AEDC</t>
-  </si>
-  <si>
-    <t>A873</t>
-  </si>
-  <si>
-    <t>4666</t>
-  </si>
-  <si>
-    <t>9EDE</t>
+    <t>DE68</t>
+  </si>
+  <si>
+    <t>C125</t>
+  </si>
+  <si>
+    <t>D156</t>
+  </si>
+  <si>
+    <t>1BB7</t>
   </si>
 </sst>
 </file>
@@ -2940,234 +2940,117 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3208,11 +3091,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3229,7 +3115,7 @@
     <xf numFmtId="0" fontId="94" fillId="5" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3244,6 +3130,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3265,105 +3160,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3803,32 +3803,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="138"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="175"/>
     </row>
     <row r="2" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="139"/>
+      <c r="A2" s="176"/>
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
@@ -3841,21 +3841,21 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
-      <c r="L2" s="99" t="s">
+      <c r="L2" s="207" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="207"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="208"/>
+      <c r="Q2" s="208"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="208"/>
+      <c r="T2" s="209"/>
+      <c r="U2" s="111"/>
     </row>
     <row r="3" spans="1:21" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
+      <c r="A3" s="176"/>
       <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
@@ -3868,297 +3868,297 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
-      <c r="L3" s="102" t="s">
+      <c r="L3" s="210" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="207"/>
+      <c r="M3" s="210"/>
+      <c r="N3" s="210"/>
+      <c r="O3" s="210"/>
+      <c r="P3" s="210"/>
+      <c r="Q3" s="210"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="211"/>
+      <c r="U3" s="111"/>
     </row>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="139"/>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="176"/>
+      <c r="B4" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="207"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="205"/>
+      <c r="O4" s="205"/>
+      <c r="P4" s="205"/>
+      <c r="Q4" s="205"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="205"/>
+      <c r="T4" s="206"/>
+      <c r="U4" s="111"/>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="139"/>
-      <c r="B5" s="217"/>
-      <c r="C5" s="218"/>
-      <c r="D5" s="218"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="218"/>
-      <c r="G5" s="218"/>
-      <c r="H5" s="218"/>
-      <c r="I5" s="218"/>
-      <c r="J5" s="218"/>
-      <c r="K5" s="218"/>
-      <c r="L5" s="218"/>
-      <c r="M5" s="218"/>
-      <c r="N5" s="218"/>
-      <c r="O5" s="218"/>
-      <c r="P5" s="218"/>
-      <c r="Q5" s="218"/>
-      <c r="R5" s="176" t="s">
+      <c r="A5" s="176"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="177"/>
+      <c r="S5" s="139"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="207"/>
+      <c r="U5" s="111"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="139"/>
-      <c r="B6" s="211" t="s">
+      <c r="A6" s="176"/>
+      <c r="B6" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="212"/>
-      <c r="D6" s="237" t="s">
+      <c r="C6" s="116"/>
+      <c r="D6" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="237"/>
-      <c r="F6" s="238"/>
-      <c r="G6" s="238"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="238"/>
-      <c r="J6" s="238"/>
-      <c r="K6" s="238"/>
-      <c r="L6" s="238"/>
-      <c r="M6" s="238"/>
-      <c r="N6" s="238"/>
-      <c r="O6" s="238"/>
-      <c r="P6" s="238"/>
-      <c r="Q6" s="238"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
       <c r="R6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="233" t="s">
+      <c r="S6" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="234"/>
-      <c r="U6" s="207"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="111"/>
     </row>
     <row r="7" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="139"/>
-      <c r="B7" s="211" t="s">
+      <c r="A7" s="176"/>
+      <c r="B7" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="212"/>
-      <c r="D7" s="188" t="s">
+      <c r="C7" s="116"/>
+      <c r="D7" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="189"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
       <c r="R7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="235" t="s">
+      <c r="S7" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="236"/>
-      <c r="U7" s="207"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="111"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="139"/>
-      <c r="B8" s="211" t="s">
+      <c r="A8" s="176"/>
+      <c r="B8" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="212"/>
-      <c r="D8" s="126" t="s">
+      <c r="C8" s="116"/>
+      <c r="D8" s="234" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="127"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="194" t="s">
+      <c r="K8" s="157" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="195"/>
-      <c r="R8" s="195"/>
-      <c r="S8" s="195"/>
-      <c r="T8" s="196"/>
-      <c r="U8" s="207"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="158"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="158"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="159"/>
+      <c r="U8" s="111"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="139"/>
-      <c r="B9" s="211" t="s">
+      <c r="A9" s="176"/>
+      <c r="B9" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="212"/>
-      <c r="D9" s="188" t="s">
+      <c r="C9" s="116"/>
+      <c r="D9" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="189"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="213"/>
-      <c r="L9" s="213"/>
-      <c r="M9" s="213"/>
-      <c r="N9" s="213"/>
-      <c r="O9" s="213"/>
-      <c r="P9" s="213"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
       <c r="Q9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="214" t="s">
+      <c r="R9" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="S9" s="215"/>
-      <c r="T9" s="216"/>
-      <c r="U9" s="207"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="111"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="139"/>
-      <c r="B10" s="211" t="s">
+      <c r="A10" s="176"/>
+      <c r="B10" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="212"/>
-      <c r="D10" s="129" t="s">
+      <c r="C10" s="116"/>
+      <c r="D10" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="129"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
+      <c r="E10" s="235"/>
+      <c r="F10" s="236"/>
+      <c r="G10" s="236"/>
+      <c r="H10" s="236"/>
+      <c r="I10" s="236"/>
       <c r="J10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="197" t="s">
+      <c r="K10" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="198"/>
-      <c r="M10" s="198"/>
-      <c r="N10" s="198"/>
-      <c r="O10" s="198"/>
-      <c r="P10" s="198"/>
-      <c r="Q10" s="198"/>
-      <c r="R10" s="198"/>
-      <c r="S10" s="198"/>
-      <c r="T10" s="199"/>
-      <c r="U10" s="207"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="161"/>
+      <c r="Q10" s="161"/>
+      <c r="R10" s="161"/>
+      <c r="S10" s="161"/>
+      <c r="T10" s="162"/>
+      <c r="U10" s="111"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="139"/>
-      <c r="B11" s="227" t="s">
+      <c r="A11" s="176"/>
+      <c r="B11" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="228"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="133" t="s">
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="239" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="134"/>
-      <c r="O11" s="135"/>
-      <c r="P11" s="239" t="s">
+      <c r="F11" s="240"/>
+      <c r="G11" s="240"/>
+      <c r="H11" s="240"/>
+      <c r="I11" s="240"/>
+      <c r="J11" s="240"/>
+      <c r="K11" s="240"/>
+      <c r="L11" s="240"/>
+      <c r="M11" s="240"/>
+      <c r="N11" s="240"/>
+      <c r="O11" s="241"/>
+      <c r="P11" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="240"/>
-      <c r="R11" s="241"/>
-      <c r="S11" s="223" t="s">
+      <c r="Q11" s="109"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="224"/>
-      <c r="U11" s="207"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="111"/>
     </row>
     <row r="12" spans="1:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="139"/>
-      <c r="B12" s="229" t="s">
+      <c r="A12" s="176"/>
+      <c r="B12" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="230"/>
-      <c r="D12" s="231"/>
-      <c r="E12" s="231"/>
-      <c r="F12" s="231"/>
-      <c r="G12" s="231"/>
-      <c r="H12" s="231"/>
-      <c r="I12" s="231"/>
-      <c r="J12" s="231"/>
-      <c r="K12" s="231"/>
-      <c r="L12" s="231"/>
-      <c r="M12" s="231"/>
-      <c r="N12" s="231"/>
-      <c r="O12" s="231"/>
-      <c r="P12" s="231"/>
-      <c r="Q12" s="231"/>
-      <c r="R12" s="231"/>
-      <c r="S12" s="231"/>
-      <c r="T12" s="232"/>
-      <c r="U12" s="207"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="100"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="111"/>
     </row>
     <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="139"/>
-      <c r="B13" s="114" t="s">
+      <c r="A13" s="176"/>
+      <c r="B13" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="223"/>
+      <c r="G13" s="223"/>
+      <c r="H13" s="223"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="223"/>
+      <c r="K13" s="223"/>
+      <c r="L13" s="223"/>
+      <c r="M13" s="223"/>
+      <c r="N13" s="223"/>
       <c r="O13" s="75" t="s">
         <v>0</v>
       </c>
@@ -4166,165 +4166,165 @@
         <v>0</v>
       </c>
       <c r="Q13" s="76"/>
-      <c r="R13" s="182" t="s">
+      <c r="R13" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="182"/>
+      <c r="S13" s="144"/>
       <c r="T13" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="U13" s="207"/>
+      <c r="U13" s="111"/>
     </row>
     <row r="14" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="139"/>
-      <c r="B14" s="185" t="s">
+      <c r="A14" s="176"/>
+      <c r="B14" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="186"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="219" t="s">
+      <c r="C14" s="148"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="219"/>
-      <c r="G14" s="219"/>
-      <c r="H14" s="219"/>
-      <c r="I14" s="219"/>
-      <c r="J14" s="220"/>
-      <c r="K14" s="220"/>
-      <c r="L14" s="220"/>
-      <c r="M14" s="220"/>
-      <c r="N14" s="220"/>
-      <c r="O14" s="220"/>
-      <c r="P14" s="220"/>
-      <c r="Q14" s="220"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="127"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="127"/>
       <c r="R14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="183">
+      <c r="S14" s="145">
         <f ca="1">TODAY()</f>
-        <v>43486</v>
-      </c>
-      <c r="T14" s="184"/>
-      <c r="U14" s="207"/>
+        <v>43487</v>
+      </c>
+      <c r="T14" s="146"/>
+      <c r="U14" s="111"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="139"/>
-      <c r="B15" s="178" t="s">
+      <c r="A15" s="176"/>
+      <c r="B15" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="179"/>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="180"/>
-      <c r="N15" s="180"/>
-      <c r="O15" s="180"/>
-      <c r="P15" s="180"/>
-      <c r="Q15" s="180"/>
-      <c r="R15" s="180"/>
-      <c r="S15" s="180"/>
-      <c r="T15" s="181"/>
-      <c r="U15" s="207"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="142"/>
+      <c r="P15" s="142"/>
+      <c r="Q15" s="142"/>
+      <c r="R15" s="142"/>
+      <c r="S15" s="142"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="111"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="139"/>
-      <c r="B16" s="143" t="s">
+      <c r="A16" s="176"/>
+      <c r="B16" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="144"/>
-      <c r="T16" s="145"/>
-      <c r="U16" s="207"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="180"/>
+      <c r="L16" s="180"/>
+      <c r="M16" s="180"/>
+      <c r="N16" s="180"/>
+      <c r="O16" s="180"/>
+      <c r="P16" s="180"/>
+      <c r="Q16" s="180"/>
+      <c r="R16" s="180"/>
+      <c r="S16" s="180"/>
+      <c r="T16" s="181"/>
+      <c r="U16" s="111"/>
     </row>
     <row r="17" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="139"/>
-      <c r="B17" s="146" t="s">
+      <c r="A17" s="176"/>
+      <c r="B17" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="147"/>
-      <c r="O17" s="147"/>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="147"/>
-      <c r="R17" s="147"/>
-      <c r="S17" s="147"/>
-      <c r="T17" s="148"/>
-      <c r="U17" s="207"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="183"/>
+      <c r="L17" s="183"/>
+      <c r="M17" s="183"/>
+      <c r="N17" s="183"/>
+      <c r="O17" s="183"/>
+      <c r="P17" s="183"/>
+      <c r="Q17" s="183"/>
+      <c r="R17" s="183"/>
+      <c r="S17" s="183"/>
+      <c r="T17" s="184"/>
+      <c r="U17" s="111"/>
     </row>
     <row r="18" spans="1:22" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="139"/>
-      <c r="B18" s="149" t="s">
+      <c r="A18" s="176"/>
+      <c r="B18" s="185" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="150"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="151"/>
-      <c r="R18" s="151"/>
-      <c r="S18" s="151"/>
-      <c r="T18" s="152"/>
-      <c r="U18" s="207"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="187"/>
+      <c r="K18" s="187"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="187"/>
+      <c r="N18" s="187"/>
+      <c r="O18" s="187"/>
+      <c r="P18" s="187"/>
+      <c r="Q18" s="187"/>
+      <c r="R18" s="187"/>
+      <c r="S18" s="187"/>
+      <c r="T18" s="188"/>
+      <c r="U18" s="111"/>
     </row>
     <row r="19" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="139"/>
-      <c r="B19" s="118" t="s">
+      <c r="A19" s="176"/>
+      <c r="B19" s="226" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="120"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="227"/>
+      <c r="F19" s="227"/>
+      <c r="G19" s="227"/>
+      <c r="H19" s="227"/>
+      <c r="I19" s="227"/>
+      <c r="J19" s="227"/>
+      <c r="K19" s="227"/>
+      <c r="L19" s="227"/>
+      <c r="M19" s="227"/>
+      <c r="N19" s="227"/>
+      <c r="O19" s="228"/>
       <c r="P19" s="10" t="s">
         <v>31</v>
       </c>
@@ -4332,30 +4332,30 @@
       <c r="R19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="221" t="s">
+      <c r="S19" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="222"/>
-      <c r="U19" s="207"/>
+      <c r="T19" s="129"/>
+      <c r="U19" s="111"/>
     </row>
     <row r="20" spans="1:22" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="139"/>
-      <c r="B20" s="121" t="s">
+      <c r="A20" s="176"/>
+      <c r="B20" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="122"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="125"/>
+      <c r="C20" s="230"/>
+      <c r="D20" s="231"/>
+      <c r="E20" s="230"/>
+      <c r="F20" s="230"/>
+      <c r="G20" s="230"/>
+      <c r="H20" s="230"/>
+      <c r="I20" s="230"/>
+      <c r="J20" s="230"/>
+      <c r="K20" s="230"/>
+      <c r="L20" s="230"/>
+      <c r="M20" s="232"/>
+      <c r="N20" s="232"/>
+      <c r="O20" s="233"/>
       <c r="P20" s="65"/>
       <c r="Q20" s="17" t="s">
         <v>35</v>
@@ -4365,10 +4365,10 @@
         <v>36</v>
       </c>
       <c r="T20" s="67"/>
-      <c r="U20" s="207"/>
+      <c r="U20" s="111"/>
     </row>
     <row r="21" spans="1:22" ht="81.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="139"/>
+      <c r="A21" s="176"/>
       <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
@@ -4393,38 +4393,38 @@
       <c r="I21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="110" t="s">
+      <c r="J21" s="218" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="112" t="s">
+      <c r="K21" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="225" t="s">
+      <c r="L21" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="226"/>
-      <c r="N21" s="226"/>
-      <c r="O21" s="226"/>
-      <c r="P21" s="104" t="s">
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="212" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="R21" s="106" t="s">
+      <c r="R21" s="214" t="s">
         <v>64</v>
       </c>
       <c r="S21" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="T21" s="108" t="s">
+      <c r="T21" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="U21" s="207"/>
+      <c r="U21" s="111"/>
       <c r="V21" s="16"/>
     </row>
     <row r="22" spans="1:22" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="139"/>
+      <c r="A22" s="176"/>
       <c r="B22" s="35" t="s">
         <v>72</v>
       </c>
@@ -4437,38 +4437,38 @@
       <c r="E22" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="131" t="s">
+      <c r="F22" s="237" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="132"/>
+      <c r="G22" s="238"/>
       <c r="H22" s="38" t="s">
         <v>75</v>
       </c>
       <c r="I22" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="111"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="116" t="s">
+      <c r="J22" s="219"/>
+      <c r="K22" s="221"/>
+      <c r="L22" s="224" t="s">
         <v>90</v>
       </c>
-      <c r="M22" s="117"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="105"/>
+      <c r="M22" s="225"/>
+      <c r="N22" s="225"/>
+      <c r="O22" s="225"/>
+      <c r="P22" s="213"/>
       <c r="Q22" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="R22" s="107"/>
+      <c r="R22" s="215"/>
       <c r="S22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T22" s="109"/>
-      <c r="U22" s="207"/>
+      <c r="T22" s="217"/>
+      <c r="U22" s="111"/>
       <c r="V22" s="16"/>
     </row>
     <row r="23" spans="1:22" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="139"/>
+      <c r="A23" s="176"/>
       <c r="B23" s="69">
         <v>1</v>
       </c>
@@ -4526,10 +4526,10 @@
         <f>R23*(1-S23)</f>
         <v>1847.9999999999998</v>
       </c>
-      <c r="U23" s="207"/>
+      <c r="U23" s="111"/>
     </row>
     <row r="24" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A24" s="139"/>
+      <c r="A24" s="176"/>
       <c r="B24" s="69">
         <v>0</v>
       </c>
@@ -4565,10 +4565,10 @@
         <f t="shared" ref="T24:T32" si="1">R24*(1-S24)</f>
         <v>0</v>
       </c>
-      <c r="U24" s="207"/>
+      <c r="U24" s="111"/>
     </row>
     <row r="25" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A25" s="139"/>
+      <c r="A25" s="176"/>
       <c r="B25" s="69">
         <v>0</v>
       </c>
@@ -4604,10 +4604,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U25" s="207"/>
+      <c r="U25" s="111"/>
     </row>
     <row r="26" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A26" s="139"/>
+      <c r="A26" s="176"/>
       <c r="B26" s="69">
         <v>0</v>
       </c>
@@ -4643,10 +4643,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U26" s="207"/>
+      <c r="U26" s="111"/>
     </row>
     <row r="27" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A27" s="139"/>
+      <c r="A27" s="176"/>
       <c r="B27" s="69">
         <v>0</v>
       </c>
@@ -4682,10 +4682,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U27" s="207"/>
+      <c r="U27" s="111"/>
     </row>
     <row r="28" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A28" s="139"/>
+      <c r="A28" s="176"/>
       <c r="B28" s="69">
         <v>0</v>
       </c>
@@ -4721,10 +4721,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28" s="207"/>
+      <c r="U28" s="111"/>
     </row>
     <row r="29" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A29" s="139"/>
+      <c r="A29" s="176"/>
       <c r="B29" s="69">
         <v>0</v>
       </c>
@@ -4758,10 +4758,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U29" s="207"/>
+      <c r="U29" s="111"/>
     </row>
     <row r="30" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A30" s="139"/>
+      <c r="A30" s="176"/>
       <c r="B30" s="69">
         <v>0</v>
       </c>
@@ -4795,10 +4795,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U30" s="207"/>
+      <c r="U30" s="111"/>
     </row>
     <row r="31" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A31" s="139"/>
+      <c r="A31" s="176"/>
       <c r="B31" s="69">
         <v>0</v>
       </c>
@@ -4834,10 +4834,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U31" s="207"/>
+      <c r="U31" s="111"/>
     </row>
     <row r="32" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="139"/>
+      <c r="A32" s="176"/>
       <c r="B32" s="70">
         <v>0</v>
       </c>
@@ -4873,16 +4873,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="207"/>
+      <c r="U32" s="111"/>
     </row>
     <row r="33" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="139"/>
+      <c r="A33" s="176"/>
       <c r="B33" s="45">
         <v>0</v>
       </c>
       <c r="C33" s="46"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="142"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="178"/>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
@@ -4905,16 +4905,16 @@
         <f>(R33-(R33*S33))*B33</f>
         <v>0</v>
       </c>
-      <c r="U33" s="207"/>
+      <c r="U33" s="111"/>
     </row>
     <row r="34" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="139"/>
+      <c r="A34" s="176"/>
       <c r="B34" s="45">
         <v>0</v>
       </c>
       <c r="C34" s="46"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
@@ -4937,16 +4937,16 @@
         <f>(R34-(R34*S34))*B34</f>
         <v>0</v>
       </c>
-      <c r="U34" s="207"/>
+      <c r="U34" s="111"/>
     </row>
     <row r="35" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="139"/>
+      <c r="A35" s="176"/>
       <c r="B35" s="45">
         <v>0</v>
       </c>
       <c r="C35" s="46"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -4969,67 +4969,67 @@
         <f>(R35-(R35*S35))*B35</f>
         <v>0</v>
       </c>
-      <c r="U35" s="207"/>
+      <c r="U35" s="111"/>
     </row>
     <row r="36" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="139"/>
-      <c r="B36" s="158" t="s">
+      <c r="A36" s="176"/>
+      <c r="B36" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="159"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="159"/>
-      <c r="I36" s="159"/>
-      <c r="J36" s="159"/>
-      <c r="K36" s="159"/>
-      <c r="L36" s="163" t="s">
+      <c r="C36" s="190"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="190"/>
+      <c r="G36" s="190"/>
+      <c r="H36" s="190"/>
+      <c r="I36" s="190"/>
+      <c r="J36" s="190"/>
+      <c r="K36" s="190"/>
+      <c r="L36" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="163"/>
-      <c r="N36" s="163"/>
-      <c r="O36" s="163"/>
+      <c r="M36" s="194"/>
+      <c r="N36" s="194"/>
+      <c r="O36" s="194"/>
       <c r="P36" s="51">
         <f>SUM(P23:P32)</f>
         <v>2640</v>
       </c>
       <c r="Q36" s="52"/>
-      <c r="R36" s="156" t="s">
+      <c r="R36" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="S36" s="157"/>
+      <c r="S36" s="152"/>
       <c r="T36" s="53">
         <f>SUM(T23:T35)</f>
         <v>1847.9999999999998</v>
       </c>
-      <c r="U36" s="207"/>
+      <c r="U36" s="111"/>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="139"/>
-      <c r="B37" s="202" t="s">
+      <c r="A37" s="176"/>
+      <c r="B37" s="168" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="171" t="s">
+      <c r="D37" s="202" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="164" t="s">
+      <c r="E37" s="203"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="203"/>
+      <c r="H37" s="203"/>
+      <c r="I37" s="203"/>
+      <c r="J37" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="165"/>
-      <c r="L37" s="165"/>
-      <c r="M37" s="165"/>
-      <c r="N37" s="165"/>
-      <c r="O37" s="165"/>
+      <c r="K37" s="196"/>
+      <c r="L37" s="196"/>
+      <c r="M37" s="196"/>
+      <c r="N37" s="196"/>
+      <c r="O37" s="196"/>
       <c r="P37" s="55">
         <f>SUM(R23:R32)</f>
         <v>2640</v>
@@ -5037,19 +5037,19 @@
       <c r="Q37" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="156" t="s">
+      <c r="R37" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="S37" s="157"/>
+      <c r="S37" s="152"/>
       <c r="T37" s="56">
         <f>T36*0.16</f>
         <v>295.67999999999995</v>
       </c>
-      <c r="U37" s="207"/>
+      <c r="U37" s="111"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="139"/>
-      <c r="B38" s="203"/>
+      <c r="A38" s="176"/>
+      <c r="B38" s="169"/>
       <c r="C38" s="57"/>
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
@@ -5065,74 +5065,74 @@
       <c r="O38" s="52"/>
       <c r="P38" s="52"/>
       <c r="Q38" s="52"/>
-      <c r="R38" s="190" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="191"/>
+      <c r="R38" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="154"/>
       <c r="T38" s="58">
         <v>0</v>
       </c>
-      <c r="U38" s="207"/>
+      <c r="U38" s="111"/>
     </row>
     <row r="39" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="139"/>
-      <c r="B39" s="203"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="169"/>
       <c r="C39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="200" t="s">
+      <c r="D39" s="166" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="201"/>
-      <c r="F39" s="201"/>
-      <c r="G39" s="201"/>
-      <c r="H39" s="201"/>
-      <c r="I39" s="201"/>
-      <c r="J39" s="201"/>
-      <c r="K39" s="204"/>
-      <c r="L39" s="205"/>
-      <c r="M39" s="205"/>
-      <c r="N39" s="205"/>
-      <c r="O39" s="205"/>
-      <c r="P39" s="205"/>
-      <c r="Q39" s="206"/>
-      <c r="R39" s="192" t="s">
+      <c r="E39" s="167"/>
+      <c r="F39" s="167"/>
+      <c r="G39" s="167"/>
+      <c r="H39" s="167"/>
+      <c r="I39" s="167"/>
+      <c r="J39" s="167"/>
+      <c r="K39" s="170"/>
+      <c r="L39" s="171"/>
+      <c r="M39" s="171"/>
+      <c r="N39" s="171"/>
+      <c r="O39" s="171"/>
+      <c r="P39" s="171"/>
+      <c r="Q39" s="172"/>
+      <c r="R39" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="S39" s="193"/>
+      <c r="S39" s="156"/>
       <c r="T39" s="59">
         <f>T36+T37+T38</f>
         <v>2143.6799999999998</v>
       </c>
-      <c r="U39" s="207"/>
+      <c r="U39" s="111"/>
     </row>
     <row r="40" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="139"/>
-      <c r="B40" s="166" t="s">
+      <c r="A40" s="176"/>
+      <c r="B40" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="167"/>
-      <c r="D40" s="168"/>
-      <c r="E40" s="169"/>
-      <c r="F40" s="169"/>
-      <c r="G40" s="169"/>
-      <c r="H40" s="169"/>
-      <c r="I40" s="169"/>
-      <c r="J40" s="169"/>
-      <c r="K40" s="169"/>
-      <c r="L40" s="169"/>
-      <c r="M40" s="169"/>
-      <c r="N40" s="169"/>
-      <c r="O40" s="169"/>
-      <c r="P40" s="169"/>
-      <c r="Q40" s="169"/>
-      <c r="R40" s="169"/>
-      <c r="S40" s="170"/>
+      <c r="C40" s="198"/>
+      <c r="D40" s="199"/>
+      <c r="E40" s="200"/>
+      <c r="F40" s="200"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="200"/>
+      <c r="K40" s="200"/>
+      <c r="L40" s="200"/>
+      <c r="M40" s="200"/>
+      <c r="N40" s="200"/>
+      <c r="O40" s="200"/>
+      <c r="P40" s="200"/>
+      <c r="Q40" s="200"/>
+      <c r="R40" s="200"/>
+      <c r="S40" s="201"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="207"/>
+      <c r="U40" s="111"/>
     </row>
     <row r="41" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="139"/>
+      <c r="A41" s="176"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
@@ -5152,114 +5152,156 @@
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
       <c r="T41" s="22"/>
-      <c r="U41" s="207"/>
+      <c r="U41" s="111"/>
     </row>
     <row r="42" spans="1:21" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="139"/>
-      <c r="B42" s="160" t="s">
+      <c r="A42" s="176"/>
+      <c r="B42" s="191" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="161"/>
-      <c r="D42" s="161"/>
-      <c r="E42" s="161"/>
-      <c r="F42" s="161"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="161"/>
-      <c r="K42" s="161"/>
-      <c r="L42" s="161"/>
-      <c r="M42" s="161"/>
-      <c r="N42" s="161"/>
-      <c r="O42" s="161"/>
-      <c r="P42" s="161"/>
-      <c r="Q42" s="161"/>
-      <c r="R42" s="161"/>
-      <c r="S42" s="161"/>
-      <c r="T42" s="162"/>
-      <c r="U42" s="207"/>
+      <c r="C42" s="192"/>
+      <c r="D42" s="192"/>
+      <c r="E42" s="192"/>
+      <c r="F42" s="192"/>
+      <c r="G42" s="192"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="192"/>
+      <c r="K42" s="192"/>
+      <c r="L42" s="192"/>
+      <c r="M42" s="192"/>
+      <c r="N42" s="192"/>
+      <c r="O42" s="192"/>
+      <c r="P42" s="192"/>
+      <c r="Q42" s="192"/>
+      <c r="R42" s="192"/>
+      <c r="S42" s="192"/>
+      <c r="T42" s="193"/>
+      <c r="U42" s="111"/>
     </row>
     <row r="43" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="140"/>
-      <c r="B43" s="208" t="s">
+      <c r="A43" s="177"/>
+      <c r="B43" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="209"/>
-      <c r="D43" s="210"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="154"/>
-      <c r="G43" s="154"/>
-      <c r="H43" s="154"/>
-      <c r="I43" s="154"/>
-      <c r="J43" s="154"/>
-      <c r="K43" s="154"/>
-      <c r="L43" s="154"/>
-      <c r="M43" s="154"/>
-      <c r="N43" s="154"/>
-      <c r="O43" s="154"/>
-      <c r="P43" s="154"/>
-      <c r="Q43" s="154"/>
-      <c r="R43" s="154"/>
-      <c r="S43" s="154"/>
-      <c r="T43" s="155"/>
-      <c r="U43" s="207"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="164"/>
+      <c r="G43" s="164"/>
+      <c r="H43" s="164"/>
+      <c r="I43" s="164"/>
+      <c r="J43" s="164"/>
+      <c r="K43" s="164"/>
+      <c r="L43" s="164"/>
+      <c r="M43" s="164"/>
+      <c r="N43" s="164"/>
+      <c r="O43" s="164"/>
+      <c r="P43" s="164"/>
+      <c r="Q43" s="164"/>
+      <c r="R43" s="164"/>
+      <c r="S43" s="164"/>
+      <c r="T43" s="165"/>
+      <c r="U43" s="111"/>
     </row>
     <row r="44" spans="1:21" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
-      <c r="B44" s="208" t="s">
+      <c r="B44" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="209"/>
-      <c r="D44" s="209"/>
-      <c r="E44" s="153"/>
-      <c r="F44" s="154"/>
-      <c r="G44" s="154"/>
-      <c r="H44" s="154"/>
-      <c r="I44" s="154"/>
-      <c r="J44" s="154"/>
-      <c r="K44" s="154"/>
-      <c r="L44" s="154"/>
-      <c r="M44" s="154"/>
-      <c r="N44" s="154"/>
-      <c r="O44" s="154"/>
-      <c r="P44" s="154"/>
-      <c r="Q44" s="154"/>
-      <c r="R44" s="154"/>
-      <c r="S44" s="154"/>
-      <c r="T44" s="155"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="163"/>
+      <c r="F44" s="164"/>
+      <c r="G44" s="164"/>
+      <c r="H44" s="164"/>
+      <c r="I44" s="164"/>
+      <c r="J44" s="164"/>
+      <c r="K44" s="164"/>
+      <c r="L44" s="164"/>
+      <c r="M44" s="164"/>
+      <c r="N44" s="164"/>
+      <c r="O44" s="164"/>
+      <c r="P44" s="164"/>
+      <c r="Q44" s="164"/>
+      <c r="R44" s="164"/>
+      <c r="S44" s="164"/>
+      <c r="T44" s="165"/>
       <c r="U44" s="33"/>
     </row>
     <row r="45" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="173"/>
-      <c r="B45" s="174"/>
-      <c r="C45" s="174"/>
-      <c r="D45" s="174"/>
-      <c r="E45" s="174"/>
-      <c r="F45" s="174"/>
-      <c r="G45" s="174"/>
-      <c r="H45" s="174"/>
-      <c r="I45" s="174"/>
-      <c r="J45" s="174"/>
-      <c r="K45" s="174"/>
-      <c r="L45" s="174"/>
-      <c r="M45" s="174"/>
-      <c r="N45" s="174"/>
-      <c r="O45" s="174"/>
-      <c r="P45" s="174"/>
-      <c r="Q45" s="174"/>
-      <c r="R45" s="174"/>
-      <c r="S45" s="174"/>
-      <c r="T45" s="174"/>
-      <c r="U45" s="175"/>
+      <c r="A45" s="135"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="136"/>
+      <c r="K45" s="136"/>
+      <c r="L45" s="136"/>
+      <c r="M45" s="136"/>
+      <c r="N45" s="136"/>
+      <c r="O45" s="136"/>
+      <c r="P45" s="136"/>
+      <c r="Q45" s="136"/>
+      <c r="R45" s="136"/>
+      <c r="S45" s="136"/>
+      <c r="T45" s="136"/>
+      <c r="U45" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B16:T16"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="B18:T18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B42:T42"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:S40"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B15:T15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="E44:T44"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="K39:Q39"/>
     <mergeCell ref="U2:U43"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
@@ -5276,54 +5318,12 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="L21:O21"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B15:T15"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="E44:T44"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B16:T16"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="B18:T18"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B42:T42"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:S40"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="P11:R11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
+++ b/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EC16\Documents\SOSQTP\Documentos de Venta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B90D2A-D9F5-4C56-A615-455A19DF641E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA59E278-2C43-4E87-BDB1-2C3DB9A71804}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="195" windowWidth="14025" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FTO PEDIDO 2015" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -999,7 +999,25 @@
     <t>Marisol Ornelas Casillas</t>
   </si>
   <si>
-    <t>P3268</t>
+    <t>P3671</t>
+  </si>
+  <si>
+    <t>NOMINA  ANUAL</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>789F</t>
+  </si>
+  <si>
+    <t>467E</t>
+  </si>
+  <si>
+    <t>3EF8</t>
+  </si>
+  <si>
+    <t>3062</t>
   </si>
 </sst>
 </file>
@@ -2630,12 +2648,12 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="94" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2650,7 +2668,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2669,13 +2687,12 @@
     <xf numFmtId="0" fontId="25" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2686,13 +2703,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2720,8 +2737,8 @@
     <xf numFmtId="0" fontId="24" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2746,7 +2763,7 @@
     <xf numFmtId="49" fontId="70" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="67" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="67" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="70" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2761,10 +2778,10 @@
     <xf numFmtId="0" fontId="68" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="69" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="69" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="69" fillId="2" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="69" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="73" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2773,28 +2790,28 @@
     <xf numFmtId="49" fontId="70" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="67" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="78" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="78" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="67" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="82" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="82" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="67" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2842,19 +2859,19 @@
     <xf numFmtId="9" fontId="89" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="88" fillId="2" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="88" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="90" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="90" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="91" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2901,6 +2918,315 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="5" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2958,7 +3284,7 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2996,12 +3322,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3022,309 +3342,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="5" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3730,10 +3747,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3764,1441 +3781,1503 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="170" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="136"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="172"/>
     </row>
     <row r="2" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="137"/>
-      <c r="B2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="97" t="s">
+      <c r="A2" s="173"/>
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="204" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="108"/>
     </row>
     <row r="3" spans="1:21" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="137"/>
-      <c r="B3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="100" t="s">
+      <c r="A3" s="173"/>
+      <c r="B3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="207" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="205"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="208"/>
+      <c r="U3" s="108"/>
     </row>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="137"/>
-      <c r="B4" s="94" t="s">
+      <c r="A4" s="173"/>
+      <c r="B4" s="201" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="205"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
+      <c r="T4" s="203"/>
+      <c r="U4" s="108"/>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="137"/>
-      <c r="B5" s="215"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="216"/>
-      <c r="G5" s="216"/>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="216"/>
-      <c r="K5" s="216"/>
-      <c r="L5" s="216"/>
-      <c r="M5" s="216"/>
-      <c r="N5" s="216"/>
-      <c r="O5" s="216"/>
-      <c r="P5" s="216"/>
-      <c r="Q5" s="216"/>
-      <c r="R5" s="174" t="s">
+      <c r="A5" s="173"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="175"/>
+      <c r="S5" s="136"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="205"/>
+      <c r="U5" s="108"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="137"/>
-      <c r="B6" s="209" t="s">
+      <c r="A6" s="173"/>
+      <c r="B6" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="210"/>
-      <c r="D6" s="235" t="s">
+      <c r="C6" s="113"/>
+      <c r="D6" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="235"/>
-      <c r="F6" s="236"/>
-      <c r="G6" s="236"/>
-      <c r="H6" s="236"/>
-      <c r="I6" s="236"/>
-      <c r="J6" s="236"/>
-      <c r="K6" s="236"/>
-      <c r="L6" s="236"/>
-      <c r="M6" s="236"/>
-      <c r="N6" s="236"/>
-      <c r="O6" s="236"/>
-      <c r="P6" s="236"/>
-      <c r="Q6" s="236"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
       <c r="R6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="231" t="s">
+      <c r="S6" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="232"/>
-      <c r="U6" s="205"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="108"/>
     </row>
     <row r="7" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="137"/>
-      <c r="B7" s="209" t="s">
+      <c r="A7" s="173"/>
+      <c r="B7" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="210"/>
-      <c r="D7" s="186" t="s">
+      <c r="C7" s="113"/>
+      <c r="D7" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="147"/>
       <c r="R7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="233" t="s">
+      <c r="S7" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="234"/>
-      <c r="U7" s="205"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="108"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="137"/>
-      <c r="B8" s="209" t="s">
+      <c r="A8" s="173"/>
+      <c r="B8" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="210"/>
-      <c r="D8" s="124" t="s">
+      <c r="C8" s="113"/>
+      <c r="D8" s="231" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="125"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="192" t="s">
+      <c r="K8" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="193"/>
-      <c r="R8" s="193"/>
-      <c r="S8" s="193"/>
-      <c r="T8" s="194"/>
-      <c r="U8" s="205"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="155"/>
+      <c r="O8" s="155"/>
+      <c r="P8" s="155"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="156"/>
+      <c r="U8" s="108"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="137"/>
-      <c r="B9" s="209" t="s">
+      <c r="A9" s="173"/>
+      <c r="B9" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="210"/>
-      <c r="D9" s="186" t="s">
+      <c r="C9" s="113"/>
+      <c r="D9" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="187"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="211"/>
-      <c r="K9" s="211"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="211"/>
-      <c r="N9" s="211"/>
-      <c r="O9" s="211"/>
-      <c r="P9" s="211"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
       <c r="Q9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="212" t="s">
+      <c r="R9" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="S9" s="213"/>
-      <c r="T9" s="214"/>
-      <c r="U9" s="205"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="108"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="137"/>
-      <c r="B10" s="209" t="s">
+      <c r="A10" s="173"/>
+      <c r="B10" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="210"/>
-      <c r="D10" s="127" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="232" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="127"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
+      <c r="E10" s="232"/>
+      <c r="F10" s="233"/>
+      <c r="G10" s="233"/>
+      <c r="H10" s="233"/>
+      <c r="I10" s="233"/>
       <c r="J10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="195" t="s">
+      <c r="K10" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="196"/>
-      <c r="M10" s="196"/>
-      <c r="N10" s="196"/>
-      <c r="O10" s="196"/>
-      <c r="P10" s="196"/>
-      <c r="Q10" s="196"/>
-      <c r="R10" s="196"/>
-      <c r="S10" s="196"/>
-      <c r="T10" s="197"/>
-      <c r="U10" s="205"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="158"/>
+      <c r="P10" s="158"/>
+      <c r="Q10" s="158"/>
+      <c r="R10" s="158"/>
+      <c r="S10" s="158"/>
+      <c r="T10" s="159"/>
+      <c r="U10" s="108"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="137"/>
-      <c r="B11" s="225" t="s">
+      <c r="A11" s="173"/>
+      <c r="B11" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="131" t="s">
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="236" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="237" t="s">
+      <c r="F11" s="237"/>
+      <c r="G11" s="237"/>
+      <c r="H11" s="237"/>
+      <c r="I11" s="237"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="237"/>
+      <c r="M11" s="237"/>
+      <c r="N11" s="237"/>
+      <c r="O11" s="238"/>
+      <c r="P11" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="238"/>
-      <c r="R11" s="239"/>
-      <c r="S11" s="221" t="s">
+      <c r="Q11" s="106"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="222"/>
-      <c r="U11" s="205"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="108"/>
     </row>
     <row r="12" spans="1:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="137"/>
-      <c r="B12" s="227" t="s">
+      <c r="A12" s="173"/>
+      <c r="B12" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="228"/>
-      <c r="D12" s="229"/>
-      <c r="E12" s="229"/>
-      <c r="F12" s="229"/>
-      <c r="G12" s="229"/>
-      <c r="H12" s="229"/>
-      <c r="I12" s="229"/>
-      <c r="J12" s="229"/>
-      <c r="K12" s="229"/>
-      <c r="L12" s="229"/>
-      <c r="M12" s="229"/>
-      <c r="N12" s="229"/>
-      <c r="O12" s="229"/>
-      <c r="P12" s="229"/>
-      <c r="Q12" s="229"/>
-      <c r="R12" s="229"/>
-      <c r="S12" s="229"/>
-      <c r="T12" s="230"/>
-      <c r="U12" s="205"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="108"/>
     </row>
     <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="137"/>
-      <c r="B13" s="112" t="s">
+      <c r="A13" s="173"/>
+      <c r="B13" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="180" t="s">
+      <c r="C13" s="220"/>
+      <c r="D13" s="220"/>
+      <c r="E13" s="220"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="220"/>
+      <c r="H13" s="220"/>
+      <c r="I13" s="220"/>
+      <c r="J13" s="220"/>
+      <c r="K13" s="220"/>
+      <c r="L13" s="220"/>
+      <c r="M13" s="220"/>
+      <c r="N13" s="220"/>
+      <c r="O13" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="180"/>
-      <c r="T13" s="93" t="s">
+      <c r="S13" s="141"/>
+      <c r="T13" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="U13" s="205"/>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="137"/>
-      <c r="B14" s="183" t="s">
+      <c r="A14" s="173"/>
+      <c r="B14" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="184"/>
-      <c r="D14" s="185"/>
-      <c r="E14" s="217" t="s">
+      <c r="C14" s="145"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="217"/>
-      <c r="G14" s="217"/>
-      <c r="H14" s="217"/>
-      <c r="I14" s="217"/>
-      <c r="J14" s="218"/>
-      <c r="K14" s="218"/>
-      <c r="L14" s="218"/>
-      <c r="M14" s="218"/>
-      <c r="N14" s="218"/>
-      <c r="O14" s="218"/>
-      <c r="P14" s="218"/>
-      <c r="Q14" s="218"/>
-      <c r="R14" s="34" t="s">
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="181">
+      <c r="S14" s="142">
         <f ca="1">TODAY()</f>
-        <v>43460</v>
-      </c>
-      <c r="T14" s="182"/>
-      <c r="U14" s="205"/>
+        <v>43530</v>
+      </c>
+      <c r="T14" s="143"/>
+      <c r="U14" s="108"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="137"/>
-      <c r="B15" s="176" t="s">
+      <c r="A15" s="173"/>
+      <c r="B15" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="177"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="178"/>
-      <c r="M15" s="178"/>
-      <c r="N15" s="178"/>
-      <c r="O15" s="178"/>
-      <c r="P15" s="178"/>
-      <c r="Q15" s="178"/>
-      <c r="R15" s="178"/>
-      <c r="S15" s="178"/>
-      <c r="T15" s="179"/>
-      <c r="U15" s="205"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="139"/>
+      <c r="T15" s="140"/>
+      <c r="U15" s="108"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="137"/>
-      <c r="B16" s="141" t="s">
+      <c r="A16" s="173"/>
+      <c r="B16" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
-      <c r="M16" s="142"/>
-      <c r="N16" s="142"/>
-      <c r="O16" s="142"/>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="142"/>
-      <c r="R16" s="142"/>
-      <c r="S16" s="142"/>
-      <c r="T16" s="143"/>
-      <c r="U16" s="205"/>
-    </row>
-    <row r="17" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="137"/>
-      <c r="B17" s="144" t="s">
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="178"/>
+      <c r="U16" s="108"/>
+    </row>
+    <row r="17" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="173"/>
+      <c r="B17" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="145"/>
-      <c r="O17" s="145"/>
-      <c r="P17" s="145"/>
-      <c r="Q17" s="145"/>
-      <c r="R17" s="145"/>
-      <c r="S17" s="145"/>
-      <c r="T17" s="146"/>
-      <c r="U17" s="205"/>
-    </row>
-    <row r="18" spans="1:22" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="137"/>
-      <c r="B18" s="147" t="s">
+      <c r="C17" s="180"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="180"/>
+      <c r="P17" s="180"/>
+      <c r="Q17" s="180"/>
+      <c r="R17" s="180"/>
+      <c r="S17" s="180"/>
+      <c r="T17" s="181"/>
+      <c r="U17" s="108"/>
+    </row>
+    <row r="18" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="173"/>
+      <c r="B18" s="182" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="148"/>
-      <c r="D18" s="149"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="149"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="149"/>
-      <c r="N18" s="149"/>
-      <c r="O18" s="149"/>
-      <c r="P18" s="149"/>
-      <c r="Q18" s="149"/>
-      <c r="R18" s="149"/>
-      <c r="S18" s="149"/>
-      <c r="T18" s="150"/>
-      <c r="U18" s="205"/>
-    </row>
-    <row r="19" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="137"/>
-      <c r="B19" s="116" t="s">
+      <c r="C18" s="183"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="184"/>
+      <c r="K18" s="184"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="184"/>
+      <c r="N18" s="184"/>
+      <c r="O18" s="184"/>
+      <c r="P18" s="184"/>
+      <c r="Q18" s="184"/>
+      <c r="R18" s="184"/>
+      <c r="S18" s="184"/>
+      <c r="T18" s="185"/>
+      <c r="U18" s="108"/>
+    </row>
+    <row r="19" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="173"/>
+      <c r="B19" s="223" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="118"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+      <c r="I19" s="224"/>
+      <c r="J19" s="224"/>
+      <c r="K19" s="224"/>
+      <c r="L19" s="224"/>
+      <c r="M19" s="224"/>
+      <c r="N19" s="224"/>
+      <c r="O19" s="225"/>
       <c r="P19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="68"/>
+      <c r="Q19" s="67"/>
       <c r="R19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="219" t="s">
+      <c r="S19" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="220"/>
-      <c r="U19" s="205"/>
-    </row>
-    <row r="20" spans="1:22" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="137"/>
-      <c r="B20" s="119" t="s">
+      <c r="T19" s="126"/>
+      <c r="U19" s="108"/>
+    </row>
+    <row r="20" spans="1:21" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="173"/>
+      <c r="B20" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="122"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="17" t="s">
+      <c r="C20" s="227"/>
+      <c r="D20" s="228"/>
+      <c r="E20" s="227"/>
+      <c r="F20" s="227"/>
+      <c r="G20" s="227"/>
+      <c r="H20" s="227"/>
+      <c r="I20" s="227"/>
+      <c r="J20" s="227"/>
+      <c r="K20" s="227"/>
+      <c r="L20" s="227"/>
+      <c r="M20" s="229"/>
+      <c r="N20" s="229"/>
+      <c r="O20" s="230"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="R20" s="66"/>
-      <c r="S20" s="18" t="s">
+      <c r="R20" s="65"/>
+      <c r="S20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="T20" s="67"/>
-      <c r="U20" s="205"/>
-    </row>
-    <row r="21" spans="1:22" ht="81.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="137"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="108"/>
+    </row>
+    <row r="21" spans="1:21" ht="81.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="173"/>
       <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="64" t="s">
+      <c r="H21" s="63" t="s">
         <v>55</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="108" t="s">
+      <c r="J21" s="215" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="110" t="s">
+      <c r="K21" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="223" t="s">
+      <c r="L21" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="224"/>
-      <c r="N21" s="224"/>
-      <c r="O21" s="224"/>
-      <c r="P21" s="102" t="s">
+      <c r="M21" s="130"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="Q21" s="31" t="s">
+      <c r="Q21" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="R21" s="104" t="s">
+      <c r="R21" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="S21" s="85" t="s">
+      <c r="S21" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="T21" s="106" t="s">
+      <c r="T21" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="U21" s="205"/>
-      <c r="V21" s="16"/>
-    </row>
-    <row r="22" spans="1:22" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="137"/>
-      <c r="B22" s="35" t="s">
+      <c r="U21" s="108"/>
+    </row>
+    <row r="22" spans="1:21" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="173"/>
+      <c r="B22" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="129" t="s">
+      <c r="F22" s="234" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="130"/>
-      <c r="H22" s="38" t="s">
+      <c r="G22" s="235"/>
+      <c r="H22" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="109"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="114" t="s">
+      <c r="J22" s="216"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="221" t="s">
         <v>90</v>
       </c>
-      <c r="M22" s="115"/>
-      <c r="N22" s="115"/>
-      <c r="O22" s="115"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="86" t="s">
+      <c r="M22" s="222"/>
+      <c r="N22" s="222"/>
+      <c r="O22" s="222"/>
+      <c r="P22" s="210"/>
+      <c r="Q22" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="R22" s="105"/>
-      <c r="S22" s="39" t="s">
+      <c r="R22" s="212"/>
+      <c r="S22" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="T22" s="107"/>
-      <c r="U22" s="205"/>
-      <c r="V22" s="16"/>
-    </row>
-    <row r="23" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A23" s="137"/>
-      <c r="B23" s="69">
-        <v>0</v>
-      </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="71">
-        <v>0</v>
-      </c>
-      <c r="R23" s="42">
+      <c r="T22" s="214"/>
+      <c r="U22" s="108"/>
+    </row>
+    <row r="23" spans="1:21" ht="21" x14ac:dyDescent="0.2">
+      <c r="A23" s="173"/>
+      <c r="B23" s="68">
+        <v>1</v>
+      </c>
+      <c r="C23" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="39"/>
+      <c r="K23" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="M23" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="N23" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="O23" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="P23" s="43">
+        <v>6570</v>
+      </c>
+      <c r="Q23" s="70">
+        <v>0</v>
+      </c>
+      <c r="R23" s="41">
         <f t="shared" ref="R23:R32" si="0">(P23*B23)*(1-Q23)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="73">
-        <v>0</v>
-      </c>
-      <c r="T23" s="43">
+        <v>6570</v>
+      </c>
+      <c r="S23" s="72">
+        <v>0.3</v>
+      </c>
+      <c r="T23" s="42">
         <f>R23*(1-S23)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="205"/>
-    </row>
-    <row r="24" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A24" s="137"/>
-      <c r="B24" s="69">
-        <v>0</v>
-      </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="71">
-        <v>0</v>
-      </c>
-      <c r="R24" s="42">
+        <v>4599</v>
+      </c>
+      <c r="U23" s="108"/>
+    </row>
+    <row r="24" spans="1:21" ht="21" x14ac:dyDescent="0.2">
+      <c r="A24" s="173"/>
+      <c r="B24" s="68">
+        <v>0</v>
+      </c>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="70">
+        <v>0</v>
+      </c>
+      <c r="R24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S24" s="73">
-        <v>0</v>
-      </c>
-      <c r="T24" s="43">
+      <c r="S24" s="72">
+        <v>0</v>
+      </c>
+      <c r="T24" s="42">
         <f t="shared" ref="T24:T32" si="1">R24*(1-S24)</f>
         <v>0</v>
       </c>
-      <c r="U24" s="205"/>
-    </row>
-    <row r="25" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A25" s="137"/>
-      <c r="B25" s="69">
-        <v>0</v>
-      </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="78"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="71">
-        <v>0</v>
-      </c>
-      <c r="R25" s="42">
+      <c r="U24" s="108"/>
+    </row>
+    <row r="25" spans="1:21" ht="21" x14ac:dyDescent="0.2">
+      <c r="A25" s="173"/>
+      <c r="B25" s="68">
+        <v>0</v>
+      </c>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="70">
+        <v>0</v>
+      </c>
+      <c r="R25" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S25" s="73">
-        <v>0</v>
-      </c>
-      <c r="T25" s="43">
+      <c r="S25" s="72">
+        <v>0</v>
+      </c>
+      <c r="T25" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U25" s="205"/>
-    </row>
-    <row r="26" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A26" s="137"/>
-      <c r="B26" s="69">
-        <v>0</v>
-      </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="71">
-        <v>0</v>
-      </c>
-      <c r="R26" s="42">
+      <c r="U25" s="108"/>
+    </row>
+    <row r="26" spans="1:21" ht="21" x14ac:dyDescent="0.2">
+      <c r="A26" s="173"/>
+      <c r="B26" s="68">
+        <v>0</v>
+      </c>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="70">
+        <v>0</v>
+      </c>
+      <c r="R26" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S26" s="73">
-        <v>0</v>
-      </c>
-      <c r="T26" s="43">
+      <c r="S26" s="72">
+        <v>0</v>
+      </c>
+      <c r="T26" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U26" s="205"/>
-    </row>
-    <row r="27" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A27" s="137"/>
-      <c r="B27" s="69">
-        <v>0</v>
-      </c>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="71">
-        <v>0</v>
-      </c>
-      <c r="R27" s="42">
+      <c r="U26" s="108"/>
+    </row>
+    <row r="27" spans="1:21" ht="21" x14ac:dyDescent="0.2">
+      <c r="A27" s="173"/>
+      <c r="B27" s="68">
+        <v>0</v>
+      </c>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="70">
+        <v>0</v>
+      </c>
+      <c r="R27" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S27" s="73">
-        <v>0</v>
-      </c>
-      <c r="T27" s="43">
+      <c r="S27" s="72">
+        <v>0</v>
+      </c>
+      <c r="T27" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U27" s="205"/>
-    </row>
-    <row r="28" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A28" s="137"/>
-      <c r="B28" s="69">
-        <v>0</v>
-      </c>
-      <c r="C28" s="88"/>
-      <c r="D28" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="71">
-        <v>0</v>
-      </c>
-      <c r="R28" s="42">
+      <c r="U27" s="108"/>
+    </row>
+    <row r="28" spans="1:21" ht="21" x14ac:dyDescent="0.2">
+      <c r="A28" s="173"/>
+      <c r="B28" s="68">
+        <v>0</v>
+      </c>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="70">
+        <v>0</v>
+      </c>
+      <c r="R28" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S28" s="73">
-        <v>0</v>
-      </c>
-      <c r="T28" s="43">
+      <c r="S28" s="72">
+        <v>0</v>
+      </c>
+      <c r="T28" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28" s="205"/>
-    </row>
-    <row r="29" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A29" s="137"/>
-      <c r="B29" s="69">
-        <v>0</v>
-      </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="71">
-        <v>0</v>
-      </c>
-      <c r="R29" s="42">
+      <c r="U28" s="108"/>
+    </row>
+    <row r="29" spans="1:21" ht="21" x14ac:dyDescent="0.2">
+      <c r="A29" s="173"/>
+      <c r="B29" s="68">
+        <v>0</v>
+      </c>
+      <c r="C29" s="87"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="70">
+        <v>0</v>
+      </c>
+      <c r="R29" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S29" s="73">
-        <v>0</v>
-      </c>
-      <c r="T29" s="43">
+      <c r="S29" s="72">
+        <v>0</v>
+      </c>
+      <c r="T29" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U29" s="205"/>
-    </row>
-    <row r="30" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A30" s="137"/>
-      <c r="B30" s="69">
-        <v>0</v>
-      </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="81"/>
-      <c r="P30" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="71">
-        <v>0</v>
-      </c>
-      <c r="R30" s="42">
+      <c r="U29" s="108"/>
+    </row>
+    <row r="30" spans="1:21" ht="21" x14ac:dyDescent="0.2">
+      <c r="A30" s="173"/>
+      <c r="B30" s="68">
+        <v>0</v>
+      </c>
+      <c r="C30" s="87"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="70">
+        <v>0</v>
+      </c>
+      <c r="R30" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S30" s="73">
-        <v>0</v>
-      </c>
-      <c r="T30" s="43">
+      <c r="S30" s="72">
+        <v>0</v>
+      </c>
+      <c r="T30" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U30" s="205"/>
-    </row>
-    <row r="31" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A31" s="137"/>
-      <c r="B31" s="69">
-        <v>0</v>
-      </c>
-      <c r="C31" s="88"/>
-      <c r="D31" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="71">
-        <v>0</v>
-      </c>
-      <c r="R31" s="42">
+      <c r="U30" s="108"/>
+    </row>
+    <row r="31" spans="1:21" ht="21" x14ac:dyDescent="0.2">
+      <c r="A31" s="173"/>
+      <c r="B31" s="68">
+        <v>0</v>
+      </c>
+      <c r="C31" s="87"/>
+      <c r="D31" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="70">
+        <v>0</v>
+      </c>
+      <c r="R31" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S31" s="73">
-        <v>0</v>
-      </c>
-      <c r="T31" s="43">
+      <c r="S31" s="72">
+        <v>0</v>
+      </c>
+      <c r="T31" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U31" s="205"/>
-    </row>
-    <row r="32" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="137"/>
-      <c r="B32" s="70">
-        <v>0</v>
-      </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="72">
-        <v>0</v>
-      </c>
-      <c r="R32" s="42">
+      <c r="U31" s="108"/>
+    </row>
+    <row r="32" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="173"/>
+      <c r="B32" s="69">
+        <v>0</v>
+      </c>
+      <c r="C32" s="90"/>
+      <c r="D32" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="71">
+        <v>0</v>
+      </c>
+      <c r="R32" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S32" s="73">
-        <v>0</v>
-      </c>
-      <c r="T32" s="43">
+      <c r="S32" s="72">
+        <v>0</v>
+      </c>
+      <c r="T32" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="205"/>
+      <c r="U32" s="108"/>
     </row>
     <row r="33" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="137"/>
-      <c r="B33" s="45">
-        <v>0</v>
-      </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="47">
-        <v>0</v>
-      </c>
-      <c r="S33" s="48">
-        <v>0</v>
-      </c>
-      <c r="T33" s="49">
+      <c r="A33" s="173"/>
+      <c r="B33" s="44">
+        <v>0</v>
+      </c>
+      <c r="C33" s="45"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="175"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="46">
+        <v>0</v>
+      </c>
+      <c r="S33" s="47">
+        <v>0</v>
+      </c>
+      <c r="T33" s="48">
         <f>(R33-(R33*S33))*B33</f>
         <v>0</v>
       </c>
-      <c r="U33" s="205"/>
+      <c r="U33" s="108"/>
     </row>
     <row r="34" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="137"/>
-      <c r="B34" s="45">
-        <v>0</v>
-      </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="47">
-        <v>0</v>
-      </c>
-      <c r="S34" s="48">
-        <v>0</v>
-      </c>
-      <c r="T34" s="49">
+      <c r="A34" s="173"/>
+      <c r="B34" s="44">
+        <v>0</v>
+      </c>
+      <c r="C34" s="45"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="46">
+        <v>0</v>
+      </c>
+      <c r="S34" s="47">
+        <v>0</v>
+      </c>
+      <c r="T34" s="48">
         <f>(R34-(R34*S34))*B34</f>
         <v>0</v>
       </c>
-      <c r="U34" s="205"/>
+      <c r="U34" s="108"/>
     </row>
     <row r="35" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="137"/>
-      <c r="B35" s="45">
-        <v>0</v>
-      </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="47">
-        <v>0</v>
-      </c>
-      <c r="S35" s="48">
-        <v>0</v>
-      </c>
-      <c r="T35" s="49">
+      <c r="A35" s="173"/>
+      <c r="B35" s="44">
+        <v>0</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="46">
+        <v>0</v>
+      </c>
+      <c r="S35" s="47">
+        <v>0</v>
+      </c>
+      <c r="T35" s="48">
         <f>(R35-(R35*S35))*B35</f>
         <v>0</v>
       </c>
-      <c r="U35" s="205"/>
+      <c r="U35" s="108"/>
     </row>
     <row r="36" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="137"/>
-      <c r="B36" s="156" t="s">
+      <c r="A36" s="173"/>
+      <c r="B36" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="157"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="157"/>
-      <c r="K36" s="157"/>
-      <c r="L36" s="161" t="s">
+      <c r="C36" s="187"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="187"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="187"/>
+      <c r="J36" s="187"/>
+      <c r="K36" s="187"/>
+      <c r="L36" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="161"/>
-      <c r="N36" s="161"/>
-      <c r="O36" s="161"/>
-      <c r="P36" s="51">
+      <c r="M36" s="191"/>
+      <c r="N36" s="191"/>
+      <c r="O36" s="191"/>
+      <c r="P36" s="50">
         <f>SUM(P23:P32)</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="154" t="s">
+        <v>6570</v>
+      </c>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="S36" s="155"/>
-      <c r="T36" s="53">
+      <c r="S36" s="149"/>
+      <c r="T36" s="52">
         <f>SUM(T23:T35)</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="205"/>
+        <v>4599</v>
+      </c>
+      <c r="U36" s="108"/>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="137"/>
-      <c r="B37" s="200" t="s">
+      <c r="A37" s="173"/>
+      <c r="B37" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="169" t="s">
+      <c r="D37" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="162" t="s">
+      <c r="E37" s="200"/>
+      <c r="F37" s="200"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="200"/>
+      <c r="I37" s="200"/>
+      <c r="J37" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="163"/>
-      <c r="L37" s="163"/>
-      <c r="M37" s="163"/>
-      <c r="N37" s="163"/>
-      <c r="O37" s="163"/>
-      <c r="P37" s="55">
+      <c r="K37" s="193"/>
+      <c r="L37" s="193"/>
+      <c r="M37" s="193"/>
+      <c r="N37" s="193"/>
+      <c r="O37" s="193"/>
+      <c r="P37" s="54">
         <f>SUM(R23:R32)</f>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="77" t="s">
+        <v>6570</v>
+      </c>
+      <c r="Q37" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="154" t="s">
+      <c r="R37" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="S37" s="155"/>
-      <c r="T37" s="56">
+      <c r="S37" s="149"/>
+      <c r="T37" s="55">
         <f>T36*0.16</f>
-        <v>0</v>
-      </c>
-      <c r="U37" s="205"/>
+        <v>735.84</v>
+      </c>
+      <c r="U37" s="108"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="137"/>
-      <c r="B38" s="201"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="188" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="189"/>
-      <c r="T38" s="58">
-        <v>0</v>
-      </c>
-      <c r="U38" s="205"/>
+      <c r="A38" s="173"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="151"/>
+      <c r="T38" s="57">
+        <v>0</v>
+      </c>
+      <c r="U38" s="108"/>
     </row>
     <row r="39" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="137"/>
-      <c r="B39" s="201"/>
-      <c r="C39" s="54" t="s">
+      <c r="A39" s="173"/>
+      <c r="B39" s="166"/>
+      <c r="C39" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="198" t="s">
+      <c r="D39" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="199"/>
-      <c r="F39" s="199"/>
-      <c r="G39" s="199"/>
-      <c r="H39" s="199"/>
-      <c r="I39" s="199"/>
-      <c r="J39" s="199"/>
-      <c r="K39" s="202"/>
-      <c r="L39" s="203"/>
-      <c r="M39" s="203"/>
-      <c r="N39" s="203"/>
-      <c r="O39" s="203"/>
-      <c r="P39" s="203"/>
-      <c r="Q39" s="204"/>
-      <c r="R39" s="190" t="s">
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="164"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="164"/>
+      <c r="K39" s="167"/>
+      <c r="L39" s="168"/>
+      <c r="M39" s="168"/>
+      <c r="N39" s="168"/>
+      <c r="O39" s="168"/>
+      <c r="P39" s="168"/>
+      <c r="Q39" s="169"/>
+      <c r="R39" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="S39" s="191"/>
-      <c r="T39" s="59">
+      <c r="S39" s="153"/>
+      <c r="T39" s="58">
         <f>T36+T37+T38</f>
-        <v>0</v>
-      </c>
-      <c r="U39" s="205"/>
+        <v>5334.84</v>
+      </c>
+      <c r="U39" s="108"/>
     </row>
     <row r="40" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="137"/>
-      <c r="B40" s="164" t="s">
+      <c r="A40" s="173"/>
+      <c r="B40" s="194" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="165"/>
-      <c r="D40" s="166"/>
-      <c r="E40" s="167"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="167"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="167"/>
-      <c r="K40" s="167"/>
-      <c r="L40" s="167"/>
-      <c r="M40" s="167"/>
-      <c r="N40" s="167"/>
-      <c r="O40" s="167"/>
-      <c r="P40" s="167"/>
-      <c r="Q40" s="167"/>
-      <c r="R40" s="167"/>
-      <c r="S40" s="168"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="196"/>
+      <c r="E40" s="197"/>
+      <c r="F40" s="197"/>
+      <c r="G40" s="197"/>
+      <c r="H40" s="197"/>
+      <c r="I40" s="197"/>
+      <c r="J40" s="197"/>
+      <c r="K40" s="197"/>
+      <c r="L40" s="197"/>
+      <c r="M40" s="197"/>
+      <c r="N40" s="197"/>
+      <c r="O40" s="197"/>
+      <c r="P40" s="197"/>
+      <c r="Q40" s="197"/>
+      <c r="R40" s="197"/>
+      <c r="S40" s="198"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="205"/>
+      <c r="U40" s="108"/>
     </row>
     <row r="41" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="137"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="205"/>
+      <c r="A41" s="173"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="108"/>
     </row>
     <row r="42" spans="1:21" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="137"/>
-      <c r="B42" s="158" t="s">
+      <c r="A42" s="173"/>
+      <c r="B42" s="188" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="159"/>
-      <c r="D42" s="159"/>
-      <c r="E42" s="159"/>
-      <c r="F42" s="159"/>
-      <c r="G42" s="159"/>
-      <c r="H42" s="159"/>
-      <c r="I42" s="159"/>
-      <c r="J42" s="159"/>
-      <c r="K42" s="159"/>
-      <c r="L42" s="159"/>
-      <c r="M42" s="159"/>
-      <c r="N42" s="159"/>
-      <c r="O42" s="159"/>
-      <c r="P42" s="159"/>
-      <c r="Q42" s="159"/>
-      <c r="R42" s="159"/>
-      <c r="S42" s="159"/>
-      <c r="T42" s="160"/>
-      <c r="U42" s="205"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="189"/>
+      <c r="G42" s="189"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="189"/>
+      <c r="J42" s="189"/>
+      <c r="K42" s="189"/>
+      <c r="L42" s="189"/>
+      <c r="M42" s="189"/>
+      <c r="N42" s="189"/>
+      <c r="O42" s="189"/>
+      <c r="P42" s="189"/>
+      <c r="Q42" s="189"/>
+      <c r="R42" s="189"/>
+      <c r="S42" s="189"/>
+      <c r="T42" s="190"/>
+      <c r="U42" s="108"/>
     </row>
     <row r="43" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="138"/>
-      <c r="B43" s="206" t="s">
+      <c r="A43" s="174"/>
+      <c r="B43" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="207"/>
-      <c r="D43" s="208"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="152"/>
-      <c r="G43" s="152"/>
-      <c r="H43" s="152"/>
-      <c r="I43" s="152"/>
-      <c r="J43" s="152"/>
-      <c r="K43" s="152"/>
-      <c r="L43" s="152"/>
-      <c r="M43" s="152"/>
-      <c r="N43" s="152"/>
-      <c r="O43" s="152"/>
-      <c r="P43" s="152"/>
-      <c r="Q43" s="152"/>
-      <c r="R43" s="152"/>
-      <c r="S43" s="152"/>
-      <c r="T43" s="153"/>
-      <c r="U43" s="205"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="160"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="161"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="161"/>
+      <c r="J43" s="161"/>
+      <c r="K43" s="161"/>
+      <c r="L43" s="161"/>
+      <c r="M43" s="161"/>
+      <c r="N43" s="161"/>
+      <c r="O43" s="161"/>
+      <c r="P43" s="161"/>
+      <c r="Q43" s="161"/>
+      <c r="R43" s="161"/>
+      <c r="S43" s="161"/>
+      <c r="T43" s="162"/>
+      <c r="U43" s="108"/>
     </row>
     <row r="44" spans="1:21" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="206" t="s">
+      <c r="A44" s="31"/>
+      <c r="B44" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="207"/>
-      <c r="D44" s="207"/>
-      <c r="E44" s="151"/>
-      <c r="F44" s="152"/>
-      <c r="G44" s="152"/>
-      <c r="H44" s="152"/>
-      <c r="I44" s="152"/>
-      <c r="J44" s="152"/>
-      <c r="K44" s="152"/>
-      <c r="L44" s="152"/>
-      <c r="M44" s="152"/>
-      <c r="N44" s="152"/>
-      <c r="O44" s="152"/>
-      <c r="P44" s="152"/>
-      <c r="Q44" s="152"/>
-      <c r="R44" s="152"/>
-      <c r="S44" s="152"/>
-      <c r="T44" s="153"/>
-      <c r="U44" s="33"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="160"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="161"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="161"/>
+      <c r="J44" s="161"/>
+      <c r="K44" s="161"/>
+      <c r="L44" s="161"/>
+      <c r="M44" s="161"/>
+      <c r="N44" s="161"/>
+      <c r="O44" s="161"/>
+      <c r="P44" s="161"/>
+      <c r="Q44" s="161"/>
+      <c r="R44" s="161"/>
+      <c r="S44" s="161"/>
+      <c r="T44" s="162"/>
+      <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="171"/>
-      <c r="B45" s="172"/>
-      <c r="C45" s="172"/>
-      <c r="D45" s="172"/>
-      <c r="E45" s="172"/>
-      <c r="F45" s="172"/>
-      <c r="G45" s="172"/>
-      <c r="H45" s="172"/>
-      <c r="I45" s="172"/>
-      <c r="J45" s="172"/>
-      <c r="K45" s="172"/>
-      <c r="L45" s="172"/>
-      <c r="M45" s="172"/>
-      <c r="N45" s="172"/>
-      <c r="O45" s="172"/>
-      <c r="P45" s="172"/>
-      <c r="Q45" s="172"/>
-      <c r="R45" s="172"/>
-      <c r="S45" s="172"/>
-      <c r="T45" s="172"/>
-      <c r="U45" s="173"/>
+      <c r="A45" s="132"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="133"/>
+      <c r="M45" s="133"/>
+      <c r="N45" s="133"/>
+      <c r="O45" s="133"/>
+      <c r="P45" s="133"/>
+      <c r="Q45" s="133"/>
+      <c r="R45" s="133"/>
+      <c r="S45" s="133"/>
+      <c r="T45" s="133"/>
+      <c r="U45" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B16:T16"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="B18:T18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B42:T42"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:S40"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B15:T15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="E44:T44"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="K39:Q39"/>
     <mergeCell ref="U2:U43"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
@@ -5215,54 +5294,12 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="L21:O21"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B15:T15"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="E44:T44"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B16:T16"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="B18:T18"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B42:T42"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:S40"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="P11:R11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -5337,7 +5374,7 @@
       <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -5353,7 +5390,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="G2" s="29"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -5367,7 +5404,7 @@
         <v>85</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="G3" s="29"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -5380,7 +5417,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="G4" s="29"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -5416,7 +5453,7 @@
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="86" t="s">
         <v>92</v>
       </c>
       <c r="C9" s="6"/>

--- a/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
+++ b/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EC16\Documents\SOSQTP\Documentos de Venta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA59E278-2C43-4E87-BDB1-2C3DB9A71804}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487F2642-9A36-4C33-8CAC-32EDF0BC2BA3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="123">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -999,25 +999,49 @@
     <t>Marisol Ornelas Casillas</t>
   </si>
   <si>
-    <t>P3671</t>
-  </si>
-  <si>
     <t>NOMINA  ANUAL</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>789F</t>
-  </si>
-  <si>
-    <t>467E</t>
-  </si>
-  <si>
-    <t>3EF8</t>
-  </si>
-  <si>
-    <t>3062</t>
+    <t>P3682</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>D682</t>
+  </si>
+  <si>
+    <t>F89E</t>
+  </si>
+  <si>
+    <t>E659</t>
+  </si>
+  <si>
+    <t>594B</t>
+  </si>
+  <si>
+    <t>1314</t>
+  </si>
+  <si>
+    <t>C13D</t>
+  </si>
+  <si>
+    <t>0180</t>
+  </si>
+  <si>
+    <t>136B</t>
+  </si>
+  <si>
+    <t>9B5C</t>
+  </si>
+  <si>
+    <t>68FA</t>
+  </si>
+  <si>
+    <t>AF24</t>
+  </si>
+  <si>
+    <t>89A2</t>
   </si>
 </sst>
 </file>
@@ -2918,117 +2942,234 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3069,14 +3210,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3093,7 +3231,7 @@
     <xf numFmtId="0" fontId="94" fillId="5" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3108,15 +3246,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3138,210 +3267,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3749,8 +3773,8 @@
   </sheetPr>
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3781,32 +3805,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="133" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="172"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="135"/>
     </row>
     <row r="2" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="173"/>
+      <c r="A2" s="136"/>
       <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
@@ -3819,21 +3843,21 @@
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
-      <c r="L2" s="204" t="s">
+      <c r="L2" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="205"/>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="205"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="108"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="204"/>
     </row>
     <row r="3" spans="1:21" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="173"/>
+      <c r="A3" s="136"/>
       <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
@@ -3846,297 +3870,297 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
-      <c r="L3" s="207" t="s">
+      <c r="L3" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="207"/>
-      <c r="N3" s="207"/>
-      <c r="O3" s="207"/>
-      <c r="P3" s="207"/>
-      <c r="Q3" s="207"/>
-      <c r="R3" s="207"/>
-      <c r="S3" s="207"/>
-      <c r="T3" s="208"/>
-      <c r="U3" s="108"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="204"/>
     </row>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="173"/>
-      <c r="B4" s="201" t="s">
+      <c r="A4" s="136"/>
+      <c r="B4" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
-      <c r="S4" s="202"/>
-      <c r="T4" s="203"/>
-      <c r="U4" s="108"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="204"/>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="173"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="135" t="s">
+      <c r="A5" s="136"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="215"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="215"/>
+      <c r="I5" s="215"/>
+      <c r="J5" s="215"/>
+      <c r="K5" s="215"/>
+      <c r="L5" s="215"/>
+      <c r="M5" s="215"/>
+      <c r="N5" s="215"/>
+      <c r="O5" s="215"/>
+      <c r="P5" s="215"/>
+      <c r="Q5" s="215"/>
+      <c r="R5" s="173" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="136"/>
+      <c r="S5" s="174"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="108"/>
+      <c r="U5" s="204"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="173"/>
-      <c r="B6" s="112" t="s">
+      <c r="A6" s="136"/>
+      <c r="B6" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="103" t="s">
+      <c r="C6" s="209"/>
+      <c r="D6" s="234" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="235"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="235"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="235"/>
+      <c r="M6" s="235"/>
+      <c r="N6" s="235"/>
+      <c r="O6" s="235"/>
+      <c r="P6" s="235"/>
+      <c r="Q6" s="235"/>
       <c r="R6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="99" t="s">
+      <c r="S6" s="230" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="100"/>
-      <c r="U6" s="108"/>
+      <c r="T6" s="231"/>
+      <c r="U6" s="204"/>
     </row>
     <row r="7" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="173"/>
-      <c r="B7" s="112" t="s">
+      <c r="A7" s="136"/>
+      <c r="B7" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114" t="s">
+      <c r="C7" s="209"/>
+      <c r="D7" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
       <c r="R7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="101" t="s">
+      <c r="S7" s="232" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="102"/>
-      <c r="U7" s="108"/>
+      <c r="T7" s="233"/>
+      <c r="U7" s="204"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="173"/>
-      <c r="B8" s="112" t="s">
+      <c r="A8" s="136"/>
+      <c r="B8" s="208" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="231" t="s">
+      <c r="C8" s="209"/>
+      <c r="D8" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="147"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="154" t="s">
+      <c r="K8" s="191" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="156"/>
-      <c r="U8" s="108"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="192"/>
+      <c r="R8" s="192"/>
+      <c r="S8" s="192"/>
+      <c r="T8" s="193"/>
+      <c r="U8" s="204"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="173"/>
-      <c r="B9" s="112" t="s">
+      <c r="A9" s="136"/>
+      <c r="B9" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="114" t="s">
+      <c r="C9" s="209"/>
+      <c r="D9" s="185" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="115"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="210"/>
+      <c r="K9" s="210"/>
+      <c r="L9" s="210"/>
+      <c r="M9" s="210"/>
+      <c r="N9" s="210"/>
+      <c r="O9" s="210"/>
+      <c r="P9" s="210"/>
       <c r="Q9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="118" t="s">
+      <c r="R9" s="211" t="s">
         <v>105</v>
       </c>
-      <c r="S9" s="119"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="108"/>
+      <c r="S9" s="212"/>
+      <c r="T9" s="213"/>
+      <c r="U9" s="204"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="173"/>
-      <c r="B10" s="112" t="s">
+      <c r="A10" s="136"/>
+      <c r="B10" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="232" t="s">
+      <c r="C10" s="209"/>
+      <c r="D10" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="232"/>
-      <c r="F10" s="233"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="233"/>
-      <c r="I10" s="233"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="157" t="s">
+      <c r="K10" s="194" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="158"/>
-      <c r="Q10" s="158"/>
-      <c r="R10" s="158"/>
-      <c r="S10" s="158"/>
-      <c r="T10" s="159"/>
-      <c r="U10" s="108"/>
+      <c r="L10" s="195"/>
+      <c r="M10" s="195"/>
+      <c r="N10" s="195"/>
+      <c r="O10" s="195"/>
+      <c r="P10" s="195"/>
+      <c r="Q10" s="195"/>
+      <c r="R10" s="195"/>
+      <c r="S10" s="195"/>
+      <c r="T10" s="196"/>
+      <c r="U10" s="204"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="173"/>
-      <c r="B11" s="93" t="s">
+      <c r="A11" s="136"/>
+      <c r="B11" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="236" t="s">
+      <c r="C11" s="225"/>
+      <c r="D11" s="225"/>
+      <c r="E11" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="237"/>
-      <c r="G11" s="237"/>
-      <c r="H11" s="237"/>
-      <c r="I11" s="237"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="237"/>
-      <c r="M11" s="237"/>
-      <c r="N11" s="237"/>
-      <c r="O11" s="238"/>
-      <c r="P11" s="105" t="s">
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="127" t="s">
+      <c r="Q11" s="237"/>
+      <c r="R11" s="238"/>
+      <c r="S11" s="220" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="128"/>
-      <c r="U11" s="108"/>
+      <c r="T11" s="221"/>
+      <c r="U11" s="204"/>
     </row>
     <row r="12" spans="1:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="173"/>
-      <c r="B12" s="95" t="s">
+      <c r="A12" s="136"/>
+      <c r="B12" s="226" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="108"/>
+      <c r="C12" s="227"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="228"/>
+      <c r="F12" s="228"/>
+      <c r="G12" s="228"/>
+      <c r="H12" s="228"/>
+      <c r="I12" s="228"/>
+      <c r="J12" s="228"/>
+      <c r="K12" s="228"/>
+      <c r="L12" s="228"/>
+      <c r="M12" s="228"/>
+      <c r="N12" s="228"/>
+      <c r="O12" s="228"/>
+      <c r="P12" s="228"/>
+      <c r="Q12" s="228"/>
+      <c r="R12" s="228"/>
+      <c r="S12" s="228"/>
+      <c r="T12" s="229"/>
+      <c r="U12" s="204"/>
     </row>
     <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="173"/>
-      <c r="B13" s="219" t="s">
+      <c r="A13" s="136"/>
+      <c r="B13" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="220"/>
-      <c r="D13" s="220"/>
-      <c r="E13" s="220"/>
-      <c r="F13" s="220"/>
-      <c r="G13" s="220"/>
-      <c r="H13" s="220"/>
-      <c r="I13" s="220"/>
-      <c r="J13" s="220"/>
-      <c r="K13" s="220"/>
-      <c r="L13" s="220"/>
-      <c r="M13" s="220"/>
-      <c r="N13" s="220"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
       <c r="O13" s="74" t="s">
         <v>0</v>
       </c>
@@ -4144,165 +4168,165 @@
         <v>0</v>
       </c>
       <c r="Q13" s="75"/>
-      <c r="R13" s="141" t="s">
+      <c r="R13" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="141"/>
+      <c r="S13" s="179"/>
       <c r="T13" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="U13" s="108"/>
+        <v>109</v>
+      </c>
+      <c r="U13" s="204"/>
     </row>
     <row r="14" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="173"/>
-      <c r="B14" s="144" t="s">
+      <c r="A14" s="136"/>
+      <c r="B14" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="145"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="123" t="s">
+      <c r="C14" s="183"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="216" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="124"/>
-      <c r="Q14" s="124"/>
+      <c r="F14" s="216"/>
+      <c r="G14" s="216"/>
+      <c r="H14" s="216"/>
+      <c r="I14" s="216"/>
+      <c r="J14" s="217"/>
+      <c r="K14" s="217"/>
+      <c r="L14" s="217"/>
+      <c r="M14" s="217"/>
+      <c r="N14" s="217"/>
+      <c r="O14" s="217"/>
+      <c r="P14" s="217"/>
+      <c r="Q14" s="217"/>
       <c r="R14" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="142">
+      <c r="S14" s="180">
         <f ca="1">TODAY()</f>
-        <v>43530</v>
-      </c>
-      <c r="T14" s="143"/>
-      <c r="U14" s="108"/>
+        <v>43535</v>
+      </c>
+      <c r="T14" s="181"/>
+      <c r="U14" s="204"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="173"/>
-      <c r="B15" s="137" t="s">
+      <c r="A15" s="136"/>
+      <c r="B15" s="175" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="138"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="139"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="139"/>
-      <c r="T15" s="140"/>
-      <c r="U15" s="108"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="178"/>
+      <c r="U15" s="204"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="173"/>
-      <c r="B16" s="176" t="s">
+      <c r="A16" s="136"/>
+      <c r="B16" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="177"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="177"/>
-      <c r="M16" s="177"/>
-      <c r="N16" s="177"/>
-      <c r="O16" s="177"/>
-      <c r="P16" s="177"/>
-      <c r="Q16" s="177"/>
-      <c r="R16" s="177"/>
-      <c r="S16" s="177"/>
-      <c r="T16" s="178"/>
-      <c r="U16" s="108"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="141"/>
+      <c r="N16" s="141"/>
+      <c r="O16" s="141"/>
+      <c r="P16" s="141"/>
+      <c r="Q16" s="141"/>
+      <c r="R16" s="141"/>
+      <c r="S16" s="141"/>
+      <c r="T16" s="142"/>
+      <c r="U16" s="204"/>
     </row>
     <row r="17" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="173"/>
-      <c r="B17" s="179" t="s">
+      <c r="A17" s="136"/>
+      <c r="B17" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="180"/>
-      <c r="P17" s="180"/>
-      <c r="Q17" s="180"/>
-      <c r="R17" s="180"/>
-      <c r="S17" s="180"/>
-      <c r="T17" s="181"/>
-      <c r="U17" s="108"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="144"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="144"/>
+      <c r="S17" s="144"/>
+      <c r="T17" s="145"/>
+      <c r="U17" s="204"/>
     </row>
     <row r="18" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="173"/>
-      <c r="B18" s="182" t="s">
+      <c r="A18" s="136"/>
+      <c r="B18" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="184"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="184"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="184"/>
-      <c r="K18" s="184"/>
-      <c r="L18" s="184"/>
-      <c r="M18" s="184"/>
-      <c r="N18" s="184"/>
-      <c r="O18" s="184"/>
-      <c r="P18" s="184"/>
-      <c r="Q18" s="184"/>
-      <c r="R18" s="184"/>
-      <c r="S18" s="184"/>
-      <c r="T18" s="185"/>
-      <c r="U18" s="108"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="148"/>
+      <c r="S18" s="148"/>
+      <c r="T18" s="149"/>
+      <c r="U18" s="204"/>
     </row>
     <row r="19" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="173"/>
-      <c r="B19" s="223" t="s">
+      <c r="A19" s="136"/>
+      <c r="B19" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="224"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="224"/>
-      <c r="F19" s="224"/>
-      <c r="G19" s="224"/>
-      <c r="H19" s="224"/>
-      <c r="I19" s="224"/>
-      <c r="J19" s="224"/>
-      <c r="K19" s="224"/>
-      <c r="L19" s="224"/>
-      <c r="M19" s="224"/>
-      <c r="N19" s="224"/>
-      <c r="O19" s="225"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="117"/>
       <c r="P19" s="10" t="s">
         <v>31</v>
       </c>
@@ -4310,30 +4334,30 @@
       <c r="R19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="125" t="s">
+      <c r="S19" s="218" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="126"/>
-      <c r="U19" s="108"/>
+      <c r="T19" s="219"/>
+      <c r="U19" s="204"/>
     </row>
     <row r="20" spans="1:21" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="173"/>
-      <c r="B20" s="226" t="s">
+      <c r="A20" s="136"/>
+      <c r="B20" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="227"/>
-      <c r="D20" s="228"/>
-      <c r="E20" s="227"/>
-      <c r="F20" s="227"/>
-      <c r="G20" s="227"/>
-      <c r="H20" s="227"/>
-      <c r="I20" s="227"/>
-      <c r="J20" s="227"/>
-      <c r="K20" s="227"/>
-      <c r="L20" s="227"/>
-      <c r="M20" s="229"/>
-      <c r="N20" s="229"/>
-      <c r="O20" s="230"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="122"/>
       <c r="P20" s="64"/>
       <c r="Q20" s="16" t="s">
         <v>35</v>
@@ -4343,10 +4367,10 @@
         <v>36</v>
       </c>
       <c r="T20" s="66"/>
-      <c r="U20" s="108"/>
+      <c r="U20" s="204"/>
     </row>
     <row r="21" spans="1:21" ht="81.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="173"/>
+      <c r="A21" s="136"/>
       <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
@@ -4371,37 +4395,37 @@
       <c r="I21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="215" t="s">
+      <c r="J21" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="217" t="s">
+      <c r="K21" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="129" t="s">
+      <c r="L21" s="222" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="130"/>
-      <c r="N21" s="130"/>
-      <c r="O21" s="130"/>
-      <c r="P21" s="209" t="s">
+      <c r="M21" s="223"/>
+      <c r="N21" s="223"/>
+      <c r="O21" s="223"/>
+      <c r="P21" s="101" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="R21" s="211" t="s">
+      <c r="R21" s="103" t="s">
         <v>64</v>
       </c>
       <c r="S21" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="T21" s="213" t="s">
+      <c r="T21" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="U21" s="108"/>
+      <c r="U21" s="204"/>
     </row>
     <row r="22" spans="1:21" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="173"/>
+      <c r="A22" s="136"/>
       <c r="B22" s="34" t="s">
         <v>72</v>
       </c>
@@ -4414,37 +4438,37 @@
       <c r="E22" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="234" t="s">
+      <c r="F22" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="235"/>
+      <c r="G22" s="129"/>
       <c r="H22" s="37" t="s">
         <v>75</v>
       </c>
       <c r="I22" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="216"/>
-      <c r="K22" s="218"/>
-      <c r="L22" s="221" t="s">
+      <c r="J22" s="108"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="M22" s="222"/>
-      <c r="N22" s="222"/>
-      <c r="O22" s="222"/>
-      <c r="P22" s="210"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="102"/>
       <c r="Q22" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="R22" s="212"/>
+      <c r="R22" s="104"/>
       <c r="S22" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="T22" s="214"/>
-      <c r="U22" s="108"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="204"/>
     </row>
     <row r="23" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A23" s="173"/>
+      <c r="A23" s="136"/>
       <c r="B23" s="68">
         <v>1</v>
       </c>
@@ -4452,16 +4476,16 @@
         <v>47</v>
       </c>
       <c r="D23" s="88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="39" t="s">
-        <v>26</v>
+      <c r="F23" s="39">
+        <v>1</v>
+      </c>
+      <c r="G23" s="39">
+        <v>1</v>
       </c>
       <c r="H23" s="39" t="s">
         <v>110</v>
@@ -4486,71 +4510,95 @@
         <v>114</v>
       </c>
       <c r="P23" s="43">
-        <v>6570</v>
+        <v>3290</v>
       </c>
       <c r="Q23" s="70">
         <v>0</v>
       </c>
       <c r="R23" s="41">
         <f t="shared" ref="R23:R32" si="0">(P23*B23)*(1-Q23)</f>
-        <v>6570</v>
+        <v>3290</v>
       </c>
       <c r="S23" s="72">
         <v>0.3</v>
       </c>
       <c r="T23" s="42">
         <f>R23*(1-S23)</f>
-        <v>4599</v>
-      </c>
-      <c r="U23" s="108"/>
+        <v>2303</v>
+      </c>
+      <c r="U23" s="204"/>
     </row>
     <row r="24" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A24" s="173"/>
+      <c r="A24" s="136"/>
       <c r="B24" s="68">
-        <v>0</v>
-      </c>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="C24" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>85</v>
+      </c>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="I24" s="39"/>
+      <c r="I24" s="39" t="s">
+        <v>110</v>
+      </c>
       <c r="J24" s="39"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="80"/>
+      <c r="K24" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="M24" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="N24" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="O24" s="80" t="s">
+        <v>118</v>
+      </c>
       <c r="P24" s="43">
-        <v>0</v>
+        <v>3890</v>
       </c>
       <c r="Q24" s="70">
         <v>0</v>
       </c>
       <c r="R24" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3890</v>
       </c>
       <c r="S24" s="72">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T24" s="42">
         <f t="shared" ref="T24:T32" si="1">R24*(1-S24)</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="108"/>
+        <v>2723</v>
+      </c>
+      <c r="U24" s="204"/>
     </row>
     <row r="25" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A25" s="173"/>
+      <c r="A25" s="136"/>
       <c r="B25" s="68">
-        <v>0</v>
-      </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="C25" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>85</v>
+      </c>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39" t="s">
@@ -4558,32 +4606,42 @@
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="80"/>
+      <c r="K25" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="M25" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="N25" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="O25" s="80" t="s">
+        <v>122</v>
+      </c>
       <c r="P25" s="43">
-        <v>0</v>
+        <v>1490</v>
       </c>
       <c r="Q25" s="70">
         <v>0</v>
       </c>
       <c r="R25" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1490</v>
       </c>
       <c r="S25" s="72">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T25" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="108"/>
+        <v>1043</v>
+      </c>
+      <c r="U25" s="204"/>
     </row>
     <row r="26" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A26" s="173"/>
+      <c r="A26" s="136"/>
       <c r="B26" s="68">
         <v>0</v>
       </c>
@@ -4619,10 +4677,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U26" s="108"/>
+      <c r="U26" s="204"/>
     </row>
     <row r="27" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A27" s="173"/>
+      <c r="A27" s="136"/>
       <c r="B27" s="68">
         <v>0</v>
       </c>
@@ -4658,10 +4716,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U27" s="108"/>
+      <c r="U27" s="204"/>
     </row>
     <row r="28" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A28" s="173"/>
+      <c r="A28" s="136"/>
       <c r="B28" s="68">
         <v>0</v>
       </c>
@@ -4697,10 +4755,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28" s="108"/>
+      <c r="U28" s="204"/>
     </row>
     <row r="29" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A29" s="173"/>
+      <c r="A29" s="136"/>
       <c r="B29" s="68">
         <v>0</v>
       </c>
@@ -4734,10 +4792,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U29" s="108"/>
+      <c r="U29" s="204"/>
     </row>
     <row r="30" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A30" s="173"/>
+      <c r="A30" s="136"/>
       <c r="B30" s="68">
         <v>0</v>
       </c>
@@ -4771,10 +4829,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U30" s="108"/>
+      <c r="U30" s="204"/>
     </row>
     <row r="31" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A31" s="173"/>
+      <c r="A31" s="136"/>
       <c r="B31" s="68">
         <v>0</v>
       </c>
@@ -4810,10 +4868,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U31" s="108"/>
+      <c r="U31" s="204"/>
     </row>
     <row r="32" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="173"/>
+      <c r="A32" s="136"/>
       <c r="B32" s="69">
         <v>0</v>
       </c>
@@ -4849,16 +4907,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="108"/>
+      <c r="U32" s="204"/>
     </row>
     <row r="33" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="173"/>
+      <c r="A33" s="136"/>
       <c r="B33" s="44">
         <v>0</v>
       </c>
       <c r="C33" s="45"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="175"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="139"/>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
@@ -4881,16 +4939,16 @@
         <f>(R33-(R33*S33))*B33</f>
         <v>0</v>
       </c>
-      <c r="U33" s="108"/>
+      <c r="U33" s="204"/>
     </row>
     <row r="34" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="173"/>
+      <c r="A34" s="136"/>
       <c r="B34" s="44">
         <v>0</v>
       </c>
       <c r="C34" s="45"/>
-      <c r="D34" s="131"/>
-      <c r="E34" s="131"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
       <c r="H34" s="39"/>
@@ -4913,16 +4971,16 @@
         <f>(R34-(R34*S34))*B34</f>
         <v>0</v>
       </c>
-      <c r="U34" s="108"/>
+      <c r="U34" s="204"/>
     </row>
     <row r="35" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="173"/>
+      <c r="A35" s="136"/>
       <c r="B35" s="44">
         <v>0</v>
       </c>
       <c r="C35" s="45"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="131"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="138"/>
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
@@ -4945,87 +5003,87 @@
         <f>(R35-(R35*S35))*B35</f>
         <v>0</v>
       </c>
-      <c r="U35" s="108"/>
+      <c r="U35" s="204"/>
     </row>
     <row r="36" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="173"/>
-      <c r="B36" s="186" t="s">
+      <c r="A36" s="136"/>
+      <c r="B36" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="187"/>
-      <c r="D36" s="187"/>
-      <c r="E36" s="187"/>
-      <c r="F36" s="187"/>
-      <c r="G36" s="187"/>
-      <c r="H36" s="187"/>
-      <c r="I36" s="187"/>
-      <c r="J36" s="187"/>
-      <c r="K36" s="187"/>
-      <c r="L36" s="191" t="s">
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="156"/>
+      <c r="K36" s="156"/>
+      <c r="L36" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="191"/>
-      <c r="N36" s="191"/>
-      <c r="O36" s="191"/>
+      <c r="M36" s="160"/>
+      <c r="N36" s="160"/>
+      <c r="O36" s="160"/>
       <c r="P36" s="50">
         <f>SUM(P23:P32)</f>
-        <v>6570</v>
+        <v>8670</v>
       </c>
       <c r="Q36" s="51"/>
-      <c r="R36" s="148" t="s">
+      <c r="R36" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="S36" s="149"/>
+      <c r="S36" s="154"/>
       <c r="T36" s="52">
         <f>SUM(T23:T35)</f>
-        <v>4599</v>
-      </c>
-      <c r="U36" s="108"/>
+        <v>6069</v>
+      </c>
+      <c r="U36" s="204"/>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="173"/>
-      <c r="B37" s="165" t="s">
+      <c r="A37" s="136"/>
+      <c r="B37" s="199" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="199" t="s">
+      <c r="D37" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="200"/>
-      <c r="F37" s="200"/>
-      <c r="G37" s="200"/>
-      <c r="H37" s="200"/>
-      <c r="I37" s="200"/>
-      <c r="J37" s="192" t="s">
+      <c r="E37" s="169"/>
+      <c r="F37" s="169"/>
+      <c r="G37" s="169"/>
+      <c r="H37" s="169"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="193"/>
-      <c r="L37" s="193"/>
-      <c r="M37" s="193"/>
-      <c r="N37" s="193"/>
-      <c r="O37" s="193"/>
+      <c r="K37" s="162"/>
+      <c r="L37" s="162"/>
+      <c r="M37" s="162"/>
+      <c r="N37" s="162"/>
+      <c r="O37" s="162"/>
       <c r="P37" s="54">
         <f>SUM(R23:R32)</f>
-        <v>6570</v>
+        <v>8670</v>
       </c>
       <c r="Q37" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="148" t="s">
+      <c r="R37" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="S37" s="149"/>
+      <c r="S37" s="154"/>
       <c r="T37" s="55">
         <f>T36*0.16</f>
-        <v>735.84</v>
-      </c>
-      <c r="U37" s="108"/>
+        <v>971.04</v>
+      </c>
+      <c r="U37" s="204"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="173"/>
-      <c r="B38" s="166"/>
+      <c r="A38" s="136"/>
+      <c r="B38" s="200"/>
       <c r="C38" s="56"/>
       <c r="D38" s="56"/>
       <c r="E38" s="56"/>
@@ -5041,74 +5099,74 @@
       <c r="O38" s="51"/>
       <c r="P38" s="51"/>
       <c r="Q38" s="51"/>
-      <c r="R38" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="151"/>
+      <c r="R38" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="188"/>
       <c r="T38" s="57">
         <v>0</v>
       </c>
-      <c r="U38" s="108"/>
+      <c r="U38" s="204"/>
     </row>
     <row r="39" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="173"/>
-      <c r="B39" s="166"/>
+      <c r="A39" s="136"/>
+      <c r="B39" s="200"/>
       <c r="C39" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="163" t="s">
+      <c r="D39" s="197" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="164"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="164"/>
-      <c r="K39" s="167"/>
-      <c r="L39" s="168"/>
-      <c r="M39" s="168"/>
-      <c r="N39" s="168"/>
-      <c r="O39" s="168"/>
-      <c r="P39" s="168"/>
-      <c r="Q39" s="169"/>
-      <c r="R39" s="152" t="s">
+      <c r="E39" s="198"/>
+      <c r="F39" s="198"/>
+      <c r="G39" s="198"/>
+      <c r="H39" s="198"/>
+      <c r="I39" s="198"/>
+      <c r="J39" s="198"/>
+      <c r="K39" s="201"/>
+      <c r="L39" s="202"/>
+      <c r="M39" s="202"/>
+      <c r="N39" s="202"/>
+      <c r="O39" s="202"/>
+      <c r="P39" s="202"/>
+      <c r="Q39" s="203"/>
+      <c r="R39" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="S39" s="153"/>
+      <c r="S39" s="190"/>
       <c r="T39" s="58">
         <f>T36+T37+T38</f>
-        <v>5334.84</v>
-      </c>
-      <c r="U39" s="108"/>
+        <v>7040.04</v>
+      </c>
+      <c r="U39" s="204"/>
     </row>
     <row r="40" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="173"/>
-      <c r="B40" s="194" t="s">
+      <c r="A40" s="136"/>
+      <c r="B40" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="195"/>
-      <c r="D40" s="196"/>
-      <c r="E40" s="197"/>
-      <c r="F40" s="197"/>
-      <c r="G40" s="197"/>
-      <c r="H40" s="197"/>
-      <c r="I40" s="197"/>
-      <c r="J40" s="197"/>
-      <c r="K40" s="197"/>
-      <c r="L40" s="197"/>
-      <c r="M40" s="197"/>
-      <c r="N40" s="197"/>
-      <c r="O40" s="197"/>
-      <c r="P40" s="197"/>
-      <c r="Q40" s="197"/>
-      <c r="R40" s="197"/>
-      <c r="S40" s="198"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="166"/>
+      <c r="F40" s="166"/>
+      <c r="G40" s="166"/>
+      <c r="H40" s="166"/>
+      <c r="I40" s="166"/>
+      <c r="J40" s="166"/>
+      <c r="K40" s="166"/>
+      <c r="L40" s="166"/>
+      <c r="M40" s="166"/>
+      <c r="N40" s="166"/>
+      <c r="O40" s="166"/>
+      <c r="P40" s="166"/>
+      <c r="Q40" s="166"/>
+      <c r="R40" s="166"/>
+      <c r="S40" s="167"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="108"/>
+      <c r="U40" s="204"/>
     </row>
     <row r="41" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="173"/>
+      <c r="A41" s="136"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="20"/>
@@ -5128,108 +5186,162 @@
       <c r="R41" s="20"/>
       <c r="S41" s="20"/>
       <c r="T41" s="21"/>
-      <c r="U41" s="108"/>
+      <c r="U41" s="204"/>
     </row>
     <row r="42" spans="1:21" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="173"/>
-      <c r="B42" s="188" t="s">
+      <c r="A42" s="136"/>
+      <c r="B42" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="189"/>
-      <c r="D42" s="189"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="189"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="189"/>
-      <c r="J42" s="189"/>
-      <c r="K42" s="189"/>
-      <c r="L42" s="189"/>
-      <c r="M42" s="189"/>
-      <c r="N42" s="189"/>
-      <c r="O42" s="189"/>
-      <c r="P42" s="189"/>
-      <c r="Q42" s="189"/>
-      <c r="R42" s="189"/>
-      <c r="S42" s="189"/>
-      <c r="T42" s="190"/>
-      <c r="U42" s="108"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="158"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="158"/>
+      <c r="H42" s="158"/>
+      <c r="I42" s="158"/>
+      <c r="J42" s="158"/>
+      <c r="K42" s="158"/>
+      <c r="L42" s="158"/>
+      <c r="M42" s="158"/>
+      <c r="N42" s="158"/>
+      <c r="O42" s="158"/>
+      <c r="P42" s="158"/>
+      <c r="Q42" s="158"/>
+      <c r="R42" s="158"/>
+      <c r="S42" s="158"/>
+      <c r="T42" s="159"/>
+      <c r="U42" s="204"/>
     </row>
     <row r="43" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="174"/>
-      <c r="B43" s="109" t="s">
+      <c r="A43" s="137"/>
+      <c r="B43" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="110"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="160"/>
-      <c r="F43" s="161"/>
-      <c r="G43" s="161"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="161"/>
-      <c r="J43" s="161"/>
-      <c r="K43" s="161"/>
-      <c r="L43" s="161"/>
-      <c r="M43" s="161"/>
-      <c r="N43" s="161"/>
-      <c r="O43" s="161"/>
-      <c r="P43" s="161"/>
-      <c r="Q43" s="161"/>
-      <c r="R43" s="161"/>
-      <c r="S43" s="161"/>
-      <c r="T43" s="162"/>
-      <c r="U43" s="108"/>
+      <c r="C43" s="206"/>
+      <c r="D43" s="207"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="151"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="151"/>
+      <c r="N43" s="151"/>
+      <c r="O43" s="151"/>
+      <c r="P43" s="151"/>
+      <c r="Q43" s="151"/>
+      <c r="R43" s="151"/>
+      <c r="S43" s="151"/>
+      <c r="T43" s="152"/>
+      <c r="U43" s="204"/>
     </row>
     <row r="44" spans="1:21" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
-      <c r="B44" s="109" t="s">
+      <c r="B44" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="160"/>
-      <c r="F44" s="161"/>
-      <c r="G44" s="161"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="161"/>
-      <c r="J44" s="161"/>
-      <c r="K44" s="161"/>
-      <c r="L44" s="161"/>
-      <c r="M44" s="161"/>
-      <c r="N44" s="161"/>
-      <c r="O44" s="161"/>
-      <c r="P44" s="161"/>
-      <c r="Q44" s="161"/>
-      <c r="R44" s="161"/>
-      <c r="S44" s="161"/>
-      <c r="T44" s="162"/>
+      <c r="C44" s="206"/>
+      <c r="D44" s="206"/>
+      <c r="E44" s="150"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="151"/>
+      <c r="K44" s="151"/>
+      <c r="L44" s="151"/>
+      <c r="M44" s="151"/>
+      <c r="N44" s="151"/>
+      <c r="O44" s="151"/>
+      <c r="P44" s="151"/>
+      <c r="Q44" s="151"/>
+      <c r="R44" s="151"/>
+      <c r="S44" s="151"/>
+      <c r="T44" s="152"/>
       <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="132"/>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
-      <c r="L45" s="133"/>
-      <c r="M45" s="133"/>
-      <c r="N45" s="133"/>
-      <c r="O45" s="133"/>
-      <c r="P45" s="133"/>
-      <c r="Q45" s="133"/>
-      <c r="R45" s="133"/>
-      <c r="S45" s="133"/>
-      <c r="T45" s="133"/>
-      <c r="U45" s="134"/>
+      <c r="A45" s="170"/>
+      <c r="B45" s="171"/>
+      <c r="C45" s="171"/>
+      <c r="D45" s="171"/>
+      <c r="E45" s="171"/>
+      <c r="F45" s="171"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="171"/>
+      <c r="I45" s="171"/>
+      <c r="J45" s="171"/>
+      <c r="K45" s="171"/>
+      <c r="L45" s="171"/>
+      <c r="M45" s="171"/>
+      <c r="N45" s="171"/>
+      <c r="O45" s="171"/>
+      <c r="P45" s="171"/>
+      <c r="Q45" s="171"/>
+      <c r="R45" s="171"/>
+      <c r="S45" s="171"/>
+      <c r="T45" s="171"/>
+      <c r="U45" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="U2:U43"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B15:T15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="E44:T44"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B16:T16"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="B18:T18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B42:T42"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:S40"/>
+    <mergeCell ref="D37:I37"/>
     <mergeCell ref="B4:T4"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="L3:T3"/>
@@ -5246,60 +5358,6 @@
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="E11:O11"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B16:T16"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="B18:T18"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B42:T42"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:S40"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B15:T15"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="E44:T44"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="U2:U43"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="P11:R11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
+++ b/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EC16\Documents\SOSQTP\Documentos de Venta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487F2642-9A36-4C33-8CAC-32EDF0BC2BA3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34E74BF-FA8F-4888-AF1B-A2B26F807C3F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2942,234 +2942,117 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3210,11 +3093,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3231,7 +3117,7 @@
     <xf numFmtId="0" fontId="94" fillId="5" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3246,6 +3132,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3267,105 +3162,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3774,7 +3774,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3805,32 +3805,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="170" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="135"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="172"/>
     </row>
     <row r="2" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="136"/>
+      <c r="A2" s="173"/>
       <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
@@ -3843,21 +3843,21 @@
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
-      <c r="L2" s="96" t="s">
+      <c r="L2" s="204" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="204"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="108"/>
     </row>
     <row r="3" spans="1:21" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="136"/>
+      <c r="A3" s="173"/>
       <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
@@ -3870,297 +3870,297 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
-      <c r="L3" s="99" t="s">
+      <c r="L3" s="207" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="204"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="208"/>
+      <c r="U3" s="108"/>
     </row>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="136"/>
-      <c r="B4" s="93" t="s">
+      <c r="A4" s="173"/>
+      <c r="B4" s="201" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="204"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
+      <c r="T4" s="203"/>
+      <c r="U4" s="108"/>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="136"/>
-      <c r="B5" s="214"/>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="215"/>
-      <c r="G5" s="215"/>
-      <c r="H5" s="215"/>
-      <c r="I5" s="215"/>
-      <c r="J5" s="215"/>
-      <c r="K5" s="215"/>
-      <c r="L5" s="215"/>
-      <c r="M5" s="215"/>
-      <c r="N5" s="215"/>
-      <c r="O5" s="215"/>
-      <c r="P5" s="215"/>
-      <c r="Q5" s="215"/>
-      <c r="R5" s="173" t="s">
+      <c r="A5" s="173"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="174"/>
+      <c r="S5" s="136"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="204"/>
+      <c r="U5" s="108"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="136"/>
-      <c r="B6" s="208" t="s">
+      <c r="A6" s="173"/>
+      <c r="B6" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="234" t="s">
+      <c r="C6" s="113"/>
+      <c r="D6" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="234"/>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="235"/>
-      <c r="I6" s="235"/>
-      <c r="J6" s="235"/>
-      <c r="K6" s="235"/>
-      <c r="L6" s="235"/>
-      <c r="M6" s="235"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="235"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="235"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
       <c r="R6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="230" t="s">
+      <c r="S6" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="231"/>
-      <c r="U6" s="204"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="108"/>
     </row>
     <row r="7" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="136"/>
-      <c r="B7" s="208" t="s">
+      <c r="A7" s="173"/>
+      <c r="B7" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="185" t="s">
+      <c r="C7" s="113"/>
+      <c r="D7" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="147"/>
       <c r="R7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="232" t="s">
+      <c r="S7" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="233"/>
-      <c r="U7" s="204"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="108"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="136"/>
-      <c r="B8" s="208" t="s">
+      <c r="A8" s="173"/>
+      <c r="B8" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="209"/>
-      <c r="D8" s="123" t="s">
+      <c r="C8" s="113"/>
+      <c r="D8" s="231" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="124"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="191" t="s">
+      <c r="K8" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="192"/>
-      <c r="R8" s="192"/>
-      <c r="S8" s="192"/>
-      <c r="T8" s="193"/>
-      <c r="U8" s="204"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="155"/>
+      <c r="O8" s="155"/>
+      <c r="P8" s="155"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="156"/>
+      <c r="U8" s="108"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="136"/>
-      <c r="B9" s="208" t="s">
+      <c r="A9" s="173"/>
+      <c r="B9" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="209"/>
-      <c r="D9" s="185" t="s">
+      <c r="C9" s="113"/>
+      <c r="D9" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="186"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="210"/>
-      <c r="K9" s="210"/>
-      <c r="L9" s="210"/>
-      <c r="M9" s="210"/>
-      <c r="N9" s="210"/>
-      <c r="O9" s="210"/>
-      <c r="P9" s="210"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
       <c r="Q9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="211" t="s">
+      <c r="R9" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="S9" s="212"/>
-      <c r="T9" s="213"/>
-      <c r="U9" s="204"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="108"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="136"/>
-      <c r="B10" s="208" t="s">
+      <c r="A10" s="173"/>
+      <c r="B10" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="209"/>
-      <c r="D10" s="126" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="232" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
+      <c r="E10" s="232"/>
+      <c r="F10" s="233"/>
+      <c r="G10" s="233"/>
+      <c r="H10" s="233"/>
+      <c r="I10" s="233"/>
       <c r="J10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="194" t="s">
+      <c r="K10" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="195"/>
-      <c r="M10" s="195"/>
-      <c r="N10" s="195"/>
-      <c r="O10" s="195"/>
-      <c r="P10" s="195"/>
-      <c r="Q10" s="195"/>
-      <c r="R10" s="195"/>
-      <c r="S10" s="195"/>
-      <c r="T10" s="196"/>
-      <c r="U10" s="204"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="158"/>
+      <c r="P10" s="158"/>
+      <c r="Q10" s="158"/>
+      <c r="R10" s="158"/>
+      <c r="S10" s="158"/>
+      <c r="T10" s="159"/>
+      <c r="U10" s="108"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="136"/>
-      <c r="B11" s="224" t="s">
+      <c r="A11" s="173"/>
+      <c r="B11" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="225"/>
-      <c r="D11" s="225"/>
-      <c r="E11" s="130" t="s">
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="236" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="236" t="s">
+      <c r="F11" s="237"/>
+      <c r="G11" s="237"/>
+      <c r="H11" s="237"/>
+      <c r="I11" s="237"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="237"/>
+      <c r="M11" s="237"/>
+      <c r="N11" s="237"/>
+      <c r="O11" s="238"/>
+      <c r="P11" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="237"/>
-      <c r="R11" s="238"/>
-      <c r="S11" s="220" t="s">
+      <c r="Q11" s="106"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="221"/>
-      <c r="U11" s="204"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="108"/>
     </row>
     <row r="12" spans="1:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="136"/>
-      <c r="B12" s="226" t="s">
+      <c r="A12" s="173"/>
+      <c r="B12" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="227"/>
-      <c r="D12" s="228"/>
-      <c r="E12" s="228"/>
-      <c r="F12" s="228"/>
-      <c r="G12" s="228"/>
-      <c r="H12" s="228"/>
-      <c r="I12" s="228"/>
-      <c r="J12" s="228"/>
-      <c r="K12" s="228"/>
-      <c r="L12" s="228"/>
-      <c r="M12" s="228"/>
-      <c r="N12" s="228"/>
-      <c r="O12" s="228"/>
-      <c r="P12" s="228"/>
-      <c r="Q12" s="228"/>
-      <c r="R12" s="228"/>
-      <c r="S12" s="228"/>
-      <c r="T12" s="229"/>
-      <c r="U12" s="204"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="108"/>
     </row>
     <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="136"/>
-      <c r="B13" s="111" t="s">
+      <c r="A13" s="173"/>
+      <c r="B13" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
+      <c r="C13" s="220"/>
+      <c r="D13" s="220"/>
+      <c r="E13" s="220"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="220"/>
+      <c r="H13" s="220"/>
+      <c r="I13" s="220"/>
+      <c r="J13" s="220"/>
+      <c r="K13" s="220"/>
+      <c r="L13" s="220"/>
+      <c r="M13" s="220"/>
+      <c r="N13" s="220"/>
       <c r="O13" s="74" t="s">
         <v>0</v>
       </c>
@@ -4168,165 +4168,165 @@
         <v>0</v>
       </c>
       <c r="Q13" s="75"/>
-      <c r="R13" s="179" t="s">
+      <c r="R13" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="179"/>
+      <c r="S13" s="141"/>
       <c r="T13" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="U13" s="204"/>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="136"/>
-      <c r="B14" s="182" t="s">
+      <c r="A14" s="173"/>
+      <c r="B14" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="216" t="s">
+      <c r="C14" s="145"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="216"/>
-      <c r="G14" s="216"/>
-      <c r="H14" s="216"/>
-      <c r="I14" s="216"/>
-      <c r="J14" s="217"/>
-      <c r="K14" s="217"/>
-      <c r="L14" s="217"/>
-      <c r="M14" s="217"/>
-      <c r="N14" s="217"/>
-      <c r="O14" s="217"/>
-      <c r="P14" s="217"/>
-      <c r="Q14" s="217"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="124"/>
       <c r="R14" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="180">
+      <c r="S14" s="142">
         <f ca="1">TODAY()</f>
-        <v>43535</v>
-      </c>
-      <c r="T14" s="181"/>
-      <c r="U14" s="204"/>
+        <v>43536</v>
+      </c>
+      <c r="T14" s="143"/>
+      <c r="U14" s="108"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="136"/>
-      <c r="B15" s="175" t="s">
+      <c r="A15" s="173"/>
+      <c r="B15" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="176"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="177"/>
-      <c r="L15" s="177"/>
-      <c r="M15" s="177"/>
-      <c r="N15" s="177"/>
-      <c r="O15" s="177"/>
-      <c r="P15" s="177"/>
-      <c r="Q15" s="177"/>
-      <c r="R15" s="177"/>
-      <c r="S15" s="177"/>
-      <c r="T15" s="178"/>
-      <c r="U15" s="204"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="139"/>
+      <c r="T15" s="140"/>
+      <c r="U15" s="108"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="136"/>
-      <c r="B16" s="140" t="s">
+      <c r="A16" s="173"/>
+      <c r="B16" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="141"/>
-      <c r="Q16" s="141"/>
-      <c r="R16" s="141"/>
-      <c r="S16" s="141"/>
-      <c r="T16" s="142"/>
-      <c r="U16" s="204"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="178"/>
+      <c r="U16" s="108"/>
     </row>
     <row r="17" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="136"/>
-      <c r="B17" s="143" t="s">
+      <c r="A17" s="173"/>
+      <c r="B17" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="144"/>
-      <c r="N17" s="144"/>
-      <c r="O17" s="144"/>
-      <c r="P17" s="144"/>
-      <c r="Q17" s="144"/>
-      <c r="R17" s="144"/>
-      <c r="S17" s="144"/>
-      <c r="T17" s="145"/>
-      <c r="U17" s="204"/>
+      <c r="C17" s="180"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="180"/>
+      <c r="P17" s="180"/>
+      <c r="Q17" s="180"/>
+      <c r="R17" s="180"/>
+      <c r="S17" s="180"/>
+      <c r="T17" s="181"/>
+      <c r="U17" s="108"/>
     </row>
     <row r="18" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="136"/>
-      <c r="B18" s="146" t="s">
+      <c r="A18" s="173"/>
+      <c r="B18" s="182" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="147"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="149"/>
-      <c r="U18" s="204"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="184"/>
+      <c r="K18" s="184"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="184"/>
+      <c r="N18" s="184"/>
+      <c r="O18" s="184"/>
+      <c r="P18" s="184"/>
+      <c r="Q18" s="184"/>
+      <c r="R18" s="184"/>
+      <c r="S18" s="184"/>
+      <c r="T18" s="185"/>
+      <c r="U18" s="108"/>
     </row>
     <row r="19" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="136"/>
-      <c r="B19" s="115" t="s">
+      <c r="A19" s="173"/>
+      <c r="B19" s="223" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="117"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+      <c r="I19" s="224"/>
+      <c r="J19" s="224"/>
+      <c r="K19" s="224"/>
+      <c r="L19" s="224"/>
+      <c r="M19" s="224"/>
+      <c r="N19" s="224"/>
+      <c r="O19" s="225"/>
       <c r="P19" s="10" t="s">
         <v>31</v>
       </c>
@@ -4334,30 +4334,30 @@
       <c r="R19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="218" t="s">
+      <c r="S19" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="219"/>
-      <c r="U19" s="204"/>
+      <c r="T19" s="126"/>
+      <c r="U19" s="108"/>
     </row>
     <row r="20" spans="1:21" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="136"/>
-      <c r="B20" s="118" t="s">
+      <c r="A20" s="173"/>
+      <c r="B20" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="119"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="122"/>
+      <c r="C20" s="227"/>
+      <c r="D20" s="228"/>
+      <c r="E20" s="227"/>
+      <c r="F20" s="227"/>
+      <c r="G20" s="227"/>
+      <c r="H20" s="227"/>
+      <c r="I20" s="227"/>
+      <c r="J20" s="227"/>
+      <c r="K20" s="227"/>
+      <c r="L20" s="227"/>
+      <c r="M20" s="229"/>
+      <c r="N20" s="229"/>
+      <c r="O20" s="230"/>
       <c r="P20" s="64"/>
       <c r="Q20" s="16" t="s">
         <v>35</v>
@@ -4367,10 +4367,10 @@
         <v>36</v>
       </c>
       <c r="T20" s="66"/>
-      <c r="U20" s="204"/>
+      <c r="U20" s="108"/>
     </row>
     <row r="21" spans="1:21" ht="81.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="136"/>
+      <c r="A21" s="173"/>
       <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
@@ -4395,37 +4395,37 @@
       <c r="I21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="107" t="s">
+      <c r="J21" s="215" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="109" t="s">
+      <c r="K21" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="222" t="s">
+      <c r="L21" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="223"/>
-      <c r="N21" s="223"/>
-      <c r="O21" s="223"/>
-      <c r="P21" s="101" t="s">
+      <c r="M21" s="130"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="209" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="R21" s="103" t="s">
+      <c r="R21" s="211" t="s">
         <v>64</v>
       </c>
       <c r="S21" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="T21" s="105" t="s">
+      <c r="T21" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="U21" s="204"/>
+      <c r="U21" s="108"/>
     </row>
     <row r="22" spans="1:21" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="136"/>
+      <c r="A22" s="173"/>
       <c r="B22" s="34" t="s">
         <v>72</v>
       </c>
@@ -4438,37 +4438,37 @@
       <c r="E22" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="128" t="s">
+      <c r="F22" s="234" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="129"/>
+      <c r="G22" s="235"/>
       <c r="H22" s="37" t="s">
         <v>75</v>
       </c>
       <c r="I22" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="108"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="113" t="s">
+      <c r="J22" s="216"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="221" t="s">
         <v>90</v>
       </c>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="102"/>
+      <c r="M22" s="222"/>
+      <c r="N22" s="222"/>
+      <c r="O22" s="222"/>
+      <c r="P22" s="210"/>
       <c r="Q22" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="R22" s="104"/>
+      <c r="R22" s="212"/>
       <c r="S22" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="T22" s="106"/>
-      <c r="U22" s="204"/>
+      <c r="T22" s="214"/>
+      <c r="U22" s="108"/>
     </row>
     <row r="23" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A23" s="136"/>
+      <c r="A23" s="173"/>
       <c r="B23" s="68">
         <v>1</v>
       </c>
@@ -4513,23 +4513,23 @@
         <v>3290</v>
       </c>
       <c r="Q23" s="70">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="R23" s="41">
         <f t="shared" ref="R23:R32" si="0">(P23*B23)*(1-Q23)</f>
-        <v>3290</v>
+        <v>2796.5</v>
       </c>
       <c r="S23" s="72">
         <v>0.3</v>
       </c>
       <c r="T23" s="42">
         <f>R23*(1-S23)</f>
-        <v>2303</v>
-      </c>
-      <c r="U23" s="204"/>
+        <v>1957.55</v>
+      </c>
+      <c r="U23" s="108"/>
     </row>
     <row r="24" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A24" s="136"/>
+      <c r="A24" s="173"/>
       <c r="B24" s="68">
         <v>1</v>
       </c>
@@ -4570,23 +4570,23 @@
         <v>3890</v>
       </c>
       <c r="Q24" s="70">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="R24" s="41">
         <f t="shared" si="0"/>
-        <v>3890</v>
+        <v>3306.5</v>
       </c>
       <c r="S24" s="72">
         <v>0.3</v>
       </c>
       <c r="T24" s="42">
         <f t="shared" ref="T24:T32" si="1">R24*(1-S24)</f>
-        <v>2723</v>
-      </c>
-      <c r="U24" s="204"/>
+        <v>2314.5499999999997</v>
+      </c>
+      <c r="U24" s="108"/>
     </row>
     <row r="25" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A25" s="136"/>
+      <c r="A25" s="173"/>
       <c r="B25" s="68">
         <v>1</v>
       </c>
@@ -4638,10 +4638,10 @@
         <f t="shared" si="1"/>
         <v>1043</v>
       </c>
-      <c r="U25" s="204"/>
+      <c r="U25" s="108"/>
     </row>
     <row r="26" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A26" s="136"/>
+      <c r="A26" s="173"/>
       <c r="B26" s="68">
         <v>0</v>
       </c>
@@ -4677,10 +4677,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U26" s="204"/>
+      <c r="U26" s="108"/>
     </row>
     <row r="27" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A27" s="136"/>
+      <c r="A27" s="173"/>
       <c r="B27" s="68">
         <v>0</v>
       </c>
@@ -4716,10 +4716,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U27" s="204"/>
+      <c r="U27" s="108"/>
     </row>
     <row r="28" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A28" s="136"/>
+      <c r="A28" s="173"/>
       <c r="B28" s="68">
         <v>0</v>
       </c>
@@ -4755,10 +4755,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28" s="204"/>
+      <c r="U28" s="108"/>
     </row>
     <row r="29" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A29" s="136"/>
+      <c r="A29" s="173"/>
       <c r="B29" s="68">
         <v>0</v>
       </c>
@@ -4792,10 +4792,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U29" s="204"/>
+      <c r="U29" s="108"/>
     </row>
     <row r="30" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A30" s="136"/>
+      <c r="A30" s="173"/>
       <c r="B30" s="68">
         <v>0</v>
       </c>
@@ -4829,10 +4829,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U30" s="204"/>
+      <c r="U30" s="108"/>
     </row>
     <row r="31" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A31" s="136"/>
+      <c r="A31" s="173"/>
       <c r="B31" s="68">
         <v>0</v>
       </c>
@@ -4868,10 +4868,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U31" s="204"/>
+      <c r="U31" s="108"/>
     </row>
     <row r="32" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="136"/>
+      <c r="A32" s="173"/>
       <c r="B32" s="69">
         <v>0</v>
       </c>
@@ -4907,16 +4907,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="204"/>
+      <c r="U32" s="108"/>
     </row>
     <row r="33" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="136"/>
+      <c r="A33" s="173"/>
       <c r="B33" s="44">
         <v>0</v>
       </c>
       <c r="C33" s="45"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="139"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="175"/>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
@@ -4939,16 +4939,16 @@
         <f>(R33-(R33*S33))*B33</f>
         <v>0</v>
       </c>
-      <c r="U33" s="204"/>
+      <c r="U33" s="108"/>
     </row>
     <row r="34" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="136"/>
+      <c r="A34" s="173"/>
       <c r="B34" s="44">
         <v>0</v>
       </c>
       <c r="C34" s="45"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="138"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
       <c r="H34" s="39"/>
@@ -4971,16 +4971,16 @@
         <f>(R34-(R34*S34))*B34</f>
         <v>0</v>
       </c>
-      <c r="U34" s="204"/>
+      <c r="U34" s="108"/>
     </row>
     <row r="35" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="136"/>
+      <c r="A35" s="173"/>
       <c r="B35" s="44">
         <v>0</v>
       </c>
       <c r="C35" s="45"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="138"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
@@ -5003,87 +5003,87 @@
         <f>(R35-(R35*S35))*B35</f>
         <v>0</v>
       </c>
-      <c r="U35" s="204"/>
+      <c r="U35" s="108"/>
     </row>
     <row r="36" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="136"/>
-      <c r="B36" s="155" t="s">
+      <c r="A36" s="173"/>
+      <c r="B36" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="156"/>
-      <c r="K36" s="156"/>
-      <c r="L36" s="160" t="s">
+      <c r="C36" s="187"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="187"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="187"/>
+      <c r="J36" s="187"/>
+      <c r="K36" s="187"/>
+      <c r="L36" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="160"/>
-      <c r="N36" s="160"/>
-      <c r="O36" s="160"/>
+      <c r="M36" s="191"/>
+      <c r="N36" s="191"/>
+      <c r="O36" s="191"/>
       <c r="P36" s="50">
         <f>SUM(P23:P32)</f>
         <v>8670</v>
       </c>
       <c r="Q36" s="51"/>
-      <c r="R36" s="153" t="s">
+      <c r="R36" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="S36" s="154"/>
+      <c r="S36" s="149"/>
       <c r="T36" s="52">
         <f>SUM(T23:T35)</f>
-        <v>6069</v>
-      </c>
-      <c r="U36" s="204"/>
+        <v>5315.0999999999995</v>
+      </c>
+      <c r="U36" s="108"/>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="136"/>
-      <c r="B37" s="199" t="s">
+      <c r="A37" s="173"/>
+      <c r="B37" s="165" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="168" t="s">
+      <c r="D37" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="169"/>
-      <c r="H37" s="169"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="161" t="s">
+      <c r="E37" s="200"/>
+      <c r="F37" s="200"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="200"/>
+      <c r="I37" s="200"/>
+      <c r="J37" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="162"/>
-      <c r="L37" s="162"/>
-      <c r="M37" s="162"/>
-      <c r="N37" s="162"/>
-      <c r="O37" s="162"/>
+      <c r="K37" s="193"/>
+      <c r="L37" s="193"/>
+      <c r="M37" s="193"/>
+      <c r="N37" s="193"/>
+      <c r="O37" s="193"/>
       <c r="P37" s="54">
         <f>SUM(R23:R32)</f>
-        <v>8670</v>
+        <v>7593</v>
       </c>
       <c r="Q37" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="153" t="s">
+      <c r="R37" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="S37" s="154"/>
+      <c r="S37" s="149"/>
       <c r="T37" s="55">
         <f>T36*0.16</f>
-        <v>971.04</v>
-      </c>
-      <c r="U37" s="204"/>
+        <v>850.41599999999994</v>
+      </c>
+      <c r="U37" s="108"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="136"/>
-      <c r="B38" s="200"/>
+      <c r="A38" s="173"/>
+      <c r="B38" s="166"/>
       <c r="C38" s="56"/>
       <c r="D38" s="56"/>
       <c r="E38" s="56"/>
@@ -5099,74 +5099,74 @@
       <c r="O38" s="51"/>
       <c r="P38" s="51"/>
       <c r="Q38" s="51"/>
-      <c r="R38" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="188"/>
+      <c r="R38" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="151"/>
       <c r="T38" s="57">
         <v>0</v>
       </c>
-      <c r="U38" s="204"/>
+      <c r="U38" s="108"/>
     </row>
     <row r="39" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="136"/>
-      <c r="B39" s="200"/>
+      <c r="A39" s="173"/>
+      <c r="B39" s="166"/>
       <c r="C39" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="197" t="s">
+      <c r="D39" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="198"/>
-      <c r="F39" s="198"/>
-      <c r="G39" s="198"/>
-      <c r="H39" s="198"/>
-      <c r="I39" s="198"/>
-      <c r="J39" s="198"/>
-      <c r="K39" s="201"/>
-      <c r="L39" s="202"/>
-      <c r="M39" s="202"/>
-      <c r="N39" s="202"/>
-      <c r="O39" s="202"/>
-      <c r="P39" s="202"/>
-      <c r="Q39" s="203"/>
-      <c r="R39" s="189" t="s">
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="164"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="164"/>
+      <c r="K39" s="167"/>
+      <c r="L39" s="168"/>
+      <c r="M39" s="168"/>
+      <c r="N39" s="168"/>
+      <c r="O39" s="168"/>
+      <c r="P39" s="168"/>
+      <c r="Q39" s="169"/>
+      <c r="R39" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="S39" s="190"/>
+      <c r="S39" s="153"/>
       <c r="T39" s="58">
         <f>T36+T37+T38</f>
-        <v>7040.04</v>
-      </c>
-      <c r="U39" s="204"/>
+        <v>6165.5159999999996</v>
+      </c>
+      <c r="U39" s="108"/>
     </row>
     <row r="40" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="136"/>
-      <c r="B40" s="163" t="s">
+      <c r="A40" s="173"/>
+      <c r="B40" s="194" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="164"/>
-      <c r="D40" s="165"/>
-      <c r="E40" s="166"/>
-      <c r="F40" s="166"/>
-      <c r="G40" s="166"/>
-      <c r="H40" s="166"/>
-      <c r="I40" s="166"/>
-      <c r="J40" s="166"/>
-      <c r="K40" s="166"/>
-      <c r="L40" s="166"/>
-      <c r="M40" s="166"/>
-      <c r="N40" s="166"/>
-      <c r="O40" s="166"/>
-      <c r="P40" s="166"/>
-      <c r="Q40" s="166"/>
-      <c r="R40" s="166"/>
-      <c r="S40" s="167"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="196"/>
+      <c r="E40" s="197"/>
+      <c r="F40" s="197"/>
+      <c r="G40" s="197"/>
+      <c r="H40" s="197"/>
+      <c r="I40" s="197"/>
+      <c r="J40" s="197"/>
+      <c r="K40" s="197"/>
+      <c r="L40" s="197"/>
+      <c r="M40" s="197"/>
+      <c r="N40" s="197"/>
+      <c r="O40" s="197"/>
+      <c r="P40" s="197"/>
+      <c r="Q40" s="197"/>
+      <c r="R40" s="197"/>
+      <c r="S40" s="198"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="204"/>
+      <c r="U40" s="108"/>
     </row>
     <row r="41" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="136"/>
+      <c r="A41" s="173"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="20"/>
@@ -5186,114 +5186,156 @@
       <c r="R41" s="20"/>
       <c r="S41" s="20"/>
       <c r="T41" s="21"/>
-      <c r="U41" s="204"/>
+      <c r="U41" s="108"/>
     </row>
     <row r="42" spans="1:21" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="136"/>
-      <c r="B42" s="157" t="s">
+      <c r="A42" s="173"/>
+      <c r="B42" s="188" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="158"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="158"/>
-      <c r="J42" s="158"/>
-      <c r="K42" s="158"/>
-      <c r="L42" s="158"/>
-      <c r="M42" s="158"/>
-      <c r="N42" s="158"/>
-      <c r="O42" s="158"/>
-      <c r="P42" s="158"/>
-      <c r="Q42" s="158"/>
-      <c r="R42" s="158"/>
-      <c r="S42" s="158"/>
-      <c r="T42" s="159"/>
-      <c r="U42" s="204"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="189"/>
+      <c r="G42" s="189"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="189"/>
+      <c r="J42" s="189"/>
+      <c r="K42" s="189"/>
+      <c r="L42" s="189"/>
+      <c r="M42" s="189"/>
+      <c r="N42" s="189"/>
+      <c r="O42" s="189"/>
+      <c r="P42" s="189"/>
+      <c r="Q42" s="189"/>
+      <c r="R42" s="189"/>
+      <c r="S42" s="189"/>
+      <c r="T42" s="190"/>
+      <c r="U42" s="108"/>
     </row>
     <row r="43" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="137"/>
-      <c r="B43" s="205" t="s">
+      <c r="A43" s="174"/>
+      <c r="B43" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="206"/>
-      <c r="D43" s="207"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
-      <c r="N43" s="151"/>
-      <c r="O43" s="151"/>
-      <c r="P43" s="151"/>
-      <c r="Q43" s="151"/>
-      <c r="R43" s="151"/>
-      <c r="S43" s="151"/>
-      <c r="T43" s="152"/>
-      <c r="U43" s="204"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="160"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="161"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="161"/>
+      <c r="J43" s="161"/>
+      <c r="K43" s="161"/>
+      <c r="L43" s="161"/>
+      <c r="M43" s="161"/>
+      <c r="N43" s="161"/>
+      <c r="O43" s="161"/>
+      <c r="P43" s="161"/>
+      <c r="Q43" s="161"/>
+      <c r="R43" s="161"/>
+      <c r="S43" s="161"/>
+      <c r="T43" s="162"/>
+      <c r="U43" s="108"/>
     </row>
     <row r="44" spans="1:21" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
-      <c r="B44" s="205" t="s">
+      <c r="B44" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="206"/>
-      <c r="D44" s="206"/>
-      <c r="E44" s="150"/>
-      <c r="F44" s="151"/>
-      <c r="G44" s="151"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="151"/>
-      <c r="K44" s="151"/>
-      <c r="L44" s="151"/>
-      <c r="M44" s="151"/>
-      <c r="N44" s="151"/>
-      <c r="O44" s="151"/>
-      <c r="P44" s="151"/>
-      <c r="Q44" s="151"/>
-      <c r="R44" s="151"/>
-      <c r="S44" s="151"/>
-      <c r="T44" s="152"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="160"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="161"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="161"/>
+      <c r="J44" s="161"/>
+      <c r="K44" s="161"/>
+      <c r="L44" s="161"/>
+      <c r="M44" s="161"/>
+      <c r="N44" s="161"/>
+      <c r="O44" s="161"/>
+      <c r="P44" s="161"/>
+      <c r="Q44" s="161"/>
+      <c r="R44" s="161"/>
+      <c r="S44" s="161"/>
+      <c r="T44" s="162"/>
       <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="170"/>
-      <c r="B45" s="171"/>
-      <c r="C45" s="171"/>
-      <c r="D45" s="171"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="171"/>
-      <c r="G45" s="171"/>
-      <c r="H45" s="171"/>
-      <c r="I45" s="171"/>
-      <c r="J45" s="171"/>
-      <c r="K45" s="171"/>
-      <c r="L45" s="171"/>
-      <c r="M45" s="171"/>
-      <c r="N45" s="171"/>
-      <c r="O45" s="171"/>
-      <c r="P45" s="171"/>
-      <c r="Q45" s="171"/>
-      <c r="R45" s="171"/>
-      <c r="S45" s="171"/>
-      <c r="T45" s="171"/>
-      <c r="U45" s="172"/>
+      <c r="A45" s="132"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="133"/>
+      <c r="M45" s="133"/>
+      <c r="N45" s="133"/>
+      <c r="O45" s="133"/>
+      <c r="P45" s="133"/>
+      <c r="Q45" s="133"/>
+      <c r="R45" s="133"/>
+      <c r="S45" s="133"/>
+      <c r="T45" s="133"/>
+      <c r="U45" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B16:T16"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="B18:T18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B42:T42"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:S40"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B15:T15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="E44:T44"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="K39:Q39"/>
     <mergeCell ref="U2:U43"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
@@ -5310,54 +5352,12 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="L21:O21"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B15:T15"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="E44:T44"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B16:T16"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="B18:T18"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B42:T42"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:S40"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="P11:R11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
+++ b/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EC16\Documents\SOSQTP\Documentos de Venta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34E74BF-FA8F-4888-AF1B-A2B26F807C3F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C390F4B2-5DC0-4863-B0BE-A59ECB00776D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1002,46 +1002,22 @@
     <t>NOMINA  ANUAL</t>
   </si>
   <si>
-    <t>P3682</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>D682</t>
-  </si>
-  <si>
-    <t>F89E</t>
-  </si>
-  <si>
-    <t>E659</t>
-  </si>
-  <si>
-    <t>594B</t>
-  </si>
-  <si>
-    <t>1314</t>
-  </si>
-  <si>
-    <t>C13D</t>
-  </si>
-  <si>
-    <t>0180</t>
-  </si>
-  <si>
-    <t>136B</t>
-  </si>
-  <si>
-    <t>9B5C</t>
-  </si>
-  <si>
-    <t>68FA</t>
-  </si>
-  <si>
-    <t>AF24</t>
-  </si>
-  <si>
-    <t>89A2</t>
+    <t>P3679</t>
+  </si>
+  <si>
+    <t>168C</t>
+  </si>
+  <si>
+    <t>E7BD</t>
+  </si>
+  <si>
+    <t>63A2</t>
+  </si>
+  <si>
+    <t>F46A</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -2942,117 +2918,234 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3093,14 +3186,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3117,7 +3207,7 @@
     <xf numFmtId="0" fontId="94" fillId="5" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3132,15 +3222,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3162,210 +3243,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3773,8 +3749,8 @@
   </sheetPr>
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3805,32 +3781,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="133" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="172"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="135"/>
     </row>
     <row r="2" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="173"/>
+      <c r="A2" s="136"/>
       <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
@@ -3843,21 +3819,21 @@
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
-      <c r="L2" s="204" t="s">
+      <c r="L2" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="205"/>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="205"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="108"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="204"/>
     </row>
     <row r="3" spans="1:21" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="173"/>
+      <c r="A3" s="136"/>
       <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
@@ -3870,297 +3846,297 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
-      <c r="L3" s="207" t="s">
+      <c r="L3" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="207"/>
-      <c r="N3" s="207"/>
-      <c r="O3" s="207"/>
-      <c r="P3" s="207"/>
-      <c r="Q3" s="207"/>
-      <c r="R3" s="207"/>
-      <c r="S3" s="207"/>
-      <c r="T3" s="208"/>
-      <c r="U3" s="108"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="204"/>
     </row>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="173"/>
-      <c r="B4" s="201" t="s">
+      <c r="A4" s="136"/>
+      <c r="B4" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
-      <c r="S4" s="202"/>
-      <c r="T4" s="203"/>
-      <c r="U4" s="108"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="204"/>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="173"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="135" t="s">
+      <c r="A5" s="136"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="215"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="215"/>
+      <c r="I5" s="215"/>
+      <c r="J5" s="215"/>
+      <c r="K5" s="215"/>
+      <c r="L5" s="215"/>
+      <c r="M5" s="215"/>
+      <c r="N5" s="215"/>
+      <c r="O5" s="215"/>
+      <c r="P5" s="215"/>
+      <c r="Q5" s="215"/>
+      <c r="R5" s="173" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="136"/>
+      <c r="S5" s="174"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="108"/>
+      <c r="U5" s="204"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="173"/>
-      <c r="B6" s="112" t="s">
+      <c r="A6" s="136"/>
+      <c r="B6" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="103" t="s">
+      <c r="C6" s="209"/>
+      <c r="D6" s="234" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="235"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="235"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="235"/>
+      <c r="M6" s="235"/>
+      <c r="N6" s="235"/>
+      <c r="O6" s="235"/>
+      <c r="P6" s="235"/>
+      <c r="Q6" s="235"/>
       <c r="R6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="99" t="s">
+      <c r="S6" s="230" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="100"/>
-      <c r="U6" s="108"/>
+      <c r="T6" s="231"/>
+      <c r="U6" s="204"/>
     </row>
     <row r="7" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="173"/>
-      <c r="B7" s="112" t="s">
+      <c r="A7" s="136"/>
+      <c r="B7" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114" t="s">
+      <c r="C7" s="209"/>
+      <c r="D7" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
       <c r="R7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="101" t="s">
+      <c r="S7" s="232" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="102"/>
-      <c r="U7" s="108"/>
+      <c r="T7" s="233"/>
+      <c r="U7" s="204"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="173"/>
-      <c r="B8" s="112" t="s">
+      <c r="A8" s="136"/>
+      <c r="B8" s="208" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="231" t="s">
+      <c r="C8" s="209"/>
+      <c r="D8" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="147"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="154" t="s">
+      <c r="K8" s="191" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="156"/>
-      <c r="U8" s="108"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="192"/>
+      <c r="R8" s="192"/>
+      <c r="S8" s="192"/>
+      <c r="T8" s="193"/>
+      <c r="U8" s="204"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="173"/>
-      <c r="B9" s="112" t="s">
+      <c r="A9" s="136"/>
+      <c r="B9" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="114" t="s">
+      <c r="C9" s="209"/>
+      <c r="D9" s="185" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="115"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="210"/>
+      <c r="K9" s="210"/>
+      <c r="L9" s="210"/>
+      <c r="M9" s="210"/>
+      <c r="N9" s="210"/>
+      <c r="O9" s="210"/>
+      <c r="P9" s="210"/>
       <c r="Q9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="118" t="s">
+      <c r="R9" s="211" t="s">
         <v>105</v>
       </c>
-      <c r="S9" s="119"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="108"/>
+      <c r="S9" s="212"/>
+      <c r="T9" s="213"/>
+      <c r="U9" s="204"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="173"/>
-      <c r="B10" s="112" t="s">
+      <c r="A10" s="136"/>
+      <c r="B10" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="232" t="s">
+      <c r="C10" s="209"/>
+      <c r="D10" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="232"/>
-      <c r="F10" s="233"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="233"/>
-      <c r="I10" s="233"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="157" t="s">
+      <c r="K10" s="194" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="158"/>
-      <c r="Q10" s="158"/>
-      <c r="R10" s="158"/>
-      <c r="S10" s="158"/>
-      <c r="T10" s="159"/>
-      <c r="U10" s="108"/>
+      <c r="L10" s="195"/>
+      <c r="M10" s="195"/>
+      <c r="N10" s="195"/>
+      <c r="O10" s="195"/>
+      <c r="P10" s="195"/>
+      <c r="Q10" s="195"/>
+      <c r="R10" s="195"/>
+      <c r="S10" s="195"/>
+      <c r="T10" s="196"/>
+      <c r="U10" s="204"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="173"/>
-      <c r="B11" s="93" t="s">
+      <c r="A11" s="136"/>
+      <c r="B11" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="236" t="s">
+      <c r="C11" s="225"/>
+      <c r="D11" s="225"/>
+      <c r="E11" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="237"/>
-      <c r="G11" s="237"/>
-      <c r="H11" s="237"/>
-      <c r="I11" s="237"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="237"/>
-      <c r="M11" s="237"/>
-      <c r="N11" s="237"/>
-      <c r="O11" s="238"/>
-      <c r="P11" s="105" t="s">
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="127" t="s">
+      <c r="Q11" s="237"/>
+      <c r="R11" s="238"/>
+      <c r="S11" s="220" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="128"/>
-      <c r="U11" s="108"/>
+      <c r="T11" s="221"/>
+      <c r="U11" s="204"/>
     </row>
     <row r="12" spans="1:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="173"/>
-      <c r="B12" s="95" t="s">
+      <c r="A12" s="136"/>
+      <c r="B12" s="226" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="108"/>
+      <c r="C12" s="227"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="228"/>
+      <c r="F12" s="228"/>
+      <c r="G12" s="228"/>
+      <c r="H12" s="228"/>
+      <c r="I12" s="228"/>
+      <c r="J12" s="228"/>
+      <c r="K12" s="228"/>
+      <c r="L12" s="228"/>
+      <c r="M12" s="228"/>
+      <c r="N12" s="228"/>
+      <c r="O12" s="228"/>
+      <c r="P12" s="228"/>
+      <c r="Q12" s="228"/>
+      <c r="R12" s="228"/>
+      <c r="S12" s="228"/>
+      <c r="T12" s="229"/>
+      <c r="U12" s="204"/>
     </row>
     <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="173"/>
-      <c r="B13" s="219" t="s">
+      <c r="A13" s="136"/>
+      <c r="B13" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="220"/>
-      <c r="D13" s="220"/>
-      <c r="E13" s="220"/>
-      <c r="F13" s="220"/>
-      <c r="G13" s="220"/>
-      <c r="H13" s="220"/>
-      <c r="I13" s="220"/>
-      <c r="J13" s="220"/>
-      <c r="K13" s="220"/>
-      <c r="L13" s="220"/>
-      <c r="M13" s="220"/>
-      <c r="N13" s="220"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
       <c r="O13" s="74" t="s">
         <v>0</v>
       </c>
@@ -4168,165 +4144,165 @@
         <v>0</v>
       </c>
       <c r="Q13" s="75"/>
-      <c r="R13" s="141" t="s">
+      <c r="R13" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="141"/>
+      <c r="S13" s="179"/>
       <c r="T13" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="U13" s="108"/>
+      <c r="U13" s="204"/>
     </row>
     <row r="14" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="173"/>
-      <c r="B14" s="144" t="s">
+      <c r="A14" s="136"/>
+      <c r="B14" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="145"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="123" t="s">
+      <c r="C14" s="183"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="216" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="124"/>
-      <c r="Q14" s="124"/>
+      <c r="F14" s="216"/>
+      <c r="G14" s="216"/>
+      <c r="H14" s="216"/>
+      <c r="I14" s="216"/>
+      <c r="J14" s="217"/>
+      <c r="K14" s="217"/>
+      <c r="L14" s="217"/>
+      <c r="M14" s="217"/>
+      <c r="N14" s="217"/>
+      <c r="O14" s="217"/>
+      <c r="P14" s="217"/>
+      <c r="Q14" s="217"/>
       <c r="R14" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="142">
+      <c r="S14" s="180">
         <f ca="1">TODAY()</f>
         <v>43536</v>
       </c>
-      <c r="T14" s="143"/>
-      <c r="U14" s="108"/>
+      <c r="T14" s="181"/>
+      <c r="U14" s="204"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="173"/>
-      <c r="B15" s="137" t="s">
+      <c r="A15" s="136"/>
+      <c r="B15" s="175" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="138"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="139"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="139"/>
-      <c r="T15" s="140"/>
-      <c r="U15" s="108"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="178"/>
+      <c r="U15" s="204"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="173"/>
-      <c r="B16" s="176" t="s">
+      <c r="A16" s="136"/>
+      <c r="B16" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="177"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="177"/>
-      <c r="M16" s="177"/>
-      <c r="N16" s="177"/>
-      <c r="O16" s="177"/>
-      <c r="P16" s="177"/>
-      <c r="Q16" s="177"/>
-      <c r="R16" s="177"/>
-      <c r="S16" s="177"/>
-      <c r="T16" s="178"/>
-      <c r="U16" s="108"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="141"/>
+      <c r="N16" s="141"/>
+      <c r="O16" s="141"/>
+      <c r="P16" s="141"/>
+      <c r="Q16" s="141"/>
+      <c r="R16" s="141"/>
+      <c r="S16" s="141"/>
+      <c r="T16" s="142"/>
+      <c r="U16" s="204"/>
     </row>
     <row r="17" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="173"/>
-      <c r="B17" s="179" t="s">
+      <c r="A17" s="136"/>
+      <c r="B17" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="180"/>
-      <c r="P17" s="180"/>
-      <c r="Q17" s="180"/>
-      <c r="R17" s="180"/>
-      <c r="S17" s="180"/>
-      <c r="T17" s="181"/>
-      <c r="U17" s="108"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="144"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="144"/>
+      <c r="S17" s="144"/>
+      <c r="T17" s="145"/>
+      <c r="U17" s="204"/>
     </row>
     <row r="18" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="173"/>
-      <c r="B18" s="182" t="s">
+      <c r="A18" s="136"/>
+      <c r="B18" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="184"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="184"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="184"/>
-      <c r="K18" s="184"/>
-      <c r="L18" s="184"/>
-      <c r="M18" s="184"/>
-      <c r="N18" s="184"/>
-      <c r="O18" s="184"/>
-      <c r="P18" s="184"/>
-      <c r="Q18" s="184"/>
-      <c r="R18" s="184"/>
-      <c r="S18" s="184"/>
-      <c r="T18" s="185"/>
-      <c r="U18" s="108"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="148"/>
+      <c r="S18" s="148"/>
+      <c r="T18" s="149"/>
+      <c r="U18" s="204"/>
     </row>
     <row r="19" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="173"/>
-      <c r="B19" s="223" t="s">
+      <c r="A19" s="136"/>
+      <c r="B19" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="224"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="224"/>
-      <c r="F19" s="224"/>
-      <c r="G19" s="224"/>
-      <c r="H19" s="224"/>
-      <c r="I19" s="224"/>
-      <c r="J19" s="224"/>
-      <c r="K19" s="224"/>
-      <c r="L19" s="224"/>
-      <c r="M19" s="224"/>
-      <c r="N19" s="224"/>
-      <c r="O19" s="225"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="117"/>
       <c r="P19" s="10" t="s">
         <v>31</v>
       </c>
@@ -4334,30 +4310,30 @@
       <c r="R19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="125" t="s">
+      <c r="S19" s="218" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="126"/>
-      <c r="U19" s="108"/>
+      <c r="T19" s="219"/>
+      <c r="U19" s="204"/>
     </row>
     <row r="20" spans="1:21" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="173"/>
-      <c r="B20" s="226" t="s">
+      <c r="A20" s="136"/>
+      <c r="B20" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="227"/>
-      <c r="D20" s="228"/>
-      <c r="E20" s="227"/>
-      <c r="F20" s="227"/>
-      <c r="G20" s="227"/>
-      <c r="H20" s="227"/>
-      <c r="I20" s="227"/>
-      <c r="J20" s="227"/>
-      <c r="K20" s="227"/>
-      <c r="L20" s="227"/>
-      <c r="M20" s="229"/>
-      <c r="N20" s="229"/>
-      <c r="O20" s="230"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="122"/>
       <c r="P20" s="64"/>
       <c r="Q20" s="16" t="s">
         <v>35</v>
@@ -4367,10 +4343,10 @@
         <v>36</v>
       </c>
       <c r="T20" s="66"/>
-      <c r="U20" s="108"/>
+      <c r="U20" s="204"/>
     </row>
     <row r="21" spans="1:21" ht="81.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="173"/>
+      <c r="A21" s="136"/>
       <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
@@ -4395,37 +4371,37 @@
       <c r="I21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="215" t="s">
+      <c r="J21" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="217" t="s">
+      <c r="K21" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="129" t="s">
+      <c r="L21" s="222" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="130"/>
-      <c r="N21" s="130"/>
-      <c r="O21" s="130"/>
-      <c r="P21" s="209" t="s">
+      <c r="M21" s="223"/>
+      <c r="N21" s="223"/>
+      <c r="O21" s="223"/>
+      <c r="P21" s="101" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="R21" s="211" t="s">
+      <c r="R21" s="103" t="s">
         <v>64</v>
       </c>
       <c r="S21" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="T21" s="213" t="s">
+      <c r="T21" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="U21" s="108"/>
+      <c r="U21" s="204"/>
     </row>
     <row r="22" spans="1:21" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="173"/>
+      <c r="A22" s="136"/>
       <c r="B22" s="34" t="s">
         <v>72</v>
       </c>
@@ -4438,37 +4414,37 @@
       <c r="E22" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="234" t="s">
+      <c r="F22" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="235"/>
+      <c r="G22" s="129"/>
       <c r="H22" s="37" t="s">
         <v>75</v>
       </c>
       <c r="I22" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="216"/>
-      <c r="K22" s="218"/>
-      <c r="L22" s="221" t="s">
+      <c r="J22" s="108"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="M22" s="222"/>
-      <c r="N22" s="222"/>
-      <c r="O22" s="222"/>
-      <c r="P22" s="210"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="102"/>
       <c r="Q22" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="R22" s="212"/>
+      <c r="R22" s="104"/>
       <c r="S22" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="T22" s="214"/>
-      <c r="U22" s="108"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="204"/>
     </row>
     <row r="23" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A23" s="173"/>
+      <c r="A23" s="136"/>
       <c r="B23" s="68">
         <v>1</v>
       </c>
@@ -4481,124 +4457,92 @@
       <c r="E23" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="39">
-        <v>1</v>
-      </c>
-      <c r="G23" s="39">
-        <v>1</v>
+      <c r="F23" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J23" s="39"/>
       <c r="K23" s="40" t="s">
         <v>27</v>
       </c>
       <c r="L23" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="M23" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="M23" s="77" t="s">
+      <c r="N23" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="N23" s="77" t="s">
+      <c r="O23" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="O23" s="80" t="s">
-        <v>114</v>
-      </c>
       <c r="P23" s="43">
-        <v>3290</v>
-      </c>
-      <c r="Q23" s="70">
-        <v>0.15</v>
-      </c>
+        <v>5480</v>
+      </c>
+      <c r="Q23" s="70"/>
       <c r="R23" s="41">
         <f t="shared" ref="R23:R32" si="0">(P23*B23)*(1-Q23)</f>
-        <v>2796.5</v>
+        <v>5480</v>
       </c>
       <c r="S23" s="72">
         <v>0.3</v>
       </c>
       <c r="T23" s="42">
         <f>R23*(1-S23)</f>
-        <v>1957.55</v>
-      </c>
-      <c r="U23" s="108"/>
+        <v>3835.9999999999995</v>
+      </c>
+      <c r="U23" s="204"/>
     </row>
     <row r="24" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A24" s="173"/>
-      <c r="B24" s="68">
-        <v>1</v>
-      </c>
-      <c r="C24" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>85</v>
-      </c>
+      <c r="A24" s="136"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="I24" s="39" t="s">
-        <v>110</v>
-      </c>
+      <c r="I24" s="39"/>
       <c r="J24" s="39"/>
-      <c r="K24" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="M24" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="N24" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="O24" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="P24" s="43">
-        <v>3890</v>
-      </c>
-      <c r="Q24" s="70">
-        <v>0.15</v>
-      </c>
+      <c r="K24" s="40"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="70"/>
       <c r="R24" s="41">
         <f t="shared" si="0"/>
-        <v>3306.5</v>
+        <v>0</v>
       </c>
       <c r="S24" s="72">
         <v>0.3</v>
       </c>
       <c r="T24" s="42">
         <f t="shared" ref="T24:T32" si="1">R24*(1-S24)</f>
-        <v>2314.5499999999997</v>
-      </c>
-      <c r="U24" s="108"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="204"/>
     </row>
     <row r="25" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A25" s="173"/>
+      <c r="A25" s="136"/>
       <c r="B25" s="68">
         <v>1</v>
       </c>
-      <c r="C25" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>85</v>
-      </c>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39" t="s">
@@ -4606,42 +4550,30 @@
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
-      <c r="K25" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="M25" s="77" t="s">
-        <v>120</v>
-      </c>
-      <c r="N25" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="O25" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="P25" s="43">
-        <v>1490</v>
-      </c>
+      <c r="K25" s="40"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="43"/>
       <c r="Q25" s="70">
         <v>0</v>
       </c>
       <c r="R25" s="41">
         <f t="shared" si="0"/>
-        <v>1490</v>
+        <v>0</v>
       </c>
       <c r="S25" s="72">
         <v>0.3</v>
       </c>
       <c r="T25" s="42">
         <f t="shared" si="1"/>
-        <v>1043</v>
-      </c>
-      <c r="U25" s="108"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="204"/>
     </row>
     <row r="26" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A26" s="173"/>
+      <c r="A26" s="136"/>
       <c r="B26" s="68">
         <v>0</v>
       </c>
@@ -4677,10 +4609,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U26" s="108"/>
+      <c r="U26" s="204"/>
     </row>
     <row r="27" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A27" s="173"/>
+      <c r="A27" s="136"/>
       <c r="B27" s="68">
         <v>0</v>
       </c>
@@ -4716,10 +4648,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U27" s="108"/>
+      <c r="U27" s="204"/>
     </row>
     <row r="28" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A28" s="173"/>
+      <c r="A28" s="136"/>
       <c r="B28" s="68">
         <v>0</v>
       </c>
@@ -4755,10 +4687,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28" s="108"/>
+      <c r="U28" s="204"/>
     </row>
     <row r="29" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A29" s="173"/>
+      <c r="A29" s="136"/>
       <c r="B29" s="68">
         <v>0</v>
       </c>
@@ -4792,10 +4724,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U29" s="108"/>
+      <c r="U29" s="204"/>
     </row>
     <row r="30" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A30" s="173"/>
+      <c r="A30" s="136"/>
       <c r="B30" s="68">
         <v>0</v>
       </c>
@@ -4829,10 +4761,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U30" s="108"/>
+      <c r="U30" s="204"/>
     </row>
     <row r="31" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A31" s="173"/>
+      <c r="A31" s="136"/>
       <c r="B31" s="68">
         <v>0</v>
       </c>
@@ -4868,10 +4800,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U31" s="108"/>
+      <c r="U31" s="204"/>
     </row>
     <row r="32" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="173"/>
+      <c r="A32" s="136"/>
       <c r="B32" s="69">
         <v>0</v>
       </c>
@@ -4907,16 +4839,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="108"/>
+      <c r="U32" s="204"/>
     </row>
     <row r="33" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="173"/>
+      <c r="A33" s="136"/>
       <c r="B33" s="44">
         <v>0</v>
       </c>
       <c r="C33" s="45"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="175"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="139"/>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
@@ -4939,16 +4871,16 @@
         <f>(R33-(R33*S33))*B33</f>
         <v>0</v>
       </c>
-      <c r="U33" s="108"/>
+      <c r="U33" s="204"/>
     </row>
     <row r="34" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="173"/>
+      <c r="A34" s="136"/>
       <c r="B34" s="44">
         <v>0</v>
       </c>
       <c r="C34" s="45"/>
-      <c r="D34" s="131"/>
-      <c r="E34" s="131"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
       <c r="H34" s="39"/>
@@ -4971,16 +4903,16 @@
         <f>(R34-(R34*S34))*B34</f>
         <v>0</v>
       </c>
-      <c r="U34" s="108"/>
+      <c r="U34" s="204"/>
     </row>
     <row r="35" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="173"/>
+      <c r="A35" s="136"/>
       <c r="B35" s="44">
         <v>0</v>
       </c>
       <c r="C35" s="45"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="131"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="138"/>
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
@@ -5003,87 +4935,87 @@
         <f>(R35-(R35*S35))*B35</f>
         <v>0</v>
       </c>
-      <c r="U35" s="108"/>
+      <c r="U35" s="204"/>
     </row>
     <row r="36" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="173"/>
-      <c r="B36" s="186" t="s">
+      <c r="A36" s="136"/>
+      <c r="B36" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="187"/>
-      <c r="D36" s="187"/>
-      <c r="E36" s="187"/>
-      <c r="F36" s="187"/>
-      <c r="G36" s="187"/>
-      <c r="H36" s="187"/>
-      <c r="I36" s="187"/>
-      <c r="J36" s="187"/>
-      <c r="K36" s="187"/>
-      <c r="L36" s="191" t="s">
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="156"/>
+      <c r="K36" s="156"/>
+      <c r="L36" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="191"/>
-      <c r="N36" s="191"/>
-      <c r="O36" s="191"/>
+      <c r="M36" s="160"/>
+      <c r="N36" s="160"/>
+      <c r="O36" s="160"/>
       <c r="P36" s="50">
         <f>SUM(P23:P32)</f>
-        <v>8670</v>
+        <v>5480</v>
       </c>
       <c r="Q36" s="51"/>
-      <c r="R36" s="148" t="s">
+      <c r="R36" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="S36" s="149"/>
+      <c r="S36" s="154"/>
       <c r="T36" s="52">
         <f>SUM(T23:T35)</f>
-        <v>5315.0999999999995</v>
-      </c>
-      <c r="U36" s="108"/>
+        <v>3835.9999999999995</v>
+      </c>
+      <c r="U36" s="204"/>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="173"/>
-      <c r="B37" s="165" t="s">
+      <c r="A37" s="136"/>
+      <c r="B37" s="199" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="199" t="s">
+      <c r="D37" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="200"/>
-      <c r="F37" s="200"/>
-      <c r="G37" s="200"/>
-      <c r="H37" s="200"/>
-      <c r="I37" s="200"/>
-      <c r="J37" s="192" t="s">
+      <c r="E37" s="169"/>
+      <c r="F37" s="169"/>
+      <c r="G37" s="169"/>
+      <c r="H37" s="169"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="193"/>
-      <c r="L37" s="193"/>
-      <c r="M37" s="193"/>
-      <c r="N37" s="193"/>
-      <c r="O37" s="193"/>
+      <c r="K37" s="162"/>
+      <c r="L37" s="162"/>
+      <c r="M37" s="162"/>
+      <c r="N37" s="162"/>
+      <c r="O37" s="162"/>
       <c r="P37" s="54">
         <f>SUM(R23:R32)</f>
-        <v>7593</v>
+        <v>5480</v>
       </c>
       <c r="Q37" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="148" t="s">
+      <c r="R37" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="S37" s="149"/>
+      <c r="S37" s="154"/>
       <c r="T37" s="55">
         <f>T36*0.16</f>
-        <v>850.41599999999994</v>
-      </c>
-      <c r="U37" s="108"/>
+        <v>613.76</v>
+      </c>
+      <c r="U37" s="204"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="173"/>
-      <c r="B38" s="166"/>
+      <c r="A38" s="136"/>
+      <c r="B38" s="200"/>
       <c r="C38" s="56"/>
       <c r="D38" s="56"/>
       <c r="E38" s="56"/>
@@ -5099,74 +5031,74 @@
       <c r="O38" s="51"/>
       <c r="P38" s="51"/>
       <c r="Q38" s="51"/>
-      <c r="R38" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="151"/>
+      <c r="R38" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="188"/>
       <c r="T38" s="57">
         <v>0</v>
       </c>
-      <c r="U38" s="108"/>
+      <c r="U38" s="204"/>
     </row>
     <row r="39" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="173"/>
-      <c r="B39" s="166"/>
+      <c r="A39" s="136"/>
+      <c r="B39" s="200"/>
       <c r="C39" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="163" t="s">
+      <c r="D39" s="197" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="164"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="164"/>
-      <c r="K39" s="167"/>
-      <c r="L39" s="168"/>
-      <c r="M39" s="168"/>
-      <c r="N39" s="168"/>
-      <c r="O39" s="168"/>
-      <c r="P39" s="168"/>
-      <c r="Q39" s="169"/>
-      <c r="R39" s="152" t="s">
+      <c r="E39" s="198"/>
+      <c r="F39" s="198"/>
+      <c r="G39" s="198"/>
+      <c r="H39" s="198"/>
+      <c r="I39" s="198"/>
+      <c r="J39" s="198"/>
+      <c r="K39" s="201"/>
+      <c r="L39" s="202"/>
+      <c r="M39" s="202"/>
+      <c r="N39" s="202"/>
+      <c r="O39" s="202"/>
+      <c r="P39" s="202"/>
+      <c r="Q39" s="203"/>
+      <c r="R39" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="S39" s="153"/>
+      <c r="S39" s="190"/>
       <c r="T39" s="58">
         <f>T36+T37+T38</f>
-        <v>6165.5159999999996</v>
-      </c>
-      <c r="U39" s="108"/>
+        <v>4449.7599999999993</v>
+      </c>
+      <c r="U39" s="204"/>
     </row>
     <row r="40" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="173"/>
-      <c r="B40" s="194" t="s">
+      <c r="A40" s="136"/>
+      <c r="B40" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="195"/>
-      <c r="D40" s="196"/>
-      <c r="E40" s="197"/>
-      <c r="F40" s="197"/>
-      <c r="G40" s="197"/>
-      <c r="H40" s="197"/>
-      <c r="I40" s="197"/>
-      <c r="J40" s="197"/>
-      <c r="K40" s="197"/>
-      <c r="L40" s="197"/>
-      <c r="M40" s="197"/>
-      <c r="N40" s="197"/>
-      <c r="O40" s="197"/>
-      <c r="P40" s="197"/>
-      <c r="Q40" s="197"/>
-      <c r="R40" s="197"/>
-      <c r="S40" s="198"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="166"/>
+      <c r="F40" s="166"/>
+      <c r="G40" s="166"/>
+      <c r="H40" s="166"/>
+      <c r="I40" s="166"/>
+      <c r="J40" s="166"/>
+      <c r="K40" s="166"/>
+      <c r="L40" s="166"/>
+      <c r="M40" s="166"/>
+      <c r="N40" s="166"/>
+      <c r="O40" s="166"/>
+      <c r="P40" s="166"/>
+      <c r="Q40" s="166"/>
+      <c r="R40" s="166"/>
+      <c r="S40" s="167"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="108"/>
+      <c r="U40" s="204"/>
     </row>
     <row r="41" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="173"/>
+      <c r="A41" s="136"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="20"/>
@@ -5186,108 +5118,162 @@
       <c r="R41" s="20"/>
       <c r="S41" s="20"/>
       <c r="T41" s="21"/>
-      <c r="U41" s="108"/>
+      <c r="U41" s="204"/>
     </row>
     <row r="42" spans="1:21" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="173"/>
-      <c r="B42" s="188" t="s">
+      <c r="A42" s="136"/>
+      <c r="B42" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="189"/>
-      <c r="D42" s="189"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="189"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="189"/>
-      <c r="J42" s="189"/>
-      <c r="K42" s="189"/>
-      <c r="L42" s="189"/>
-      <c r="M42" s="189"/>
-      <c r="N42" s="189"/>
-      <c r="O42" s="189"/>
-      <c r="P42" s="189"/>
-      <c r="Q42" s="189"/>
-      <c r="R42" s="189"/>
-      <c r="S42" s="189"/>
-      <c r="T42" s="190"/>
-      <c r="U42" s="108"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="158"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="158"/>
+      <c r="H42" s="158"/>
+      <c r="I42" s="158"/>
+      <c r="J42" s="158"/>
+      <c r="K42" s="158"/>
+      <c r="L42" s="158"/>
+      <c r="M42" s="158"/>
+      <c r="N42" s="158"/>
+      <c r="O42" s="158"/>
+      <c r="P42" s="158"/>
+      <c r="Q42" s="158"/>
+      <c r="R42" s="158"/>
+      <c r="S42" s="158"/>
+      <c r="T42" s="159"/>
+      <c r="U42" s="204"/>
     </row>
     <row r="43" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="174"/>
-      <c r="B43" s="109" t="s">
+      <c r="A43" s="137"/>
+      <c r="B43" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="110"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="160"/>
-      <c r="F43" s="161"/>
-      <c r="G43" s="161"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="161"/>
-      <c r="J43" s="161"/>
-      <c r="K43" s="161"/>
-      <c r="L43" s="161"/>
-      <c r="M43" s="161"/>
-      <c r="N43" s="161"/>
-      <c r="O43" s="161"/>
-      <c r="P43" s="161"/>
-      <c r="Q43" s="161"/>
-      <c r="R43" s="161"/>
-      <c r="S43" s="161"/>
-      <c r="T43" s="162"/>
-      <c r="U43" s="108"/>
+      <c r="C43" s="206"/>
+      <c r="D43" s="207"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="151"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="151"/>
+      <c r="N43" s="151"/>
+      <c r="O43" s="151"/>
+      <c r="P43" s="151"/>
+      <c r="Q43" s="151"/>
+      <c r="R43" s="151"/>
+      <c r="S43" s="151"/>
+      <c r="T43" s="152"/>
+      <c r="U43" s="204"/>
     </row>
     <row r="44" spans="1:21" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
-      <c r="B44" s="109" t="s">
+      <c r="B44" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="160"/>
-      <c r="F44" s="161"/>
-      <c r="G44" s="161"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="161"/>
-      <c r="J44" s="161"/>
-      <c r="K44" s="161"/>
-      <c r="L44" s="161"/>
-      <c r="M44" s="161"/>
-      <c r="N44" s="161"/>
-      <c r="O44" s="161"/>
-      <c r="P44" s="161"/>
-      <c r="Q44" s="161"/>
-      <c r="R44" s="161"/>
-      <c r="S44" s="161"/>
-      <c r="T44" s="162"/>
+      <c r="C44" s="206"/>
+      <c r="D44" s="206"/>
+      <c r="E44" s="150"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="151"/>
+      <c r="K44" s="151"/>
+      <c r="L44" s="151"/>
+      <c r="M44" s="151"/>
+      <c r="N44" s="151"/>
+      <c r="O44" s="151"/>
+      <c r="P44" s="151"/>
+      <c r="Q44" s="151"/>
+      <c r="R44" s="151"/>
+      <c r="S44" s="151"/>
+      <c r="T44" s="152"/>
       <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="132"/>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
-      <c r="L45" s="133"/>
-      <c r="M45" s="133"/>
-      <c r="N45" s="133"/>
-      <c r="O45" s="133"/>
-      <c r="P45" s="133"/>
-      <c r="Q45" s="133"/>
-      <c r="R45" s="133"/>
-      <c r="S45" s="133"/>
-      <c r="T45" s="133"/>
-      <c r="U45" s="134"/>
+      <c r="A45" s="170"/>
+      <c r="B45" s="171"/>
+      <c r="C45" s="171"/>
+      <c r="D45" s="171"/>
+      <c r="E45" s="171"/>
+      <c r="F45" s="171"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="171"/>
+      <c r="I45" s="171"/>
+      <c r="J45" s="171"/>
+      <c r="K45" s="171"/>
+      <c r="L45" s="171"/>
+      <c r="M45" s="171"/>
+      <c r="N45" s="171"/>
+      <c r="O45" s="171"/>
+      <c r="P45" s="171"/>
+      <c r="Q45" s="171"/>
+      <c r="R45" s="171"/>
+      <c r="S45" s="171"/>
+      <c r="T45" s="171"/>
+      <c r="U45" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="U2:U43"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B15:T15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="E44:T44"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B16:T16"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="B18:T18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B42:T42"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:S40"/>
+    <mergeCell ref="D37:I37"/>
     <mergeCell ref="B4:T4"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="L3:T3"/>
@@ -5304,60 +5290,6 @@
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="E11:O11"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B16:T16"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="B18:T18"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B42:T42"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:S40"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B15:T15"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="E44:T44"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="U2:U43"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="P11:R11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
+++ b/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EC16\Documents\SOSQTP\Documentos de Venta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C390F4B2-5DC0-4863-B0BE-A59ECB00776D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11B8721-A46B-4303-9EF6-8F08A6E7DA87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1008,9 +1008,6 @@
     <t>168C</t>
   </si>
   <si>
-    <t>E7BD</t>
-  </si>
-  <si>
     <t>63A2</t>
   </si>
   <si>
@@ -1018,6 +1015,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>F7BD</t>
   </si>
 </sst>
 </file>
@@ -2918,234 +2918,117 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3186,11 +3069,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3207,7 +3093,7 @@
     <xf numFmtId="0" fontId="94" fillId="5" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3222,6 +3108,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3243,105 +3138,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3750,7 +3750,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3781,32 +3781,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="170" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="135"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="172"/>
     </row>
     <row r="2" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="136"/>
+      <c r="A2" s="173"/>
       <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
@@ -3819,21 +3819,21 @@
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
-      <c r="L2" s="96" t="s">
+      <c r="L2" s="204" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="204"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="108"/>
     </row>
     <row r="3" spans="1:21" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="136"/>
+      <c r="A3" s="173"/>
       <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
@@ -3846,297 +3846,297 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
-      <c r="L3" s="99" t="s">
+      <c r="L3" s="207" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="204"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="208"/>
+      <c r="U3" s="108"/>
     </row>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="136"/>
-      <c r="B4" s="93" t="s">
+      <c r="A4" s="173"/>
+      <c r="B4" s="201" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="204"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
+      <c r="T4" s="203"/>
+      <c r="U4" s="108"/>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="136"/>
-      <c r="B5" s="214"/>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="215"/>
-      <c r="G5" s="215"/>
-      <c r="H5" s="215"/>
-      <c r="I5" s="215"/>
-      <c r="J5" s="215"/>
-      <c r="K5" s="215"/>
-      <c r="L5" s="215"/>
-      <c r="M5" s="215"/>
-      <c r="N5" s="215"/>
-      <c r="O5" s="215"/>
-      <c r="P5" s="215"/>
-      <c r="Q5" s="215"/>
-      <c r="R5" s="173" t="s">
+      <c r="A5" s="173"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="174"/>
+      <c r="S5" s="136"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="204"/>
+      <c r="U5" s="108"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="136"/>
-      <c r="B6" s="208" t="s">
+      <c r="A6" s="173"/>
+      <c r="B6" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="234" t="s">
+      <c r="C6" s="113"/>
+      <c r="D6" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="234"/>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="235"/>
-      <c r="I6" s="235"/>
-      <c r="J6" s="235"/>
-      <c r="K6" s="235"/>
-      <c r="L6" s="235"/>
-      <c r="M6" s="235"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="235"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="235"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
       <c r="R6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="230" t="s">
+      <c r="S6" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="231"/>
-      <c r="U6" s="204"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="108"/>
     </row>
     <row r="7" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="136"/>
-      <c r="B7" s="208" t="s">
+      <c r="A7" s="173"/>
+      <c r="B7" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="185" t="s">
+      <c r="C7" s="113"/>
+      <c r="D7" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="147"/>
       <c r="R7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="232" t="s">
+      <c r="S7" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="233"/>
-      <c r="U7" s="204"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="108"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="136"/>
-      <c r="B8" s="208" t="s">
+      <c r="A8" s="173"/>
+      <c r="B8" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="209"/>
-      <c r="D8" s="123" t="s">
+      <c r="C8" s="113"/>
+      <c r="D8" s="231" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="124"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="191" t="s">
+      <c r="K8" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="192"/>
-      <c r="R8" s="192"/>
-      <c r="S8" s="192"/>
-      <c r="T8" s="193"/>
-      <c r="U8" s="204"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="155"/>
+      <c r="O8" s="155"/>
+      <c r="P8" s="155"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="156"/>
+      <c r="U8" s="108"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="136"/>
-      <c r="B9" s="208" t="s">
+      <c r="A9" s="173"/>
+      <c r="B9" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="209"/>
-      <c r="D9" s="185" t="s">
+      <c r="C9" s="113"/>
+      <c r="D9" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="186"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="210"/>
-      <c r="K9" s="210"/>
-      <c r="L9" s="210"/>
-      <c r="M9" s="210"/>
-      <c r="N9" s="210"/>
-      <c r="O9" s="210"/>
-      <c r="P9" s="210"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
       <c r="Q9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="211" t="s">
+      <c r="R9" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="S9" s="212"/>
-      <c r="T9" s="213"/>
-      <c r="U9" s="204"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="108"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="136"/>
-      <c r="B10" s="208" t="s">
+      <c r="A10" s="173"/>
+      <c r="B10" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="209"/>
-      <c r="D10" s="126" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="232" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
+      <c r="E10" s="232"/>
+      <c r="F10" s="233"/>
+      <c r="G10" s="233"/>
+      <c r="H10" s="233"/>
+      <c r="I10" s="233"/>
       <c r="J10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="194" t="s">
+      <c r="K10" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="195"/>
-      <c r="M10" s="195"/>
-      <c r="N10" s="195"/>
-      <c r="O10" s="195"/>
-      <c r="P10" s="195"/>
-      <c r="Q10" s="195"/>
-      <c r="R10" s="195"/>
-      <c r="S10" s="195"/>
-      <c r="T10" s="196"/>
-      <c r="U10" s="204"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="158"/>
+      <c r="P10" s="158"/>
+      <c r="Q10" s="158"/>
+      <c r="R10" s="158"/>
+      <c r="S10" s="158"/>
+      <c r="T10" s="159"/>
+      <c r="U10" s="108"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="136"/>
-      <c r="B11" s="224" t="s">
+      <c r="A11" s="173"/>
+      <c r="B11" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="225"/>
-      <c r="D11" s="225"/>
-      <c r="E11" s="130" t="s">
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="236" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="236" t="s">
+      <c r="F11" s="237"/>
+      <c r="G11" s="237"/>
+      <c r="H11" s="237"/>
+      <c r="I11" s="237"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="237"/>
+      <c r="M11" s="237"/>
+      <c r="N11" s="237"/>
+      <c r="O11" s="238"/>
+      <c r="P11" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="237"/>
-      <c r="R11" s="238"/>
-      <c r="S11" s="220" t="s">
+      <c r="Q11" s="106"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="221"/>
-      <c r="U11" s="204"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="108"/>
     </row>
     <row r="12" spans="1:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="136"/>
-      <c r="B12" s="226" t="s">
+      <c r="A12" s="173"/>
+      <c r="B12" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="227"/>
-      <c r="D12" s="228"/>
-      <c r="E12" s="228"/>
-      <c r="F12" s="228"/>
-      <c r="G12" s="228"/>
-      <c r="H12" s="228"/>
-      <c r="I12" s="228"/>
-      <c r="J12" s="228"/>
-      <c r="K12" s="228"/>
-      <c r="L12" s="228"/>
-      <c r="M12" s="228"/>
-      <c r="N12" s="228"/>
-      <c r="O12" s="228"/>
-      <c r="P12" s="228"/>
-      <c r="Q12" s="228"/>
-      <c r="R12" s="228"/>
-      <c r="S12" s="228"/>
-      <c r="T12" s="229"/>
-      <c r="U12" s="204"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="108"/>
     </row>
     <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="136"/>
-      <c r="B13" s="111" t="s">
+      <c r="A13" s="173"/>
+      <c r="B13" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
+      <c r="C13" s="220"/>
+      <c r="D13" s="220"/>
+      <c r="E13" s="220"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="220"/>
+      <c r="H13" s="220"/>
+      <c r="I13" s="220"/>
+      <c r="J13" s="220"/>
+      <c r="K13" s="220"/>
+      <c r="L13" s="220"/>
+      <c r="M13" s="220"/>
+      <c r="N13" s="220"/>
       <c r="O13" s="74" t="s">
         <v>0</v>
       </c>
@@ -4144,165 +4144,165 @@
         <v>0</v>
       </c>
       <c r="Q13" s="75"/>
-      <c r="R13" s="179" t="s">
+      <c r="R13" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="179"/>
+      <c r="S13" s="141"/>
       <c r="T13" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="U13" s="204"/>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="136"/>
-      <c r="B14" s="182" t="s">
+      <c r="A14" s="173"/>
+      <c r="B14" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="216" t="s">
+      <c r="C14" s="145"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="216"/>
-      <c r="G14" s="216"/>
-      <c r="H14" s="216"/>
-      <c r="I14" s="216"/>
-      <c r="J14" s="217"/>
-      <c r="K14" s="217"/>
-      <c r="L14" s="217"/>
-      <c r="M14" s="217"/>
-      <c r="N14" s="217"/>
-      <c r="O14" s="217"/>
-      <c r="P14" s="217"/>
-      <c r="Q14" s="217"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="124"/>
       <c r="R14" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="180">
+      <c r="S14" s="142">
         <f ca="1">TODAY()</f>
-        <v>43536</v>
-      </c>
-      <c r="T14" s="181"/>
-      <c r="U14" s="204"/>
+        <v>43538</v>
+      </c>
+      <c r="T14" s="143"/>
+      <c r="U14" s="108"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="136"/>
-      <c r="B15" s="175" t="s">
+      <c r="A15" s="173"/>
+      <c r="B15" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="176"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="177"/>
-      <c r="L15" s="177"/>
-      <c r="M15" s="177"/>
-      <c r="N15" s="177"/>
-      <c r="O15" s="177"/>
-      <c r="P15" s="177"/>
-      <c r="Q15" s="177"/>
-      <c r="R15" s="177"/>
-      <c r="S15" s="177"/>
-      <c r="T15" s="178"/>
-      <c r="U15" s="204"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="139"/>
+      <c r="T15" s="140"/>
+      <c r="U15" s="108"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="136"/>
-      <c r="B16" s="140" t="s">
+      <c r="A16" s="173"/>
+      <c r="B16" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="141"/>
-      <c r="Q16" s="141"/>
-      <c r="R16" s="141"/>
-      <c r="S16" s="141"/>
-      <c r="T16" s="142"/>
-      <c r="U16" s="204"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="178"/>
+      <c r="U16" s="108"/>
     </row>
     <row r="17" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="136"/>
-      <c r="B17" s="143" t="s">
+      <c r="A17" s="173"/>
+      <c r="B17" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="144"/>
-      <c r="N17" s="144"/>
-      <c r="O17" s="144"/>
-      <c r="P17" s="144"/>
-      <c r="Q17" s="144"/>
-      <c r="R17" s="144"/>
-      <c r="S17" s="144"/>
-      <c r="T17" s="145"/>
-      <c r="U17" s="204"/>
+      <c r="C17" s="180"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="180"/>
+      <c r="P17" s="180"/>
+      <c r="Q17" s="180"/>
+      <c r="R17" s="180"/>
+      <c r="S17" s="180"/>
+      <c r="T17" s="181"/>
+      <c r="U17" s="108"/>
     </row>
     <row r="18" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="136"/>
-      <c r="B18" s="146" t="s">
+      <c r="A18" s="173"/>
+      <c r="B18" s="182" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="147"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="149"/>
-      <c r="U18" s="204"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="184"/>
+      <c r="K18" s="184"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="184"/>
+      <c r="N18" s="184"/>
+      <c r="O18" s="184"/>
+      <c r="P18" s="184"/>
+      <c r="Q18" s="184"/>
+      <c r="R18" s="184"/>
+      <c r="S18" s="184"/>
+      <c r="T18" s="185"/>
+      <c r="U18" s="108"/>
     </row>
     <row r="19" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="136"/>
-      <c r="B19" s="115" t="s">
+      <c r="A19" s="173"/>
+      <c r="B19" s="223" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="117"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+      <c r="I19" s="224"/>
+      <c r="J19" s="224"/>
+      <c r="K19" s="224"/>
+      <c r="L19" s="224"/>
+      <c r="M19" s="224"/>
+      <c r="N19" s="224"/>
+      <c r="O19" s="225"/>
       <c r="P19" s="10" t="s">
         <v>31</v>
       </c>
@@ -4310,30 +4310,30 @@
       <c r="R19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="218" t="s">
+      <c r="S19" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="219"/>
-      <c r="U19" s="204"/>
+      <c r="T19" s="126"/>
+      <c r="U19" s="108"/>
     </row>
     <row r="20" spans="1:21" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="136"/>
-      <c r="B20" s="118" t="s">
+      <c r="A20" s="173"/>
+      <c r="B20" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="119"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="122"/>
+      <c r="C20" s="227"/>
+      <c r="D20" s="228"/>
+      <c r="E20" s="227"/>
+      <c r="F20" s="227"/>
+      <c r="G20" s="227"/>
+      <c r="H20" s="227"/>
+      <c r="I20" s="227"/>
+      <c r="J20" s="227"/>
+      <c r="K20" s="227"/>
+      <c r="L20" s="227"/>
+      <c r="M20" s="229"/>
+      <c r="N20" s="229"/>
+      <c r="O20" s="230"/>
       <c r="P20" s="64"/>
       <c r="Q20" s="16" t="s">
         <v>35</v>
@@ -4343,10 +4343,10 @@
         <v>36</v>
       </c>
       <c r="T20" s="66"/>
-      <c r="U20" s="204"/>
+      <c r="U20" s="108"/>
     </row>
     <row r="21" spans="1:21" ht="81.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="136"/>
+      <c r="A21" s="173"/>
       <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
@@ -4371,37 +4371,37 @@
       <c r="I21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="107" t="s">
+      <c r="J21" s="215" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="109" t="s">
+      <c r="K21" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="222" t="s">
+      <c r="L21" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="223"/>
-      <c r="N21" s="223"/>
-      <c r="O21" s="223"/>
-      <c r="P21" s="101" t="s">
+      <c r="M21" s="130"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="209" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="R21" s="103" t="s">
+      <c r="R21" s="211" t="s">
         <v>64</v>
       </c>
       <c r="S21" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="T21" s="105" t="s">
+      <c r="T21" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="U21" s="204"/>
+      <c r="U21" s="108"/>
     </row>
     <row r="22" spans="1:21" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="136"/>
+      <c r="A22" s="173"/>
       <c r="B22" s="34" t="s">
         <v>72</v>
       </c>
@@ -4414,37 +4414,37 @@
       <c r="E22" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="128" t="s">
+      <c r="F22" s="234" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="129"/>
+      <c r="G22" s="235"/>
       <c r="H22" s="37" t="s">
         <v>75</v>
       </c>
       <c r="I22" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="108"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="113" t="s">
+      <c r="J22" s="216"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="221" t="s">
         <v>90</v>
       </c>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="102"/>
+      <c r="M22" s="222"/>
+      <c r="N22" s="222"/>
+      <c r="O22" s="222"/>
+      <c r="P22" s="210"/>
       <c r="Q22" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="R22" s="104"/>
+      <c r="R22" s="212"/>
       <c r="S22" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="T22" s="106"/>
-      <c r="U22" s="204"/>
+      <c r="T22" s="214"/>
+      <c r="U22" s="108"/>
     </row>
     <row r="23" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A23" s="136"/>
+      <c r="A23" s="173"/>
       <c r="B23" s="68">
         <v>1</v>
       </c>
@@ -4464,10 +4464,10 @@
         <v>26</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J23" s="39"/>
       <c r="K23" s="40" t="s">
@@ -4477,13 +4477,13 @@
         <v>110</v>
       </c>
       <c r="M23" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="N23" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="N23" s="77" t="s">
+      <c r="O23" s="80" t="s">
         <v>112</v>
-      </c>
-      <c r="O23" s="80" t="s">
-        <v>113</v>
       </c>
       <c r="P23" s="43">
         <v>5480</v>
@@ -4500,10 +4500,10 @@
         <f>R23*(1-S23)</f>
         <v>3835.9999999999995</v>
       </c>
-      <c r="U23" s="204"/>
+      <c r="U23" s="108"/>
     </row>
     <row r="24" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A24" s="136"/>
+      <c r="A24" s="173"/>
       <c r="B24" s="68"/>
       <c r="C24" s="87"/>
       <c r="D24" s="88"/>
@@ -4533,10 +4533,10 @@
         <f t="shared" ref="T24:T32" si="1">R24*(1-S24)</f>
         <v>0</v>
       </c>
-      <c r="U24" s="204"/>
+      <c r="U24" s="108"/>
     </row>
     <row r="25" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A25" s="136"/>
+      <c r="A25" s="173"/>
       <c r="B25" s="68">
         <v>1</v>
       </c>
@@ -4570,10 +4570,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U25" s="204"/>
+      <c r="U25" s="108"/>
     </row>
     <row r="26" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A26" s="136"/>
+      <c r="A26" s="173"/>
       <c r="B26" s="68">
         <v>0</v>
       </c>
@@ -4609,10 +4609,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U26" s="204"/>
+      <c r="U26" s="108"/>
     </row>
     <row r="27" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A27" s="136"/>
+      <c r="A27" s="173"/>
       <c r="B27" s="68">
         <v>0</v>
       </c>
@@ -4648,10 +4648,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U27" s="204"/>
+      <c r="U27" s="108"/>
     </row>
     <row r="28" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A28" s="136"/>
+      <c r="A28" s="173"/>
       <c r="B28" s="68">
         <v>0</v>
       </c>
@@ -4687,10 +4687,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28" s="204"/>
+      <c r="U28" s="108"/>
     </row>
     <row r="29" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A29" s="136"/>
+      <c r="A29" s="173"/>
       <c r="B29" s="68">
         <v>0</v>
       </c>
@@ -4724,10 +4724,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U29" s="204"/>
+      <c r="U29" s="108"/>
     </row>
     <row r="30" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A30" s="136"/>
+      <c r="A30" s="173"/>
       <c r="B30" s="68">
         <v>0</v>
       </c>
@@ -4761,10 +4761,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U30" s="204"/>
+      <c r="U30" s="108"/>
     </row>
     <row r="31" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A31" s="136"/>
+      <c r="A31" s="173"/>
       <c r="B31" s="68">
         <v>0</v>
       </c>
@@ -4800,10 +4800,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U31" s="204"/>
+      <c r="U31" s="108"/>
     </row>
     <row r="32" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="136"/>
+      <c r="A32" s="173"/>
       <c r="B32" s="69">
         <v>0</v>
       </c>
@@ -4839,16 +4839,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="204"/>
+      <c r="U32" s="108"/>
     </row>
     <row r="33" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="136"/>
+      <c r="A33" s="173"/>
       <c r="B33" s="44">
         <v>0</v>
       </c>
       <c r="C33" s="45"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="139"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="175"/>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
@@ -4871,16 +4871,16 @@
         <f>(R33-(R33*S33))*B33</f>
         <v>0</v>
       </c>
-      <c r="U33" s="204"/>
+      <c r="U33" s="108"/>
     </row>
     <row r="34" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="136"/>
+      <c r="A34" s="173"/>
       <c r="B34" s="44">
         <v>0</v>
       </c>
       <c r="C34" s="45"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="138"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
       <c r="H34" s="39"/>
@@ -4903,16 +4903,16 @@
         <f>(R34-(R34*S34))*B34</f>
         <v>0</v>
       </c>
-      <c r="U34" s="204"/>
+      <c r="U34" s="108"/>
     </row>
     <row r="35" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="136"/>
+      <c r="A35" s="173"/>
       <c r="B35" s="44">
         <v>0</v>
       </c>
       <c r="C35" s="45"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="138"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
@@ -4935,67 +4935,67 @@
         <f>(R35-(R35*S35))*B35</f>
         <v>0</v>
       </c>
-      <c r="U35" s="204"/>
+      <c r="U35" s="108"/>
     </row>
     <row r="36" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="136"/>
-      <c r="B36" s="155" t="s">
+      <c r="A36" s="173"/>
+      <c r="B36" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="156"/>
-      <c r="K36" s="156"/>
-      <c r="L36" s="160" t="s">
+      <c r="C36" s="187"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="187"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="187"/>
+      <c r="J36" s="187"/>
+      <c r="K36" s="187"/>
+      <c r="L36" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="160"/>
-      <c r="N36" s="160"/>
-      <c r="O36" s="160"/>
+      <c r="M36" s="191"/>
+      <c r="N36" s="191"/>
+      <c r="O36" s="191"/>
       <c r="P36" s="50">
         <f>SUM(P23:P32)</f>
         <v>5480</v>
       </c>
       <c r="Q36" s="51"/>
-      <c r="R36" s="153" t="s">
+      <c r="R36" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="S36" s="154"/>
+      <c r="S36" s="149"/>
       <c r="T36" s="52">
         <f>SUM(T23:T35)</f>
         <v>3835.9999999999995</v>
       </c>
-      <c r="U36" s="204"/>
+      <c r="U36" s="108"/>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="136"/>
-      <c r="B37" s="199" t="s">
+      <c r="A37" s="173"/>
+      <c r="B37" s="165" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="168" t="s">
+      <c r="D37" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="169"/>
-      <c r="H37" s="169"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="161" t="s">
+      <c r="E37" s="200"/>
+      <c r="F37" s="200"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="200"/>
+      <c r="I37" s="200"/>
+      <c r="J37" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="162"/>
-      <c r="L37" s="162"/>
-      <c r="M37" s="162"/>
-      <c r="N37" s="162"/>
-      <c r="O37" s="162"/>
+      <c r="K37" s="193"/>
+      <c r="L37" s="193"/>
+      <c r="M37" s="193"/>
+      <c r="N37" s="193"/>
+      <c r="O37" s="193"/>
       <c r="P37" s="54">
         <f>SUM(R23:R32)</f>
         <v>5480</v>
@@ -5003,19 +5003,19 @@
       <c r="Q37" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="153" t="s">
+      <c r="R37" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="S37" s="154"/>
+      <c r="S37" s="149"/>
       <c r="T37" s="55">
         <f>T36*0.16</f>
         <v>613.76</v>
       </c>
-      <c r="U37" s="204"/>
+      <c r="U37" s="108"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="136"/>
-      <c r="B38" s="200"/>
+      <c r="A38" s="173"/>
+      <c r="B38" s="166"/>
       <c r="C38" s="56"/>
       <c r="D38" s="56"/>
       <c r="E38" s="56"/>
@@ -5031,74 +5031,74 @@
       <c r="O38" s="51"/>
       <c r="P38" s="51"/>
       <c r="Q38" s="51"/>
-      <c r="R38" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="188"/>
+      <c r="R38" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="151"/>
       <c r="T38" s="57">
         <v>0</v>
       </c>
-      <c r="U38" s="204"/>
+      <c r="U38" s="108"/>
     </row>
     <row r="39" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="136"/>
-      <c r="B39" s="200"/>
+      <c r="A39" s="173"/>
+      <c r="B39" s="166"/>
       <c r="C39" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="197" t="s">
+      <c r="D39" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="198"/>
-      <c r="F39" s="198"/>
-      <c r="G39" s="198"/>
-      <c r="H39" s="198"/>
-      <c r="I39" s="198"/>
-      <c r="J39" s="198"/>
-      <c r="K39" s="201"/>
-      <c r="L39" s="202"/>
-      <c r="M39" s="202"/>
-      <c r="N39" s="202"/>
-      <c r="O39" s="202"/>
-      <c r="P39" s="202"/>
-      <c r="Q39" s="203"/>
-      <c r="R39" s="189" t="s">
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="164"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="164"/>
+      <c r="K39" s="167"/>
+      <c r="L39" s="168"/>
+      <c r="M39" s="168"/>
+      <c r="N39" s="168"/>
+      <c r="O39" s="168"/>
+      <c r="P39" s="168"/>
+      <c r="Q39" s="169"/>
+      <c r="R39" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="S39" s="190"/>
+      <c r="S39" s="153"/>
       <c r="T39" s="58">
         <f>T36+T37+T38</f>
         <v>4449.7599999999993</v>
       </c>
-      <c r="U39" s="204"/>
+      <c r="U39" s="108"/>
     </row>
     <row r="40" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="136"/>
-      <c r="B40" s="163" t="s">
+      <c r="A40" s="173"/>
+      <c r="B40" s="194" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="164"/>
-      <c r="D40" s="165"/>
-      <c r="E40" s="166"/>
-      <c r="F40" s="166"/>
-      <c r="G40" s="166"/>
-      <c r="H40" s="166"/>
-      <c r="I40" s="166"/>
-      <c r="J40" s="166"/>
-      <c r="K40" s="166"/>
-      <c r="L40" s="166"/>
-      <c r="M40" s="166"/>
-      <c r="N40" s="166"/>
-      <c r="O40" s="166"/>
-      <c r="P40" s="166"/>
-      <c r="Q40" s="166"/>
-      <c r="R40" s="166"/>
-      <c r="S40" s="167"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="196"/>
+      <c r="E40" s="197"/>
+      <c r="F40" s="197"/>
+      <c r="G40" s="197"/>
+      <c r="H40" s="197"/>
+      <c r="I40" s="197"/>
+      <c r="J40" s="197"/>
+      <c r="K40" s="197"/>
+      <c r="L40" s="197"/>
+      <c r="M40" s="197"/>
+      <c r="N40" s="197"/>
+      <c r="O40" s="197"/>
+      <c r="P40" s="197"/>
+      <c r="Q40" s="197"/>
+      <c r="R40" s="197"/>
+      <c r="S40" s="198"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="204"/>
+      <c r="U40" s="108"/>
     </row>
     <row r="41" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="136"/>
+      <c r="A41" s="173"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="20"/>
@@ -5118,114 +5118,156 @@
       <c r="R41" s="20"/>
       <c r="S41" s="20"/>
       <c r="T41" s="21"/>
-      <c r="U41" s="204"/>
+      <c r="U41" s="108"/>
     </row>
     <row r="42" spans="1:21" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="136"/>
-      <c r="B42" s="157" t="s">
+      <c r="A42" s="173"/>
+      <c r="B42" s="188" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="158"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="158"/>
-      <c r="J42" s="158"/>
-      <c r="K42" s="158"/>
-      <c r="L42" s="158"/>
-      <c r="M42" s="158"/>
-      <c r="N42" s="158"/>
-      <c r="O42" s="158"/>
-      <c r="P42" s="158"/>
-      <c r="Q42" s="158"/>
-      <c r="R42" s="158"/>
-      <c r="S42" s="158"/>
-      <c r="T42" s="159"/>
-      <c r="U42" s="204"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="189"/>
+      <c r="G42" s="189"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="189"/>
+      <c r="J42" s="189"/>
+      <c r="K42" s="189"/>
+      <c r="L42" s="189"/>
+      <c r="M42" s="189"/>
+      <c r="N42" s="189"/>
+      <c r="O42" s="189"/>
+      <c r="P42" s="189"/>
+      <c r="Q42" s="189"/>
+      <c r="R42" s="189"/>
+      <c r="S42" s="189"/>
+      <c r="T42" s="190"/>
+      <c r="U42" s="108"/>
     </row>
     <row r="43" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="137"/>
-      <c r="B43" s="205" t="s">
+      <c r="A43" s="174"/>
+      <c r="B43" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="206"/>
-      <c r="D43" s="207"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
-      <c r="N43" s="151"/>
-      <c r="O43" s="151"/>
-      <c r="P43" s="151"/>
-      <c r="Q43" s="151"/>
-      <c r="R43" s="151"/>
-      <c r="S43" s="151"/>
-      <c r="T43" s="152"/>
-      <c r="U43" s="204"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="160"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="161"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="161"/>
+      <c r="J43" s="161"/>
+      <c r="K43" s="161"/>
+      <c r="L43" s="161"/>
+      <c r="M43" s="161"/>
+      <c r="N43" s="161"/>
+      <c r="O43" s="161"/>
+      <c r="P43" s="161"/>
+      <c r="Q43" s="161"/>
+      <c r="R43" s="161"/>
+      <c r="S43" s="161"/>
+      <c r="T43" s="162"/>
+      <c r="U43" s="108"/>
     </row>
     <row r="44" spans="1:21" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
-      <c r="B44" s="205" t="s">
+      <c r="B44" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="206"/>
-      <c r="D44" s="206"/>
-      <c r="E44" s="150"/>
-      <c r="F44" s="151"/>
-      <c r="G44" s="151"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="151"/>
-      <c r="K44" s="151"/>
-      <c r="L44" s="151"/>
-      <c r="M44" s="151"/>
-      <c r="N44" s="151"/>
-      <c r="O44" s="151"/>
-      <c r="P44" s="151"/>
-      <c r="Q44" s="151"/>
-      <c r="R44" s="151"/>
-      <c r="S44" s="151"/>
-      <c r="T44" s="152"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="160"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="161"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="161"/>
+      <c r="J44" s="161"/>
+      <c r="K44" s="161"/>
+      <c r="L44" s="161"/>
+      <c r="M44" s="161"/>
+      <c r="N44" s="161"/>
+      <c r="O44" s="161"/>
+      <c r="P44" s="161"/>
+      <c r="Q44" s="161"/>
+      <c r="R44" s="161"/>
+      <c r="S44" s="161"/>
+      <c r="T44" s="162"/>
       <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="170"/>
-      <c r="B45" s="171"/>
-      <c r="C45" s="171"/>
-      <c r="D45" s="171"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="171"/>
-      <c r="G45" s="171"/>
-      <c r="H45" s="171"/>
-      <c r="I45" s="171"/>
-      <c r="J45" s="171"/>
-      <c r="K45" s="171"/>
-      <c r="L45" s="171"/>
-      <c r="M45" s="171"/>
-      <c r="N45" s="171"/>
-      <c r="O45" s="171"/>
-      <c r="P45" s="171"/>
-      <c r="Q45" s="171"/>
-      <c r="R45" s="171"/>
-      <c r="S45" s="171"/>
-      <c r="T45" s="171"/>
-      <c r="U45" s="172"/>
+      <c r="A45" s="132"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="133"/>
+      <c r="M45" s="133"/>
+      <c r="N45" s="133"/>
+      <c r="O45" s="133"/>
+      <c r="P45" s="133"/>
+      <c r="Q45" s="133"/>
+      <c r="R45" s="133"/>
+      <c r="S45" s="133"/>
+      <c r="T45" s="133"/>
+      <c r="U45" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B16:T16"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="B18:T18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B42:T42"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:S40"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B15:T15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="E44:T44"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="K39:Q39"/>
     <mergeCell ref="U2:U43"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
@@ -5242,54 +5284,12 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="L21:O21"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B15:T15"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="E44:T44"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B16:T16"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="B18:T18"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B42:T42"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:S40"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="P11:R11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
+++ b/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EC16\Documents\SOSQTP\Documentos de Venta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11B8721-A46B-4303-9EF6-8F08A6E7DA87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4ADFFB-1F30-4C8B-9158-217F0FBF8E3C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -999,25 +999,25 @@
     <t>Marisol Ornelas Casillas</t>
   </si>
   <si>
-    <t>NOMINA  ANUAL</t>
-  </si>
-  <si>
-    <t>P3679</t>
-  </si>
-  <si>
-    <t>168C</t>
-  </si>
-  <si>
-    <t>63A2</t>
-  </si>
-  <si>
-    <t>F46A</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>F7BD</t>
+    <t>P3698</t>
+  </si>
+  <si>
+    <t>FACT ELECTRONICA ANUAL</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9E3D</t>
+  </si>
+  <si>
+    <t>C372</t>
+  </si>
+  <si>
+    <t>45E9</t>
+  </si>
+  <si>
+    <t>FB83</t>
   </si>
 </sst>
 </file>
@@ -2918,117 +2918,234 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3069,14 +3186,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3093,7 +3207,7 @@
     <xf numFmtId="0" fontId="94" fillId="5" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3108,15 +3222,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3138,210 +3243,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3749,8 +3749,8 @@
   </sheetPr>
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3781,32 +3781,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="133" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="172"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="135"/>
     </row>
     <row r="2" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="173"/>
+      <c r="A2" s="136"/>
       <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
@@ -3819,21 +3819,21 @@
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
-      <c r="L2" s="204" t="s">
+      <c r="L2" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="205"/>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="205"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="108"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="204"/>
     </row>
     <row r="3" spans="1:21" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="173"/>
+      <c r="A3" s="136"/>
       <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
@@ -3846,297 +3846,297 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
-      <c r="L3" s="207" t="s">
+      <c r="L3" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="207"/>
-      <c r="N3" s="207"/>
-      <c r="O3" s="207"/>
-      <c r="P3" s="207"/>
-      <c r="Q3" s="207"/>
-      <c r="R3" s="207"/>
-      <c r="S3" s="207"/>
-      <c r="T3" s="208"/>
-      <c r="U3" s="108"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="204"/>
     </row>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="173"/>
-      <c r="B4" s="201" t="s">
+      <c r="A4" s="136"/>
+      <c r="B4" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
-      <c r="S4" s="202"/>
-      <c r="T4" s="203"/>
-      <c r="U4" s="108"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="204"/>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="173"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="135" t="s">
+      <c r="A5" s="136"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="215"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="215"/>
+      <c r="I5" s="215"/>
+      <c r="J5" s="215"/>
+      <c r="K5" s="215"/>
+      <c r="L5" s="215"/>
+      <c r="M5" s="215"/>
+      <c r="N5" s="215"/>
+      <c r="O5" s="215"/>
+      <c r="P5" s="215"/>
+      <c r="Q5" s="215"/>
+      <c r="R5" s="173" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="136"/>
+      <c r="S5" s="174"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="108"/>
+      <c r="U5" s="204"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="173"/>
-      <c r="B6" s="112" t="s">
+      <c r="A6" s="136"/>
+      <c r="B6" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="103" t="s">
+      <c r="C6" s="209"/>
+      <c r="D6" s="234" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="235"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="235"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="235"/>
+      <c r="M6" s="235"/>
+      <c r="N6" s="235"/>
+      <c r="O6" s="235"/>
+      <c r="P6" s="235"/>
+      <c r="Q6" s="235"/>
       <c r="R6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="99" t="s">
+      <c r="S6" s="230" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="100"/>
-      <c r="U6" s="108"/>
+      <c r="T6" s="231"/>
+      <c r="U6" s="204"/>
     </row>
     <row r="7" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="173"/>
-      <c r="B7" s="112" t="s">
+      <c r="A7" s="136"/>
+      <c r="B7" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114" t="s">
+      <c r="C7" s="209"/>
+      <c r="D7" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
       <c r="R7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="101" t="s">
+      <c r="S7" s="232" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="102"/>
-      <c r="U7" s="108"/>
+      <c r="T7" s="233"/>
+      <c r="U7" s="204"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="173"/>
-      <c r="B8" s="112" t="s">
+      <c r="A8" s="136"/>
+      <c r="B8" s="208" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="231" t="s">
+      <c r="C8" s="209"/>
+      <c r="D8" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="147"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="154" t="s">
+      <c r="K8" s="191" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="156"/>
-      <c r="U8" s="108"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="192"/>
+      <c r="R8" s="192"/>
+      <c r="S8" s="192"/>
+      <c r="T8" s="193"/>
+      <c r="U8" s="204"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="173"/>
-      <c r="B9" s="112" t="s">
+      <c r="A9" s="136"/>
+      <c r="B9" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="114" t="s">
+      <c r="C9" s="209"/>
+      <c r="D9" s="185" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="115"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="210"/>
+      <c r="K9" s="210"/>
+      <c r="L9" s="210"/>
+      <c r="M9" s="210"/>
+      <c r="N9" s="210"/>
+      <c r="O9" s="210"/>
+      <c r="P9" s="210"/>
       <c r="Q9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="118" t="s">
+      <c r="R9" s="211" t="s">
         <v>105</v>
       </c>
-      <c r="S9" s="119"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="108"/>
+      <c r="S9" s="212"/>
+      <c r="T9" s="213"/>
+      <c r="U9" s="204"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="173"/>
-      <c r="B10" s="112" t="s">
+      <c r="A10" s="136"/>
+      <c r="B10" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="232" t="s">
+      <c r="C10" s="209"/>
+      <c r="D10" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="232"/>
-      <c r="F10" s="233"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="233"/>
-      <c r="I10" s="233"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="157" t="s">
+      <c r="K10" s="194" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="158"/>
-      <c r="Q10" s="158"/>
-      <c r="R10" s="158"/>
-      <c r="S10" s="158"/>
-      <c r="T10" s="159"/>
-      <c r="U10" s="108"/>
+      <c r="L10" s="195"/>
+      <c r="M10" s="195"/>
+      <c r="N10" s="195"/>
+      <c r="O10" s="195"/>
+      <c r="P10" s="195"/>
+      <c r="Q10" s="195"/>
+      <c r="R10" s="195"/>
+      <c r="S10" s="195"/>
+      <c r="T10" s="196"/>
+      <c r="U10" s="204"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="173"/>
-      <c r="B11" s="93" t="s">
+      <c r="A11" s="136"/>
+      <c r="B11" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="236" t="s">
+      <c r="C11" s="225"/>
+      <c r="D11" s="225"/>
+      <c r="E11" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="237"/>
-      <c r="G11" s="237"/>
-      <c r="H11" s="237"/>
-      <c r="I11" s="237"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="237"/>
-      <c r="M11" s="237"/>
-      <c r="N11" s="237"/>
-      <c r="O11" s="238"/>
-      <c r="P11" s="105" t="s">
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="127" t="s">
+      <c r="Q11" s="237"/>
+      <c r="R11" s="238"/>
+      <c r="S11" s="220" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="128"/>
-      <c r="U11" s="108"/>
+      <c r="T11" s="221"/>
+      <c r="U11" s="204"/>
     </row>
     <row r="12" spans="1:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="173"/>
-      <c r="B12" s="95" t="s">
+      <c r="A12" s="136"/>
+      <c r="B12" s="226" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="108"/>
+      <c r="C12" s="227"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="228"/>
+      <c r="F12" s="228"/>
+      <c r="G12" s="228"/>
+      <c r="H12" s="228"/>
+      <c r="I12" s="228"/>
+      <c r="J12" s="228"/>
+      <c r="K12" s="228"/>
+      <c r="L12" s="228"/>
+      <c r="M12" s="228"/>
+      <c r="N12" s="228"/>
+      <c r="O12" s="228"/>
+      <c r="P12" s="228"/>
+      <c r="Q12" s="228"/>
+      <c r="R12" s="228"/>
+      <c r="S12" s="228"/>
+      <c r="T12" s="229"/>
+      <c r="U12" s="204"/>
     </row>
     <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="173"/>
-      <c r="B13" s="219" t="s">
+      <c r="A13" s="136"/>
+      <c r="B13" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="220"/>
-      <c r="D13" s="220"/>
-      <c r="E13" s="220"/>
-      <c r="F13" s="220"/>
-      <c r="G13" s="220"/>
-      <c r="H13" s="220"/>
-      <c r="I13" s="220"/>
-      <c r="J13" s="220"/>
-      <c r="K13" s="220"/>
-      <c r="L13" s="220"/>
-      <c r="M13" s="220"/>
-      <c r="N13" s="220"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
       <c r="O13" s="74" t="s">
         <v>0</v>
       </c>
@@ -4144,165 +4144,165 @@
         <v>0</v>
       </c>
       <c r="Q13" s="75"/>
-      <c r="R13" s="141" t="s">
+      <c r="R13" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="141"/>
+      <c r="S13" s="179"/>
       <c r="T13" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="U13" s="108"/>
+        <v>108</v>
+      </c>
+      <c r="U13" s="204"/>
     </row>
     <row r="14" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="173"/>
-      <c r="B14" s="144" t="s">
+      <c r="A14" s="136"/>
+      <c r="B14" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="145"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="123" t="s">
+      <c r="C14" s="183"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="216" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="124"/>
-      <c r="Q14" s="124"/>
+      <c r="F14" s="216"/>
+      <c r="G14" s="216"/>
+      <c r="H14" s="216"/>
+      <c r="I14" s="216"/>
+      <c r="J14" s="217"/>
+      <c r="K14" s="217"/>
+      <c r="L14" s="217"/>
+      <c r="M14" s="217"/>
+      <c r="N14" s="217"/>
+      <c r="O14" s="217"/>
+      <c r="P14" s="217"/>
+      <c r="Q14" s="217"/>
       <c r="R14" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="142">
+      <c r="S14" s="180">
         <f ca="1">TODAY()</f>
-        <v>43538</v>
-      </c>
-      <c r="T14" s="143"/>
-      <c r="U14" s="108"/>
+        <v>43544</v>
+      </c>
+      <c r="T14" s="181"/>
+      <c r="U14" s="204"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="173"/>
-      <c r="B15" s="137" t="s">
+      <c r="A15" s="136"/>
+      <c r="B15" s="175" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="138"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="139"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="139"/>
-      <c r="T15" s="140"/>
-      <c r="U15" s="108"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="178"/>
+      <c r="U15" s="204"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="173"/>
-      <c r="B16" s="176" t="s">
+      <c r="A16" s="136"/>
+      <c r="B16" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="177"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="177"/>
-      <c r="M16" s="177"/>
-      <c r="N16" s="177"/>
-      <c r="O16" s="177"/>
-      <c r="P16" s="177"/>
-      <c r="Q16" s="177"/>
-      <c r="R16" s="177"/>
-      <c r="S16" s="177"/>
-      <c r="T16" s="178"/>
-      <c r="U16" s="108"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="141"/>
+      <c r="N16" s="141"/>
+      <c r="O16" s="141"/>
+      <c r="P16" s="141"/>
+      <c r="Q16" s="141"/>
+      <c r="R16" s="141"/>
+      <c r="S16" s="141"/>
+      <c r="T16" s="142"/>
+      <c r="U16" s="204"/>
     </row>
     <row r="17" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="173"/>
-      <c r="B17" s="179" t="s">
+      <c r="A17" s="136"/>
+      <c r="B17" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="180"/>
-      <c r="P17" s="180"/>
-      <c r="Q17" s="180"/>
-      <c r="R17" s="180"/>
-      <c r="S17" s="180"/>
-      <c r="T17" s="181"/>
-      <c r="U17" s="108"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="144"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="144"/>
+      <c r="S17" s="144"/>
+      <c r="T17" s="145"/>
+      <c r="U17" s="204"/>
     </row>
     <row r="18" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="173"/>
-      <c r="B18" s="182" t="s">
+      <c r="A18" s="136"/>
+      <c r="B18" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="184"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="184"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="184"/>
-      <c r="K18" s="184"/>
-      <c r="L18" s="184"/>
-      <c r="M18" s="184"/>
-      <c r="N18" s="184"/>
-      <c r="O18" s="184"/>
-      <c r="P18" s="184"/>
-      <c r="Q18" s="184"/>
-      <c r="R18" s="184"/>
-      <c r="S18" s="184"/>
-      <c r="T18" s="185"/>
-      <c r="U18" s="108"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="148"/>
+      <c r="S18" s="148"/>
+      <c r="T18" s="149"/>
+      <c r="U18" s="204"/>
     </row>
     <row r="19" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="173"/>
-      <c r="B19" s="223" t="s">
+      <c r="A19" s="136"/>
+      <c r="B19" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="224"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="224"/>
-      <c r="F19" s="224"/>
-      <c r="G19" s="224"/>
-      <c r="H19" s="224"/>
-      <c r="I19" s="224"/>
-      <c r="J19" s="224"/>
-      <c r="K19" s="224"/>
-      <c r="L19" s="224"/>
-      <c r="M19" s="224"/>
-      <c r="N19" s="224"/>
-      <c r="O19" s="225"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="117"/>
       <c r="P19" s="10" t="s">
         <v>31</v>
       </c>
@@ -4310,30 +4310,30 @@
       <c r="R19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="125" t="s">
+      <c r="S19" s="218" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="126"/>
-      <c r="U19" s="108"/>
+      <c r="T19" s="219"/>
+      <c r="U19" s="204"/>
     </row>
     <row r="20" spans="1:21" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="173"/>
-      <c r="B20" s="226" t="s">
+      <c r="A20" s="136"/>
+      <c r="B20" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="227"/>
-      <c r="D20" s="228"/>
-      <c r="E20" s="227"/>
-      <c r="F20" s="227"/>
-      <c r="G20" s="227"/>
-      <c r="H20" s="227"/>
-      <c r="I20" s="227"/>
-      <c r="J20" s="227"/>
-      <c r="K20" s="227"/>
-      <c r="L20" s="227"/>
-      <c r="M20" s="229"/>
-      <c r="N20" s="229"/>
-      <c r="O20" s="230"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="122"/>
       <c r="P20" s="64"/>
       <c r="Q20" s="16" t="s">
         <v>35</v>
@@ -4343,10 +4343,10 @@
         <v>36</v>
       </c>
       <c r="T20" s="66"/>
-      <c r="U20" s="108"/>
+      <c r="U20" s="204"/>
     </row>
     <row r="21" spans="1:21" ht="81.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="173"/>
+      <c r="A21" s="136"/>
       <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
@@ -4371,37 +4371,37 @@
       <c r="I21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="215" t="s">
+      <c r="J21" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="217" t="s">
+      <c r="K21" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="129" t="s">
+      <c r="L21" s="222" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="130"/>
-      <c r="N21" s="130"/>
-      <c r="O21" s="130"/>
-      <c r="P21" s="209" t="s">
+      <c r="M21" s="223"/>
+      <c r="N21" s="223"/>
+      <c r="O21" s="223"/>
+      <c r="P21" s="101" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="R21" s="211" t="s">
+      <c r="R21" s="103" t="s">
         <v>64</v>
       </c>
       <c r="S21" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="T21" s="213" t="s">
+      <c r="T21" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="U21" s="108"/>
+      <c r="U21" s="204"/>
     </row>
     <row r="22" spans="1:21" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="173"/>
+      <c r="A22" s="136"/>
       <c r="B22" s="34" t="s">
         <v>72</v>
       </c>
@@ -4414,37 +4414,37 @@
       <c r="E22" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="234" t="s">
+      <c r="F22" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="235"/>
+      <c r="G22" s="129"/>
       <c r="H22" s="37" t="s">
         <v>75</v>
       </c>
       <c r="I22" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="216"/>
-      <c r="K22" s="218"/>
-      <c r="L22" s="221" t="s">
+      <c r="J22" s="108"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="M22" s="222"/>
-      <c r="N22" s="222"/>
-      <c r="O22" s="222"/>
-      <c r="P22" s="210"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="102"/>
       <c r="Q22" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="R22" s="212"/>
+      <c r="R22" s="104"/>
       <c r="S22" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="T22" s="214"/>
-      <c r="U22" s="108"/>
-    </row>
-    <row r="23" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A23" s="173"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="204"/>
+    </row>
+    <row r="23" spans="1:21" ht="36" x14ac:dyDescent="0.2">
+      <c r="A23" s="136"/>
       <c r="B23" s="68">
         <v>1</v>
       </c>
@@ -4452,58 +4452,58 @@
         <v>47</v>
       </c>
       <c r="D23" s="88" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E23" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="39" t="s">
-        <v>26</v>
+      <c r="F23" s="39">
+        <v>1</v>
+      </c>
+      <c r="G23" s="39">
+        <v>1</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J23" s="39"/>
       <c r="K23" s="40" t="s">
         <v>27</v>
       </c>
       <c r="L23" s="79" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M23" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="N23" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="O23" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="N23" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="O23" s="80" t="s">
-        <v>112</v>
-      </c>
       <c r="P23" s="43">
-        <v>5480</v>
+        <v>1890</v>
       </c>
       <c r="Q23" s="70"/>
       <c r="R23" s="41">
         <f t="shared" ref="R23:R32" si="0">(P23*B23)*(1-Q23)</f>
-        <v>5480</v>
+        <v>1890</v>
       </c>
       <c r="S23" s="72">
         <v>0.3</v>
       </c>
       <c r="T23" s="42">
         <f>R23*(1-S23)</f>
-        <v>3835.9999999999995</v>
-      </c>
-      <c r="U23" s="108"/>
+        <v>1323</v>
+      </c>
+      <c r="U23" s="204"/>
     </row>
     <row r="24" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A24" s="173"/>
+      <c r="A24" s="136"/>
       <c r="B24" s="68"/>
       <c r="C24" s="87"/>
       <c r="D24" s="88"/>
@@ -4533,10 +4533,10 @@
         <f t="shared" ref="T24:T32" si="1">R24*(1-S24)</f>
         <v>0</v>
       </c>
-      <c r="U24" s="108"/>
+      <c r="U24" s="204"/>
     </row>
     <row r="25" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A25" s="173"/>
+      <c r="A25" s="136"/>
       <c r="B25" s="68">
         <v>1</v>
       </c>
@@ -4570,10 +4570,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U25" s="108"/>
+      <c r="U25" s="204"/>
     </row>
     <row r="26" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A26" s="173"/>
+      <c r="A26" s="136"/>
       <c r="B26" s="68">
         <v>0</v>
       </c>
@@ -4609,10 +4609,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U26" s="108"/>
+      <c r="U26" s="204"/>
     </row>
     <row r="27" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A27" s="173"/>
+      <c r="A27" s="136"/>
       <c r="B27" s="68">
         <v>0</v>
       </c>
@@ -4648,10 +4648,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U27" s="108"/>
+      <c r="U27" s="204"/>
     </row>
     <row r="28" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A28" s="173"/>
+      <c r="A28" s="136"/>
       <c r="B28" s="68">
         <v>0</v>
       </c>
@@ -4687,10 +4687,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28" s="108"/>
+      <c r="U28" s="204"/>
     </row>
     <row r="29" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A29" s="173"/>
+      <c r="A29" s="136"/>
       <c r="B29" s="68">
         <v>0</v>
       </c>
@@ -4724,10 +4724,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U29" s="108"/>
+      <c r="U29" s="204"/>
     </row>
     <row r="30" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A30" s="173"/>
+      <c r="A30" s="136"/>
       <c r="B30" s="68">
         <v>0</v>
       </c>
@@ -4761,10 +4761,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U30" s="108"/>
+      <c r="U30" s="204"/>
     </row>
     <row r="31" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A31" s="173"/>
+      <c r="A31" s="136"/>
       <c r="B31" s="68">
         <v>0</v>
       </c>
@@ -4800,10 +4800,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U31" s="108"/>
+      <c r="U31" s="204"/>
     </row>
     <row r="32" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="173"/>
+      <c r="A32" s="136"/>
       <c r="B32" s="69">
         <v>0</v>
       </c>
@@ -4839,16 +4839,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="108"/>
+      <c r="U32" s="204"/>
     </row>
     <row r="33" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="173"/>
+      <c r="A33" s="136"/>
       <c r="B33" s="44">
         <v>0</v>
       </c>
       <c r="C33" s="45"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="175"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="139"/>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
@@ -4871,16 +4871,16 @@
         <f>(R33-(R33*S33))*B33</f>
         <v>0</v>
       </c>
-      <c r="U33" s="108"/>
+      <c r="U33" s="204"/>
     </row>
     <row r="34" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="173"/>
+      <c r="A34" s="136"/>
       <c r="B34" s="44">
         <v>0</v>
       </c>
       <c r="C34" s="45"/>
-      <c r="D34" s="131"/>
-      <c r="E34" s="131"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
       <c r="H34" s="39"/>
@@ -4903,16 +4903,16 @@
         <f>(R34-(R34*S34))*B34</f>
         <v>0</v>
       </c>
-      <c r="U34" s="108"/>
+      <c r="U34" s="204"/>
     </row>
     <row r="35" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="173"/>
+      <c r="A35" s="136"/>
       <c r="B35" s="44">
         <v>0</v>
       </c>
       <c r="C35" s="45"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="131"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="138"/>
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
@@ -4935,87 +4935,87 @@
         <f>(R35-(R35*S35))*B35</f>
         <v>0</v>
       </c>
-      <c r="U35" s="108"/>
+      <c r="U35" s="204"/>
     </row>
     <row r="36" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="173"/>
-      <c r="B36" s="186" t="s">
+      <c r="A36" s="136"/>
+      <c r="B36" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="187"/>
-      <c r="D36" s="187"/>
-      <c r="E36" s="187"/>
-      <c r="F36" s="187"/>
-      <c r="G36" s="187"/>
-      <c r="H36" s="187"/>
-      <c r="I36" s="187"/>
-      <c r="J36" s="187"/>
-      <c r="K36" s="187"/>
-      <c r="L36" s="191" t="s">
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="156"/>
+      <c r="K36" s="156"/>
+      <c r="L36" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="191"/>
-      <c r="N36" s="191"/>
-      <c r="O36" s="191"/>
+      <c r="M36" s="160"/>
+      <c r="N36" s="160"/>
+      <c r="O36" s="160"/>
       <c r="P36" s="50">
         <f>SUM(P23:P32)</f>
-        <v>5480</v>
+        <v>1890</v>
       </c>
       <c r="Q36" s="51"/>
-      <c r="R36" s="148" t="s">
+      <c r="R36" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="S36" s="149"/>
+      <c r="S36" s="154"/>
       <c r="T36" s="52">
         <f>SUM(T23:T35)</f>
-        <v>3835.9999999999995</v>
-      </c>
-      <c r="U36" s="108"/>
+        <v>1323</v>
+      </c>
+      <c r="U36" s="204"/>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="173"/>
-      <c r="B37" s="165" t="s">
+      <c r="A37" s="136"/>
+      <c r="B37" s="199" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="199" t="s">
+      <c r="D37" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="200"/>
-      <c r="F37" s="200"/>
-      <c r="G37" s="200"/>
-      <c r="H37" s="200"/>
-      <c r="I37" s="200"/>
-      <c r="J37" s="192" t="s">
+      <c r="E37" s="169"/>
+      <c r="F37" s="169"/>
+      <c r="G37" s="169"/>
+      <c r="H37" s="169"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="193"/>
-      <c r="L37" s="193"/>
-      <c r="M37" s="193"/>
-      <c r="N37" s="193"/>
-      <c r="O37" s="193"/>
+      <c r="K37" s="162"/>
+      <c r="L37" s="162"/>
+      <c r="M37" s="162"/>
+      <c r="N37" s="162"/>
+      <c r="O37" s="162"/>
       <c r="P37" s="54">
         <f>SUM(R23:R32)</f>
-        <v>5480</v>
+        <v>1890</v>
       </c>
       <c r="Q37" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="148" t="s">
+      <c r="R37" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="S37" s="149"/>
+      <c r="S37" s="154"/>
       <c r="T37" s="55">
         <f>T36*0.16</f>
-        <v>613.76</v>
-      </c>
-      <c r="U37" s="108"/>
+        <v>211.68</v>
+      </c>
+      <c r="U37" s="204"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="173"/>
-      <c r="B38" s="166"/>
+      <c r="A38" s="136"/>
+      <c r="B38" s="200"/>
       <c r="C38" s="56"/>
       <c r="D38" s="56"/>
       <c r="E38" s="56"/>
@@ -5031,74 +5031,74 @@
       <c r="O38" s="51"/>
       <c r="P38" s="51"/>
       <c r="Q38" s="51"/>
-      <c r="R38" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="151"/>
+      <c r="R38" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="188"/>
       <c r="T38" s="57">
         <v>0</v>
       </c>
-      <c r="U38" s="108"/>
+      <c r="U38" s="204"/>
     </row>
     <row r="39" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="173"/>
-      <c r="B39" s="166"/>
+      <c r="A39" s="136"/>
+      <c r="B39" s="200"/>
       <c r="C39" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="163" t="s">
+      <c r="D39" s="197" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="164"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="164"/>
-      <c r="K39" s="167"/>
-      <c r="L39" s="168"/>
-      <c r="M39" s="168"/>
-      <c r="N39" s="168"/>
-      <c r="O39" s="168"/>
-      <c r="P39" s="168"/>
-      <c r="Q39" s="169"/>
-      <c r="R39" s="152" t="s">
+      <c r="E39" s="198"/>
+      <c r="F39" s="198"/>
+      <c r="G39" s="198"/>
+      <c r="H39" s="198"/>
+      <c r="I39" s="198"/>
+      <c r="J39" s="198"/>
+      <c r="K39" s="201"/>
+      <c r="L39" s="202"/>
+      <c r="M39" s="202"/>
+      <c r="N39" s="202"/>
+      <c r="O39" s="202"/>
+      <c r="P39" s="202"/>
+      <c r="Q39" s="203"/>
+      <c r="R39" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="S39" s="153"/>
+      <c r="S39" s="190"/>
       <c r="T39" s="58">
         <f>T36+T37+T38</f>
-        <v>4449.7599999999993</v>
-      </c>
-      <c r="U39" s="108"/>
+        <v>1534.68</v>
+      </c>
+      <c r="U39" s="204"/>
     </row>
     <row r="40" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="173"/>
-      <c r="B40" s="194" t="s">
+      <c r="A40" s="136"/>
+      <c r="B40" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="195"/>
-      <c r="D40" s="196"/>
-      <c r="E40" s="197"/>
-      <c r="F40" s="197"/>
-      <c r="G40" s="197"/>
-      <c r="H40" s="197"/>
-      <c r="I40" s="197"/>
-      <c r="J40" s="197"/>
-      <c r="K40" s="197"/>
-      <c r="L40" s="197"/>
-      <c r="M40" s="197"/>
-      <c r="N40" s="197"/>
-      <c r="O40" s="197"/>
-      <c r="P40" s="197"/>
-      <c r="Q40" s="197"/>
-      <c r="R40" s="197"/>
-      <c r="S40" s="198"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="166"/>
+      <c r="F40" s="166"/>
+      <c r="G40" s="166"/>
+      <c r="H40" s="166"/>
+      <c r="I40" s="166"/>
+      <c r="J40" s="166"/>
+      <c r="K40" s="166"/>
+      <c r="L40" s="166"/>
+      <c r="M40" s="166"/>
+      <c r="N40" s="166"/>
+      <c r="O40" s="166"/>
+      <c r="P40" s="166"/>
+      <c r="Q40" s="166"/>
+      <c r="R40" s="166"/>
+      <c r="S40" s="167"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="108"/>
+      <c r="U40" s="204"/>
     </row>
     <row r="41" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="173"/>
+      <c r="A41" s="136"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="20"/>
@@ -5118,108 +5118,162 @@
       <c r="R41" s="20"/>
       <c r="S41" s="20"/>
       <c r="T41" s="21"/>
-      <c r="U41" s="108"/>
+      <c r="U41" s="204"/>
     </row>
     <row r="42" spans="1:21" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="173"/>
-      <c r="B42" s="188" t="s">
+      <c r="A42" s="136"/>
+      <c r="B42" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="189"/>
-      <c r="D42" s="189"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="189"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="189"/>
-      <c r="J42" s="189"/>
-      <c r="K42" s="189"/>
-      <c r="L42" s="189"/>
-      <c r="M42" s="189"/>
-      <c r="N42" s="189"/>
-      <c r="O42" s="189"/>
-      <c r="P42" s="189"/>
-      <c r="Q42" s="189"/>
-      <c r="R42" s="189"/>
-      <c r="S42" s="189"/>
-      <c r="T42" s="190"/>
-      <c r="U42" s="108"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="158"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="158"/>
+      <c r="H42" s="158"/>
+      <c r="I42" s="158"/>
+      <c r="J42" s="158"/>
+      <c r="K42" s="158"/>
+      <c r="L42" s="158"/>
+      <c r="M42" s="158"/>
+      <c r="N42" s="158"/>
+      <c r="O42" s="158"/>
+      <c r="P42" s="158"/>
+      <c r="Q42" s="158"/>
+      <c r="R42" s="158"/>
+      <c r="S42" s="158"/>
+      <c r="T42" s="159"/>
+      <c r="U42" s="204"/>
     </row>
     <row r="43" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="174"/>
-      <c r="B43" s="109" t="s">
+      <c r="A43" s="137"/>
+      <c r="B43" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="110"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="160"/>
-      <c r="F43" s="161"/>
-      <c r="G43" s="161"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="161"/>
-      <c r="J43" s="161"/>
-      <c r="K43" s="161"/>
-      <c r="L43" s="161"/>
-      <c r="M43" s="161"/>
-      <c r="N43" s="161"/>
-      <c r="O43" s="161"/>
-      <c r="P43" s="161"/>
-      <c r="Q43" s="161"/>
-      <c r="R43" s="161"/>
-      <c r="S43" s="161"/>
-      <c r="T43" s="162"/>
-      <c r="U43" s="108"/>
+      <c r="C43" s="206"/>
+      <c r="D43" s="207"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="151"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="151"/>
+      <c r="N43" s="151"/>
+      <c r="O43" s="151"/>
+      <c r="P43" s="151"/>
+      <c r="Q43" s="151"/>
+      <c r="R43" s="151"/>
+      <c r="S43" s="151"/>
+      <c r="T43" s="152"/>
+      <c r="U43" s="204"/>
     </row>
     <row r="44" spans="1:21" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
-      <c r="B44" s="109" t="s">
+      <c r="B44" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="160"/>
-      <c r="F44" s="161"/>
-      <c r="G44" s="161"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="161"/>
-      <c r="J44" s="161"/>
-      <c r="K44" s="161"/>
-      <c r="L44" s="161"/>
-      <c r="M44" s="161"/>
-      <c r="N44" s="161"/>
-      <c r="O44" s="161"/>
-      <c r="P44" s="161"/>
-      <c r="Q44" s="161"/>
-      <c r="R44" s="161"/>
-      <c r="S44" s="161"/>
-      <c r="T44" s="162"/>
+      <c r="C44" s="206"/>
+      <c r="D44" s="206"/>
+      <c r="E44" s="150"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="151"/>
+      <c r="K44" s="151"/>
+      <c r="L44" s="151"/>
+      <c r="M44" s="151"/>
+      <c r="N44" s="151"/>
+      <c r="O44" s="151"/>
+      <c r="P44" s="151"/>
+      <c r="Q44" s="151"/>
+      <c r="R44" s="151"/>
+      <c r="S44" s="151"/>
+      <c r="T44" s="152"/>
       <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="132"/>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
-      <c r="L45" s="133"/>
-      <c r="M45" s="133"/>
-      <c r="N45" s="133"/>
-      <c r="O45" s="133"/>
-      <c r="P45" s="133"/>
-      <c r="Q45" s="133"/>
-      <c r="R45" s="133"/>
-      <c r="S45" s="133"/>
-      <c r="T45" s="133"/>
-      <c r="U45" s="134"/>
+      <c r="A45" s="170"/>
+      <c r="B45" s="171"/>
+      <c r="C45" s="171"/>
+      <c r="D45" s="171"/>
+      <c r="E45" s="171"/>
+      <c r="F45" s="171"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="171"/>
+      <c r="I45" s="171"/>
+      <c r="J45" s="171"/>
+      <c r="K45" s="171"/>
+      <c r="L45" s="171"/>
+      <c r="M45" s="171"/>
+      <c r="N45" s="171"/>
+      <c r="O45" s="171"/>
+      <c r="P45" s="171"/>
+      <c r="Q45" s="171"/>
+      <c r="R45" s="171"/>
+      <c r="S45" s="171"/>
+      <c r="T45" s="171"/>
+      <c r="U45" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="U2:U43"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B15:T15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="E44:T44"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B16:T16"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="B18:T18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B42:T42"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:S40"/>
+    <mergeCell ref="D37:I37"/>
     <mergeCell ref="B4:T4"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="L3:T3"/>
@@ -5236,60 +5290,6 @@
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="E11:O11"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B16:T16"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="B18:T18"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B42:T42"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:S40"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B15:T15"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="E44:T44"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="U2:U43"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="P11:R11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
+++ b/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EC16\Documents\SOSQTP\Documentos de Venta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4ADFFB-1F30-4C8B-9158-217F0FBF8E3C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5492496-BD3A-401A-ABE6-41153A839D2B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="116">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -999,25 +999,28 @@
     <t>Marisol Ornelas Casillas</t>
   </si>
   <si>
-    <t>P3698</t>
-  </si>
-  <si>
-    <t>FACT ELECTRONICA ANUAL</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>9E3D</t>
-  </si>
-  <si>
-    <t>C372</t>
-  </si>
-  <si>
-    <t>45E9</t>
-  </si>
-  <si>
-    <t>FB83</t>
+    <t>P3695</t>
+  </si>
+  <si>
+    <t>NOMINA  ANUAL</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>F3F4</t>
+  </si>
+  <si>
+    <t>2E0A</t>
+  </si>
+  <si>
+    <t>B480</t>
+  </si>
+  <si>
+    <t>BD61</t>
   </si>
 </sst>
 </file>
@@ -2918,234 +2921,117 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3186,11 +3072,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3207,7 +3096,7 @@
     <xf numFmtId="0" fontId="94" fillId="5" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3222,6 +3111,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3243,105 +3141,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3749,7 +3752,7 @@
   </sheetPr>
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
@@ -3781,32 +3784,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="170" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="135"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="172"/>
     </row>
     <row r="2" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="136"/>
+      <c r="A2" s="173"/>
       <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
@@ -3819,21 +3822,21 @@
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
-      <c r="L2" s="96" t="s">
+      <c r="L2" s="204" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="204"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="108"/>
     </row>
     <row r="3" spans="1:21" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="136"/>
+      <c r="A3" s="173"/>
       <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
@@ -3846,297 +3849,297 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
-      <c r="L3" s="99" t="s">
+      <c r="L3" s="207" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="204"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="208"/>
+      <c r="U3" s="108"/>
     </row>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="136"/>
-      <c r="B4" s="93" t="s">
+      <c r="A4" s="173"/>
+      <c r="B4" s="201" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="204"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
+      <c r="T4" s="203"/>
+      <c r="U4" s="108"/>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="136"/>
-      <c r="B5" s="214"/>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="215"/>
-      <c r="G5" s="215"/>
-      <c r="H5" s="215"/>
-      <c r="I5" s="215"/>
-      <c r="J5" s="215"/>
-      <c r="K5" s="215"/>
-      <c r="L5" s="215"/>
-      <c r="M5" s="215"/>
-      <c r="N5" s="215"/>
-      <c r="O5" s="215"/>
-      <c r="P5" s="215"/>
-      <c r="Q5" s="215"/>
-      <c r="R5" s="173" t="s">
+      <c r="A5" s="173"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="174"/>
+      <c r="S5" s="136"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="204"/>
+      <c r="U5" s="108"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="136"/>
-      <c r="B6" s="208" t="s">
+      <c r="A6" s="173"/>
+      <c r="B6" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="234" t="s">
+      <c r="C6" s="113"/>
+      <c r="D6" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="234"/>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="235"/>
-      <c r="I6" s="235"/>
-      <c r="J6" s="235"/>
-      <c r="K6" s="235"/>
-      <c r="L6" s="235"/>
-      <c r="M6" s="235"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="235"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="235"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
       <c r="R6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="230" t="s">
+      <c r="S6" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="231"/>
-      <c r="U6" s="204"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="108"/>
     </row>
     <row r="7" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="136"/>
-      <c r="B7" s="208" t="s">
+      <c r="A7" s="173"/>
+      <c r="B7" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="185" t="s">
+      <c r="C7" s="113"/>
+      <c r="D7" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="147"/>
       <c r="R7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="232" t="s">
+      <c r="S7" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="233"/>
-      <c r="U7" s="204"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="108"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="136"/>
-      <c r="B8" s="208" t="s">
+      <c r="A8" s="173"/>
+      <c r="B8" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="209"/>
-      <c r="D8" s="123" t="s">
+      <c r="C8" s="113"/>
+      <c r="D8" s="231" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="124"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="191" t="s">
+      <c r="K8" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="192"/>
-      <c r="R8" s="192"/>
-      <c r="S8" s="192"/>
-      <c r="T8" s="193"/>
-      <c r="U8" s="204"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="155"/>
+      <c r="O8" s="155"/>
+      <c r="P8" s="155"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="156"/>
+      <c r="U8" s="108"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="136"/>
-      <c r="B9" s="208" t="s">
+      <c r="A9" s="173"/>
+      <c r="B9" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="209"/>
-      <c r="D9" s="185" t="s">
+      <c r="C9" s="113"/>
+      <c r="D9" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="186"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="210"/>
-      <c r="K9" s="210"/>
-      <c r="L9" s="210"/>
-      <c r="M9" s="210"/>
-      <c r="N9" s="210"/>
-      <c r="O9" s="210"/>
-      <c r="P9" s="210"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
       <c r="Q9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="211" t="s">
+      <c r="R9" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="S9" s="212"/>
-      <c r="T9" s="213"/>
-      <c r="U9" s="204"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="108"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="136"/>
-      <c r="B10" s="208" t="s">
+      <c r="A10" s="173"/>
+      <c r="B10" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="209"/>
-      <c r="D10" s="126" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="232" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
+      <c r="E10" s="232"/>
+      <c r="F10" s="233"/>
+      <c r="G10" s="233"/>
+      <c r="H10" s="233"/>
+      <c r="I10" s="233"/>
       <c r="J10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="194" t="s">
+      <c r="K10" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="195"/>
-      <c r="M10" s="195"/>
-      <c r="N10" s="195"/>
-      <c r="O10" s="195"/>
-      <c r="P10" s="195"/>
-      <c r="Q10" s="195"/>
-      <c r="R10" s="195"/>
-      <c r="S10" s="195"/>
-      <c r="T10" s="196"/>
-      <c r="U10" s="204"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="158"/>
+      <c r="P10" s="158"/>
+      <c r="Q10" s="158"/>
+      <c r="R10" s="158"/>
+      <c r="S10" s="158"/>
+      <c r="T10" s="159"/>
+      <c r="U10" s="108"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="136"/>
-      <c r="B11" s="224" t="s">
+      <c r="A11" s="173"/>
+      <c r="B11" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="225"/>
-      <c r="D11" s="225"/>
-      <c r="E11" s="130" t="s">
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="236" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="236" t="s">
+      <c r="F11" s="237"/>
+      <c r="G11" s="237"/>
+      <c r="H11" s="237"/>
+      <c r="I11" s="237"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="237"/>
+      <c r="M11" s="237"/>
+      <c r="N11" s="237"/>
+      <c r="O11" s="238"/>
+      <c r="P11" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="237"/>
-      <c r="R11" s="238"/>
-      <c r="S11" s="220" t="s">
+      <c r="Q11" s="106"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="221"/>
-      <c r="U11" s="204"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="108"/>
     </row>
     <row r="12" spans="1:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="136"/>
-      <c r="B12" s="226" t="s">
+      <c r="A12" s="173"/>
+      <c r="B12" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="227"/>
-      <c r="D12" s="228"/>
-      <c r="E12" s="228"/>
-      <c r="F12" s="228"/>
-      <c r="G12" s="228"/>
-      <c r="H12" s="228"/>
-      <c r="I12" s="228"/>
-      <c r="J12" s="228"/>
-      <c r="K12" s="228"/>
-      <c r="L12" s="228"/>
-      <c r="M12" s="228"/>
-      <c r="N12" s="228"/>
-      <c r="O12" s="228"/>
-      <c r="P12" s="228"/>
-      <c r="Q12" s="228"/>
-      <c r="R12" s="228"/>
-      <c r="S12" s="228"/>
-      <c r="T12" s="229"/>
-      <c r="U12" s="204"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="108"/>
     </row>
     <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="136"/>
-      <c r="B13" s="111" t="s">
+      <c r="A13" s="173"/>
+      <c r="B13" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
+      <c r="C13" s="220"/>
+      <c r="D13" s="220"/>
+      <c r="E13" s="220"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="220"/>
+      <c r="H13" s="220"/>
+      <c r="I13" s="220"/>
+      <c r="J13" s="220"/>
+      <c r="K13" s="220"/>
+      <c r="L13" s="220"/>
+      <c r="M13" s="220"/>
+      <c r="N13" s="220"/>
       <c r="O13" s="74" t="s">
         <v>0</v>
       </c>
@@ -4144,165 +4147,165 @@
         <v>0</v>
       </c>
       <c r="Q13" s="75"/>
-      <c r="R13" s="179" t="s">
+      <c r="R13" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="179"/>
+      <c r="S13" s="141"/>
       <c r="T13" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="U13" s="204"/>
+        <v>109</v>
+      </c>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="136"/>
-      <c r="B14" s="182" t="s">
+      <c r="A14" s="173"/>
+      <c r="B14" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="216" t="s">
+      <c r="C14" s="145"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="216"/>
-      <c r="G14" s="216"/>
-      <c r="H14" s="216"/>
-      <c r="I14" s="216"/>
-      <c r="J14" s="217"/>
-      <c r="K14" s="217"/>
-      <c r="L14" s="217"/>
-      <c r="M14" s="217"/>
-      <c r="N14" s="217"/>
-      <c r="O14" s="217"/>
-      <c r="P14" s="217"/>
-      <c r="Q14" s="217"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="124"/>
       <c r="R14" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="180">
+      <c r="S14" s="142">
         <f ca="1">TODAY()</f>
-        <v>43544</v>
-      </c>
-      <c r="T14" s="181"/>
-      <c r="U14" s="204"/>
+        <v>43546</v>
+      </c>
+      <c r="T14" s="143"/>
+      <c r="U14" s="108"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="136"/>
-      <c r="B15" s="175" t="s">
+      <c r="A15" s="173"/>
+      <c r="B15" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="176"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="177"/>
-      <c r="L15" s="177"/>
-      <c r="M15" s="177"/>
-      <c r="N15" s="177"/>
-      <c r="O15" s="177"/>
-      <c r="P15" s="177"/>
-      <c r="Q15" s="177"/>
-      <c r="R15" s="177"/>
-      <c r="S15" s="177"/>
-      <c r="T15" s="178"/>
-      <c r="U15" s="204"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="139"/>
+      <c r="T15" s="140"/>
+      <c r="U15" s="108"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="136"/>
-      <c r="B16" s="140" t="s">
+      <c r="A16" s="173"/>
+      <c r="B16" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="141"/>
-      <c r="Q16" s="141"/>
-      <c r="R16" s="141"/>
-      <c r="S16" s="141"/>
-      <c r="T16" s="142"/>
-      <c r="U16" s="204"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="178"/>
+      <c r="U16" s="108"/>
     </row>
     <row r="17" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="136"/>
-      <c r="B17" s="143" t="s">
+      <c r="A17" s="173"/>
+      <c r="B17" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="144"/>
-      <c r="N17" s="144"/>
-      <c r="O17" s="144"/>
-      <c r="P17" s="144"/>
-      <c r="Q17" s="144"/>
-      <c r="R17" s="144"/>
-      <c r="S17" s="144"/>
-      <c r="T17" s="145"/>
-      <c r="U17" s="204"/>
+      <c r="C17" s="180"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="180"/>
+      <c r="P17" s="180"/>
+      <c r="Q17" s="180"/>
+      <c r="R17" s="180"/>
+      <c r="S17" s="180"/>
+      <c r="T17" s="181"/>
+      <c r="U17" s="108"/>
     </row>
     <row r="18" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="136"/>
-      <c r="B18" s="146" t="s">
+      <c r="A18" s="173"/>
+      <c r="B18" s="182" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="147"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="149"/>
-      <c r="U18" s="204"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="184"/>
+      <c r="K18" s="184"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="184"/>
+      <c r="N18" s="184"/>
+      <c r="O18" s="184"/>
+      <c r="P18" s="184"/>
+      <c r="Q18" s="184"/>
+      <c r="R18" s="184"/>
+      <c r="S18" s="184"/>
+      <c r="T18" s="185"/>
+      <c r="U18" s="108"/>
     </row>
     <row r="19" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="136"/>
-      <c r="B19" s="115" t="s">
+      <c r="A19" s="173"/>
+      <c r="B19" s="223" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="117"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+      <c r="I19" s="224"/>
+      <c r="J19" s="224"/>
+      <c r="K19" s="224"/>
+      <c r="L19" s="224"/>
+      <c r="M19" s="224"/>
+      <c r="N19" s="224"/>
+      <c r="O19" s="225"/>
       <c r="P19" s="10" t="s">
         <v>31</v>
       </c>
@@ -4310,30 +4313,30 @@
       <c r="R19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="218" t="s">
+      <c r="S19" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="219"/>
-      <c r="U19" s="204"/>
+      <c r="T19" s="126"/>
+      <c r="U19" s="108"/>
     </row>
     <row r="20" spans="1:21" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="136"/>
-      <c r="B20" s="118" t="s">
+      <c r="A20" s="173"/>
+      <c r="B20" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="119"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="122"/>
+      <c r="C20" s="227"/>
+      <c r="D20" s="228"/>
+      <c r="E20" s="227"/>
+      <c r="F20" s="227"/>
+      <c r="G20" s="227"/>
+      <c r="H20" s="227"/>
+      <c r="I20" s="227"/>
+      <c r="J20" s="227"/>
+      <c r="K20" s="227"/>
+      <c r="L20" s="227"/>
+      <c r="M20" s="229"/>
+      <c r="N20" s="229"/>
+      <c r="O20" s="230"/>
       <c r="P20" s="64"/>
       <c r="Q20" s="16" t="s">
         <v>35</v>
@@ -4343,10 +4346,10 @@
         <v>36</v>
       </c>
       <c r="T20" s="66"/>
-      <c r="U20" s="204"/>
+      <c r="U20" s="108"/>
     </row>
     <row r="21" spans="1:21" ht="81.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="136"/>
+      <c r="A21" s="173"/>
       <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
@@ -4371,37 +4374,37 @@
       <c r="I21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="107" t="s">
+      <c r="J21" s="215" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="109" t="s">
+      <c r="K21" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="222" t="s">
+      <c r="L21" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="223"/>
-      <c r="N21" s="223"/>
-      <c r="O21" s="223"/>
-      <c r="P21" s="101" t="s">
+      <c r="M21" s="130"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="209" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="R21" s="103" t="s">
+      <c r="R21" s="211" t="s">
         <v>64</v>
       </c>
       <c r="S21" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="T21" s="105" t="s">
+      <c r="T21" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="U21" s="204"/>
+      <c r="U21" s="108"/>
     </row>
     <row r="22" spans="1:21" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="136"/>
+      <c r="A22" s="173"/>
       <c r="B22" s="34" t="s">
         <v>72</v>
       </c>
@@ -4414,37 +4417,37 @@
       <c r="E22" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="128" t="s">
+      <c r="F22" s="234" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="129"/>
+      <c r="G22" s="235"/>
       <c r="H22" s="37" t="s">
         <v>75</v>
       </c>
       <c r="I22" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="108"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="113" t="s">
+      <c r="J22" s="216"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="221" t="s">
         <v>90</v>
       </c>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="102"/>
+      <c r="M22" s="222"/>
+      <c r="N22" s="222"/>
+      <c r="O22" s="222"/>
+      <c r="P22" s="210"/>
       <c r="Q22" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="R22" s="104"/>
+      <c r="R22" s="212"/>
       <c r="S22" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="T22" s="106"/>
-      <c r="U22" s="204"/>
-    </row>
-    <row r="23" spans="1:21" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="136"/>
+      <c r="T22" s="214"/>
+      <c r="U22" s="108"/>
+    </row>
+    <row r="23" spans="1:21" ht="21" x14ac:dyDescent="0.2">
+      <c r="A23" s="173"/>
       <c r="B23" s="68">
         <v>1</v>
       </c>
@@ -4452,58 +4455,58 @@
         <v>47</v>
       </c>
       <c r="D23" s="88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="39">
-        <v>1</v>
-      </c>
-      <c r="G23" s="39">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J23" s="39"/>
       <c r="K23" s="40" t="s">
         <v>27</v>
       </c>
       <c r="L23" s="79" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M23" s="77" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N23" s="77" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O23" s="80" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P23" s="43">
-        <v>1890</v>
+        <v>4390</v>
       </c>
       <c r="Q23" s="70"/>
       <c r="R23" s="41">
         <f t="shared" ref="R23:R32" si="0">(P23*B23)*(1-Q23)</f>
-        <v>1890</v>
+        <v>4390</v>
       </c>
       <c r="S23" s="72">
         <v>0.3</v>
       </c>
       <c r="T23" s="42">
         <f>R23*(1-S23)</f>
-        <v>1323</v>
-      </c>
-      <c r="U23" s="204"/>
+        <v>3073</v>
+      </c>
+      <c r="U23" s="108"/>
     </row>
     <row r="24" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A24" s="136"/>
+      <c r="A24" s="173"/>
       <c r="B24" s="68"/>
       <c r="C24" s="87"/>
       <c r="D24" s="88"/>
@@ -4533,10 +4536,10 @@
         <f t="shared" ref="T24:T32" si="1">R24*(1-S24)</f>
         <v>0</v>
       </c>
-      <c r="U24" s="204"/>
+      <c r="U24" s="108"/>
     </row>
     <row r="25" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A25" s="136"/>
+      <c r="A25" s="173"/>
       <c r="B25" s="68">
         <v>1</v>
       </c>
@@ -4570,10 +4573,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U25" s="204"/>
+      <c r="U25" s="108"/>
     </row>
     <row r="26" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A26" s="136"/>
+      <c r="A26" s="173"/>
       <c r="B26" s="68">
         <v>0</v>
       </c>
@@ -4609,10 +4612,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U26" s="204"/>
+      <c r="U26" s="108"/>
     </row>
     <row r="27" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A27" s="136"/>
+      <c r="A27" s="173"/>
       <c r="B27" s="68">
         <v>0</v>
       </c>
@@ -4648,10 +4651,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U27" s="204"/>
+      <c r="U27" s="108"/>
     </row>
     <row r="28" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A28" s="136"/>
+      <c r="A28" s="173"/>
       <c r="B28" s="68">
         <v>0</v>
       </c>
@@ -4687,10 +4690,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28" s="204"/>
+      <c r="U28" s="108"/>
     </row>
     <row r="29" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A29" s="136"/>
+      <c r="A29" s="173"/>
       <c r="B29" s="68">
         <v>0</v>
       </c>
@@ -4724,10 +4727,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U29" s="204"/>
+      <c r="U29" s="108"/>
     </row>
     <row r="30" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A30" s="136"/>
+      <c r="A30" s="173"/>
       <c r="B30" s="68">
         <v>0</v>
       </c>
@@ -4761,10 +4764,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U30" s="204"/>
+      <c r="U30" s="108"/>
     </row>
     <row r="31" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A31" s="136"/>
+      <c r="A31" s="173"/>
       <c r="B31" s="68">
         <v>0</v>
       </c>
@@ -4800,10 +4803,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U31" s="204"/>
+      <c r="U31" s="108"/>
     </row>
     <row r="32" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="136"/>
+      <c r="A32" s="173"/>
       <c r="B32" s="69">
         <v>0</v>
       </c>
@@ -4839,16 +4842,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="204"/>
+      <c r="U32" s="108"/>
     </row>
     <row r="33" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="136"/>
+      <c r="A33" s="173"/>
       <c r="B33" s="44">
         <v>0</v>
       </c>
       <c r="C33" s="45"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="139"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="175"/>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
@@ -4871,16 +4874,16 @@
         <f>(R33-(R33*S33))*B33</f>
         <v>0</v>
       </c>
-      <c r="U33" s="204"/>
+      <c r="U33" s="108"/>
     </row>
     <row r="34" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="136"/>
+      <c r="A34" s="173"/>
       <c r="B34" s="44">
         <v>0</v>
       </c>
       <c r="C34" s="45"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="138"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
       <c r="H34" s="39"/>
@@ -4903,16 +4906,16 @@
         <f>(R34-(R34*S34))*B34</f>
         <v>0</v>
       </c>
-      <c r="U34" s="204"/>
+      <c r="U34" s="108"/>
     </row>
     <row r="35" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="136"/>
+      <c r="A35" s="173"/>
       <c r="B35" s="44">
         <v>0</v>
       </c>
       <c r="C35" s="45"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="138"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
@@ -4935,87 +4938,87 @@
         <f>(R35-(R35*S35))*B35</f>
         <v>0</v>
       </c>
-      <c r="U35" s="204"/>
+      <c r="U35" s="108"/>
     </row>
     <row r="36" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="136"/>
-      <c r="B36" s="155" t="s">
+      <c r="A36" s="173"/>
+      <c r="B36" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="156"/>
-      <c r="K36" s="156"/>
-      <c r="L36" s="160" t="s">
+      <c r="C36" s="187"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="187"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="187"/>
+      <c r="J36" s="187"/>
+      <c r="K36" s="187"/>
+      <c r="L36" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="160"/>
-      <c r="N36" s="160"/>
-      <c r="O36" s="160"/>
+      <c r="M36" s="191"/>
+      <c r="N36" s="191"/>
+      <c r="O36" s="191"/>
       <c r="P36" s="50">
         <f>SUM(P23:P32)</f>
-        <v>1890</v>
+        <v>4390</v>
       </c>
       <c r="Q36" s="51"/>
-      <c r="R36" s="153" t="s">
+      <c r="R36" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="S36" s="154"/>
+      <c r="S36" s="149"/>
       <c r="T36" s="52">
         <f>SUM(T23:T35)</f>
-        <v>1323</v>
-      </c>
-      <c r="U36" s="204"/>
+        <v>3073</v>
+      </c>
+      <c r="U36" s="108"/>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="136"/>
-      <c r="B37" s="199" t="s">
+      <c r="A37" s="173"/>
+      <c r="B37" s="165" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="168" t="s">
+      <c r="D37" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="169"/>
-      <c r="H37" s="169"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="161" t="s">
+      <c r="E37" s="200"/>
+      <c r="F37" s="200"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="200"/>
+      <c r="I37" s="200"/>
+      <c r="J37" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="162"/>
-      <c r="L37" s="162"/>
-      <c r="M37" s="162"/>
-      <c r="N37" s="162"/>
-      <c r="O37" s="162"/>
+      <c r="K37" s="193"/>
+      <c r="L37" s="193"/>
+      <c r="M37" s="193"/>
+      <c r="N37" s="193"/>
+      <c r="O37" s="193"/>
       <c r="P37" s="54">
         <f>SUM(R23:R32)</f>
-        <v>1890</v>
+        <v>4390</v>
       </c>
       <c r="Q37" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="153" t="s">
+      <c r="R37" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="S37" s="154"/>
+      <c r="S37" s="149"/>
       <c r="T37" s="55">
         <f>T36*0.16</f>
-        <v>211.68</v>
-      </c>
-      <c r="U37" s="204"/>
+        <v>491.68</v>
+      </c>
+      <c r="U37" s="108"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="136"/>
-      <c r="B38" s="200"/>
+      <c r="A38" s="173"/>
+      <c r="B38" s="166"/>
       <c r="C38" s="56"/>
       <c r="D38" s="56"/>
       <c r="E38" s="56"/>
@@ -5031,74 +5034,74 @@
       <c r="O38" s="51"/>
       <c r="P38" s="51"/>
       <c r="Q38" s="51"/>
-      <c r="R38" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="188"/>
+      <c r="R38" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="151"/>
       <c r="T38" s="57">
         <v>0</v>
       </c>
-      <c r="U38" s="204"/>
+      <c r="U38" s="108"/>
     </row>
     <row r="39" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="136"/>
-      <c r="B39" s="200"/>
+      <c r="A39" s="173"/>
+      <c r="B39" s="166"/>
       <c r="C39" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="197" t="s">
+      <c r="D39" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="198"/>
-      <c r="F39" s="198"/>
-      <c r="G39" s="198"/>
-      <c r="H39" s="198"/>
-      <c r="I39" s="198"/>
-      <c r="J39" s="198"/>
-      <c r="K39" s="201"/>
-      <c r="L39" s="202"/>
-      <c r="M39" s="202"/>
-      <c r="N39" s="202"/>
-      <c r="O39" s="202"/>
-      <c r="P39" s="202"/>
-      <c r="Q39" s="203"/>
-      <c r="R39" s="189" t="s">
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="164"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="164"/>
+      <c r="K39" s="167"/>
+      <c r="L39" s="168"/>
+      <c r="M39" s="168"/>
+      <c r="N39" s="168"/>
+      <c r="O39" s="168"/>
+      <c r="P39" s="168"/>
+      <c r="Q39" s="169"/>
+      <c r="R39" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="S39" s="190"/>
+      <c r="S39" s="153"/>
       <c r="T39" s="58">
         <f>T36+T37+T38</f>
-        <v>1534.68</v>
-      </c>
-      <c r="U39" s="204"/>
+        <v>3564.68</v>
+      </c>
+      <c r="U39" s="108"/>
     </row>
     <row r="40" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="136"/>
-      <c r="B40" s="163" t="s">
+      <c r="A40" s="173"/>
+      <c r="B40" s="194" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="164"/>
-      <c r="D40" s="165"/>
-      <c r="E40" s="166"/>
-      <c r="F40" s="166"/>
-      <c r="G40" s="166"/>
-      <c r="H40" s="166"/>
-      <c r="I40" s="166"/>
-      <c r="J40" s="166"/>
-      <c r="K40" s="166"/>
-      <c r="L40" s="166"/>
-      <c r="M40" s="166"/>
-      <c r="N40" s="166"/>
-      <c r="O40" s="166"/>
-      <c r="P40" s="166"/>
-      <c r="Q40" s="166"/>
-      <c r="R40" s="166"/>
-      <c r="S40" s="167"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="196"/>
+      <c r="E40" s="197"/>
+      <c r="F40" s="197"/>
+      <c r="G40" s="197"/>
+      <c r="H40" s="197"/>
+      <c r="I40" s="197"/>
+      <c r="J40" s="197"/>
+      <c r="K40" s="197"/>
+      <c r="L40" s="197"/>
+      <c r="M40" s="197"/>
+      <c r="N40" s="197"/>
+      <c r="O40" s="197"/>
+      <c r="P40" s="197"/>
+      <c r="Q40" s="197"/>
+      <c r="R40" s="197"/>
+      <c r="S40" s="198"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="204"/>
+      <c r="U40" s="108"/>
     </row>
     <row r="41" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="136"/>
+      <c r="A41" s="173"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="20"/>
@@ -5118,114 +5121,156 @@
       <c r="R41" s="20"/>
       <c r="S41" s="20"/>
       <c r="T41" s="21"/>
-      <c r="U41" s="204"/>
+      <c r="U41" s="108"/>
     </row>
     <row r="42" spans="1:21" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="136"/>
-      <c r="B42" s="157" t="s">
+      <c r="A42" s="173"/>
+      <c r="B42" s="188" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="158"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="158"/>
-      <c r="J42" s="158"/>
-      <c r="K42" s="158"/>
-      <c r="L42" s="158"/>
-      <c r="M42" s="158"/>
-      <c r="N42" s="158"/>
-      <c r="O42" s="158"/>
-      <c r="P42" s="158"/>
-      <c r="Q42" s="158"/>
-      <c r="R42" s="158"/>
-      <c r="S42" s="158"/>
-      <c r="T42" s="159"/>
-      <c r="U42" s="204"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="189"/>
+      <c r="G42" s="189"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="189"/>
+      <c r="J42" s="189"/>
+      <c r="K42" s="189"/>
+      <c r="L42" s="189"/>
+      <c r="M42" s="189"/>
+      <c r="N42" s="189"/>
+      <c r="O42" s="189"/>
+      <c r="P42" s="189"/>
+      <c r="Q42" s="189"/>
+      <c r="R42" s="189"/>
+      <c r="S42" s="189"/>
+      <c r="T42" s="190"/>
+      <c r="U42" s="108"/>
     </row>
     <row r="43" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="137"/>
-      <c r="B43" s="205" t="s">
+      <c r="A43" s="174"/>
+      <c r="B43" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="206"/>
-      <c r="D43" s="207"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
-      <c r="N43" s="151"/>
-      <c r="O43" s="151"/>
-      <c r="P43" s="151"/>
-      <c r="Q43" s="151"/>
-      <c r="R43" s="151"/>
-      <c r="S43" s="151"/>
-      <c r="T43" s="152"/>
-      <c r="U43" s="204"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="160"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="161"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="161"/>
+      <c r="J43" s="161"/>
+      <c r="K43" s="161"/>
+      <c r="L43" s="161"/>
+      <c r="M43" s="161"/>
+      <c r="N43" s="161"/>
+      <c r="O43" s="161"/>
+      <c r="P43" s="161"/>
+      <c r="Q43" s="161"/>
+      <c r="R43" s="161"/>
+      <c r="S43" s="161"/>
+      <c r="T43" s="162"/>
+      <c r="U43" s="108"/>
     </row>
     <row r="44" spans="1:21" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
-      <c r="B44" s="205" t="s">
+      <c r="B44" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="206"/>
-      <c r="D44" s="206"/>
-      <c r="E44" s="150"/>
-      <c r="F44" s="151"/>
-      <c r="G44" s="151"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="151"/>
-      <c r="K44" s="151"/>
-      <c r="L44" s="151"/>
-      <c r="M44" s="151"/>
-      <c r="N44" s="151"/>
-      <c r="O44" s="151"/>
-      <c r="P44" s="151"/>
-      <c r="Q44" s="151"/>
-      <c r="R44" s="151"/>
-      <c r="S44" s="151"/>
-      <c r="T44" s="152"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="160"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="161"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="161"/>
+      <c r="J44" s="161"/>
+      <c r="K44" s="161"/>
+      <c r="L44" s="161"/>
+      <c r="M44" s="161"/>
+      <c r="N44" s="161"/>
+      <c r="O44" s="161"/>
+      <c r="P44" s="161"/>
+      <c r="Q44" s="161"/>
+      <c r="R44" s="161"/>
+      <c r="S44" s="161"/>
+      <c r="T44" s="162"/>
       <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="170"/>
-      <c r="B45" s="171"/>
-      <c r="C45" s="171"/>
-      <c r="D45" s="171"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="171"/>
-      <c r="G45" s="171"/>
-      <c r="H45" s="171"/>
-      <c r="I45" s="171"/>
-      <c r="J45" s="171"/>
-      <c r="K45" s="171"/>
-      <c r="L45" s="171"/>
-      <c r="M45" s="171"/>
-      <c r="N45" s="171"/>
-      <c r="O45" s="171"/>
-      <c r="P45" s="171"/>
-      <c r="Q45" s="171"/>
-      <c r="R45" s="171"/>
-      <c r="S45" s="171"/>
-      <c r="T45" s="171"/>
-      <c r="U45" s="172"/>
+      <c r="A45" s="132"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="133"/>
+      <c r="M45" s="133"/>
+      <c r="N45" s="133"/>
+      <c r="O45" s="133"/>
+      <c r="P45" s="133"/>
+      <c r="Q45" s="133"/>
+      <c r="R45" s="133"/>
+      <c r="S45" s="133"/>
+      <c r="T45" s="133"/>
+      <c r="U45" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B16:T16"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="B18:T18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B42:T42"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:S40"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B15:T15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="E44:T44"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="K39:Q39"/>
     <mergeCell ref="U2:U43"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
@@ -5242,54 +5287,12 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="L21:O21"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B15:T15"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="E44:T44"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B16:T16"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="B18:T18"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B42:T42"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:S40"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="P11:R11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
+++ b/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EC16\Documents\SOSQTP\Documentos de Venta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55711787-42EE-4AC0-8F0C-80263D3B1E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D04BA79-D0AA-4B67-8E74-43B7650094D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1006,22 +1007,7 @@
     <t>Marisol Ornelas Casillas</t>
   </si>
   <si>
-    <t>P3992</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>59ED</t>
-  </si>
-  <si>
-    <t>FED7</t>
-  </si>
-  <si>
-    <t>0155</t>
-  </si>
-  <si>
-    <t>54C5</t>
+    <t>P4230</t>
   </si>
 </sst>
 </file>
@@ -2923,117 +2909,234 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3074,14 +3177,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3098,7 +3198,7 @@
     <xf numFmtId="0" fontId="94" fillId="5" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3113,15 +3213,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3143,210 +3234,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3754,7 +3740,7 @@
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
@@ -3786,32 +3772,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="134" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="173"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="136"/>
     </row>
     <row r="2" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="174"/>
+      <c r="A2" s="137"/>
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
@@ -3824,21 +3810,21 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
-      <c r="L2" s="205" t="s">
+      <c r="L2" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="206"/>
-      <c r="T2" s="207"/>
-      <c r="U2" s="109"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="205"/>
     </row>
     <row r="3" spans="1:21" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="174"/>
+      <c r="A3" s="137"/>
       <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
@@ -3851,297 +3837,297 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
-      <c r="L3" s="208" t="s">
+      <c r="L3" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="208"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="208"/>
-      <c r="Q3" s="208"/>
-      <c r="R3" s="208"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="109"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="205"/>
     </row>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="174"/>
-      <c r="B4" s="202" t="s">
+      <c r="A4" s="137"/>
+      <c r="B4" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="203"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="203"/>
-      <c r="J4" s="203"/>
-      <c r="K4" s="203"/>
-      <c r="L4" s="203"/>
-      <c r="M4" s="203"/>
-      <c r="N4" s="203"/>
-      <c r="O4" s="203"/>
-      <c r="P4" s="203"/>
-      <c r="Q4" s="203"/>
-      <c r="R4" s="203"/>
-      <c r="S4" s="203"/>
-      <c r="T4" s="204"/>
-      <c r="U4" s="109"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="205"/>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="174"/>
-      <c r="B5" s="122"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="136" t="s">
+      <c r="A5" s="137"/>
+      <c r="B5" s="215"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="216"/>
+      <c r="L5" s="216"/>
+      <c r="M5" s="216"/>
+      <c r="N5" s="216"/>
+      <c r="O5" s="216"/>
+      <c r="P5" s="216"/>
+      <c r="Q5" s="216"/>
+      <c r="R5" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="137"/>
+      <c r="S5" s="175"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="109"/>
+      <c r="U5" s="205"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="174"/>
-      <c r="B6" s="113" t="s">
+      <c r="A6" s="137"/>
+      <c r="B6" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="104" t="s">
+      <c r="C6" s="210"/>
+      <c r="D6" s="235" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="105"/>
+      <c r="E6" s="235"/>
+      <c r="F6" s="236"/>
+      <c r="G6" s="236"/>
+      <c r="H6" s="236"/>
+      <c r="I6" s="236"/>
+      <c r="J6" s="236"/>
+      <c r="K6" s="236"/>
+      <c r="L6" s="236"/>
+      <c r="M6" s="236"/>
+      <c r="N6" s="236"/>
+      <c r="O6" s="236"/>
+      <c r="P6" s="236"/>
+      <c r="Q6" s="236"/>
       <c r="R6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="100" t="s">
+      <c r="S6" s="231" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="101"/>
-      <c r="U6" s="109"/>
+      <c r="T6" s="232"/>
+      <c r="U6" s="205"/>
     </row>
     <row r="7" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="174"/>
-      <c r="B7" s="113" t="s">
+      <c r="A7" s="137"/>
+      <c r="B7" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="115" t="s">
+      <c r="C7" s="210"/>
+      <c r="D7" s="186" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="148"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="187"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
       <c r="R7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="102" t="s">
+      <c r="S7" s="233" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="103"/>
-      <c r="U7" s="109"/>
+      <c r="T7" s="234"/>
+      <c r="U7" s="205"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="174"/>
-      <c r="B8" s="113" t="s">
+      <c r="A8" s="137"/>
+      <c r="B8" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="232" t="s">
+      <c r="C8" s="210"/>
+      <c r="D8" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="148"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="155" t="s">
+      <c r="K8" s="192" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="157"/>
-      <c r="U8" s="109"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="193"/>
+      <c r="R8" s="193"/>
+      <c r="S8" s="193"/>
+      <c r="T8" s="194"/>
+      <c r="U8" s="205"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="174"/>
-      <c r="B9" s="113" t="s">
+      <c r="A9" s="137"/>
+      <c r="B9" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="115" t="s">
+      <c r="C9" s="210"/>
+      <c r="D9" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="211"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="211"/>
+      <c r="N9" s="211"/>
+      <c r="O9" s="211"/>
+      <c r="P9" s="211"/>
       <c r="Q9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="119" t="s">
+      <c r="R9" s="212" t="s">
         <v>105</v>
       </c>
-      <c r="S9" s="120"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="109"/>
+      <c r="S9" s="213"/>
+      <c r="T9" s="214"/>
+      <c r="U9" s="205"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="174"/>
-      <c r="B10" s="113" t="s">
+      <c r="A10" s="137"/>
+      <c r="B10" s="209" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="233" t="s">
+      <c r="C10" s="210"/>
+      <c r="D10" s="127" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="233"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="234"/>
-      <c r="H10" s="234"/>
-      <c r="I10" s="234"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="158" t="s">
+      <c r="K10" s="195" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="159"/>
-      <c r="M10" s="159"/>
-      <c r="N10" s="159"/>
-      <c r="O10" s="159"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="159"/>
-      <c r="R10" s="159"/>
-      <c r="S10" s="159"/>
-      <c r="T10" s="160"/>
-      <c r="U10" s="109"/>
+      <c r="L10" s="196"/>
+      <c r="M10" s="196"/>
+      <c r="N10" s="196"/>
+      <c r="O10" s="196"/>
+      <c r="P10" s="196"/>
+      <c r="Q10" s="196"/>
+      <c r="R10" s="196"/>
+      <c r="S10" s="196"/>
+      <c r="T10" s="197"/>
+      <c r="U10" s="205"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="174"/>
-      <c r="B11" s="94" t="s">
+      <c r="A11" s="137"/>
+      <c r="B11" s="225" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="237" t="s">
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="131" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="238"/>
-      <c r="G11" s="238"/>
-      <c r="H11" s="238"/>
-      <c r="I11" s="238"/>
-      <c r="J11" s="238"/>
-      <c r="K11" s="238"/>
-      <c r="L11" s="238"/>
-      <c r="M11" s="238"/>
-      <c r="N11" s="238"/>
-      <c r="O11" s="239"/>
-      <c r="P11" s="106" t="s">
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="237" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="128" t="s">
+      <c r="Q11" s="238"/>
+      <c r="R11" s="239"/>
+      <c r="S11" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="129"/>
-      <c r="U11" s="109"/>
+      <c r="T11" s="222"/>
+      <c r="U11" s="205"/>
     </row>
     <row r="12" spans="1:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="174"/>
-      <c r="B12" s="96" t="s">
+      <c r="A12" s="137"/>
+      <c r="B12" s="227" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="109"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="229"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="229"/>
+      <c r="G12" s="229"/>
+      <c r="H12" s="229"/>
+      <c r="I12" s="229"/>
+      <c r="J12" s="229"/>
+      <c r="K12" s="229"/>
+      <c r="L12" s="229"/>
+      <c r="M12" s="229"/>
+      <c r="N12" s="229"/>
+      <c r="O12" s="229"/>
+      <c r="P12" s="229"/>
+      <c r="Q12" s="229"/>
+      <c r="R12" s="229"/>
+      <c r="S12" s="229"/>
+      <c r="T12" s="230"/>
+      <c r="U12" s="205"/>
     </row>
     <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="174"/>
-      <c r="B13" s="220" t="s">
+      <c r="A13" s="137"/>
+      <c r="B13" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="221"/>
-      <c r="D13" s="221"/>
-      <c r="E13" s="221"/>
-      <c r="F13" s="221"/>
-      <c r="G13" s="221"/>
-      <c r="H13" s="221"/>
-      <c r="I13" s="221"/>
-      <c r="J13" s="221"/>
-      <c r="K13" s="221"/>
-      <c r="L13" s="221"/>
-      <c r="M13" s="221"/>
-      <c r="N13" s="221"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
       <c r="O13" s="75" t="s">
         <v>0</v>
       </c>
@@ -4149,165 +4135,165 @@
         <v>0</v>
       </c>
       <c r="Q13" s="76"/>
-      <c r="R13" s="142" t="s">
+      <c r="R13" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="142"/>
+      <c r="S13" s="180"/>
       <c r="T13" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="U13" s="109"/>
+      <c r="U13" s="205"/>
     </row>
     <row r="14" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="174"/>
-      <c r="B14" s="145" t="s">
+      <c r="A14" s="137"/>
+      <c r="B14" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="146"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="124" t="s">
+      <c r="C14" s="184"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="125"/>
+      <c r="F14" s="217"/>
+      <c r="G14" s="217"/>
+      <c r="H14" s="217"/>
+      <c r="I14" s="217"/>
+      <c r="J14" s="218"/>
+      <c r="K14" s="218"/>
+      <c r="L14" s="218"/>
+      <c r="M14" s="218"/>
+      <c r="N14" s="218"/>
+      <c r="O14" s="218"/>
+      <c r="P14" s="218"/>
+      <c r="Q14" s="218"/>
       <c r="R14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="143">
+      <c r="S14" s="181">
         <f ca="1">TODAY()</f>
-        <v>43767</v>
-      </c>
-      <c r="T14" s="144"/>
-      <c r="U14" s="109"/>
+        <v>43934</v>
+      </c>
+      <c r="T14" s="182"/>
+      <c r="U14" s="205"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="174"/>
-      <c r="B15" s="138" t="s">
+      <c r="A15" s="137"/>
+      <c r="B15" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="140"/>
-      <c r="M15" s="140"/>
-      <c r="N15" s="140"/>
-      <c r="O15" s="140"/>
-      <c r="P15" s="140"/>
-      <c r="Q15" s="140"/>
-      <c r="R15" s="140"/>
-      <c r="S15" s="140"/>
-      <c r="T15" s="141"/>
-      <c r="U15" s="109"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="178"/>
+      <c r="K15" s="178"/>
+      <c r="L15" s="178"/>
+      <c r="M15" s="178"/>
+      <c r="N15" s="178"/>
+      <c r="O15" s="178"/>
+      <c r="P15" s="178"/>
+      <c r="Q15" s="178"/>
+      <c r="R15" s="178"/>
+      <c r="S15" s="178"/>
+      <c r="T15" s="179"/>
+      <c r="U15" s="205"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="174"/>
-      <c r="B16" s="177" t="s">
+      <c r="A16" s="137"/>
+      <c r="B16" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="178"/>
-      <c r="M16" s="178"/>
-      <c r="N16" s="178"/>
-      <c r="O16" s="178"/>
-      <c r="P16" s="178"/>
-      <c r="Q16" s="178"/>
-      <c r="R16" s="178"/>
-      <c r="S16" s="178"/>
-      <c r="T16" s="179"/>
-      <c r="U16" s="109"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="142"/>
+      <c r="Q16" s="142"/>
+      <c r="R16" s="142"/>
+      <c r="S16" s="142"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="205"/>
     </row>
     <row r="17" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="174"/>
-      <c r="B17" s="180" t="s">
+      <c r="A17" s="137"/>
+      <c r="B17" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="181"/>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="181"/>
-      <c r="J17" s="181"/>
-      <c r="K17" s="181"/>
-      <c r="L17" s="181"/>
-      <c r="M17" s="181"/>
-      <c r="N17" s="181"/>
-      <c r="O17" s="181"/>
-      <c r="P17" s="181"/>
-      <c r="Q17" s="181"/>
-      <c r="R17" s="181"/>
-      <c r="S17" s="181"/>
-      <c r="T17" s="182"/>
-      <c r="U17" s="109"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="145"/>
+      <c r="R17" s="145"/>
+      <c r="S17" s="145"/>
+      <c r="T17" s="146"/>
+      <c r="U17" s="205"/>
     </row>
     <row r="18" spans="1:22" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="174"/>
-      <c r="B18" s="183" t="s">
+      <c r="A18" s="137"/>
+      <c r="B18" s="147" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="184"/>
-      <c r="D18" s="185"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="185"/>
-      <c r="K18" s="185"/>
-      <c r="L18" s="185"/>
-      <c r="M18" s="185"/>
-      <c r="N18" s="185"/>
-      <c r="O18" s="185"/>
-      <c r="P18" s="185"/>
-      <c r="Q18" s="185"/>
-      <c r="R18" s="185"/>
-      <c r="S18" s="185"/>
-      <c r="T18" s="186"/>
-      <c r="U18" s="109"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="149"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="149"/>
+      <c r="P18" s="149"/>
+      <c r="Q18" s="149"/>
+      <c r="R18" s="149"/>
+      <c r="S18" s="149"/>
+      <c r="T18" s="150"/>
+      <c r="U18" s="205"/>
     </row>
     <row r="19" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="174"/>
-      <c r="B19" s="224" t="s">
+      <c r="A19" s="137"/>
+      <c r="B19" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="225"/>
-      <c r="D19" s="225"/>
-      <c r="E19" s="225"/>
-      <c r="F19" s="225"/>
-      <c r="G19" s="225"/>
-      <c r="H19" s="225"/>
-      <c r="I19" s="225"/>
-      <c r="J19" s="225"/>
-      <c r="K19" s="225"/>
-      <c r="L19" s="225"/>
-      <c r="M19" s="225"/>
-      <c r="N19" s="225"/>
-      <c r="O19" s="226"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="118"/>
       <c r="P19" s="10" t="s">
         <v>31</v>
       </c>
@@ -4315,30 +4301,30 @@
       <c r="R19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="126" t="s">
+      <c r="S19" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="127"/>
-      <c r="U19" s="109"/>
+      <c r="T19" s="220"/>
+      <c r="U19" s="205"/>
     </row>
     <row r="20" spans="1:22" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="174"/>
-      <c r="B20" s="227" t="s">
+      <c r="A20" s="137"/>
+      <c r="B20" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="228"/>
-      <c r="D20" s="229"/>
-      <c r="E20" s="228"/>
-      <c r="F20" s="228"/>
-      <c r="G20" s="228"/>
-      <c r="H20" s="228"/>
-      <c r="I20" s="228"/>
-      <c r="J20" s="228"/>
-      <c r="K20" s="228"/>
-      <c r="L20" s="228"/>
-      <c r="M20" s="230"/>
-      <c r="N20" s="230"/>
-      <c r="O20" s="231"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="123"/>
       <c r="P20" s="65"/>
       <c r="Q20" s="17" t="s">
         <v>35</v>
@@ -4348,10 +4334,10 @@
         <v>36</v>
       </c>
       <c r="T20" s="67"/>
-      <c r="U20" s="109"/>
+      <c r="U20" s="205"/>
     </row>
     <row r="21" spans="1:22" ht="81.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="174"/>
+      <c r="A21" s="137"/>
       <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
@@ -4376,38 +4362,38 @@
       <c r="I21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="216" t="s">
+      <c r="J21" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="218" t="s">
+      <c r="K21" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="130" t="s">
+      <c r="L21" s="223" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="210" t="s">
+      <c r="M21" s="224"/>
+      <c r="N21" s="224"/>
+      <c r="O21" s="224"/>
+      <c r="P21" s="102" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="R21" s="212" t="s">
+      <c r="R21" s="104" t="s">
         <v>64</v>
       </c>
       <c r="S21" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="T21" s="214" t="s">
+      <c r="T21" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="U21" s="109"/>
+      <c r="U21" s="205"/>
       <c r="V21" s="16"/>
     </row>
     <row r="22" spans="1:22" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="174"/>
+      <c r="A22" s="137"/>
       <c r="B22" s="35" t="s">
         <v>72</v>
       </c>
@@ -4420,99 +4406,81 @@
       <c r="E22" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="235" t="s">
+      <c r="F22" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="236"/>
+      <c r="G22" s="130"/>
       <c r="H22" s="38" t="s">
         <v>75</v>
       </c>
       <c r="I22" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="217"/>
-      <c r="K22" s="219"/>
-      <c r="L22" s="222" t="s">
+      <c r="J22" s="109"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="M22" s="223"/>
-      <c r="N22" s="223"/>
-      <c r="O22" s="223"/>
-      <c r="P22" s="211"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="103"/>
       <c r="Q22" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="R22" s="213"/>
+      <c r="R22" s="105"/>
       <c r="S22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T22" s="215"/>
-      <c r="U22" s="109"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="205"/>
       <c r="V22" s="16"/>
     </row>
     <row r="23" spans="1:22" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="174"/>
+      <c r="A23" s="137"/>
       <c r="B23" s="69">
         <v>1</v>
       </c>
       <c r="C23" s="88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="I23" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="J23" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="M23" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="N23" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="O23" s="81" t="s">
-        <v>113</v>
-      </c>
+      <c r="L23" s="80"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="81"/>
       <c r="P23" s="44">
-        <v>2890</v>
+        <v>990</v>
       </c>
       <c r="Q23" s="71">
         <v>0</v>
       </c>
       <c r="R23" s="42">
         <f t="shared" ref="R23:R32" si="0">(P23*B23)*(1-Q23)</f>
-        <v>2890</v>
+        <v>990</v>
       </c>
       <c r="S23" s="73">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="T23" s="43">
         <f>R23*(1-S23)</f>
-        <v>2167.5</v>
-      </c>
-      <c r="U23" s="109"/>
+        <v>693</v>
+      </c>
+      <c r="U23" s="205"/>
     </row>
     <row r="24" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A24" s="174"/>
+      <c r="A24" s="137"/>
       <c r="B24" s="69">
         <v>0</v>
       </c>
@@ -4548,10 +4516,10 @@
         <f t="shared" ref="T24:T32" si="1">R24*(1-S24)</f>
         <v>0</v>
       </c>
-      <c r="U24" s="109"/>
+      <c r="U24" s="205"/>
     </row>
     <row r="25" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A25" s="174"/>
+      <c r="A25" s="137"/>
       <c r="B25" s="69">
         <v>0</v>
       </c>
@@ -4587,10 +4555,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U25" s="109"/>
+      <c r="U25" s="205"/>
     </row>
     <row r="26" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A26" s="174"/>
+      <c r="A26" s="137"/>
       <c r="B26" s="69">
         <v>0</v>
       </c>
@@ -4626,10 +4594,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U26" s="109"/>
+      <c r="U26" s="205"/>
     </row>
     <row r="27" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A27" s="174"/>
+      <c r="A27" s="137"/>
       <c r="B27" s="69">
         <v>0</v>
       </c>
@@ -4665,10 +4633,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U27" s="109"/>
+      <c r="U27" s="205"/>
     </row>
     <row r="28" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A28" s="174"/>
+      <c r="A28" s="137"/>
       <c r="B28" s="69">
         <v>0</v>
       </c>
@@ -4704,10 +4672,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28" s="109"/>
+      <c r="U28" s="205"/>
     </row>
     <row r="29" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A29" s="174"/>
+      <c r="A29" s="137"/>
       <c r="B29" s="69">
         <v>0</v>
       </c>
@@ -4741,10 +4709,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U29" s="109"/>
+      <c r="U29" s="205"/>
     </row>
     <row r="30" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A30" s="174"/>
+      <c r="A30" s="137"/>
       <c r="B30" s="69">
         <v>0</v>
       </c>
@@ -4778,10 +4746,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U30" s="109"/>
+      <c r="U30" s="205"/>
     </row>
     <row r="31" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A31" s="174"/>
+      <c r="A31" s="137"/>
       <c r="B31" s="69">
         <v>0</v>
       </c>
@@ -4817,10 +4785,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U31" s="109"/>
+      <c r="U31" s="205"/>
     </row>
     <row r="32" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="174"/>
+      <c r="A32" s="137"/>
       <c r="B32" s="70">
         <v>0</v>
       </c>
@@ -4856,16 +4824,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="109"/>
+      <c r="U32" s="205"/>
     </row>
     <row r="33" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="174"/>
+      <c r="A33" s="137"/>
       <c r="B33" s="45">
         <v>0</v>
       </c>
       <c r="C33" s="46"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="176"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="140"/>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
@@ -4888,16 +4856,16 @@
         <f>(R33-(R33*S33))*B33</f>
         <v>0</v>
       </c>
-      <c r="U33" s="109"/>
+      <c r="U33" s="205"/>
     </row>
     <row r="34" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="174"/>
+      <c r="A34" s="137"/>
       <c r="B34" s="45">
         <v>0</v>
       </c>
       <c r="C34" s="46"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="132"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
@@ -4920,16 +4888,16 @@
         <f>(R34-(R34*S34))*B34</f>
         <v>0</v>
       </c>
-      <c r="U34" s="109"/>
+      <c r="U34" s="205"/>
     </row>
     <row r="35" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="174"/>
+      <c r="A35" s="137"/>
       <c r="B35" s="45">
         <v>0</v>
       </c>
       <c r="C35" s="46"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="132"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="139"/>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -4952,87 +4920,87 @@
         <f>(R35-(R35*S35))*B35</f>
         <v>0</v>
       </c>
-      <c r="U35" s="109"/>
+      <c r="U35" s="205"/>
     </row>
     <row r="36" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="174"/>
-      <c r="B36" s="187" t="s">
+      <c r="A36" s="137"/>
+      <c r="B36" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="188"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="188"/>
-      <c r="J36" s="188"/>
-      <c r="K36" s="188"/>
-      <c r="L36" s="192" t="s">
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157"/>
+      <c r="K36" s="157"/>
+      <c r="L36" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="192"/>
-      <c r="N36" s="192"/>
-      <c r="O36" s="192"/>
+      <c r="M36" s="161"/>
+      <c r="N36" s="161"/>
+      <c r="O36" s="161"/>
       <c r="P36" s="51">
         <f>SUM(P23:P32)</f>
-        <v>2890</v>
+        <v>990</v>
       </c>
       <c r="Q36" s="52"/>
-      <c r="R36" s="149" t="s">
+      <c r="R36" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="S36" s="150"/>
+      <c r="S36" s="155"/>
       <c r="T36" s="53">
         <f>SUM(T23:T35)</f>
-        <v>2167.5</v>
-      </c>
-      <c r="U36" s="109"/>
+        <v>693</v>
+      </c>
+      <c r="U36" s="205"/>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="174"/>
-      <c r="B37" s="166" t="s">
+      <c r="A37" s="137"/>
+      <c r="B37" s="200" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="200" t="s">
+      <c r="D37" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="201"/>
-      <c r="F37" s="201"/>
-      <c r="G37" s="201"/>
-      <c r="H37" s="201"/>
-      <c r="I37" s="201"/>
-      <c r="J37" s="193" t="s">
+      <c r="E37" s="170"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="194"/>
-      <c r="L37" s="194"/>
-      <c r="M37" s="194"/>
-      <c r="N37" s="194"/>
-      <c r="O37" s="194"/>
+      <c r="K37" s="163"/>
+      <c r="L37" s="163"/>
+      <c r="M37" s="163"/>
+      <c r="N37" s="163"/>
+      <c r="O37" s="163"/>
       <c r="P37" s="55">
         <f>SUM(R23:R32)</f>
-        <v>2890</v>
+        <v>990</v>
       </c>
       <c r="Q37" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="149" t="s">
+      <c r="R37" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="S37" s="150"/>
+      <c r="S37" s="155"/>
       <c r="T37" s="56">
         <f>T36*0.16</f>
-        <v>346.8</v>
-      </c>
-      <c r="U37" s="109"/>
+        <v>110.88</v>
+      </c>
+      <c r="U37" s="205"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="174"/>
-      <c r="B38" s="167"/>
+      <c r="A38" s="137"/>
+      <c r="B38" s="201"/>
       <c r="C38" s="57"/>
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
@@ -5048,74 +5016,74 @@
       <c r="O38" s="52"/>
       <c r="P38" s="52"/>
       <c r="Q38" s="52"/>
-      <c r="R38" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="152"/>
+      <c r="R38" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="189"/>
       <c r="T38" s="58">
         <v>0</v>
       </c>
-      <c r="U38" s="109"/>
+      <c r="U38" s="205"/>
     </row>
     <row r="39" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="174"/>
-      <c r="B39" s="167"/>
+      <c r="A39" s="137"/>
+      <c r="B39" s="201"/>
       <c r="C39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="164" t="s">
+      <c r="D39" s="198" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="165"/>
-      <c r="F39" s="165"/>
-      <c r="G39" s="165"/>
-      <c r="H39" s="165"/>
-      <c r="I39" s="165"/>
-      <c r="J39" s="165"/>
-      <c r="K39" s="168"/>
-      <c r="L39" s="169"/>
-      <c r="M39" s="169"/>
-      <c r="N39" s="169"/>
-      <c r="O39" s="169"/>
-      <c r="P39" s="169"/>
-      <c r="Q39" s="170"/>
-      <c r="R39" s="153" t="s">
+      <c r="E39" s="199"/>
+      <c r="F39" s="199"/>
+      <c r="G39" s="199"/>
+      <c r="H39" s="199"/>
+      <c r="I39" s="199"/>
+      <c r="J39" s="199"/>
+      <c r="K39" s="202"/>
+      <c r="L39" s="203"/>
+      <c r="M39" s="203"/>
+      <c r="N39" s="203"/>
+      <c r="O39" s="203"/>
+      <c r="P39" s="203"/>
+      <c r="Q39" s="204"/>
+      <c r="R39" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="S39" s="154"/>
+      <c r="S39" s="191"/>
       <c r="T39" s="59">
         <f>T36+T37+T38</f>
-        <v>2514.3000000000002</v>
-      </c>
-      <c r="U39" s="109"/>
+        <v>803.88</v>
+      </c>
+      <c r="U39" s="205"/>
     </row>
     <row r="40" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="174"/>
-      <c r="B40" s="195" t="s">
+      <c r="A40" s="137"/>
+      <c r="B40" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="196"/>
-      <c r="D40" s="197"/>
-      <c r="E40" s="198"/>
-      <c r="F40" s="198"/>
-      <c r="G40" s="198"/>
-      <c r="H40" s="198"/>
-      <c r="I40" s="198"/>
-      <c r="J40" s="198"/>
-      <c r="K40" s="198"/>
-      <c r="L40" s="198"/>
-      <c r="M40" s="198"/>
-      <c r="N40" s="198"/>
-      <c r="O40" s="198"/>
-      <c r="P40" s="198"/>
-      <c r="Q40" s="198"/>
-      <c r="R40" s="198"/>
-      <c r="S40" s="199"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="166"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
+      <c r="G40" s="167"/>
+      <c r="H40" s="167"/>
+      <c r="I40" s="167"/>
+      <c r="J40" s="167"/>
+      <c r="K40" s="167"/>
+      <c r="L40" s="167"/>
+      <c r="M40" s="167"/>
+      <c r="N40" s="167"/>
+      <c r="O40" s="167"/>
+      <c r="P40" s="167"/>
+      <c r="Q40" s="167"/>
+      <c r="R40" s="167"/>
+      <c r="S40" s="168"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="109"/>
+      <c r="U40" s="205"/>
     </row>
     <row r="41" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="174"/>
+      <c r="A41" s="137"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
@@ -5135,108 +5103,162 @@
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
       <c r="T41" s="22"/>
-      <c r="U41" s="109"/>
+      <c r="U41" s="205"/>
     </row>
     <row r="42" spans="1:21" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="174"/>
-      <c r="B42" s="189" t="s">
+      <c r="A42" s="137"/>
+      <c r="B42" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="190"/>
-      <c r="J42" s="190"/>
-      <c r="K42" s="190"/>
-      <c r="L42" s="190"/>
-      <c r="M42" s="190"/>
-      <c r="N42" s="190"/>
-      <c r="O42" s="190"/>
-      <c r="P42" s="190"/>
-      <c r="Q42" s="190"/>
-      <c r="R42" s="190"/>
-      <c r="S42" s="190"/>
-      <c r="T42" s="191"/>
-      <c r="U42" s="109"/>
+      <c r="C42" s="159"/>
+      <c r="D42" s="159"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="159"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="159"/>
+      <c r="I42" s="159"/>
+      <c r="J42" s="159"/>
+      <c r="K42" s="159"/>
+      <c r="L42" s="159"/>
+      <c r="M42" s="159"/>
+      <c r="N42" s="159"/>
+      <c r="O42" s="159"/>
+      <c r="P42" s="159"/>
+      <c r="Q42" s="159"/>
+      <c r="R42" s="159"/>
+      <c r="S42" s="159"/>
+      <c r="T42" s="160"/>
+      <c r="U42" s="205"/>
     </row>
     <row r="43" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="175"/>
-      <c r="B43" s="110" t="s">
+      <c r="A43" s="138"/>
+      <c r="B43" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="111"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="161"/>
-      <c r="F43" s="162"/>
-      <c r="G43" s="162"/>
-      <c r="H43" s="162"/>
-      <c r="I43" s="162"/>
-      <c r="J43" s="162"/>
-      <c r="K43" s="162"/>
-      <c r="L43" s="162"/>
-      <c r="M43" s="162"/>
-      <c r="N43" s="162"/>
-      <c r="O43" s="162"/>
-      <c r="P43" s="162"/>
-      <c r="Q43" s="162"/>
-      <c r="R43" s="162"/>
-      <c r="S43" s="162"/>
-      <c r="T43" s="163"/>
-      <c r="U43" s="109"/>
+      <c r="C43" s="207"/>
+      <c r="D43" s="208"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="152"/>
+      <c r="L43" s="152"/>
+      <c r="M43" s="152"/>
+      <c r="N43" s="152"/>
+      <c r="O43" s="152"/>
+      <c r="P43" s="152"/>
+      <c r="Q43" s="152"/>
+      <c r="R43" s="152"/>
+      <c r="S43" s="152"/>
+      <c r="T43" s="153"/>
+      <c r="U43" s="205"/>
     </row>
     <row r="44" spans="1:21" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
-      <c r="B44" s="110" t="s">
+      <c r="B44" s="206" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="161"/>
-      <c r="F44" s="162"/>
-      <c r="G44" s="162"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="162"/>
-      <c r="J44" s="162"/>
-      <c r="K44" s="162"/>
-      <c r="L44" s="162"/>
-      <c r="M44" s="162"/>
-      <c r="N44" s="162"/>
-      <c r="O44" s="162"/>
-      <c r="P44" s="162"/>
-      <c r="Q44" s="162"/>
-      <c r="R44" s="162"/>
-      <c r="S44" s="162"/>
-      <c r="T44" s="163"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="207"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="152"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="152"/>
+      <c r="K44" s="152"/>
+      <c r="L44" s="152"/>
+      <c r="M44" s="152"/>
+      <c r="N44" s="152"/>
+      <c r="O44" s="152"/>
+      <c r="P44" s="152"/>
+      <c r="Q44" s="152"/>
+      <c r="R44" s="152"/>
+      <c r="S44" s="152"/>
+      <c r="T44" s="153"/>
       <c r="U44" s="33"/>
     </row>
     <row r="45" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="133"/>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134"/>
-      <c r="G45" s="134"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="134"/>
-      <c r="J45" s="134"/>
-      <c r="K45" s="134"/>
-      <c r="L45" s="134"/>
-      <c r="M45" s="134"/>
-      <c r="N45" s="134"/>
-      <c r="O45" s="134"/>
-      <c r="P45" s="134"/>
-      <c r="Q45" s="134"/>
-      <c r="R45" s="134"/>
-      <c r="S45" s="134"/>
-      <c r="T45" s="134"/>
-      <c r="U45" s="135"/>
+      <c r="A45" s="171"/>
+      <c r="B45" s="172"/>
+      <c r="C45" s="172"/>
+      <c r="D45" s="172"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="172"/>
+      <c r="G45" s="172"/>
+      <c r="H45" s="172"/>
+      <c r="I45" s="172"/>
+      <c r="J45" s="172"/>
+      <c r="K45" s="172"/>
+      <c r="L45" s="172"/>
+      <c r="M45" s="172"/>
+      <c r="N45" s="172"/>
+      <c r="O45" s="172"/>
+      <c r="P45" s="172"/>
+      <c r="Q45" s="172"/>
+      <c r="R45" s="172"/>
+      <c r="S45" s="172"/>
+      <c r="T45" s="172"/>
+      <c r="U45" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="U2:U43"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B15:T15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="E44:T44"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B16:T16"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="B18:T18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B42:T42"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:S40"/>
+    <mergeCell ref="D37:I37"/>
     <mergeCell ref="B4:T4"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="L3:T3"/>
@@ -5253,60 +5275,6 @@
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="E11:O11"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B16:T16"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="B18:T18"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B42:T42"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:S40"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B15:T15"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="E44:T44"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="U2:U43"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="P11:R11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
+++ b/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EC16\Documents\SOSQTP\Documentos de Venta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D04BA79-D0AA-4B67-8E74-43B7650094D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97A35F0-5F17-4C8D-BC81-F8C8DDB8B2F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2909,234 +2909,117 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3177,11 +3060,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3198,7 +3084,7 @@
     <xf numFmtId="0" fontId="94" fillId="5" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3213,6 +3099,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3234,105 +3129,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3772,32 +3772,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="171" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="136"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
+      <c r="U1" s="173"/>
     </row>
     <row r="2" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="137"/>
+      <c r="A2" s="174"/>
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
@@ -3810,21 +3810,21 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
-      <c r="L2" s="97" t="s">
+      <c r="L2" s="205" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="205"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="206"/>
+      <c r="T2" s="207"/>
+      <c r="U2" s="109"/>
     </row>
     <row r="3" spans="1:21" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="137"/>
+      <c r="A3" s="174"/>
       <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
@@ -3837,297 +3837,297 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
-      <c r="L3" s="100" t="s">
+      <c r="L3" s="208" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="205"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="109"/>
     </row>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="137"/>
-      <c r="B4" s="94" t="s">
+      <c r="A4" s="174"/>
+      <c r="B4" s="202" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="205"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203"/>
+      <c r="O4" s="203"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="203"/>
+      <c r="R4" s="203"/>
+      <c r="S4" s="203"/>
+      <c r="T4" s="204"/>
+      <c r="U4" s="109"/>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="137"/>
-      <c r="B5" s="215"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="216"/>
-      <c r="G5" s="216"/>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="216"/>
-      <c r="K5" s="216"/>
-      <c r="L5" s="216"/>
-      <c r="M5" s="216"/>
-      <c r="N5" s="216"/>
-      <c r="O5" s="216"/>
-      <c r="P5" s="216"/>
-      <c r="Q5" s="216"/>
-      <c r="R5" s="174" t="s">
+      <c r="A5" s="174"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="175"/>
+      <c r="S5" s="137"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="205"/>
+      <c r="U5" s="109"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="137"/>
-      <c r="B6" s="209" t="s">
+      <c r="A6" s="174"/>
+      <c r="B6" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="210"/>
-      <c r="D6" s="235" t="s">
+      <c r="C6" s="114"/>
+      <c r="D6" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="235"/>
-      <c r="F6" s="236"/>
-      <c r="G6" s="236"/>
-      <c r="H6" s="236"/>
-      <c r="I6" s="236"/>
-      <c r="J6" s="236"/>
-      <c r="K6" s="236"/>
-      <c r="L6" s="236"/>
-      <c r="M6" s="236"/>
-      <c r="N6" s="236"/>
-      <c r="O6" s="236"/>
-      <c r="P6" s="236"/>
-      <c r="Q6" s="236"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
       <c r="R6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="231" t="s">
+      <c r="S6" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="232"/>
-      <c r="U6" s="205"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="109"/>
     </row>
     <row r="7" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="137"/>
-      <c r="B7" s="209" t="s">
+      <c r="A7" s="174"/>
+      <c r="B7" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="210"/>
-      <c r="D7" s="186" t="s">
+      <c r="C7" s="114"/>
+      <c r="D7" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="148"/>
       <c r="R7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="233" t="s">
+      <c r="S7" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="234"/>
-      <c r="U7" s="205"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="109"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="137"/>
-      <c r="B8" s="209" t="s">
+      <c r="A8" s="174"/>
+      <c r="B8" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="210"/>
-      <c r="D8" s="124" t="s">
+      <c r="C8" s="114"/>
+      <c r="D8" s="232" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="125"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="156"/>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="192" t="s">
+      <c r="K8" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="193"/>
-      <c r="R8" s="193"/>
-      <c r="S8" s="193"/>
-      <c r="T8" s="194"/>
-      <c r="U8" s="205"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="156"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="156"/>
+      <c r="P8" s="156"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="157"/>
+      <c r="U8" s="109"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="137"/>
-      <c r="B9" s="209" t="s">
+      <c r="A9" s="174"/>
+      <c r="B9" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="210"/>
-      <c r="D9" s="186" t="s">
+      <c r="C9" s="114"/>
+      <c r="D9" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="187"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="211"/>
-      <c r="K9" s="211"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="211"/>
-      <c r="N9" s="211"/>
-      <c r="O9" s="211"/>
-      <c r="P9" s="211"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
       <c r="Q9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="212" t="s">
+      <c r="R9" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="S9" s="213"/>
-      <c r="T9" s="214"/>
-      <c r="U9" s="205"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="109"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="137"/>
-      <c r="B10" s="209" t="s">
+      <c r="A10" s="174"/>
+      <c r="B10" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="210"/>
-      <c r="D10" s="127" t="s">
+      <c r="C10" s="114"/>
+      <c r="D10" s="233" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="127"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="234"/>
+      <c r="G10" s="234"/>
+      <c r="H10" s="234"/>
+      <c r="I10" s="234"/>
       <c r="J10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="195" t="s">
+      <c r="K10" s="158" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="196"/>
-      <c r="M10" s="196"/>
-      <c r="N10" s="196"/>
-      <c r="O10" s="196"/>
-      <c r="P10" s="196"/>
-      <c r="Q10" s="196"/>
-      <c r="R10" s="196"/>
-      <c r="S10" s="196"/>
-      <c r="T10" s="197"/>
-      <c r="U10" s="205"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="159"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="159"/>
+      <c r="R10" s="159"/>
+      <c r="S10" s="159"/>
+      <c r="T10" s="160"/>
+      <c r="U10" s="109"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="137"/>
-      <c r="B11" s="225" t="s">
+      <c r="A11" s="174"/>
+      <c r="B11" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="131" t="s">
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="237" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="237" t="s">
+      <c r="F11" s="238"/>
+      <c r="G11" s="238"/>
+      <c r="H11" s="238"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="238"/>
+      <c r="K11" s="238"/>
+      <c r="L11" s="238"/>
+      <c r="M11" s="238"/>
+      <c r="N11" s="238"/>
+      <c r="O11" s="239"/>
+      <c r="P11" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="238"/>
-      <c r="R11" s="239"/>
-      <c r="S11" s="221" t="s">
+      <c r="Q11" s="107"/>
+      <c r="R11" s="108"/>
+      <c r="S11" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="222"/>
-      <c r="U11" s="205"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="109"/>
     </row>
     <row r="12" spans="1:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="137"/>
-      <c r="B12" s="227" t="s">
+      <c r="A12" s="174"/>
+      <c r="B12" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="228"/>
-      <c r="D12" s="229"/>
-      <c r="E12" s="229"/>
-      <c r="F12" s="229"/>
-      <c r="G12" s="229"/>
-      <c r="H12" s="229"/>
-      <c r="I12" s="229"/>
-      <c r="J12" s="229"/>
-      <c r="K12" s="229"/>
-      <c r="L12" s="229"/>
-      <c r="M12" s="229"/>
-      <c r="N12" s="229"/>
-      <c r="O12" s="229"/>
-      <c r="P12" s="229"/>
-      <c r="Q12" s="229"/>
-      <c r="R12" s="229"/>
-      <c r="S12" s="229"/>
-      <c r="T12" s="230"/>
-      <c r="U12" s="205"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="109"/>
     </row>
     <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="137"/>
-      <c r="B13" s="112" t="s">
+      <c r="A13" s="174"/>
+      <c r="B13" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
+      <c r="C13" s="221"/>
+      <c r="D13" s="221"/>
+      <c r="E13" s="221"/>
+      <c r="F13" s="221"/>
+      <c r="G13" s="221"/>
+      <c r="H13" s="221"/>
+      <c r="I13" s="221"/>
+      <c r="J13" s="221"/>
+      <c r="K13" s="221"/>
+      <c r="L13" s="221"/>
+      <c r="M13" s="221"/>
+      <c r="N13" s="221"/>
       <c r="O13" s="75" t="s">
         <v>0</v>
       </c>
@@ -4135,165 +4135,165 @@
         <v>0</v>
       </c>
       <c r="Q13" s="76"/>
-      <c r="R13" s="180" t="s">
+      <c r="R13" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="180"/>
+      <c r="S13" s="142"/>
       <c r="T13" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="U13" s="205"/>
+      <c r="U13" s="109"/>
     </row>
     <row r="14" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="137"/>
-      <c r="B14" s="183" t="s">
+      <c r="A14" s="174"/>
+      <c r="B14" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="184"/>
-      <c r="D14" s="185"/>
-      <c r="E14" s="217" t="s">
+      <c r="C14" s="146"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="217"/>
-      <c r="G14" s="217"/>
-      <c r="H14" s="217"/>
-      <c r="I14" s="217"/>
-      <c r="J14" s="218"/>
-      <c r="K14" s="218"/>
-      <c r="L14" s="218"/>
-      <c r="M14" s="218"/>
-      <c r="N14" s="218"/>
-      <c r="O14" s="218"/>
-      <c r="P14" s="218"/>
-      <c r="Q14" s="218"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
       <c r="R14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="181">
+      <c r="S14" s="143">
         <f ca="1">TODAY()</f>
-        <v>43934</v>
-      </c>
-      <c r="T14" s="182"/>
-      <c r="U14" s="205"/>
+        <v>43973</v>
+      </c>
+      <c r="T14" s="144"/>
+      <c r="U14" s="109"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="137"/>
-      <c r="B15" s="176" t="s">
+      <c r="A15" s="174"/>
+      <c r="B15" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="177"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="178"/>
-      <c r="M15" s="178"/>
-      <c r="N15" s="178"/>
-      <c r="O15" s="178"/>
-      <c r="P15" s="178"/>
-      <c r="Q15" s="178"/>
-      <c r="R15" s="178"/>
-      <c r="S15" s="178"/>
-      <c r="T15" s="179"/>
-      <c r="U15" s="205"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="140"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="140"/>
+      <c r="Q15" s="140"/>
+      <c r="R15" s="140"/>
+      <c r="S15" s="140"/>
+      <c r="T15" s="141"/>
+      <c r="U15" s="109"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="137"/>
-      <c r="B16" s="141" t="s">
+      <c r="A16" s="174"/>
+      <c r="B16" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
-      <c r="M16" s="142"/>
-      <c r="N16" s="142"/>
-      <c r="O16" s="142"/>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="142"/>
-      <c r="R16" s="142"/>
-      <c r="S16" s="142"/>
-      <c r="T16" s="143"/>
-      <c r="U16" s="205"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
+      <c r="K16" s="178"/>
+      <c r="L16" s="178"/>
+      <c r="M16" s="178"/>
+      <c r="N16" s="178"/>
+      <c r="O16" s="178"/>
+      <c r="P16" s="178"/>
+      <c r="Q16" s="178"/>
+      <c r="R16" s="178"/>
+      <c r="S16" s="178"/>
+      <c r="T16" s="179"/>
+      <c r="U16" s="109"/>
     </row>
     <row r="17" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="137"/>
-      <c r="B17" s="144" t="s">
+      <c r="A17" s="174"/>
+      <c r="B17" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="145"/>
-      <c r="O17" s="145"/>
-      <c r="P17" s="145"/>
-      <c r="Q17" s="145"/>
-      <c r="R17" s="145"/>
-      <c r="S17" s="145"/>
-      <c r="T17" s="146"/>
-      <c r="U17" s="205"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="181"/>
+      <c r="K17" s="181"/>
+      <c r="L17" s="181"/>
+      <c r="M17" s="181"/>
+      <c r="N17" s="181"/>
+      <c r="O17" s="181"/>
+      <c r="P17" s="181"/>
+      <c r="Q17" s="181"/>
+      <c r="R17" s="181"/>
+      <c r="S17" s="181"/>
+      <c r="T17" s="182"/>
+      <c r="U17" s="109"/>
     </row>
     <row r="18" spans="1:22" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="137"/>
-      <c r="B18" s="147" t="s">
+      <c r="A18" s="174"/>
+      <c r="B18" s="183" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="148"/>
-      <c r="D18" s="149"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="149"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="149"/>
-      <c r="N18" s="149"/>
-      <c r="O18" s="149"/>
-      <c r="P18" s="149"/>
-      <c r="Q18" s="149"/>
-      <c r="R18" s="149"/>
-      <c r="S18" s="149"/>
-      <c r="T18" s="150"/>
-      <c r="U18" s="205"/>
+      <c r="C18" s="184"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="185"/>
+      <c r="L18" s="185"/>
+      <c r="M18" s="185"/>
+      <c r="N18" s="185"/>
+      <c r="O18" s="185"/>
+      <c r="P18" s="185"/>
+      <c r="Q18" s="185"/>
+      <c r="R18" s="185"/>
+      <c r="S18" s="185"/>
+      <c r="T18" s="186"/>
+      <c r="U18" s="109"/>
     </row>
     <row r="19" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="137"/>
-      <c r="B19" s="116" t="s">
+      <c r="A19" s="174"/>
+      <c r="B19" s="224" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="118"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="225"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="225"/>
+      <c r="G19" s="225"/>
+      <c r="H19" s="225"/>
+      <c r="I19" s="225"/>
+      <c r="J19" s="225"/>
+      <c r="K19" s="225"/>
+      <c r="L19" s="225"/>
+      <c r="M19" s="225"/>
+      <c r="N19" s="225"/>
+      <c r="O19" s="226"/>
       <c r="P19" s="10" t="s">
         <v>31</v>
       </c>
@@ -4301,30 +4301,30 @@
       <c r="R19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="219" t="s">
+      <c r="S19" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="220"/>
-      <c r="U19" s="205"/>
+      <c r="T19" s="127"/>
+      <c r="U19" s="109"/>
     </row>
     <row r="20" spans="1:22" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="137"/>
-      <c r="B20" s="119" t="s">
+      <c r="A20" s="174"/>
+      <c r="B20" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="122"/>
-      <c r="O20" s="123"/>
+      <c r="C20" s="228"/>
+      <c r="D20" s="229"/>
+      <c r="E20" s="228"/>
+      <c r="F20" s="228"/>
+      <c r="G20" s="228"/>
+      <c r="H20" s="228"/>
+      <c r="I20" s="228"/>
+      <c r="J20" s="228"/>
+      <c r="K20" s="228"/>
+      <c r="L20" s="228"/>
+      <c r="M20" s="230"/>
+      <c r="N20" s="230"/>
+      <c r="O20" s="231"/>
       <c r="P20" s="65"/>
       <c r="Q20" s="17" t="s">
         <v>35</v>
@@ -4334,10 +4334,10 @@
         <v>36</v>
       </c>
       <c r="T20" s="67"/>
-      <c r="U20" s="205"/>
+      <c r="U20" s="109"/>
     </row>
     <row r="21" spans="1:22" ht="81.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="137"/>
+      <c r="A21" s="174"/>
       <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
@@ -4362,38 +4362,38 @@
       <c r="I21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="108" t="s">
+      <c r="J21" s="216" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="110" t="s">
+      <c r="K21" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="223" t="s">
+      <c r="L21" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="224"/>
-      <c r="N21" s="224"/>
-      <c r="O21" s="224"/>
-      <c r="P21" s="102" t="s">
+      <c r="M21" s="131"/>
+      <c r="N21" s="131"/>
+      <c r="O21" s="131"/>
+      <c r="P21" s="210" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="R21" s="104" t="s">
+      <c r="R21" s="212" t="s">
         <v>64</v>
       </c>
       <c r="S21" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="T21" s="106" t="s">
+      <c r="T21" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="U21" s="205"/>
+      <c r="U21" s="109"/>
       <c r="V21" s="16"/>
     </row>
     <row r="22" spans="1:22" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="137"/>
+      <c r="A22" s="174"/>
       <c r="B22" s="35" t="s">
         <v>72</v>
       </c>
@@ -4406,38 +4406,38 @@
       <c r="E22" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="129" t="s">
+      <c r="F22" s="235" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="130"/>
+      <c r="G22" s="236"/>
       <c r="H22" s="38" t="s">
         <v>75</v>
       </c>
       <c r="I22" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="109"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="114" t="s">
+      <c r="J22" s="217"/>
+      <c r="K22" s="219"/>
+      <c r="L22" s="222" t="s">
         <v>90</v>
       </c>
-      <c r="M22" s="115"/>
-      <c r="N22" s="115"/>
-      <c r="O22" s="115"/>
-      <c r="P22" s="103"/>
+      <c r="M22" s="223"/>
+      <c r="N22" s="223"/>
+      <c r="O22" s="223"/>
+      <c r="P22" s="211"/>
       <c r="Q22" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="R22" s="105"/>
+      <c r="R22" s="213"/>
       <c r="S22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T22" s="107"/>
-      <c r="U22" s="205"/>
+      <c r="T22" s="215"/>
+      <c r="U22" s="109"/>
       <c r="V22" s="16"/>
     </row>
     <row r="23" spans="1:22" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="137"/>
+      <c r="A23" s="174"/>
       <c r="B23" s="69">
         <v>1</v>
       </c>
@@ -4477,10 +4477,10 @@
         <f>R23*(1-S23)</f>
         <v>693</v>
       </c>
-      <c r="U23" s="205"/>
+      <c r="U23" s="109"/>
     </row>
     <row r="24" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A24" s="137"/>
+      <c r="A24" s="174"/>
       <c r="B24" s="69">
         <v>0</v>
       </c>
@@ -4516,10 +4516,10 @@
         <f t="shared" ref="T24:T32" si="1">R24*(1-S24)</f>
         <v>0</v>
       </c>
-      <c r="U24" s="205"/>
+      <c r="U24" s="109"/>
     </row>
     <row r="25" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A25" s="137"/>
+      <c r="A25" s="174"/>
       <c r="B25" s="69">
         <v>0</v>
       </c>
@@ -4555,10 +4555,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U25" s="205"/>
+      <c r="U25" s="109"/>
     </row>
     <row r="26" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A26" s="137"/>
+      <c r="A26" s="174"/>
       <c r="B26" s="69">
         <v>0</v>
       </c>
@@ -4594,10 +4594,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U26" s="205"/>
+      <c r="U26" s="109"/>
     </row>
     <row r="27" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A27" s="137"/>
+      <c r="A27" s="174"/>
       <c r="B27" s="69">
         <v>0</v>
       </c>
@@ -4633,10 +4633,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U27" s="205"/>
+      <c r="U27" s="109"/>
     </row>
     <row r="28" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A28" s="137"/>
+      <c r="A28" s="174"/>
       <c r="B28" s="69">
         <v>0</v>
       </c>
@@ -4672,10 +4672,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28" s="205"/>
+      <c r="U28" s="109"/>
     </row>
     <row r="29" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A29" s="137"/>
+      <c r="A29" s="174"/>
       <c r="B29" s="69">
         <v>0</v>
       </c>
@@ -4709,10 +4709,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U29" s="205"/>
+      <c r="U29" s="109"/>
     </row>
     <row r="30" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A30" s="137"/>
+      <c r="A30" s="174"/>
       <c r="B30" s="69">
         <v>0</v>
       </c>
@@ -4746,10 +4746,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U30" s="205"/>
+      <c r="U30" s="109"/>
     </row>
     <row r="31" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A31" s="137"/>
+      <c r="A31" s="174"/>
       <c r="B31" s="69">
         <v>0</v>
       </c>
@@ -4785,10 +4785,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U31" s="205"/>
+      <c r="U31" s="109"/>
     </row>
     <row r="32" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="137"/>
+      <c r="A32" s="174"/>
       <c r="B32" s="70">
         <v>0</v>
       </c>
@@ -4824,16 +4824,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="205"/>
+      <c r="U32" s="109"/>
     </row>
     <row r="33" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="137"/>
+      <c r="A33" s="174"/>
       <c r="B33" s="45">
         <v>0</v>
       </c>
       <c r="C33" s="46"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="140"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="176"/>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
@@ -4856,16 +4856,16 @@
         <f>(R33-(R33*S33))*B33</f>
         <v>0</v>
       </c>
-      <c r="U33" s="205"/>
+      <c r="U33" s="109"/>
     </row>
     <row r="34" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="137"/>
+      <c r="A34" s="174"/>
       <c r="B34" s="45">
         <v>0</v>
       </c>
       <c r="C34" s="46"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="132"/>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
@@ -4888,16 +4888,16 @@
         <f>(R34-(R34*S34))*B34</f>
         <v>0</v>
       </c>
-      <c r="U34" s="205"/>
+      <c r="U34" s="109"/>
     </row>
     <row r="35" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="137"/>
+      <c r="A35" s="174"/>
       <c r="B35" s="45">
         <v>0</v>
       </c>
       <c r="C35" s="46"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="139"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -4920,67 +4920,67 @@
         <f>(R35-(R35*S35))*B35</f>
         <v>0</v>
       </c>
-      <c r="U35" s="205"/>
+      <c r="U35" s="109"/>
     </row>
     <row r="36" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="137"/>
-      <c r="B36" s="156" t="s">
+      <c r="A36" s="174"/>
+      <c r="B36" s="187" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="157"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="157"/>
-      <c r="K36" s="157"/>
-      <c r="L36" s="161" t="s">
+      <c r="C36" s="188"/>
+      <c r="D36" s="188"/>
+      <c r="E36" s="188"/>
+      <c r="F36" s="188"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="188"/>
+      <c r="I36" s="188"/>
+      <c r="J36" s="188"/>
+      <c r="K36" s="188"/>
+      <c r="L36" s="192" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="161"/>
-      <c r="N36" s="161"/>
-      <c r="O36" s="161"/>
+      <c r="M36" s="192"/>
+      <c r="N36" s="192"/>
+      <c r="O36" s="192"/>
       <c r="P36" s="51">
         <f>SUM(P23:P32)</f>
         <v>990</v>
       </c>
       <c r="Q36" s="52"/>
-      <c r="R36" s="154" t="s">
+      <c r="R36" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="S36" s="155"/>
+      <c r="S36" s="150"/>
       <c r="T36" s="53">
         <f>SUM(T23:T35)</f>
         <v>693</v>
       </c>
-      <c r="U36" s="205"/>
+      <c r="U36" s="109"/>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="137"/>
-      <c r="B37" s="200" t="s">
+      <c r="A37" s="174"/>
+      <c r="B37" s="166" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="169" t="s">
+      <c r="D37" s="200" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="162" t="s">
+      <c r="E37" s="201"/>
+      <c r="F37" s="201"/>
+      <c r="G37" s="201"/>
+      <c r="H37" s="201"/>
+      <c r="I37" s="201"/>
+      <c r="J37" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="163"/>
-      <c r="L37" s="163"/>
-      <c r="M37" s="163"/>
-      <c r="N37" s="163"/>
-      <c r="O37" s="163"/>
+      <c r="K37" s="194"/>
+      <c r="L37" s="194"/>
+      <c r="M37" s="194"/>
+      <c r="N37" s="194"/>
+      <c r="O37" s="194"/>
       <c r="P37" s="55">
         <f>SUM(R23:R32)</f>
         <v>990</v>
@@ -4988,19 +4988,19 @@
       <c r="Q37" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="154" t="s">
+      <c r="R37" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="S37" s="155"/>
+      <c r="S37" s="150"/>
       <c r="T37" s="56">
         <f>T36*0.16</f>
         <v>110.88</v>
       </c>
-      <c r="U37" s="205"/>
+      <c r="U37" s="109"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="137"/>
-      <c r="B38" s="201"/>
+      <c r="A38" s="174"/>
+      <c r="B38" s="167"/>
       <c r="C38" s="57"/>
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
@@ -5016,74 +5016,74 @@
       <c r="O38" s="52"/>
       <c r="P38" s="52"/>
       <c r="Q38" s="52"/>
-      <c r="R38" s="188" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="189"/>
+      <c r="R38" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="152"/>
       <c r="T38" s="58">
         <v>0</v>
       </c>
-      <c r="U38" s="205"/>
+      <c r="U38" s="109"/>
     </row>
     <row r="39" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="137"/>
-      <c r="B39" s="201"/>
+      <c r="A39" s="174"/>
+      <c r="B39" s="167"/>
       <c r="C39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="198" t="s">
+      <c r="D39" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="199"/>
-      <c r="F39" s="199"/>
-      <c r="G39" s="199"/>
-      <c r="H39" s="199"/>
-      <c r="I39" s="199"/>
-      <c r="J39" s="199"/>
-      <c r="K39" s="202"/>
-      <c r="L39" s="203"/>
-      <c r="M39" s="203"/>
-      <c r="N39" s="203"/>
-      <c r="O39" s="203"/>
-      <c r="P39" s="203"/>
-      <c r="Q39" s="204"/>
-      <c r="R39" s="190" t="s">
+      <c r="E39" s="165"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="165"/>
+      <c r="I39" s="165"/>
+      <c r="J39" s="165"/>
+      <c r="K39" s="168"/>
+      <c r="L39" s="169"/>
+      <c r="M39" s="169"/>
+      <c r="N39" s="169"/>
+      <c r="O39" s="169"/>
+      <c r="P39" s="169"/>
+      <c r="Q39" s="170"/>
+      <c r="R39" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="S39" s="191"/>
+      <c r="S39" s="154"/>
       <c r="T39" s="59">
         <f>T36+T37+T38</f>
         <v>803.88</v>
       </c>
-      <c r="U39" s="205"/>
+      <c r="U39" s="109"/>
     </row>
     <row r="40" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="137"/>
-      <c r="B40" s="164" t="s">
+      <c r="A40" s="174"/>
+      <c r="B40" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="165"/>
-      <c r="D40" s="166"/>
-      <c r="E40" s="167"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="167"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="167"/>
-      <c r="K40" s="167"/>
-      <c r="L40" s="167"/>
-      <c r="M40" s="167"/>
-      <c r="N40" s="167"/>
-      <c r="O40" s="167"/>
-      <c r="P40" s="167"/>
-      <c r="Q40" s="167"/>
-      <c r="R40" s="167"/>
-      <c r="S40" s="168"/>
+      <c r="C40" s="196"/>
+      <c r="D40" s="197"/>
+      <c r="E40" s="198"/>
+      <c r="F40" s="198"/>
+      <c r="G40" s="198"/>
+      <c r="H40" s="198"/>
+      <c r="I40" s="198"/>
+      <c r="J40" s="198"/>
+      <c r="K40" s="198"/>
+      <c r="L40" s="198"/>
+      <c r="M40" s="198"/>
+      <c r="N40" s="198"/>
+      <c r="O40" s="198"/>
+      <c r="P40" s="198"/>
+      <c r="Q40" s="198"/>
+      <c r="R40" s="198"/>
+      <c r="S40" s="199"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="205"/>
+      <c r="U40" s="109"/>
     </row>
     <row r="41" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="137"/>
+      <c r="A41" s="174"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
@@ -5103,114 +5103,156 @@
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
       <c r="T41" s="22"/>
-      <c r="U41" s="205"/>
+      <c r="U41" s="109"/>
     </row>
     <row r="42" spans="1:21" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="137"/>
-      <c r="B42" s="158" t="s">
+      <c r="A42" s="174"/>
+      <c r="B42" s="189" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="159"/>
-      <c r="D42" s="159"/>
-      <c r="E42" s="159"/>
-      <c r="F42" s="159"/>
-      <c r="G42" s="159"/>
-      <c r="H42" s="159"/>
-      <c r="I42" s="159"/>
-      <c r="J42" s="159"/>
-      <c r="K42" s="159"/>
-      <c r="L42" s="159"/>
-      <c r="M42" s="159"/>
-      <c r="N42" s="159"/>
-      <c r="O42" s="159"/>
-      <c r="P42" s="159"/>
-      <c r="Q42" s="159"/>
-      <c r="R42" s="159"/>
-      <c r="S42" s="159"/>
-      <c r="T42" s="160"/>
-      <c r="U42" s="205"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="190"/>
+      <c r="J42" s="190"/>
+      <c r="K42" s="190"/>
+      <c r="L42" s="190"/>
+      <c r="M42" s="190"/>
+      <c r="N42" s="190"/>
+      <c r="O42" s="190"/>
+      <c r="P42" s="190"/>
+      <c r="Q42" s="190"/>
+      <c r="R42" s="190"/>
+      <c r="S42" s="190"/>
+      <c r="T42" s="191"/>
+      <c r="U42" s="109"/>
     </row>
     <row r="43" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="138"/>
-      <c r="B43" s="206" t="s">
+      <c r="A43" s="175"/>
+      <c r="B43" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="207"/>
-      <c r="D43" s="208"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="152"/>
-      <c r="G43" s="152"/>
-      <c r="H43" s="152"/>
-      <c r="I43" s="152"/>
-      <c r="J43" s="152"/>
-      <c r="K43" s="152"/>
-      <c r="L43" s="152"/>
-      <c r="M43" s="152"/>
-      <c r="N43" s="152"/>
-      <c r="O43" s="152"/>
-      <c r="P43" s="152"/>
-      <c r="Q43" s="152"/>
-      <c r="R43" s="152"/>
-      <c r="S43" s="152"/>
-      <c r="T43" s="153"/>
-      <c r="U43" s="205"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="161"/>
+      <c r="F43" s="162"/>
+      <c r="G43" s="162"/>
+      <c r="H43" s="162"/>
+      <c r="I43" s="162"/>
+      <c r="J43" s="162"/>
+      <c r="K43" s="162"/>
+      <c r="L43" s="162"/>
+      <c r="M43" s="162"/>
+      <c r="N43" s="162"/>
+      <c r="O43" s="162"/>
+      <c r="P43" s="162"/>
+      <c r="Q43" s="162"/>
+      <c r="R43" s="162"/>
+      <c r="S43" s="162"/>
+      <c r="T43" s="163"/>
+      <c r="U43" s="109"/>
     </row>
     <row r="44" spans="1:21" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
-      <c r="B44" s="206" t="s">
+      <c r="B44" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="207"/>
-      <c r="D44" s="207"/>
-      <c r="E44" s="151"/>
-      <c r="F44" s="152"/>
-      <c r="G44" s="152"/>
-      <c r="H44" s="152"/>
-      <c r="I44" s="152"/>
-      <c r="J44" s="152"/>
-      <c r="K44" s="152"/>
-      <c r="L44" s="152"/>
-      <c r="M44" s="152"/>
-      <c r="N44" s="152"/>
-      <c r="O44" s="152"/>
-      <c r="P44" s="152"/>
-      <c r="Q44" s="152"/>
-      <c r="R44" s="152"/>
-      <c r="S44" s="152"/>
-      <c r="T44" s="153"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="161"/>
+      <c r="F44" s="162"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="162"/>
+      <c r="I44" s="162"/>
+      <c r="J44" s="162"/>
+      <c r="K44" s="162"/>
+      <c r="L44" s="162"/>
+      <c r="M44" s="162"/>
+      <c r="N44" s="162"/>
+      <c r="O44" s="162"/>
+      <c r="P44" s="162"/>
+      <c r="Q44" s="162"/>
+      <c r="R44" s="162"/>
+      <c r="S44" s="162"/>
+      <c r="T44" s="163"/>
       <c r="U44" s="33"/>
     </row>
     <row r="45" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="171"/>
-      <c r="B45" s="172"/>
-      <c r="C45" s="172"/>
-      <c r="D45" s="172"/>
-      <c r="E45" s="172"/>
-      <c r="F45" s="172"/>
-      <c r="G45" s="172"/>
-      <c r="H45" s="172"/>
-      <c r="I45" s="172"/>
-      <c r="J45" s="172"/>
-      <c r="K45" s="172"/>
-      <c r="L45" s="172"/>
-      <c r="M45" s="172"/>
-      <c r="N45" s="172"/>
-      <c r="O45" s="172"/>
-      <c r="P45" s="172"/>
-      <c r="Q45" s="172"/>
-      <c r="R45" s="172"/>
-      <c r="S45" s="172"/>
-      <c r="T45" s="172"/>
-      <c r="U45" s="173"/>
+      <c r="A45" s="133"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="134"/>
+      <c r="H45" s="134"/>
+      <c r="I45" s="134"/>
+      <c r="J45" s="134"/>
+      <c r="K45" s="134"/>
+      <c r="L45" s="134"/>
+      <c r="M45" s="134"/>
+      <c r="N45" s="134"/>
+      <c r="O45" s="134"/>
+      <c r="P45" s="134"/>
+      <c r="Q45" s="134"/>
+      <c r="R45" s="134"/>
+      <c r="S45" s="134"/>
+      <c r="T45" s="134"/>
+      <c r="U45" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B16:T16"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="B18:T18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B42:T42"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:S40"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B15:T15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="E44:T44"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="K39:Q39"/>
     <mergeCell ref="U2:U43"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
@@ -5227,54 +5269,12 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="L21:O21"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B15:T15"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="E44:T44"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B16:T16"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="B18:T18"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B42:T42"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:S40"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="P11:R11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
+++ b/Documentos de Venta/FTO PEDIDO DIST DEL 27-05-15_AG - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EC16\Documents\SOSQTP\Documentos de Venta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97A35F0-5F17-4C8D-BC81-F8C8DDB8B2F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6563730E-1507-4E2D-A152-270D919BEC09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1007,7 +1007,25 @@
     <t>Marisol Ornelas Casillas</t>
   </si>
   <si>
-    <t>P4230</t>
+    <t>P4629</t>
+  </si>
+  <si>
+    <t>FACT ELECTRONICA ANUAL</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>53E3</t>
+  </si>
+  <si>
+    <t>4B18</t>
+  </si>
+  <si>
+    <t>306C</t>
+  </si>
+  <si>
+    <t>1143</t>
   </si>
 </sst>
 </file>
@@ -2909,117 +2927,234 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3060,14 +3195,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3084,7 +3216,7 @@
     <xf numFmtId="0" fontId="94" fillId="5" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3099,15 +3231,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3129,210 +3252,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3740,8 +3758,8 @@
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3772,32 +3790,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="134" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="173"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="136"/>
     </row>
     <row r="2" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="174"/>
+      <c r="A2" s="137"/>
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
@@ -3810,21 +3828,21 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
-      <c r="L2" s="205" t="s">
+      <c r="L2" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="206"/>
-      <c r="T2" s="207"/>
-      <c r="U2" s="109"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="205"/>
     </row>
     <row r="3" spans="1:21" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="174"/>
+      <c r="A3" s="137"/>
       <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
@@ -3837,297 +3855,297 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
-      <c r="L3" s="208" t="s">
+      <c r="L3" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="208"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="208"/>
-      <c r="Q3" s="208"/>
-      <c r="R3" s="208"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="109"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="205"/>
     </row>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="174"/>
-      <c r="B4" s="202" t="s">
+      <c r="A4" s="137"/>
+      <c r="B4" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="203"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="203"/>
-      <c r="J4" s="203"/>
-      <c r="K4" s="203"/>
-      <c r="L4" s="203"/>
-      <c r="M4" s="203"/>
-      <c r="N4" s="203"/>
-      <c r="O4" s="203"/>
-      <c r="P4" s="203"/>
-      <c r="Q4" s="203"/>
-      <c r="R4" s="203"/>
-      <c r="S4" s="203"/>
-      <c r="T4" s="204"/>
-      <c r="U4" s="109"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="205"/>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="174"/>
-      <c r="B5" s="122"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="136" t="s">
+      <c r="A5" s="137"/>
+      <c r="B5" s="215"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="216"/>
+      <c r="L5" s="216"/>
+      <c r="M5" s="216"/>
+      <c r="N5" s="216"/>
+      <c r="O5" s="216"/>
+      <c r="P5" s="216"/>
+      <c r="Q5" s="216"/>
+      <c r="R5" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="137"/>
+      <c r="S5" s="175"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="109"/>
+      <c r="U5" s="205"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="174"/>
-      <c r="B6" s="113" t="s">
+      <c r="A6" s="137"/>
+      <c r="B6" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="104" t="s">
+      <c r="C6" s="210"/>
+      <c r="D6" s="235" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="105"/>
+      <c r="E6" s="235"/>
+      <c r="F6" s="236"/>
+      <c r="G6" s="236"/>
+      <c r="H6" s="236"/>
+      <c r="I6" s="236"/>
+      <c r="J6" s="236"/>
+      <c r="K6" s="236"/>
+      <c r="L6" s="236"/>
+      <c r="M6" s="236"/>
+      <c r="N6" s="236"/>
+      <c r="O6" s="236"/>
+      <c r="P6" s="236"/>
+      <c r="Q6" s="236"/>
       <c r="R6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="100" t="s">
+      <c r="S6" s="231" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="101"/>
-      <c r="U6" s="109"/>
+      <c r="T6" s="232"/>
+      <c r="U6" s="205"/>
     </row>
     <row r="7" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="174"/>
-      <c r="B7" s="113" t="s">
+      <c r="A7" s="137"/>
+      <c r="B7" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="115" t="s">
+      <c r="C7" s="210"/>
+      <c r="D7" s="186" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="148"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="187"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
       <c r="R7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="102" t="s">
+      <c r="S7" s="233" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="103"/>
-      <c r="U7" s="109"/>
+      <c r="T7" s="234"/>
+      <c r="U7" s="205"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="174"/>
-      <c r="B8" s="113" t="s">
+      <c r="A8" s="137"/>
+      <c r="B8" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="232" t="s">
+      <c r="C8" s="210"/>
+      <c r="D8" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="148"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="155" t="s">
+      <c r="K8" s="192" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="157"/>
-      <c r="U8" s="109"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="193"/>
+      <c r="R8" s="193"/>
+      <c r="S8" s="193"/>
+      <c r="T8" s="194"/>
+      <c r="U8" s="205"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="174"/>
-      <c r="B9" s="113" t="s">
+      <c r="A9" s="137"/>
+      <c r="B9" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="115" t="s">
+      <c r="C9" s="210"/>
+      <c r="D9" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="211"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="211"/>
+      <c r="N9" s="211"/>
+      <c r="O9" s="211"/>
+      <c r="P9" s="211"/>
       <c r="Q9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="119" t="s">
+      <c r="R9" s="212" t="s">
         <v>105</v>
       </c>
-      <c r="S9" s="120"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="109"/>
+      <c r="S9" s="213"/>
+      <c r="T9" s="214"/>
+      <c r="U9" s="205"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="174"/>
-      <c r="B10" s="113" t="s">
+      <c r="A10" s="137"/>
+      <c r="B10" s="209" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="233" t="s">
+      <c r="C10" s="210"/>
+      <c r="D10" s="127" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="233"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="234"/>
-      <c r="H10" s="234"/>
-      <c r="I10" s="234"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="158" t="s">
+      <c r="K10" s="195" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="159"/>
-      <c r="M10" s="159"/>
-      <c r="N10" s="159"/>
-      <c r="O10" s="159"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="159"/>
-      <c r="R10" s="159"/>
-      <c r="S10" s="159"/>
-      <c r="T10" s="160"/>
-      <c r="U10" s="109"/>
+      <c r="L10" s="196"/>
+      <c r="M10" s="196"/>
+      <c r="N10" s="196"/>
+      <c r="O10" s="196"/>
+      <c r="P10" s="196"/>
+      <c r="Q10" s="196"/>
+      <c r="R10" s="196"/>
+      <c r="S10" s="196"/>
+      <c r="T10" s="197"/>
+      <c r="U10" s="205"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="174"/>
-      <c r="B11" s="94" t="s">
+      <c r="A11" s="137"/>
+      <c r="B11" s="225" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="237" t="s">
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="131" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="238"/>
-      <c r="G11" s="238"/>
-      <c r="H11" s="238"/>
-      <c r="I11" s="238"/>
-      <c r="J11" s="238"/>
-      <c r="K11" s="238"/>
-      <c r="L11" s="238"/>
-      <c r="M11" s="238"/>
-      <c r="N11" s="238"/>
-      <c r="O11" s="239"/>
-      <c r="P11" s="106" t="s">
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="237" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="128" t="s">
+      <c r="Q11" s="238"/>
+      <c r="R11" s="239"/>
+      <c r="S11" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="129"/>
-      <c r="U11" s="109"/>
+      <c r="T11" s="222"/>
+      <c r="U11" s="205"/>
     </row>
     <row r="12" spans="1:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="174"/>
-      <c r="B12" s="96" t="s">
+      <c r="A12" s="137"/>
+      <c r="B12" s="227" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="109"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="229"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="229"/>
+      <c r="G12" s="229"/>
+      <c r="H12" s="229"/>
+      <c r="I12" s="229"/>
+      <c r="J12" s="229"/>
+      <c r="K12" s="229"/>
+      <c r="L12" s="229"/>
+      <c r="M12" s="229"/>
+      <c r="N12" s="229"/>
+      <c r="O12" s="229"/>
+      <c r="P12" s="229"/>
+      <c r="Q12" s="229"/>
+      <c r="R12" s="229"/>
+      <c r="S12" s="229"/>
+      <c r="T12" s="230"/>
+      <c r="U12" s="205"/>
     </row>
     <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="174"/>
-      <c r="B13" s="220" t="s">
+      <c r="A13" s="137"/>
+      <c r="B13" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="221"/>
-      <c r="D13" s="221"/>
-      <c r="E13" s="221"/>
-      <c r="F13" s="221"/>
-      <c r="G13" s="221"/>
-      <c r="H13" s="221"/>
-      <c r="I13" s="221"/>
-      <c r="J13" s="221"/>
-      <c r="K13" s="221"/>
-      <c r="L13" s="221"/>
-      <c r="M13" s="221"/>
-      <c r="N13" s="221"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
       <c r="O13" s="75" t="s">
         <v>0</v>
       </c>
@@ -4135,165 +4153,165 @@
         <v>0</v>
       </c>
       <c r="Q13" s="76"/>
-      <c r="R13" s="142" t="s">
+      <c r="R13" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="142"/>
+      <c r="S13" s="180"/>
       <c r="T13" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="U13" s="109"/>
+      <c r="U13" s="205"/>
     </row>
     <row r="14" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="174"/>
-      <c r="B14" s="145" t="s">
+      <c r="A14" s="137"/>
+      <c r="B14" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="146"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="124" t="s">
+      <c r="C14" s="184"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="125"/>
+      <c r="F14" s="217"/>
+      <c r="G14" s="217"/>
+      <c r="H14" s="217"/>
+      <c r="I14" s="217"/>
+      <c r="J14" s="218"/>
+      <c r="K14" s="218"/>
+      <c r="L14" s="218"/>
+      <c r="M14" s="218"/>
+      <c r="N14" s="218"/>
+      <c r="O14" s="218"/>
+      <c r="P14" s="218"/>
+      <c r="Q14" s="218"/>
       <c r="R14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="143">
+      <c r="S14" s="181">
         <f ca="1">TODAY()</f>
-        <v>43973</v>
-      </c>
-      <c r="T14" s="144"/>
-      <c r="U14" s="109"/>
+        <v>44193</v>
+      </c>
+      <c r="T14" s="182"/>
+      <c r="U14" s="205"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="174"/>
-      <c r="B15" s="138" t="s">
+      <c r="A15" s="137"/>
+      <c r="B15" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="140"/>
-      <c r="M15" s="140"/>
-      <c r="N15" s="140"/>
-      <c r="O15" s="140"/>
-      <c r="P15" s="140"/>
-      <c r="Q15" s="140"/>
-      <c r="R15" s="140"/>
-      <c r="S15" s="140"/>
-      <c r="T15" s="141"/>
-      <c r="U15" s="109"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="178"/>
+      <c r="K15" s="178"/>
+      <c r="L15" s="178"/>
+      <c r="M15" s="178"/>
+      <c r="N15" s="178"/>
+      <c r="O15" s="178"/>
+      <c r="P15" s="178"/>
+      <c r="Q15" s="178"/>
+      <c r="R15" s="178"/>
+      <c r="S15" s="178"/>
+      <c r="T15" s="179"/>
+      <c r="U15" s="205"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="174"/>
-      <c r="B16" s="177" t="s">
+      <c r="A16" s="137"/>
+      <c r="B16" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="178"/>
-      <c r="M16" s="178"/>
-      <c r="N16" s="178"/>
-      <c r="O16" s="178"/>
-      <c r="P16" s="178"/>
-      <c r="Q16" s="178"/>
-      <c r="R16" s="178"/>
-      <c r="S16" s="178"/>
-      <c r="T16" s="179"/>
-      <c r="U16" s="109"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="142"/>
+      <c r="Q16" s="142"/>
+      <c r="R16" s="142"/>
+      <c r="S16" s="142"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="205"/>
     </row>
     <row r="17" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="174"/>
-      <c r="B17" s="180" t="s">
+      <c r="A17" s="137"/>
+      <c r="B17" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="181"/>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="181"/>
-      <c r="J17" s="181"/>
-      <c r="K17" s="181"/>
-      <c r="L17" s="181"/>
-      <c r="M17" s="181"/>
-      <c r="N17" s="181"/>
-      <c r="O17" s="181"/>
-      <c r="P17" s="181"/>
-      <c r="Q17" s="181"/>
-      <c r="R17" s="181"/>
-      <c r="S17" s="181"/>
-      <c r="T17" s="182"/>
-      <c r="U17" s="109"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="145"/>
+      <c r="R17" s="145"/>
+      <c r="S17" s="145"/>
+      <c r="T17" s="146"/>
+      <c r="U17" s="205"/>
     </row>
     <row r="18" spans="1:22" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="174"/>
-      <c r="B18" s="183" t="s">
+      <c r="A18" s="137"/>
+      <c r="B18" s="147" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="184"/>
-      <c r="D18" s="185"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="185"/>
-      <c r="K18" s="185"/>
-      <c r="L18" s="185"/>
-      <c r="M18" s="185"/>
-      <c r="N18" s="185"/>
-      <c r="O18" s="185"/>
-      <c r="P18" s="185"/>
-      <c r="Q18" s="185"/>
-      <c r="R18" s="185"/>
-      <c r="S18" s="185"/>
-      <c r="T18" s="186"/>
-      <c r="U18" s="109"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="149"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="149"/>
+      <c r="P18" s="149"/>
+      <c r="Q18" s="149"/>
+      <c r="R18" s="149"/>
+      <c r="S18" s="149"/>
+      <c r="T18" s="150"/>
+      <c r="U18" s="205"/>
     </row>
     <row r="19" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="174"/>
-      <c r="B19" s="224" t="s">
+      <c r="A19" s="137"/>
+      <c r="B19" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="225"/>
-      <c r="D19" s="225"/>
-      <c r="E19" s="225"/>
-      <c r="F19" s="225"/>
-      <c r="G19" s="225"/>
-      <c r="H19" s="225"/>
-      <c r="I19" s="225"/>
-      <c r="J19" s="225"/>
-      <c r="K19" s="225"/>
-      <c r="L19" s="225"/>
-      <c r="M19" s="225"/>
-      <c r="N19" s="225"/>
-      <c r="O19" s="226"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="118"/>
       <c r="P19" s="10" t="s">
         <v>31</v>
       </c>
@@ -4301,30 +4319,30 @@
       <c r="R19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="126" t="s">
+      <c r="S19" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="127"/>
-      <c r="U19" s="109"/>
+      <c r="T19" s="220"/>
+      <c r="U19" s="205"/>
     </row>
     <row r="20" spans="1:22" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="174"/>
-      <c r="B20" s="227" t="s">
+      <c r="A20" s="137"/>
+      <c r="B20" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="228"/>
-      <c r="D20" s="229"/>
-      <c r="E20" s="228"/>
-      <c r="F20" s="228"/>
-      <c r="G20" s="228"/>
-      <c r="H20" s="228"/>
-      <c r="I20" s="228"/>
-      <c r="J20" s="228"/>
-      <c r="K20" s="228"/>
-      <c r="L20" s="228"/>
-      <c r="M20" s="230"/>
-      <c r="N20" s="230"/>
-      <c r="O20" s="231"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="123"/>
       <c r="P20" s="65"/>
       <c r="Q20" s="17" t="s">
         <v>35</v>
@@ -4334,10 +4352,10 @@
         <v>36</v>
       </c>
       <c r="T20" s="67"/>
-      <c r="U20" s="109"/>
+      <c r="U20" s="205"/>
     </row>
     <row r="21" spans="1:22" ht="81.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="174"/>
+      <c r="A21" s="137"/>
       <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
@@ -4362,38 +4380,38 @@
       <c r="I21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="216" t="s">
+      <c r="J21" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="218" t="s">
+      <c r="K21" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="130" t="s">
+      <c r="L21" s="223" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="210" t="s">
+      <c r="M21" s="224"/>
+      <c r="N21" s="224"/>
+      <c r="O21" s="224"/>
+      <c r="P21" s="102" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="R21" s="212" t="s">
+      <c r="R21" s="104" t="s">
         <v>64</v>
       </c>
       <c r="S21" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="T21" s="214" t="s">
+      <c r="T21" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="U21" s="109"/>
+      <c r="U21" s="205"/>
       <c r="V21" s="16"/>
     </row>
     <row r="22" spans="1:22" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="174"/>
+      <c r="A22" s="137"/>
       <c r="B22" s="35" t="s">
         <v>72</v>
       </c>
@@ -4406,81 +4424,99 @@
       <c r="E22" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="235" t="s">
+      <c r="F22" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="236"/>
+      <c r="G22" s="130"/>
       <c r="H22" s="38" t="s">
         <v>75</v>
       </c>
       <c r="I22" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="217"/>
-      <c r="K22" s="219"/>
-      <c r="L22" s="222" t="s">
+      <c r="J22" s="109"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="M22" s="223"/>
-      <c r="N22" s="223"/>
-      <c r="O22" s="223"/>
-      <c r="P22" s="211"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="103"/>
       <c r="Q22" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="R22" s="213"/>
+      <c r="R22" s="105"/>
       <c r="S22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T22" s="215"/>
-      <c r="U22" s="109"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="205"/>
       <c r="V22" s="16"/>
     </row>
     <row r="23" spans="1:22" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="174"/>
+      <c r="A23" s="137"/>
       <c r="B23" s="69">
         <v>1</v>
       </c>
       <c r="C23" s="88" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D23" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
+        <v>109</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="40">
+        <v>1</v>
+      </c>
+      <c r="G23" s="40">
+        <v>1</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>110</v>
+      </c>
       <c r="J23" s="40"/>
       <c r="K23" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="L23" s="80"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="81"/>
+      <c r="L23" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="M23" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="N23" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="O23" s="81" t="s">
+        <v>114</v>
+      </c>
       <c r="P23" s="44">
-        <v>990</v>
+        <v>1890</v>
       </c>
       <c r="Q23" s="71">
         <v>0</v>
       </c>
       <c r="R23" s="42">
         <f t="shared" ref="R23:R32" si="0">(P23*B23)*(1-Q23)</f>
-        <v>990</v>
+        <v>1890</v>
       </c>
       <c r="S23" s="73">
         <v>0.3</v>
       </c>
       <c r="T23" s="43">
         <f>R23*(1-S23)</f>
-        <v>693</v>
-      </c>
-      <c r="U23" s="109"/>
+        <v>1323</v>
+      </c>
+      <c r="U23" s="205"/>
     </row>
     <row r="24" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A24" s="174"/>
+      <c r="A24" s="137"/>
       <c r="B24" s="69">
         <v>0</v>
       </c>
@@ -4516,10 +4552,10 @@
         <f t="shared" ref="T24:T32" si="1">R24*(1-S24)</f>
         <v>0</v>
       </c>
-      <c r="U24" s="109"/>
+      <c r="U24" s="205"/>
     </row>
     <row r="25" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A25" s="174"/>
+      <c r="A25" s="137"/>
       <c r="B25" s="69">
         <v>0</v>
       </c>
@@ -4555,10 +4591,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U25" s="109"/>
+      <c r="U25" s="205"/>
     </row>
     <row r="26" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A26" s="174"/>
+      <c r="A26" s="137"/>
       <c r="B26" s="69">
         <v>0</v>
       </c>
@@ -4594,10 +4630,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U26" s="109"/>
+      <c r="U26" s="205"/>
     </row>
     <row r="27" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A27" s="174"/>
+      <c r="A27" s="137"/>
       <c r="B27" s="69">
         <v>0</v>
       </c>
@@ -4633,10 +4669,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U27" s="109"/>
+      <c r="U27" s="205"/>
     </row>
     <row r="28" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A28" s="174"/>
+      <c r="A28" s="137"/>
       <c r="B28" s="69">
         <v>0</v>
       </c>
@@ -4672,10 +4708,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28" s="109"/>
+      <c r="U28" s="205"/>
     </row>
     <row r="29" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A29" s="174"/>
+      <c r="A29" s="137"/>
       <c r="B29" s="69">
         <v>0</v>
       </c>
@@ -4709,10 +4745,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U29" s="109"/>
+      <c r="U29" s="205"/>
     </row>
     <row r="30" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A30" s="174"/>
+      <c r="A30" s="137"/>
       <c r="B30" s="69">
         <v>0</v>
       </c>
@@ -4746,10 +4782,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U30" s="109"/>
+      <c r="U30" s="205"/>
     </row>
     <row r="31" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A31" s="174"/>
+      <c r="A31" s="137"/>
       <c r="B31" s="69">
         <v>0</v>
       </c>
@@ -4785,10 +4821,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U31" s="109"/>
+      <c r="U31" s="205"/>
     </row>
     <row r="32" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="174"/>
+      <c r="A32" s="137"/>
       <c r="B32" s="70">
         <v>0</v>
       </c>
@@ -4824,16 +4860,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="109"/>
+      <c r="U32" s="205"/>
     </row>
     <row r="33" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="174"/>
+      <c r="A33" s="137"/>
       <c r="B33" s="45">
         <v>0</v>
       </c>
       <c r="C33" s="46"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="176"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="140"/>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
@@ -4856,16 +4892,16 @@
         <f>(R33-(R33*S33))*B33</f>
         <v>0</v>
       </c>
-      <c r="U33" s="109"/>
+      <c r="U33" s="205"/>
     </row>
     <row r="34" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="174"/>
+      <c r="A34" s="137"/>
       <c r="B34" s="45">
         <v>0</v>
       </c>
       <c r="C34" s="46"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="132"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
@@ -4888,16 +4924,16 @@
         <f>(R34-(R34*S34))*B34</f>
         <v>0</v>
       </c>
-      <c r="U34" s="109"/>
+      <c r="U34" s="205"/>
     </row>
     <row r="35" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="174"/>
+      <c r="A35" s="137"/>
       <c r="B35" s="45">
         <v>0</v>
       </c>
       <c r="C35" s="46"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="132"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="139"/>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -4920,87 +4956,87 @@
         <f>(R35-(R35*S35))*B35</f>
         <v>0</v>
       </c>
-      <c r="U35" s="109"/>
+      <c r="U35" s="205"/>
     </row>
     <row r="36" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="174"/>
-      <c r="B36" s="187" t="s">
+      <c r="A36" s="137"/>
+      <c r="B36" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="188"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="188"/>
-      <c r="J36" s="188"/>
-      <c r="K36" s="188"/>
-      <c r="L36" s="192" t="s">
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157"/>
+      <c r="K36" s="157"/>
+      <c r="L36" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="192"/>
-      <c r="N36" s="192"/>
-      <c r="O36" s="192"/>
+      <c r="M36" s="161"/>
+      <c r="N36" s="161"/>
+      <c r="O36" s="161"/>
       <c r="P36" s="51">
         <f>SUM(P23:P32)</f>
-        <v>990</v>
+        <v>1890</v>
       </c>
       <c r="Q36" s="52"/>
-      <c r="R36" s="149" t="s">
+      <c r="R36" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="S36" s="150"/>
+      <c r="S36" s="155"/>
       <c r="T36" s="53">
         <f>SUM(T23:T35)</f>
-        <v>693</v>
-      </c>
-      <c r="U36" s="109"/>
+        <v>1323</v>
+      </c>
+      <c r="U36" s="205"/>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="174"/>
-      <c r="B37" s="166" t="s">
+      <c r="A37" s="137"/>
+      <c r="B37" s="200" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="200" t="s">
+      <c r="D37" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="201"/>
-      <c r="F37" s="201"/>
-      <c r="G37" s="201"/>
-      <c r="H37" s="201"/>
-      <c r="I37" s="201"/>
-      <c r="J37" s="193" t="s">
+      <c r="E37" s="170"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="194"/>
-      <c r="L37" s="194"/>
-      <c r="M37" s="194"/>
-      <c r="N37" s="194"/>
-      <c r="O37" s="194"/>
+      <c r="K37" s="163"/>
+      <c r="L37" s="163"/>
+      <c r="M37" s="163"/>
+      <c r="N37" s="163"/>
+      <c r="O37" s="163"/>
       <c r="P37" s="55">
         <f>SUM(R23:R32)</f>
-        <v>990</v>
+        <v>1890</v>
       </c>
       <c r="Q37" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="149" t="s">
+      <c r="R37" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="S37" s="150"/>
+      <c r="S37" s="155"/>
       <c r="T37" s="56">
         <f>T36*0.16</f>
-        <v>110.88</v>
-      </c>
-      <c r="U37" s="109"/>
+        <v>211.68</v>
+      </c>
+      <c r="U37" s="205"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="174"/>
-      <c r="B38" s="167"/>
+      <c r="A38" s="137"/>
+      <c r="B38" s="201"/>
       <c r="C38" s="57"/>
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
@@ -5016,74 +5052,74 @@
       <c r="O38" s="52"/>
       <c r="P38" s="52"/>
       <c r="Q38" s="52"/>
-      <c r="R38" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="152"/>
+      <c r="R38" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="189"/>
       <c r="T38" s="58">
         <v>0</v>
       </c>
-      <c r="U38" s="109"/>
+      <c r="U38" s="205"/>
     </row>
     <row r="39" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="174"/>
-      <c r="B39" s="167"/>
+      <c r="A39" s="137"/>
+      <c r="B39" s="201"/>
       <c r="C39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="164" t="s">
+      <c r="D39" s="198" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="165"/>
-      <c r="F39" s="165"/>
-      <c r="G39" s="165"/>
-      <c r="H39" s="165"/>
-      <c r="I39" s="165"/>
-      <c r="J39" s="165"/>
-      <c r="K39" s="168"/>
-      <c r="L39" s="169"/>
-      <c r="M39" s="169"/>
-      <c r="N39" s="169"/>
-      <c r="O39" s="169"/>
-      <c r="P39" s="169"/>
-      <c r="Q39" s="170"/>
-      <c r="R39" s="153" t="s">
+      <c r="E39" s="199"/>
+      <c r="F39" s="199"/>
+      <c r="G39" s="199"/>
+      <c r="H39" s="199"/>
+      <c r="I39" s="199"/>
+      <c r="J39" s="199"/>
+      <c r="K39" s="202"/>
+      <c r="L39" s="203"/>
+      <c r="M39" s="203"/>
+      <c r="N39" s="203"/>
+      <c r="O39" s="203"/>
+      <c r="P39" s="203"/>
+      <c r="Q39" s="204"/>
+      <c r="R39" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="S39" s="154"/>
+      <c r="S39" s="191"/>
       <c r="T39" s="59">
         <f>T36+T37+T38</f>
-        <v>803.88</v>
-      </c>
-      <c r="U39" s="109"/>
+        <v>1534.68</v>
+      </c>
+      <c r="U39" s="205"/>
     </row>
     <row r="40" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="174"/>
-      <c r="B40" s="195" t="s">
+      <c r="A40" s="137"/>
+      <c r="B40" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="196"/>
-      <c r="D40" s="197"/>
-      <c r="E40" s="198"/>
-      <c r="F40" s="198"/>
-      <c r="G40" s="198"/>
-      <c r="H40" s="198"/>
-      <c r="I40" s="198"/>
-      <c r="J40" s="198"/>
-      <c r="K40" s="198"/>
-      <c r="L40" s="198"/>
-      <c r="M40" s="198"/>
-      <c r="N40" s="198"/>
-      <c r="O40" s="198"/>
-      <c r="P40" s="198"/>
-      <c r="Q40" s="198"/>
-      <c r="R40" s="198"/>
-      <c r="S40" s="199"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="166"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
+      <c r="G40" s="167"/>
+      <c r="H40" s="167"/>
+      <c r="I40" s="167"/>
+      <c r="J40" s="167"/>
+      <c r="K40" s="167"/>
+      <c r="L40" s="167"/>
+      <c r="M40" s="167"/>
+      <c r="N40" s="167"/>
+      <c r="O40" s="167"/>
+      <c r="P40" s="167"/>
+      <c r="Q40" s="167"/>
+      <c r="R40" s="167"/>
+      <c r="S40" s="168"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="109"/>
+      <c r="U40" s="205"/>
     </row>
     <row r="41" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="174"/>
+      <c r="A41" s="137"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
@@ -5103,108 +5139,162 @@
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
       <c r="T41" s="22"/>
-      <c r="U41" s="109"/>
+      <c r="U41" s="205"/>
     </row>
     <row r="42" spans="1:21" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="174"/>
-      <c r="B42" s="189" t="s">
+      <c r="A42" s="137"/>
+      <c r="B42" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="190"/>
-      <c r="J42" s="190"/>
-      <c r="K42" s="190"/>
-      <c r="L42" s="190"/>
-      <c r="M42" s="190"/>
-      <c r="N42" s="190"/>
-      <c r="O42" s="190"/>
-      <c r="P42" s="190"/>
-      <c r="Q42" s="190"/>
-      <c r="R42" s="190"/>
-      <c r="S42" s="190"/>
-      <c r="T42" s="191"/>
-      <c r="U42" s="109"/>
+      <c r="C42" s="159"/>
+      <c r="D42" s="159"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="159"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="159"/>
+      <c r="I42" s="159"/>
+      <c r="J42" s="159"/>
+      <c r="K42" s="159"/>
+      <c r="L42" s="159"/>
+      <c r="M42" s="159"/>
+      <c r="N42" s="159"/>
+      <c r="O42" s="159"/>
+      <c r="P42" s="159"/>
+      <c r="Q42" s="159"/>
+      <c r="R42" s="159"/>
+      <c r="S42" s="159"/>
+      <c r="T42" s="160"/>
+      <c r="U42" s="205"/>
     </row>
     <row r="43" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="175"/>
-      <c r="B43" s="110" t="s">
+      <c r="A43" s="138"/>
+      <c r="B43" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="111"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="161"/>
-      <c r="F43" s="162"/>
-      <c r="G43" s="162"/>
-      <c r="H43" s="162"/>
-      <c r="I43" s="162"/>
-      <c r="J43" s="162"/>
-      <c r="K43" s="162"/>
-      <c r="L43" s="162"/>
-      <c r="M43" s="162"/>
-      <c r="N43" s="162"/>
-      <c r="O43" s="162"/>
-      <c r="P43" s="162"/>
-      <c r="Q43" s="162"/>
-      <c r="R43" s="162"/>
-      <c r="S43" s="162"/>
-      <c r="T43" s="163"/>
-      <c r="U43" s="109"/>
+      <c r="C43" s="207"/>
+      <c r="D43" s="208"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="152"/>
+      <c r="L43" s="152"/>
+      <c r="M43" s="152"/>
+      <c r="N43" s="152"/>
+      <c r="O43" s="152"/>
+      <c r="P43" s="152"/>
+      <c r="Q43" s="152"/>
+      <c r="R43" s="152"/>
+      <c r="S43" s="152"/>
+      <c r="T43" s="153"/>
+      <c r="U43" s="205"/>
     </row>
     <row r="44" spans="1:21" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
-      <c r="B44" s="110" t="s">
+      <c r="B44" s="206" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="161"/>
-      <c r="F44" s="162"/>
-      <c r="G44" s="162"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="162"/>
-      <c r="J44" s="162"/>
-      <c r="K44" s="162"/>
-      <c r="L44" s="162"/>
-      <c r="M44" s="162"/>
-      <c r="N44" s="162"/>
-      <c r="O44" s="162"/>
-      <c r="P44" s="162"/>
-      <c r="Q44" s="162"/>
-      <c r="R44" s="162"/>
-      <c r="S44" s="162"/>
-      <c r="T44" s="163"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="207"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="152"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="152"/>
+      <c r="K44" s="152"/>
+      <c r="L44" s="152"/>
+      <c r="M44" s="152"/>
+      <c r="N44" s="152"/>
+      <c r="O44" s="152"/>
+      <c r="P44" s="152"/>
+      <c r="Q44" s="152"/>
+      <c r="R44" s="152"/>
+      <c r="S44" s="152"/>
+      <c r="T44" s="153"/>
       <c r="U44" s="33"/>
     </row>
     <row r="45" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="133"/>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134"/>
-      <c r="G45" s="134"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="134"/>
-      <c r="J45" s="134"/>
-      <c r="K45" s="134"/>
-      <c r="L45" s="134"/>
-      <c r="M45" s="134"/>
-      <c r="N45" s="134"/>
-      <c r="O45" s="134"/>
-      <c r="P45" s="134"/>
-      <c r="Q45" s="134"/>
-      <c r="R45" s="134"/>
-      <c r="S45" s="134"/>
-      <c r="T45" s="134"/>
-      <c r="U45" s="135"/>
+      <c r="A45" s="171"/>
+      <c r="B45" s="172"/>
+      <c r="C45" s="172"/>
+      <c r="D45" s="172"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="172"/>
+      <c r="G45" s="172"/>
+      <c r="H45" s="172"/>
+      <c r="I45" s="172"/>
+      <c r="J45" s="172"/>
+      <c r="K45" s="172"/>
+      <c r="L45" s="172"/>
+      <c r="M45" s="172"/>
+      <c r="N45" s="172"/>
+      <c r="O45" s="172"/>
+      <c r="P45" s="172"/>
+      <c r="Q45" s="172"/>
+      <c r="R45" s="172"/>
+      <c r="S45" s="172"/>
+      <c r="T45" s="172"/>
+      <c r="U45" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="U2:U43"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B15:T15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="E44:T44"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B16:T16"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="B18:T18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B42:T42"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:S40"/>
+    <mergeCell ref="D37:I37"/>
     <mergeCell ref="B4:T4"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="L3:T3"/>
@@ -5221,60 +5311,6 @@
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="E11:O11"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B16:T16"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="B18:T18"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B42:T42"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:S40"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B15:T15"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="E44:T44"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="U2:U43"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="P11:R11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
